--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D810F71-B1BA-4D87-B8F7-62FDA797C32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E57303-A89A-414D-84B3-546B05ECB6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="1324">
   <si>
     <t>Subs</t>
   </si>
@@ -2435,9 +2435,6 @@
     <t>Tyler Bell</t>
   </si>
   <si>
-    <t>BahARTS</t>
-  </si>
-  <si>
     <t>Honorary</t>
   </si>
   <si>
@@ -3435,6 +3432,603 @@
   </si>
   <si>
     <t>Jane Kelly OAS</t>
+  </si>
+  <si>
+    <t>ch_3QtqaqL2mw6tzYKU1jwHykCN</t>
+  </si>
+  <si>
+    <t>Entry ID: 2198, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QtqegL2mw6tzYKUvptrnHJ5</t>
+  </si>
+  <si>
+    <t>po_1Quk48L2mw6tzYKUiiE6EwLR</t>
+  </si>
+  <si>
+    <t>ch_3QuDdeL2mw6tzYKU0ug5Mh2a</t>
+  </si>
+  <si>
+    <t>Entry ID: 2199, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QuDddL2mw6tzYKUXzXVRp1R</t>
+  </si>
+  <si>
+    <t>po_1QvpR6L2mw6tzYKUsyqewL0X</t>
+  </si>
+  <si>
+    <t>ch_3QuHHZL2mw6tzYKU0dVNHrU2</t>
+  </si>
+  <si>
+    <t>Entry ID: 2200, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QuHHYL2mw6tzYKURf3bzHHn</t>
+  </si>
+  <si>
+    <t>requires_confirmation</t>
+  </si>
+  <si>
+    <t>ch_3QuXzOL2mw6tzYKU0CX3daha</t>
+  </si>
+  <si>
+    <t>Entry ID: 2201, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QuXzNL2mw6tzYKU3D74qoJN</t>
+  </si>
+  <si>
+    <t>po_1QwBoeL2mw6tzYKUDOhcNXou</t>
+  </si>
+  <si>
+    <t>ch_3QuYBVL2mw6tzYKU00BOQdxN</t>
+  </si>
+  <si>
+    <t>Entry ID: 2202, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QuYBUL2mw6tzYKUbWvJWtfS</t>
+  </si>
+  <si>
+    <t>ch_3QuYE5L2mw6tzYKU0nl6Xs6i</t>
+  </si>
+  <si>
+    <t>Entry ID: 2203, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QuYE5L2mw6tzYKUuVoD2ZjK</t>
+  </si>
+  <si>
+    <t>ch_3QubeZL2mw6tzYKU02ro1PUN</t>
+  </si>
+  <si>
+    <t>Entry ID: 2204, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QubeYL2mw6tzYKUrwiUd73f</t>
+  </si>
+  <si>
+    <t>ch_3QuyRML2mw6tzYKU0r6eVxf4</t>
+  </si>
+  <si>
+    <t>Entry ID: 2205, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QuyTBL2mw6tzYKUmLNf6bQc</t>
+  </si>
+  <si>
+    <t>po_1QwYUtL2mw6tzYKUg8CJleDw</t>
+  </si>
+  <si>
+    <t>ch_3QvdyaL2mw6tzYKU03ZCDmCR</t>
+  </si>
+  <si>
+    <t>Entry ID: 2206, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QvdyYL2mw6tzYKUQsHvgGOv</t>
+  </si>
+  <si>
+    <t>po_1QwuZaL2mw6tzYKUo6F45D7r</t>
+  </si>
+  <si>
+    <t>ch_3QvkSWL2mw6tzYKU1TNyA3kd</t>
+  </si>
+  <si>
+    <t>Entry ID: 2207, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QvkSVL2mw6tzYKUBbR1FI2b</t>
+  </si>
+  <si>
+    <t>ch_3QvzhlL2mw6tzYKU1S7el2jE</t>
+  </si>
+  <si>
+    <t>Entry ID: 2208, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QvzhkL2mw6tzYKUjMz6ScCf</t>
+  </si>
+  <si>
+    <t>ch_3QvzurL2mw6tzYKU1ilcdDMK</t>
+  </si>
+  <si>
+    <t>Entry ID: 2209, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QvzwtL2mw6tzYKUppubyCiy</t>
+  </si>
+  <si>
+    <t>ch_3Qw2RJL2mw6tzYKU1LTiONLD</t>
+  </si>
+  <si>
+    <t>Entry ID: 2210, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Qw2WdL2mw6tzYKUSOKTNATl</t>
+  </si>
+  <si>
+    <t>ch_3QwVkmL2mw6tzYKU0utf65zb</t>
+  </si>
+  <si>
+    <t>Entry ID: 2211, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QwVpTL2mw6tzYKUAqg12BvB</t>
+  </si>
+  <si>
+    <t>po_1QxH7xL2mw6tzYKUsi3uoglA</t>
+  </si>
+  <si>
+    <t>ch_3QwiN5L2mw6tzYKU0LwjqPW4</t>
+  </si>
+  <si>
+    <t>Entry ID: 2212, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QwiN4L2mw6tzYKUnf6R8GIu</t>
+  </si>
+  <si>
+    <t>po_1QyMkqL2mw6tzYKUABVdaTL7</t>
+  </si>
+  <si>
+    <t>ch_3Qwih6L2mw6tzYKU1ohRIlRz</t>
+  </si>
+  <si>
+    <t>Entry ID: 2213, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Qwih5L2mw6tzYKUcUh6VFzi</t>
+  </si>
+  <si>
+    <t>ch_3QwmQVL2mw6tzYKU0zmf2I1s</t>
+  </si>
+  <si>
+    <t>Entry ID: 2214, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QwmQUL2mw6tzYKUV7c8rGa0</t>
+  </si>
+  <si>
+    <t>ch_3QwsSuL2mw6tzYKU0V96juW7</t>
+  </si>
+  <si>
+    <t>Entry ID: 2215, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QwsStL2mw6tzYKU0kTPrgB5</t>
+  </si>
+  <si>
+    <t>ch_3Qx6kQL2mw6tzYKU1bnehM6k</t>
+  </si>
+  <si>
+    <t>Entry ID: 2216, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Qx6kPL2mw6tzYKUIVte33LA</t>
+  </si>
+  <si>
+    <t>po_1QyjEoL2mw6tzYKUq4rZcZ2F</t>
+  </si>
+  <si>
+    <t>ch_3QxCYwL2mw6tzYKU0b6nZK9l</t>
+  </si>
+  <si>
+    <t>Entry ID: 2217, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QxCYvL2mw6tzYKUUpax9Gw4</t>
+  </si>
+  <si>
+    <t>ch_3Qxld1L2mw6tzYKU0KkQc04c</t>
+  </si>
+  <si>
+    <t>Entry ID: 2218, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Qxld0L2mw6tzYKUXoUe7XjN</t>
+  </si>
+  <si>
+    <t>ch_3QxriWL2mw6tzYKU12ho5J0v</t>
+  </si>
+  <si>
+    <t>Entry ID: 2219, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QxriVL2mw6tzYKUsZhpWgAk</t>
+  </si>
+  <si>
+    <t>ch_3QxwLyL2mw6tzYKU1L0YaSmp</t>
+  </si>
+  <si>
+    <t>Entry ID: 2220, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QxwLxL2mw6tzYKUQOagcphO</t>
+  </si>
+  <si>
+    <t>ch_3QxwRmL2mw6tzYKU0pVhbqvg</t>
+  </si>
+  <si>
+    <t>Entry ID: 2221, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QxwRlL2mw6tzYKUH21TiIhP</t>
+  </si>
+  <si>
+    <t>ch_3QyAzTL2mw6tzYKU0j5xNW1x</t>
+  </si>
+  <si>
+    <t>Entry ID: 2222, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyAzSL2mw6tzYKUzecREcUf</t>
+  </si>
+  <si>
+    <t>ch_3QyBhiL2mw6tzYKU14USs2iX</t>
+  </si>
+  <si>
+    <t>Entry ID: 2223, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyBu0L2mw6tzYKUVocNLubT</t>
+  </si>
+  <si>
+    <t>ch_3QyC7IL2mw6tzYKU0LhwA1by</t>
+  </si>
+  <si>
+    <t>Entry ID: 2224, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyC90L2mw6tzYKUVeYxcyXM</t>
+  </si>
+  <si>
+    <t>ch_3QyCpfL2mw6tzYKU1G33e8DM</t>
+  </si>
+  <si>
+    <t>Entry ID: 2225, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyCpeL2mw6tzYKUnW4DTIDv</t>
+  </si>
+  <si>
+    <t>ch_3QyFNFL2mw6tzYKU1LBsE4yL</t>
+  </si>
+  <si>
+    <t>Entry ID: 2226, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QyFTqL2mw6tzYKUunEIo4OC</t>
+  </si>
+  <si>
+    <t>ch_3QyFTZL2mw6tzYKU1bcxAPuB</t>
+  </si>
+  <si>
+    <t>Entry ID: 2227, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyFY4L2mw6tzYKUb8ejm5A5</t>
+  </si>
+  <si>
+    <t>ch_3QyGyLL2mw6tzYKU1oW2fNhu</t>
+  </si>
+  <si>
+    <t>Entry ID: 2228, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyH37L2mw6tzYKUMfNkr8tN</t>
+  </si>
+  <si>
+    <t>ch_3QyHlEL2mw6tzYKU1uEl3Y47</t>
+  </si>
+  <si>
+    <t>Entry ID: 2229, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyHlDL2mw6tzYKUnlhpKNvj</t>
+  </si>
+  <si>
+    <t>ch_3QyWm1L2mw6tzYKU0VLBW9SJ</t>
+  </si>
+  <si>
+    <t>Entry ID: 2230, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyWm0L2mw6tzYKUaiKPngCV</t>
+  </si>
+  <si>
+    <t>ch_3QyXBvL2mw6tzYKU0YMxz3Rl</t>
+  </si>
+  <si>
+    <t>Entry ID: 2231, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QyXBuL2mw6tzYKUZznEIxlC</t>
+  </si>
+  <si>
+    <t>ch_3QyXttL2mw6tzYKU093sLIoZ</t>
+  </si>
+  <si>
+    <t>Entry ID: 2232, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QyXtsL2mw6tzYKUSaebm351</t>
+  </si>
+  <si>
+    <t>ch_3QyZKeL2mw6tzYKU12aMhITU</t>
+  </si>
+  <si>
+    <t>Entry ID: 2233, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyZKdL2mw6tzYKUwF7mcH2W</t>
+  </si>
+  <si>
+    <t>ch_3QyZtxL2mw6tzYKU1VGQiddV</t>
+  </si>
+  <si>
+    <t>Entry ID: 2234, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Qya4XL2mw6tzYKU5Ul7YQku</t>
+  </si>
+  <si>
+    <t>ch_3QyaSGL2mw6tzYKU0N010RrW</t>
+  </si>
+  <si>
+    <t>Entry ID: 2235, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QyaSFL2mw6tzYKUw4k6IfQj</t>
+  </si>
+  <si>
+    <t>ch_3Qyb66L2mw6tzYKU0QZQit3K</t>
+  </si>
+  <si>
+    <t>Entry ID: 2240, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Qyb65L2mw6tzYKU1hQXapUP</t>
+  </si>
+  <si>
+    <t>ch_3Qyb66L2mw6tzYKU0t4LnseB</t>
+  </si>
+  <si>
+    <t>pm_1Qyb83L2mw6tzYKUcji5GYln</t>
+  </si>
+  <si>
+    <t>ch_3QybIsL2mw6tzYKU0sJH7RQa</t>
+  </si>
+  <si>
+    <t>Entry ID: 2237, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QybIrL2mw6tzYKU9RRYdXZz</t>
+  </si>
+  <si>
+    <t>ch_3Qyc8zL2mw6tzYKU1EnJ1SaV</t>
+  </si>
+  <si>
+    <t>Entry ID: 2238, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Qyc8yL2mw6tzYKUBJ2QHgky</t>
+  </si>
+  <si>
+    <t>ch_3QydQDL2mw6tzYKU1fTRlvq5</t>
+  </si>
+  <si>
+    <t>Entry ID: 2239, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QydQCL2mw6tzYKUHn6fKloR</t>
+  </si>
+  <si>
+    <t>ch_3QywvAL2mw6tzYKU1WFvGyhh</t>
+  </si>
+  <si>
+    <t>Entry ID: 2241, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Qywv9L2mw6tzYKUSAZDt964</t>
+  </si>
+  <si>
+    <t>ch_3Qyy4aL2mw6tzYKU0kJhJHRp</t>
+  </si>
+  <si>
+    <t>Entry ID: 2242, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Qyy4ZL2mw6tzYKUlEhCtRb2</t>
+  </si>
+  <si>
+    <t>ch_3Qz2VZL2mw6tzYKU0ScpvKwe</t>
+  </si>
+  <si>
+    <t>Entry ID: 2243, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Qz2VYL2mw6tzYKUbHAXWqrE</t>
+  </si>
+  <si>
+    <t>ch_3QzEZCL2mw6tzYKU053XRREo</t>
+  </si>
+  <si>
+    <t>Entry ID: 2244, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QzEacL2mw6tzYKUam71HDIc</t>
+  </si>
+  <si>
+    <t>ch_3QzHIOL2mw6tzYKU1ZeZXP8G</t>
+  </si>
+  <si>
+    <t>Entry ID: 2245, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QzHINL2mw6tzYKUoMIxiKos</t>
+  </si>
+  <si>
+    <t>ch_3QzHckL2mw6tzYKU0T1YWNDE</t>
+  </si>
+  <si>
+    <t>Entry ID: 2246, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QzHciL2mw6tzYKU0uPKehxc</t>
+  </si>
+  <si>
+    <t>ch_3QzILGL2mw6tzYKU1EHrxnYr</t>
+  </si>
+  <si>
+    <t>Entry ID: 2247, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QzILFL2mw6tzYKU7kWkIwWd</t>
+  </si>
+  <si>
+    <t>ch_3QzKBXL2mw6tzYKU1fPH7CKx</t>
+  </si>
+  <si>
+    <t>Entry ID: 2248, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QzKE6L2mw6tzYKULhNFYhxz</t>
+  </si>
+  <si>
+    <t>ch_3QzLLIL2mw6tzYKU1z3k8tWB</t>
+  </si>
+  <si>
+    <t>Entry ID: 2249, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QzLLHL2mw6tzYKUTDIoYa2K</t>
+  </si>
+  <si>
+    <t>ch_3QzPEpL2mw6tzYKU08ONLQxp</t>
+  </si>
+  <si>
+    <t>Entry ID: 2250, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QzPEoL2mw6tzYKUeXYlasBQ</t>
+  </si>
+  <si>
+    <t>ch_3QzPvgL2mw6tzYKU0i89ssBC</t>
+  </si>
+  <si>
+    <t>Entry ID: 2251, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QzPvfL2mw6tzYKU6A7IfLxD</t>
+  </si>
+  <si>
+    <t>ch_3Qzax6L2mw6tzYKU0YF9YcV9</t>
+  </si>
+  <si>
+    <t>Entry ID: 2252, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Qzax5L2mw6tzYKUvnnZk2di</t>
+  </si>
+  <si>
+    <t>ch_3QzcymL2mw6tzYKU0cfQxDje</t>
+  </si>
+  <si>
+    <t>Entry ID: 2253, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1QzcymL2mw6tzYKUYP3ZwXzr</t>
+  </si>
+  <si>
+    <t>ch_3Qzcz0L2mw6tzYKU0ClFsVg5</t>
+  </si>
+  <si>
+    <t>try_again_later</t>
+  </si>
+  <si>
+    <t>The bank returned the decline code `try_again_later`.</t>
+  </si>
+  <si>
+    <t>pm_1QzcyzL2mw6tzYKUxl9rFVEQ</t>
+  </si>
+  <si>
+    <t>ch_3Qzcz0L2mw6tzYKU0O2OgnOK</t>
+  </si>
+  <si>
+    <t>pm_1Qzd8OL2mw6tzYKUSTsrlkiG</t>
+  </si>
+  <si>
+    <t>ch_3QzfiSL2mw6tzYKU0fBDnVxP</t>
+  </si>
+  <si>
+    <t>Entry ID: 2254, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1QzfiRL2mw6tzYKUnMS7h6Yo</t>
+  </si>
+  <si>
+    <t>ch_3Qzg3ZL2mw6tzYKU1uUfGJtE</t>
+  </si>
+  <si>
+    <t>Entry ID: 2255, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Qzg3YL2mw6tzYKU0Ed0I0rB</t>
+  </si>
+  <si>
+    <t>Fergus Laidlaw Fergus Laidlaw</t>
+  </si>
+  <si>
+    <t>LAIDLAW ACH A LAIDLAW MEMBER</t>
+  </si>
+  <si>
+    <t>Fergus</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Mark Clay OAS</t>
+  </si>
+  <si>
+    <t>FULLJAMES PAC Submission Members</t>
+  </si>
+  <si>
+    <t>J Morgan Jeremy M - entry</t>
+  </si>
+  <si>
+    <t>Bahar</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>DUFF BJ B.JANE DUFF mem</t>
+  </si>
+  <si>
+    <t>Duff</t>
   </si>
 </sst>
 </file>
@@ -3654,13 +4248,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45722.408410069445" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="245" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45727.513467824072" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="254" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I401" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-07T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-12T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3675,7 +4269,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="586.42999999999995"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="11555.190000000006"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="11981.990000000005"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems containsBlank="1" count="15">
@@ -3712,13 +4306,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45722.408501620368" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="245" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45727.513527777781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="254" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I504" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-07T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-12T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3733,7 +4327,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="586.42999999999995"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="11555.190000000006"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="11981.990000000005"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems containsBlank="1" count="28">
@@ -3787,7 +4381,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="245">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="254">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -6473,6 +7067,105 @@
     <m/>
   </r>
   <r>
+    <d v="2025-03-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Fergus Laidlaw Fergus Laidlaw"/>
+    <m/>
+    <n v="30"/>
+    <n v="11585.190000000006"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="LAIDLAW ACH A LAIDLAW MEMBER"/>
+    <m/>
+    <n v="30"/>
+    <n v="11615.190000000006"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mark Clay OAS"/>
+    <n v="58.5"/>
+    <m/>
+    <n v="11556.690000000006"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="73.27"/>
+    <n v="11629.960000000006"/>
+    <x v="13"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="FULLJAMES PAC Submission Members"/>
+    <m/>
+    <n v="30"/>
+    <n v="11659.960000000006"/>
+    <x v="13"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="J Morgan Jeremy M - entry"/>
+    <m/>
+    <n v="15"/>
+    <n v="11674.960000000006"/>
+    <x v="13"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="DUFF BJ B.JANE DUFF mem"/>
+    <m/>
+    <n v="30"/>
+    <n v="11704.960000000006"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="145.80000000000001"/>
+    <n v="11850.760000000006"/>
+    <x v="13"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="131.22999999999999"/>
+    <n v="11981.990000000005"/>
+    <x v="13"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -6487,7 +7180,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="245">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="254">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -9168,6 +9861,105 @@
     <m/>
     <n v="586.42999999999995"/>
     <n v="11555.190000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Fergus Laidlaw Fergus Laidlaw"/>
+    <m/>
+    <n v="30"/>
+    <n v="11585.190000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="LAIDLAW ACH A LAIDLAW MEMBER"/>
+    <m/>
+    <n v="30"/>
+    <n v="11615.190000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mark Clay OAS"/>
+    <n v="58.5"/>
+    <m/>
+    <n v="11556.690000000006"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="73.27"/>
+    <n v="11629.960000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="FULLJAMES PAC Submission Members"/>
+    <m/>
+    <n v="30"/>
+    <n v="11659.960000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="J Morgan Jeremy M - entry"/>
+    <m/>
+    <n v="15"/>
+    <n v="11674.960000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="DUFF BJ B.JANE DUFF mem"/>
+    <m/>
+    <n v="30"/>
+    <n v="11704.960000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="145.80000000000001"/>
+    <n v="11850.760000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="131.22999999999999"/>
+    <n v="11981.990000000005"/>
     <x v="13"/>
     <x v="1"/>
     <m/>
@@ -9977,7 +10769,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="32">
         <f>SUMIF('Current account'!G2:G402, "Subs 2025", 'Current account'!E2:E402)</f>
-        <v>6498.8800000000019</v>
+        <v>6588.8800000000019</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18" t="s">
@@ -10058,7 +10850,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="32">
         <f>SUMIF('Current account'!G2:G402,"Admin",'Current account'!D2:D402)+SUMIF('Current account'!G2:G402, "Other expenses", 'Current account'!D2:D402)</f>
-        <v>34.099999999999994</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -10189,7 +10981,7 @@
       </c>
       <c r="C12" s="32">
         <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$3,"Category","Submissions")</f>
-        <v>1301.5999999999997</v>
+        <v>1696.8999999999992</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -10270,7 +11062,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="32">
         <f ca="1">SUM(O4:O13)</f>
-        <v>404.53999999999996</v>
+        <v>463.04</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -10654,11 +11446,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEFBAE9-58F4-4427-A222-4B6D8D551056}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11058,7 +11850,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B7" s="6">
         <v>45660.672118055554</v>
@@ -11097,7 +11889,7 @@
         <v>160</v>
       </c>
       <c r="O7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P7" t="s">
         <v>140</v>
@@ -11106,22 +11898,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
+        <v>929</v>
+      </c>
+      <c r="S7" t="s">
         <v>930</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>931</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>932</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>933</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>934</v>
-      </c>
-      <c r="W7" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -11814,7 +12606,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B19" s="6">
         <v>45671.697002314817</v>
@@ -11853,7 +12645,7 @@
         <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -11862,19 +12654,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
+        <v>923</v>
+      </c>
+      <c r="S19" t="s">
         <v>924</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>925</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>926</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>927</v>
-      </c>
-      <c r="V19" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -11941,7 +12733,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B21" s="6">
         <v>45679.623449074075</v>
@@ -11986,24 +12778,24 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
+        <v>832</v>
+      </c>
+      <c r="S21" t="s">
         <v>833</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>834</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>835</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>836</v>
-      </c>
-      <c r="V21" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B22" s="6">
         <v>45680.486828703702</v>
@@ -12042,7 +12834,7 @@
         <v>160</v>
       </c>
       <c r="O22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P22" t="s">
         <v>140</v>
@@ -12051,24 +12843,24 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
+        <v>839</v>
+      </c>
+      <c r="S22" t="s">
         <v>840</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>841</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>842</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>843</v>
-      </c>
-      <c r="V22" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B23" s="6">
         <v>45680.579618055555</v>
@@ -12107,7 +12899,7 @@
         <v>160</v>
       </c>
       <c r="O23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -12116,24 +12908,24 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
+        <v>845</v>
+      </c>
+      <c r="S23" t="s">
         <v>846</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>847</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>848</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>849</v>
-      </c>
-      <c r="V23" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B24" s="6">
         <v>45680.739166666666</v>
@@ -12172,7 +12964,7 @@
         <v>160</v>
       </c>
       <c r="O24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P24" t="s">
         <v>140</v>
@@ -12181,24 +12973,24 @@
         <v>0</v>
       </c>
       <c r="R24" t="s">
+        <v>851</v>
+      </c>
+      <c r="S24" t="s">
         <v>852</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>853</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>854</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>855</v>
-      </c>
-      <c r="V24" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B25" s="6">
         <v>45680.810081018521</v>
@@ -12243,24 +13035,24 @@
         <v>0</v>
       </c>
       <c r="R25" t="s">
+        <v>857</v>
+      </c>
+      <c r="S25" t="s">
         <v>858</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>859</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>860</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>861</v>
-      </c>
-      <c r="V25" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B26" s="6">
         <v>45681.361909722225</v>
@@ -12299,7 +13091,7 @@
         <v>160</v>
       </c>
       <c r="O26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P26" t="s">
         <v>140</v>
@@ -12308,24 +13100,24 @@
         <v>0</v>
       </c>
       <c r="R26" t="s">
+        <v>863</v>
+      </c>
+      <c r="S26" t="s">
         <v>864</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>865</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>866</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>867</v>
-      </c>
-      <c r="V26" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B27" s="6">
         <v>45681.71707175926</v>
@@ -12364,7 +13156,7 @@
         <v>160</v>
       </c>
       <c r="O27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P27" t="s">
         <v>140</v>
@@ -12373,24 +13165,24 @@
         <v>0</v>
       </c>
       <c r="R27" t="s">
+        <v>869</v>
+      </c>
+      <c r="S27" t="s">
         <v>870</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>871</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>872</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>873</v>
-      </c>
-      <c r="V27" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B28" s="6">
         <v>45681.941701388889</v>
@@ -12429,7 +13221,7 @@
         <v>160</v>
       </c>
       <c r="O28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P28" t="s">
         <v>140</v>
@@ -12438,24 +13230,24 @@
         <v>0</v>
       </c>
       <c r="R28" t="s">
+        <v>875</v>
+      </c>
+      <c r="S28" t="s">
         <v>876</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>877</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>878</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>879</v>
-      </c>
-      <c r="V28" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B29" s="6">
         <v>45682.523240740738</v>
@@ -12494,7 +13286,7 @@
         <v>160</v>
       </c>
       <c r="O29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P29" t="s">
         <v>140</v>
@@ -12503,24 +13295,24 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
+        <v>881</v>
+      </c>
+      <c r="S29" t="s">
         <v>882</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>883</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>884</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>885</v>
-      </c>
-      <c r="V29" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B30" s="6">
         <v>45682.536990740744</v>
@@ -12559,7 +13351,7 @@
         <v>160</v>
       </c>
       <c r="O30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P30" t="s">
         <v>140</v>
@@ -12568,24 +13360,24 @@
         <v>0</v>
       </c>
       <c r="R30" t="s">
+        <v>887</v>
+      </c>
+      <c r="S30" t="s">
         <v>888</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>889</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>890</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>891</v>
-      </c>
-      <c r="V30" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B31" s="6">
         <v>45682.547627314816</v>
@@ -12624,7 +13416,7 @@
         <v>160</v>
       </c>
       <c r="O31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P31" t="s">
         <v>140</v>
@@ -12633,24 +13425,24 @@
         <v>0</v>
       </c>
       <c r="R31" t="s">
+        <v>893</v>
+      </c>
+      <c r="S31" t="s">
         <v>894</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>895</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>896</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>897</v>
-      </c>
-      <c r="V31" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B32" s="6">
         <v>45682.747719907406</v>
@@ -12689,7 +13481,7 @@
         <v>160</v>
       </c>
       <c r="O32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P32" t="s">
         <v>140</v>
@@ -12698,24 +13490,24 @@
         <v>0</v>
       </c>
       <c r="R32" t="s">
+        <v>899</v>
+      </c>
+      <c r="S32" t="s">
         <v>900</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>901</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>902</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>903</v>
-      </c>
-      <c r="V32" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B33" s="6">
         <v>45683.49927083333</v>
@@ -12754,7 +13546,7 @@
         <v>160</v>
       </c>
       <c r="O33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P33" t="s">
         <v>140</v>
@@ -12763,24 +13555,24 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
+        <v>905</v>
+      </c>
+      <c r="S33" t="s">
         <v>906</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>907</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>908</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>909</v>
-      </c>
-      <c r="V33" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B34" s="6">
         <v>45683.579768518517</v>
@@ -12819,7 +13611,7 @@
         <v>160</v>
       </c>
       <c r="O34" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P34" t="s">
         <v>140</v>
@@ -12828,24 +13620,24 @@
         <v>0</v>
       </c>
       <c r="R34" t="s">
+        <v>911</v>
+      </c>
+      <c r="S34" t="s">
         <v>912</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>913</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>914</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>915</v>
-      </c>
-      <c r="V34" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B35" s="6">
         <v>45684.559074074074</v>
@@ -12884,7 +13676,7 @@
         <v>160</v>
       </c>
       <c r="O35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P35" t="s">
         <v>140</v>
@@ -12893,24 +13685,24 @@
         <v>0</v>
       </c>
       <c r="R35" t="s">
+        <v>917</v>
+      </c>
+      <c r="S35" t="s">
         <v>918</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>919</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>920</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>921</v>
-      </c>
-      <c r="V35" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B36" s="6">
         <v>45684.742245370369</v>
@@ -12949,7 +13741,7 @@
         <v>160</v>
       </c>
       <c r="O36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P36" t="s">
         <v>140</v>
@@ -12958,27 +13750,27 @@
         <v>0</v>
       </c>
       <c r="R36" t="s">
+        <v>948</v>
+      </c>
+      <c r="S36" t="s">
         <v>949</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>950</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>951</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>952</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>953</v>
-      </c>
-      <c r="W36" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B37" s="6">
         <v>45684.811400462961</v>
@@ -13005,7 +13797,7 @@
         <v>159</v>
       </c>
       <c r="K37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L37">
         <v>0.86</v>
@@ -13023,27 +13815,27 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
+        <v>956</v>
+      </c>
+      <c r="S37" t="s">
         <v>957</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>958</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>959</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>960</v>
       </c>
-      <c r="V37" t="s">
-        <v>961</v>
-      </c>
       <c r="W37" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B38" s="6">
         <v>45686.778935185182</v>
@@ -13082,7 +13874,7 @@
         <v>160</v>
       </c>
       <c r="O38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P38" t="s">
         <v>140</v>
@@ -13091,24 +13883,24 @@
         <v>0</v>
       </c>
       <c r="R38" t="s">
+        <v>962</v>
+      </c>
+      <c r="S38" t="s">
         <v>963</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>964</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>965</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>966</v>
-      </c>
-      <c r="V38" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B39" s="6">
         <v>45686.806666666664</v>
@@ -13147,7 +13939,7 @@
         <v>160</v>
       </c>
       <c r="O39" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P39" t="s">
         <v>140</v>
@@ -13156,24 +13948,24 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
+        <v>968</v>
+      </c>
+      <c r="S39" t="s">
         <v>969</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>970</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>971</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>972</v>
-      </c>
-      <c r="V39" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B40" s="6">
         <v>45687.944351851853</v>
@@ -13212,7 +14004,7 @@
         <v>160</v>
       </c>
       <c r="O40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P40" t="s">
         <v>140</v>
@@ -13221,24 +14013,24 @@
         <v>0</v>
       </c>
       <c r="R40" t="s">
+        <v>974</v>
+      </c>
+      <c r="S40" t="s">
         <v>975</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>976</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>977</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>978</v>
-      </c>
-      <c r="V40" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B41" s="6">
         <v>45688.778715277775</v>
@@ -13265,7 +14057,7 @@
         <v>159</v>
       </c>
       <c r="K41" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L41">
         <v>0.23</v>
@@ -13283,12 +14075,12 @@
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B42" s="6">
         <v>45689.397719907407</v>
@@ -13327,7 +14119,7 @@
         <v>160</v>
       </c>
       <c r="O42" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P42" t="s">
         <v>140</v>
@@ -13336,27 +14128,27 @@
         <v>0</v>
       </c>
       <c r="R42" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S42" t="s">
         <v>1012</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>1013</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>1014</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>1015</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>1016</v>
-      </c>
-      <c r="W42" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B43" s="6">
         <v>45689.558310185188</v>
@@ -13383,7 +14175,7 @@
         <v>159</v>
       </c>
       <c r="K43" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L43">
         <v>0.95</v>
@@ -13401,27 +14193,27 @@
         <v>0</v>
       </c>
       <c r="R43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S43" t="s">
         <v>1020</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>1021</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>1022</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>1023</v>
       </c>
-      <c r="V43" t="s">
-        <v>1024</v>
-      </c>
       <c r="W43" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B44" s="6">
         <v>45689.643842592595</v>
@@ -13460,7 +14252,7 @@
         <v>160</v>
       </c>
       <c r="O44" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P44" t="s">
         <v>140</v>
@@ -13469,27 +14261,27 @@
         <v>0</v>
       </c>
       <c r="R44" t="s">
+        <v>1025</v>
+      </c>
+      <c r="S44" t="s">
         <v>1026</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>1027</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>1028</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>1029</v>
       </c>
-      <c r="V44" t="s">
-        <v>1030</v>
-      </c>
       <c r="W44" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B45" s="6">
         <v>45693.907986111109</v>
@@ -13516,7 +14308,7 @@
         <v>159</v>
       </c>
       <c r="K45" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L45">
         <v>0.23</v>
@@ -13534,15 +14326,15 @@
         <v>0</v>
       </c>
       <c r="R45" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W45" t="s">
         <v>1033</v>
-      </c>
-      <c r="W45" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B46" s="6">
         <v>45697.455231481479</v>
@@ -13569,10 +14361,10 @@
         <v>159</v>
       </c>
       <c r="J46" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K46" t="s">
         <v>1036</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1037</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -13581,33 +14373,33 @@
         <v>160</v>
       </c>
       <c r="O46" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P46" t="s">
         <v>1038</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
         <v>1039</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>1040</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>1041</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>1042</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>1043</v>
-      </c>
-      <c r="V46" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B47" s="6">
         <v>45697.532916666663</v>
@@ -13634,7 +14426,7 @@
         <v>159</v>
       </c>
       <c r="K47" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L47">
         <v>0.86</v>
@@ -13652,24 +14444,24 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="S47" t="s">
+        <v>1040</v>
+      </c>
+      <c r="T47" t="s">
         <v>1041</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>1042</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>1043</v>
-      </c>
-      <c r="V47" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B48" s="6">
         <v>45697.676296296297</v>
@@ -13696,7 +14488,7 @@
         <v>159</v>
       </c>
       <c r="K48" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L48">
         <v>0.95</v>
@@ -13714,24 +14506,24 @@
         <v>0</v>
       </c>
       <c r="R48" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S48" t="s">
         <v>1049</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>1050</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>1051</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>1052</v>
       </c>
-      <c r="V48" t="s">
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>1053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1054</v>
       </c>
       <c r="B49" s="6">
         <v>45698.506944444445</v>
@@ -13758,7 +14550,7 @@
         <v>159</v>
       </c>
       <c r="K49" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L49">
         <v>0.43</v>
@@ -13776,12 +14568,12 @@
         <v>0</v>
       </c>
       <c r="R49" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>1056</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1057</v>
       </c>
       <c r="B50" s="6">
         <v>45700.939618055556</v>
@@ -13826,24 +14618,24 @@
         <v>0</v>
       </c>
       <c r="R50" t="s">
+        <v>1057</v>
+      </c>
+      <c r="S50" t="s">
         <v>1058</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>1059</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>1060</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>1061</v>
       </c>
-      <c r="V50" t="s">
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>1062</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1063</v>
       </c>
       <c r="B51" s="6">
         <v>45701.006574074076</v>
@@ -13870,7 +14662,7 @@
         <v>159</v>
       </c>
       <c r="K51" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="L51">
         <v>0.38</v>
@@ -13888,12 +14680,12 @@
         <v>0</v>
       </c>
       <c r="R51" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>1065</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1066</v>
       </c>
       <c r="B52" s="6">
         <v>45701.411759259259</v>
@@ -13920,7 +14712,7 @@
         <v>159</v>
       </c>
       <c r="K52" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L52">
         <v>0.43</v>
@@ -13938,12 +14730,12 @@
         <v>0</v>
       </c>
       <c r="R52" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>1068</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1069</v>
       </c>
       <c r="B53" s="6">
         <v>45701.612534722219</v>
@@ -13970,7 +14762,7 @@
         <v>159</v>
       </c>
       <c r="K53" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L53">
         <v>0.43</v>
@@ -13988,12 +14780,12 @@
         <v>0</v>
       </c>
       <c r="R53" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>1071</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1072</v>
       </c>
       <c r="B54" s="6">
         <v>45701.688391203701</v>
@@ -14020,7 +14812,7 @@
         <v>159</v>
       </c>
       <c r="K54" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="L54">
         <v>0.65</v>
@@ -14038,12 +14830,12 @@
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B55" s="6">
         <v>45701.751886574071</v>
@@ -14070,7 +14862,7 @@
         <v>159</v>
       </c>
       <c r="K55" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="L55">
         <v>0.43</v>
@@ -14088,12 +14880,12 @@
         <v>0</v>
       </c>
       <c r="R55" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>1082</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1083</v>
       </c>
       <c r="B56" s="6">
         <v>45701.919340277775</v>
@@ -14138,24 +14930,24 @@
         <v>0</v>
       </c>
       <c r="R56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S56" t="s">
         <v>1084</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>1085</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>1086</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>1087</v>
       </c>
-      <c r="V56" t="s">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>1088</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1089</v>
       </c>
       <c r="B57" s="6">
         <v>45702.628217592595</v>
@@ -14182,7 +14974,7 @@
         <v>159</v>
       </c>
       <c r="K57" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="L57">
         <v>0.43</v>
@@ -14200,12 +14992,12 @@
         <v>0</v>
       </c>
       <c r="R57" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>1091</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1092</v>
       </c>
       <c r="B58" s="6">
         <v>45703.724027777775</v>
@@ -14232,7 +15024,7 @@
         <v>159</v>
       </c>
       <c r="K58" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="L58">
         <v>0.65</v>
@@ -14250,12 +15042,12 @@
         <v>0</v>
       </c>
       <c r="R58" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>1094</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1095</v>
       </c>
       <c r="B59" s="6">
         <v>45704.703634259262</v>
@@ -14282,7 +15074,7 @@
         <v>159</v>
       </c>
       <c r="K59" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L59">
         <v>0.65</v>
@@ -14300,12 +15092,12 @@
         <v>0</v>
       </c>
       <c r="R59" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>1097</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1098</v>
       </c>
       <c r="B60" s="6">
         <v>45704.747974537036</v>
@@ -14332,7 +15124,7 @@
         <v>159</v>
       </c>
       <c r="K60" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="L60">
         <v>0.43</v>
@@ -14350,12 +15142,12 @@
         <v>0</v>
       </c>
       <c r="R60" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>1100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1101</v>
       </c>
       <c r="B61" s="6">
         <v>45705.471678240741</v>
@@ -14382,7 +15174,7 @@
         <v>159</v>
       </c>
       <c r="K61" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L61">
         <v>0.43</v>
@@ -14400,12 +15192,12 @@
         <v>0</v>
       </c>
       <c r="R61" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>1103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1104</v>
       </c>
       <c r="B62" s="6">
         <v>45705.715486111112</v>
@@ -14432,7 +15224,7 @@
         <v>159</v>
       </c>
       <c r="K62" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="L62">
         <v>0.38</v>
@@ -14450,12 +15242,12 @@
         <v>0</v>
       </c>
       <c r="R62" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>1106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1107</v>
       </c>
       <c r="B63" s="6">
         <v>45705.761550925927</v>
@@ -14482,7 +15274,7 @@
         <v>159</v>
       </c>
       <c r="K63" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="L63">
         <v>0.65</v>
@@ -14500,7 +15292,3325 @@
         <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>1109</v>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B64" s="6">
+        <v>45706.552881944444</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>159</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L64">
+        <v>0.43</v>
+      </c>
+      <c r="N64" t="s">
+        <v>160</v>
+      </c>
+      <c r="O64" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>1127</v>
+      </c>
+      <c r="W64" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B65" s="6">
+        <v>45707.575567129628</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>15</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>159</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L65">
+        <v>0.43</v>
+      </c>
+      <c r="N65" t="s">
+        <v>160</v>
+      </c>
+      <c r="O65" t="s">
+        <v>139</v>
+      </c>
+      <c r="P65" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W65" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B66" s="6">
+        <v>45707.737546296295</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>30</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>159</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L66">
+        <v>0.77</v>
+      </c>
+      <c r="N66" t="s">
+        <v>160</v>
+      </c>
+      <c r="O66" t="s">
+        <v>139</v>
+      </c>
+      <c r="P66" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W66" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B67" s="6">
+        <v>45707.875289351854</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>159</v>
+      </c>
+      <c r="O67" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B68" s="6">
+        <v>45708.480844907404</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>159</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L68">
+        <v>0.43</v>
+      </c>
+      <c r="N68" t="s">
+        <v>160</v>
+      </c>
+      <c r="O68" t="s">
+        <v>139</v>
+      </c>
+      <c r="P68" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>1139</v>
+      </c>
+      <c r="W68" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B69" s="6">
+        <v>45708.489548611113</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>159</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L69">
+        <v>0.43</v>
+      </c>
+      <c r="N69" t="s">
+        <v>160</v>
+      </c>
+      <c r="O69" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
+        <v>1143</v>
+      </c>
+      <c r="W69" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B70" s="6">
+        <v>45708.491400462961</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>159</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L70">
+        <v>0.43</v>
+      </c>
+      <c r="M70" s="6">
+        <v>45709.456921296296</v>
+      </c>
+      <c r="N70" t="s">
+        <v>160</v>
+      </c>
+      <c r="O70" t="s">
+        <v>838</v>
+      </c>
+      <c r="P70" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>1146</v>
+      </c>
+      <c r="W70" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B71" s="6">
+        <v>45708.632708333331</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>159</v>
+      </c>
+      <c r="O71" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B72" s="6">
+        <v>45708.634942129633</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>159</v>
+      </c>
+      <c r="O72" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B73" s="6">
+        <v>45708.643888888888</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>159</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L73">
+        <v>0.43</v>
+      </c>
+      <c r="N73" t="s">
+        <v>160</v>
+      </c>
+      <c r="O73" t="s">
+        <v>139</v>
+      </c>
+      <c r="P73" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1149</v>
+      </c>
+      <c r="W73" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B74" s="6">
+        <v>45709.63858796296</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>159</v>
+      </c>
+      <c r="O74" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B75" s="6">
+        <v>45709.65896990741</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>159</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L75">
+        <v>0.43</v>
+      </c>
+      <c r="N75" t="s">
+        <v>160</v>
+      </c>
+      <c r="O75" t="s">
+        <v>139</v>
+      </c>
+      <c r="P75" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1152</v>
+      </c>
+      <c r="W75" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B76" s="6">
+        <v>45709.666655092595</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>159</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B77" s="6">
+        <v>45711.505648148152</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>30</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>159</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L77">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N77" t="s">
+        <v>160</v>
+      </c>
+      <c r="O77" t="s">
+        <v>139</v>
+      </c>
+      <c r="P77" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
+        <v>1156</v>
+      </c>
+      <c r="W77" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B78" s="6">
+        <v>45711.794074074074</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>159</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L78">
+        <v>0.65</v>
+      </c>
+      <c r="N78" t="s">
+        <v>160</v>
+      </c>
+      <c r="O78" t="s">
+        <v>139</v>
+      </c>
+      <c r="P78" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1160</v>
+      </c>
+      <c r="W78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B79" s="6">
+        <v>45712.470208333332</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="E79" t="s">
+        <v>159</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B80" s="6">
+        <v>45712.472349537034</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>159</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L80">
+        <v>0.38</v>
+      </c>
+      <c r="N80" t="s">
+        <v>160</v>
+      </c>
+      <c r="O80" t="s">
+        <v>139</v>
+      </c>
+      <c r="P80" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1163</v>
+      </c>
+      <c r="W80" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
+        <v>45712.472881944443</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s">
+        <v>159</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B82" s="6">
+        <v>45712.483229166668</v>
+      </c>
+      <c r="C82">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>30</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>159</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L82">
+        <v>0.65</v>
+      </c>
+      <c r="N82" t="s">
+        <v>160</v>
+      </c>
+      <c r="O82" t="s">
+        <v>139</v>
+      </c>
+      <c r="P82" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1166</v>
+      </c>
+      <c r="W82" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B83" s="6">
+        <v>45712.492199074077</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>159</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B84" s="6">
+        <v>45712.597858796296</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>30</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>159</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L84">
+        <v>0.65</v>
+      </c>
+      <c r="N84" t="s">
+        <v>160</v>
+      </c>
+      <c r="O84" t="s">
+        <v>139</v>
+      </c>
+      <c r="P84" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1169</v>
+      </c>
+      <c r="W84" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B85" s="6">
+        <v>45713.901597222219</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>159</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>30</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>159</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L85">
+        <v>0.65</v>
+      </c>
+      <c r="N85" t="s">
+        <v>160</v>
+      </c>
+      <c r="O85" t="s">
+        <v>139</v>
+      </c>
+      <c r="P85" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1172</v>
+      </c>
+      <c r="W85" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B86" s="6">
+        <v>45714.459606481483</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>159</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L86">
+        <v>0.43</v>
+      </c>
+      <c r="N86" t="s">
+        <v>160</v>
+      </c>
+      <c r="O86" t="s">
+        <v>139</v>
+      </c>
+      <c r="P86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1176</v>
+      </c>
+      <c r="W86" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B87" s="6">
+        <v>45714.473969907405</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>159</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L87">
+        <v>0.43</v>
+      </c>
+      <c r="N87" t="s">
+        <v>160</v>
+      </c>
+      <c r="O87" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1180</v>
+      </c>
+      <c r="W87" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B88" s="6">
+        <v>45714.64</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>15</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>159</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L88">
+        <v>0.49</v>
+      </c>
+      <c r="N88" t="s">
+        <v>160</v>
+      </c>
+      <c r="O88" t="s">
+        <v>139</v>
+      </c>
+      <c r="P88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
+        <v>1183</v>
+      </c>
+      <c r="W88" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B89" s="6">
+        <v>45714.908703703702</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>30</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>159</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L89">
+        <v>0.65</v>
+      </c>
+      <c r="N89" t="s">
+        <v>160</v>
+      </c>
+      <c r="O89" t="s">
+        <v>139</v>
+      </c>
+      <c r="P89" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" t="s">
+        <v>1186</v>
+      </c>
+      <c r="W89" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B90" s="6">
+        <v>45715.544131944444</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>159</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L90">
+        <v>0.43</v>
+      </c>
+      <c r="N90" t="s">
+        <v>160</v>
+      </c>
+      <c r="O90" t="s">
+        <v>139</v>
+      </c>
+      <c r="P90" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90" t="s">
+        <v>1189</v>
+      </c>
+      <c r="W90" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B91" s="6">
+        <v>45715.802847222221</v>
+      </c>
+      <c r="C91">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>159</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>30</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>159</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L91">
+        <v>0.65</v>
+      </c>
+      <c r="N91" t="s">
+        <v>160</v>
+      </c>
+      <c r="O91" t="s">
+        <v>139</v>
+      </c>
+      <c r="P91" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W91" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B92" s="6">
+        <v>45717.362951388888</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>159</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>30</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>159</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L92">
+        <v>0.65</v>
+      </c>
+      <c r="N92" t="s">
+        <v>160</v>
+      </c>
+      <c r="O92" t="s">
+        <v>139</v>
+      </c>
+      <c r="P92" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B93" s="6">
+        <v>45717.625636574077</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s">
+        <v>159</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B94" s="6">
+        <v>45717.63386574074</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>30</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>159</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L94">
+        <v>0.65</v>
+      </c>
+      <c r="N94" t="s">
+        <v>160</v>
+      </c>
+      <c r="O94" t="s">
+        <v>139</v>
+      </c>
+      <c r="P94" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B95" s="6">
+        <v>45717.840150462966</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>30</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>159</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L95">
+        <v>0.65</v>
+      </c>
+      <c r="N95" t="s">
+        <v>160</v>
+      </c>
+      <c r="O95" t="s">
+        <v>139</v>
+      </c>
+      <c r="P95" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B96" s="6">
+        <v>45717.844259259262</v>
+      </c>
+      <c r="C96">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>159</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L96">
+        <v>0.43</v>
+      </c>
+      <c r="N96" t="s">
+        <v>160</v>
+      </c>
+      <c r="O96" t="s">
+        <v>139</v>
+      </c>
+      <c r="P96" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B97" s="6">
+        <v>45718.491342592592</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>30</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>159</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L97">
+        <v>0.65</v>
+      </c>
+      <c r="N97" t="s">
+        <v>160</v>
+      </c>
+      <c r="O97" t="s">
+        <v>139</v>
+      </c>
+      <c r="P97" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B98" s="6">
+        <v>45718.531886574077</v>
+      </c>
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>30</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>159</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L98">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N98" t="s">
+        <v>160</v>
+      </c>
+      <c r="O98" t="s">
+        <v>139</v>
+      </c>
+      <c r="P98" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <v>45718.533668981479</v>
+      </c>
+      <c r="C99">
+        <v>30</v>
+      </c>
+      <c r="E99" t="s">
+        <v>159</v>
+      </c>
+      <c r="O99" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B100" s="6">
+        <v>45718.542638888888</v>
+      </c>
+      <c r="C100">
+        <v>30</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>159</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>30</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>159</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L100">
+        <v>0.65</v>
+      </c>
+      <c r="N100" t="s">
+        <v>160</v>
+      </c>
+      <c r="O100" t="s">
+        <v>139</v>
+      </c>
+      <c r="P100" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B101" s="6">
+        <v>45718.573275462964</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>30</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>159</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L101">
+        <v>0.65</v>
+      </c>
+      <c r="N101" t="s">
+        <v>160</v>
+      </c>
+      <c r="O101" t="s">
+        <v>139</v>
+      </c>
+      <c r="P101" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B102" s="6">
+        <v>45718.691087962965</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>159</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>15</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>159</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1219</v>
+      </c>
+      <c r="L102">
+        <v>0.43</v>
+      </c>
+      <c r="N102" t="s">
+        <v>160</v>
+      </c>
+      <c r="O102" t="s">
+        <v>139</v>
+      </c>
+      <c r="P102" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B103" s="6">
+        <v>45718.694108796299</v>
+      </c>
+      <c r="C103">
+        <v>30</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>159</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>30</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>159</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L103">
+        <v>0.65</v>
+      </c>
+      <c r="N103" t="s">
+        <v>160</v>
+      </c>
+      <c r="O103" t="s">
+        <v>139</v>
+      </c>
+      <c r="P103" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
+        <v>45718.728518518517</v>
+      </c>
+      <c r="C104">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>159</v>
+      </c>
+      <c r="O104" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
+        <v>45718.739293981482</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>159</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B106" s="6">
+        <v>45718.755671296298</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+      <c r="E106" t="s">
+        <v>159</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B107" s="6">
+        <v>45718.760868055557</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>159</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>30</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>159</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L107">
+        <v>0.65</v>
+      </c>
+      <c r="N107" t="s">
+        <v>160</v>
+      </c>
+      <c r="O107" t="s">
+        <v>139</v>
+      </c>
+      <c r="P107" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B108" s="6">
+        <v>45718.792534722219</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>30</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>159</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L108">
+        <v>0.65</v>
+      </c>
+      <c r="N108" t="s">
+        <v>160</v>
+      </c>
+      <c r="O108" t="s">
+        <v>139</v>
+      </c>
+      <c r="P108" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B109" s="6">
+        <v>45719.453750000001</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
+        <v>159</v>
+      </c>
+      <c r="O109" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B110" s="6">
+        <v>45719.460439814815</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>159</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>30</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>159</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L110">
+        <v>0.65</v>
+      </c>
+      <c r="N110" t="s">
+        <v>160</v>
+      </c>
+      <c r="O110" t="s">
+        <v>139</v>
+      </c>
+      <c r="P110" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B111" s="6">
+        <v>45719.479050925926</v>
+      </c>
+      <c r="C111">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>159</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>15</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>159</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L111">
+        <v>0.43</v>
+      </c>
+      <c r="N111" t="s">
+        <v>160</v>
+      </c>
+      <c r="O111" t="s">
+        <v>139</v>
+      </c>
+      <c r="P111" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B112" s="6">
+        <v>45719.510613425926</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>159</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>15</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>159</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L112">
+        <v>0.43</v>
+      </c>
+      <c r="N112" t="s">
+        <v>160</v>
+      </c>
+      <c r="O112" t="s">
+        <v>139</v>
+      </c>
+      <c r="P112" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B113" s="6">
+        <v>45719.574293981481</v>
+      </c>
+      <c r="C113">
+        <v>30</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>159</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>30</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>159</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L113">
+        <v>0.65</v>
+      </c>
+      <c r="N113" t="s">
+        <v>160</v>
+      </c>
+      <c r="O113" t="s">
+        <v>139</v>
+      </c>
+      <c r="P113" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <v>45719.583599537036</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+      <c r="E114" t="s">
+        <v>159</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B115" s="6">
+        <v>45719.607222222221</v>
+      </c>
+      <c r="C115">
+        <v>30</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>30</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>159</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L115">
+        <v>0.65</v>
+      </c>
+      <c r="N115" t="s">
+        <v>160</v>
+      </c>
+      <c r="O115" t="s">
+        <v>139</v>
+      </c>
+      <c r="P115" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B116" s="6">
+        <v>45719.624259259261</v>
+      </c>
+      <c r="C116">
+        <v>30</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>159</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>30</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>159</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L116">
+        <v>0.77</v>
+      </c>
+      <c r="N116" t="s">
+        <v>160</v>
+      </c>
+      <c r="O116" t="s">
+        <v>139</v>
+      </c>
+      <c r="P116" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B117" s="6">
+        <v>45719.65283564815</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>159</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>30</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>159</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>160</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P117" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B118" s="6">
+        <v>45719.654247685183</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>159</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>30</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>159</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L118">
+        <v>0.65</v>
+      </c>
+      <c r="N118" t="s">
+        <v>160</v>
+      </c>
+      <c r="O118" t="s">
+        <v>139</v>
+      </c>
+      <c r="P118" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B119" s="6">
+        <v>45719.66202546296</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>30</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>159</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L119">
+        <v>0.77</v>
+      </c>
+      <c r="N119" t="s">
+        <v>160</v>
+      </c>
+      <c r="O119" t="s">
+        <v>139</v>
+      </c>
+      <c r="P119" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B120" s="6">
+        <v>45719.668356481481</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>159</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B121" s="6">
+        <v>45719.69940972222</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>159</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>30</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>159</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L121">
+        <v>0.65</v>
+      </c>
+      <c r="N121" t="s">
+        <v>160</v>
+      </c>
+      <c r="O121" t="s">
+        <v>139</v>
+      </c>
+      <c r="P121" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B122" s="6">
+        <v>45719.753252314818</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+      <c r="E122" t="s">
+        <v>159</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B123" s="6">
+        <v>45719.756226851852</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>30</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1260</v>
+      </c>
+      <c r="L123">
+        <v>0.65</v>
+      </c>
+      <c r="N123" t="s">
+        <v>160</v>
+      </c>
+      <c r="O123" t="s">
+        <v>139</v>
+      </c>
+      <c r="P123" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B124" s="6">
+        <v>45720.623784722222</v>
+      </c>
+      <c r="C124">
+        <v>15</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>159</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>15</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>159</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L124">
+        <v>0.43</v>
+      </c>
+      <c r="N124" t="s">
+        <v>160</v>
+      </c>
+      <c r="O124" t="s">
+        <v>139</v>
+      </c>
+      <c r="P124" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B125" s="6">
+        <v>45720.675034722219</v>
+      </c>
+      <c r="C125">
+        <v>30</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>159</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>30</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L125">
+        <v>0.65</v>
+      </c>
+      <c r="N125" t="s">
+        <v>160</v>
+      </c>
+      <c r="O125" t="s">
+        <v>139</v>
+      </c>
+      <c r="P125" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B126" s="6">
+        <v>45720.872349537036</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>159</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>30</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>159</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L126">
+        <v>0.65</v>
+      </c>
+      <c r="N126" t="s">
+        <v>160</v>
+      </c>
+      <c r="O126" t="s">
+        <v>139</v>
+      </c>
+      <c r="P126" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B127" s="6">
+        <v>45721.409872685188</v>
+      </c>
+      <c r="C127">
+        <v>15</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>159</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>15</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>159</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L127">
+        <v>0.43</v>
+      </c>
+      <c r="N127" t="s">
+        <v>160</v>
+      </c>
+      <c r="O127" t="s">
+        <v>139</v>
+      </c>
+      <c r="P127" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B128" s="6">
+        <v>45721.530289351853</v>
+      </c>
+      <c r="C128">
+        <v>30</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>159</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>30</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>159</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L128">
+        <v>0.65</v>
+      </c>
+      <c r="N128" t="s">
+        <v>160</v>
+      </c>
+      <c r="O128" t="s">
+        <v>139</v>
+      </c>
+      <c r="P128" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B129" s="6">
+        <v>45721.544965277775</v>
+      </c>
+      <c r="C129">
+        <v>30</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>159</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>30</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>159</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L129">
+        <v>0.65</v>
+      </c>
+      <c r="N129" t="s">
+        <v>160</v>
+      </c>
+      <c r="O129" t="s">
+        <v>139</v>
+      </c>
+      <c r="P129" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B130" s="6">
+        <v>45721.576805555553</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>15</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>159</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L130">
+        <v>0.38</v>
+      </c>
+      <c r="N130" t="s">
+        <v>160</v>
+      </c>
+      <c r="O130" t="s">
+        <v>139</v>
+      </c>
+      <c r="P130" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B131" s="6">
+        <v>45721.66065972222</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>159</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>15</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>159</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1284</v>
+      </c>
+      <c r="L131">
+        <v>0.43</v>
+      </c>
+      <c r="N131" t="s">
+        <v>160</v>
+      </c>
+      <c r="O131" t="s">
+        <v>139</v>
+      </c>
+      <c r="P131" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B132" s="6">
+        <v>45721.710300925923</v>
+      </c>
+      <c r="C132">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>159</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>15</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>159</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L132">
+        <v>0.43</v>
+      </c>
+      <c r="N132" t="s">
+        <v>160</v>
+      </c>
+      <c r="O132" t="s">
+        <v>139</v>
+      </c>
+      <c r="P132" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B133" s="6">
+        <v>45721.884016203701</v>
+      </c>
+      <c r="C133">
+        <v>30</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>159</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>30</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>159</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L133">
+        <v>0.65</v>
+      </c>
+      <c r="N133" t="s">
+        <v>160</v>
+      </c>
+      <c r="O133" t="s">
+        <v>139</v>
+      </c>
+      <c r="P133" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B134" s="6">
+        <v>45721.914375</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>159</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>15</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>159</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L134">
+        <v>0.43</v>
+      </c>
+      <c r="N134" t="s">
+        <v>160</v>
+      </c>
+      <c r="O134" t="s">
+        <v>139</v>
+      </c>
+      <c r="P134" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B135" s="6">
+        <v>45722.395092592589</v>
+      </c>
+      <c r="C135">
+        <v>30</v>
+      </c>
+      <c r="E135" t="s">
+        <v>159</v>
+      </c>
+      <c r="O135" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B136" s="6">
+        <v>45722.404780092591</v>
+      </c>
+      <c r="C136">
+        <v>30</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>159</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>30</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>159</v>
+      </c>
+      <c r="K136" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L136">
+        <v>1.18</v>
+      </c>
+      <c r="N136" t="s">
+        <v>160</v>
+      </c>
+      <c r="O136" t="s">
+        <v>139</v>
+      </c>
+      <c r="P136" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B137" s="6">
+        <v>45722.495034722226</v>
+      </c>
+      <c r="C137">
+        <v>30</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>159</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>30</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>159</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L137">
+        <v>0.65</v>
+      </c>
+      <c r="N137" t="s">
+        <v>160</v>
+      </c>
+      <c r="O137" t="s">
+        <v>139</v>
+      </c>
+      <c r="P137" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B138" s="6">
+        <v>45722.495173611111</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>159</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>30</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>159</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
+        <v>160</v>
+      </c>
+      <c r="O138" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P138" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B139" s="6">
+        <v>45722.50199074074</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>159</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>30</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>159</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
+        <v>160</v>
+      </c>
+      <c r="O139" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P139" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B140" s="6">
+        <v>45722.616793981484</v>
+      </c>
+      <c r="C140">
+        <v>15</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>159</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>15</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>159</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L140">
+        <v>0.43</v>
+      </c>
+      <c r="N140" t="s">
+        <v>160</v>
+      </c>
+      <c r="O140" t="s">
+        <v>139</v>
+      </c>
+      <c r="P140" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B141" s="6">
+        <v>45722.631886574076</v>
+      </c>
+      <c r="C141">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>159</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>15</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>159</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L141">
+        <v>0.43</v>
+      </c>
+      <c r="N141" t="s">
+        <v>160</v>
+      </c>
+      <c r="O141" t="s">
+        <v>139</v>
+      </c>
+      <c r="P141" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141" t="s">
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -15189,12 +19299,12 @@
     </row>
     <row r="30" spans="1:1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -15205,10 +19315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I245"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="H246" sqref="H246"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="H255" sqref="H255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18947,7 +23057,7 @@
         <v>266</v>
       </c>
       <c r="C178" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E178">
         <v>30</v>
@@ -18968,7 +23078,7 @@
         <v>261</v>
       </c>
       <c r="C179" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E179">
         <v>30</v>
@@ -19052,7 +23162,7 @@
         <v>261</v>
       </c>
       <c r="C183" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E183">
         <v>30</v>
@@ -19073,7 +23183,7 @@
         <v>261</v>
       </c>
       <c r="C184" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E184">
         <v>30</v>
@@ -19094,7 +23204,7 @@
         <v>261</v>
       </c>
       <c r="C185" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E185">
         <v>30</v>
@@ -19115,7 +23225,7 @@
         <v>266</v>
       </c>
       <c r="C186" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E186">
         <v>30</v>
@@ -19136,7 +23246,7 @@
         <v>266</v>
       </c>
       <c r="C187" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D187">
         <v>30</v>
@@ -19157,7 +23267,7 @@
         <v>261</v>
       </c>
       <c r="C188" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E188">
         <v>30</v>
@@ -19178,7 +23288,7 @@
         <v>266</v>
       </c>
       <c r="C189" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E189">
         <v>30</v>
@@ -19199,7 +23309,7 @@
         <v>261</v>
       </c>
       <c r="C190" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E190">
         <v>30</v>
@@ -19220,7 +23330,7 @@
         <v>266</v>
       </c>
       <c r="C191" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D191">
         <v>30</v>
@@ -19241,7 +23351,7 @@
         <v>261</v>
       </c>
       <c r="C192" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E192">
         <v>30</v>
@@ -19262,7 +23372,7 @@
         <v>261</v>
       </c>
       <c r="C193" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E193">
         <v>30</v>
@@ -19283,7 +23393,7 @@
         <v>261</v>
       </c>
       <c r="C194" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -19304,7 +23414,7 @@
         <v>261</v>
       </c>
       <c r="C195" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E195">
         <v>30</v>
@@ -19325,7 +23435,7 @@
         <v>266</v>
       </c>
       <c r="C196" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D196">
         <v>30</v>
@@ -19367,7 +23477,7 @@
         <v>261</v>
       </c>
       <c r="C198" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E198">
         <v>30</v>
@@ -19388,7 +23498,7 @@
         <v>266</v>
       </c>
       <c r="C199" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D199">
         <v>200</v>
@@ -19430,7 +23540,7 @@
         <v>266</v>
       </c>
       <c r="C201" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D201">
         <v>30</v>
@@ -19472,7 +23582,7 @@
         <v>261</v>
       </c>
       <c r="C203" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E203">
         <v>30</v>
@@ -19514,13 +23624,13 @@
         <v>261</v>
       </c>
       <c r="C205" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E205">
         <v>30</v>
       </c>
       <c r="F205" s="25">
-        <f t="shared" ref="F205:F245" si="4">F204+E205-D205</f>
+        <f t="shared" ref="F205:F254" si="4">F204+E205-D205</f>
         <v>11168.400000000005</v>
       </c>
       <c r="G205" t="s">
@@ -19535,7 +23645,7 @@
         <v>266</v>
       </c>
       <c r="C206" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D206">
         <v>30</v>
@@ -19577,7 +23687,7 @@
         <v>266</v>
       </c>
       <c r="C208" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E208">
         <v>30</v>
@@ -19598,7 +23708,7 @@
         <v>266</v>
       </c>
       <c r="C209" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D209">
         <v>210</v>
@@ -19608,7 +23718,7 @@
         <v>10979.940000000006</v>
       </c>
       <c r="G209" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -19619,7 +23729,7 @@
         <v>261</v>
       </c>
       <c r="C210" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E210">
         <v>30</v>
@@ -19640,7 +23750,7 @@
         <v>261</v>
       </c>
       <c r="C211" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E211">
         <v>30</v>
@@ -19703,7 +23813,7 @@
         <v>266</v>
       </c>
       <c r="C214" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D214">
         <v>625</v>
@@ -19713,7 +23823,7 @@
         <v>10374.750000000005</v>
       </c>
       <c r="G214" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -19745,7 +23855,7 @@
         <v>261</v>
       </c>
       <c r="C216" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E216">
         <v>30</v>
@@ -19766,7 +23876,7 @@
         <v>261</v>
       </c>
       <c r="C217" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E217">
         <v>30</v>
@@ -19787,7 +23897,7 @@
         <v>261</v>
       </c>
       <c r="C218" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E218">
         <v>30</v>
@@ -19808,7 +23918,7 @@
         <v>266</v>
       </c>
       <c r="C219" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D219">
         <v>7.95</v>
@@ -19850,7 +23960,7 @@
         <v>261</v>
       </c>
       <c r="C221" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E221">
         <v>30</v>
@@ -19871,7 +23981,7 @@
         <v>261</v>
       </c>
       <c r="C222" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E222">
         <v>29.35</v>
@@ -19889,10 +23999,10 @@
         <v>45701</v>
       </c>
       <c r="B223" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C223" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E223">
         <v>43.11</v>
@@ -19916,7 +24026,7 @@
         <v>261</v>
       </c>
       <c r="C224" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E224">
         <v>30</v>
@@ -19985,7 +24095,7 @@
         <v>261</v>
       </c>
       <c r="C227" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E227">
         <v>30</v>
@@ -20006,7 +24116,7 @@
         <v>261</v>
       </c>
       <c r="C228" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E228">
         <v>30</v>
@@ -20075,7 +24185,7 @@
         <v>784</v>
       </c>
       <c r="C231" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D231">
         <v>5</v>
@@ -20144,7 +24254,7 @@
         <v>266</v>
       </c>
       <c r="C234" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D234">
         <v>231</v>
@@ -20168,7 +24278,7 @@
         <v>266</v>
       </c>
       <c r="C235" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D235">
         <v>175</v>
@@ -20285,7 +24395,7 @@
         <v>261</v>
       </c>
       <c r="C240" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E240">
         <v>30</v>
@@ -20306,7 +24416,7 @@
         <v>261</v>
       </c>
       <c r="C241" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E241">
         <v>30</v>
@@ -20327,7 +24437,7 @@
         <v>266</v>
       </c>
       <c r="C242" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E242">
         <v>15</v>
@@ -20351,7 +24461,7 @@
         <v>266</v>
       </c>
       <c r="C243" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D243">
         <v>30</v>
@@ -20409,6 +24519,210 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="24">
+        <v>45722</v>
+      </c>
+      <c r="B246" t="s">
+        <v>261</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E246">
+        <v>30</v>
+      </c>
+      <c r="F246" s="25">
+        <f t="shared" si="4"/>
+        <v>11585.190000000006</v>
+      </c>
+      <c r="G246" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="24">
+        <v>45722</v>
+      </c>
+      <c r="B247" t="s">
+        <v>261</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E247">
+        <v>30</v>
+      </c>
+      <c r="F247" s="25">
+        <f t="shared" si="4"/>
+        <v>11615.190000000006</v>
+      </c>
+      <c r="G247" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="24">
+        <v>45723</v>
+      </c>
+      <c r="B248" t="s">
+        <v>266</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D248">
+        <v>58.5</v>
+      </c>
+      <c r="F248" s="25">
+        <f t="shared" si="4"/>
+        <v>11556.690000000006</v>
+      </c>
+      <c r="G248" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="24">
+        <v>45723</v>
+      </c>
+      <c r="B249" t="s">
+        <v>261</v>
+      </c>
+      <c r="C249" t="s">
+        <v>503</v>
+      </c>
+      <c r="E249">
+        <v>73.27</v>
+      </c>
+      <c r="F249" s="25">
+        <f t="shared" si="4"/>
+        <v>11629.960000000006</v>
+      </c>
+      <c r="G249" t="s">
+        <v>1</v>
+      </c>
+      <c r="H249" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="24">
+        <v>45724</v>
+      </c>
+      <c r="B250" t="s">
+        <v>261</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E250">
+        <v>30</v>
+      </c>
+      <c r="F250" s="25">
+        <f t="shared" si="4"/>
+        <v>11659.960000000006</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1</v>
+      </c>
+      <c r="H250" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="24">
+        <v>45724</v>
+      </c>
+      <c r="B251" t="s">
+        <v>261</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E251">
+        <v>15</v>
+      </c>
+      <c r="F251" s="25">
+        <f t="shared" si="4"/>
+        <v>11674.960000000006</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1</v>
+      </c>
+      <c r="H251" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="24">
+        <v>45725</v>
+      </c>
+      <c r="B252" t="s">
+        <v>266</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E252">
+        <v>30</v>
+      </c>
+      <c r="F252" s="25">
+        <f t="shared" si="4"/>
+        <v>11704.960000000006</v>
+      </c>
+      <c r="G252" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="24">
+        <v>45726</v>
+      </c>
+      <c r="B253" t="s">
+        <v>261</v>
+      </c>
+      <c r="C253" t="s">
+        <v>503</v>
+      </c>
+      <c r="E253">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="F253" s="25">
+        <f t="shared" si="4"/>
+        <v>11850.760000000006</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1</v>
+      </c>
+      <c r="H253" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="24">
+        <v>45727</v>
+      </c>
+      <c r="B254" t="s">
+        <v>261</v>
+      </c>
+      <c r="C254" t="s">
+        <v>503</v>
+      </c>
+      <c r="E254">
+        <v>131.22999999999999</v>
+      </c>
+      <c r="F254" s="25">
+        <f t="shared" si="4"/>
+        <v>11981.990000000005</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1</v>
+      </c>
+      <c r="H254" t="s">
         <v>106</v>
       </c>
     </row>
@@ -22426,7 +26740,7 @@
         <v>45678</v>
       </c>
       <c r="B177" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D177" s="2">
         <v>30</v>
@@ -22437,7 +26751,7 @@
         <v>45678</v>
       </c>
       <c r="B178" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D178" s="2">
         <v>30</v>
@@ -22478,7 +26792,7 @@
         <v>45678</v>
       </c>
       <c r="B182" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D182" s="2">
         <v>30</v>
@@ -22489,7 +26803,7 @@
         <v>45678</v>
       </c>
       <c r="B183" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D183" s="2">
         <v>30</v>
@@ -22500,7 +26814,7 @@
         <v>45678</v>
       </c>
       <c r="B184" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D184" s="2">
         <v>30</v>
@@ -22511,7 +26825,7 @@
         <v>45679</v>
       </c>
       <c r="B185" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D185" s="2">
         <v>30</v>
@@ -22530,7 +26844,7 @@
         <v>45680</v>
       </c>
       <c r="B187" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D187" s="2">
         <v>30</v>
@@ -22541,7 +26855,7 @@
         <v>45680</v>
       </c>
       <c r="B188" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D188" s="2">
         <v>30</v>
@@ -22552,7 +26866,7 @@
         <v>45680</v>
       </c>
       <c r="B189" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D189" s="2">
         <v>30</v>
@@ -22571,7 +26885,7 @@
         <v>45680</v>
       </c>
       <c r="B191" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D191" s="2">
         <v>30</v>
@@ -22582,7 +26896,7 @@
         <v>45681</v>
       </c>
       <c r="B192" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D192" s="2">
         <v>30</v>
@@ -22593,7 +26907,7 @@
         <v>45681</v>
       </c>
       <c r="B193" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D193" s="2">
         <v>30</v>
@@ -22604,7 +26918,7 @@
         <v>45682</v>
       </c>
       <c r="B194" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D194" s="2">
         <v>30</v>
@@ -22634,7 +26948,7 @@
         <v>45684</v>
       </c>
       <c r="B197" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D197">
         <v>30</v>
@@ -22680,7 +26994,7 @@
         <v>45685</v>
       </c>
       <c r="B202" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D202" s="2">
         <v>30</v>
@@ -22699,7 +27013,7 @@
         <v>45686</v>
       </c>
       <c r="B204" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D204" s="2">
         <v>30</v>
@@ -22729,7 +27043,7 @@
         <v>45689</v>
       </c>
       <c r="B207" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D207" s="2">
         <v>30</v>
@@ -22743,7 +27057,7 @@
         <v>210</v>
       </c>
       <c r="U208" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -22751,7 +27065,7 @@
         <v>45691</v>
       </c>
       <c r="B209" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D209" s="2">
         <v>30</v>
@@ -22762,7 +27076,7 @@
         <v>45691</v>
       </c>
       <c r="B210" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D210" s="2">
         <v>30</v>
@@ -22808,7 +27122,7 @@
         <v>45695</v>
       </c>
       <c r="B215" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D215" s="2">
         <v>30</v>
@@ -22819,7 +27133,7 @@
         <v>45695</v>
       </c>
       <c r="B216" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D216" s="2">
         <v>30</v>
@@ -22830,7 +27144,7 @@
         <v>45696</v>
       </c>
       <c r="B217" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D217" s="2">
         <v>30</v>
@@ -22996,10 +27310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D64849-DAC0-4101-B9D5-A90CC0C93067}">
-  <dimension ref="A1:V240"/>
+  <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView topLeftCell="A222" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -23306,7 +27620,7 @@
         <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>231</v>
@@ -23642,7 +27956,7 @@
         <v>515</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -23749,10 +28063,10 @@
         <v>295</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>995</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>996</v>
       </c>
       <c r="D66" s="36">
         <v>25</v>
@@ -24311,7 +28625,7 @@
         <v>686</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -24419,7 +28733,7 @@
         <v>19</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -24460,7 +28774,7 @@
         <v>364</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>398</v>
@@ -24746,10 +29060,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>525</v>
+        <v>1320</v>
       </c>
       <c r="C155" t="s">
-        <v>792</v>
+        <v>1321</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>525</v>
@@ -25025,7 +29339,7 @@
         <v>656</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>662</v>
@@ -25124,10 +29438,10 @@
         <v>742</v>
       </c>
       <c r="B189" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>1008</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -25316,7 +29630,7 @@
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>673</v>
@@ -25327,7 +29641,7 @@
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>677</v>
@@ -25338,7 +29652,7 @@
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>681</v>
@@ -25349,7 +29663,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>206</v>
@@ -25360,95 +29674,95 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B210" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="C210" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>482</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>203</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B213" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>386</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>675</v>
@@ -25462,7 +29776,7 @@
         <v>150</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>676</v>
@@ -25473,15 +29787,15 @@
         <v>150</v>
       </c>
       <c r="B220" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C220" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>661</v>
@@ -25495,43 +29809,43 @@
         <v>150</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>936</v>
+      </c>
+      <c r="B223" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="C223" s="5" t="s">
         <v>938</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>513</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>944</v>
+      </c>
+      <c r="B225" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="C225" s="5" t="s">
         <v>946</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -25539,40 +29853,40 @@
         <v>150</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>673</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>588</v>
@@ -25580,24 +29894,24 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C231" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -25608,7 +29922,7 @@
         <v>537</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -25616,21 +29930,21 @@
         <v>150</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B234" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C234" s="5" t="s">
         <v>1077</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -25641,23 +29955,23 @@
         <v>529</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B236" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="C236" s="5" t="s">
         <v>1112</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>525</v>
@@ -25668,28 +29982,58 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>483</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>684</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240"/>
+      <c r="A240" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>1323</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AA194">
@@ -25882,7 +30226,7 @@
         <v>722</v>
       </c>
       <c r="C4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E4">
         <v>34.770000000000003</v>
@@ -25917,7 +30261,7 @@
   <dimension ref="A3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -26156,7 +30500,7 @@
         <v>182</v>
       </c>
       <c r="B4" s="38">
-        <v>6498.8800000000019</v>
+        <v>6588.8800000000019</v>
       </c>
       <c r="C4" s="38"/>
     </row>
@@ -26191,7 +30535,7 @@
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38">
-        <v>34.099999999999994</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -26223,7 +30567,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38">
@@ -26241,7 +30585,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="38">
@@ -26271,7 +30615,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="38">
-        <v>1301.5999999999999</v>
+        <v>1696.8999999999999</v>
       </c>
       <c r="C17" s="38"/>
     </row>
@@ -26289,10 +30633,10 @@
         <v>85</v>
       </c>
       <c r="B19" s="38">
-        <v>7832.2500000000018</v>
+        <v>8317.5500000000029</v>
       </c>
       <c r="C19" s="38">
-        <v>2100.94</v>
+        <v>2159.44</v>
       </c>
     </row>
   </sheetData>
@@ -26348,7 +30692,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="38">
-        <v>1301.5999999999997</v>
+        <v>1696.8999999999992</v>
       </c>
       <c r="C5" s="38"/>
     </row>
@@ -26366,7 +30710,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="38">
-        <v>1301.5999999999997</v>
+        <v>1696.8999999999992</v>
       </c>
       <c r="C7" s="38">
         <v>476.4</v>
@@ -26531,7 +30875,7 @@
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="38">
-        <v>34.099999999999994</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -26539,13 +30883,13 @@
         <v>182</v>
       </c>
       <c r="B30" s="38">
-        <v>6498.8800000000019</v>
+        <v>6588.8800000000019</v>
       </c>
       <c r="C30" s="38"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="38">
@@ -26554,7 +30898,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B32" s="38"/>
       <c r="C32" s="38">
@@ -26566,10 +30910,10 @@
         <v>85</v>
       </c>
       <c r="B33" s="38">
-        <v>6530.6500000000024</v>
+        <v>6620.6500000000024</v>
       </c>
       <c r="C33" s="38">
-        <v>1624.54</v>
+        <v>1683.04</v>
       </c>
     </row>
   </sheetData>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64DFE87-8D4C-4A45-9CD3-815B5273B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C7B9C-1615-4DDC-AFA4-2F3F365D079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="6" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -22,20 +22,21 @@
     <sheet name="Savings account" sheetId="13" r:id="rId7"/>
     <sheet name="Pivot Table" sheetId="15" r:id="rId8"/>
     <sheet name="Exhibitions" sheetId="16" r:id="rId9"/>
-    <sheet name="Stripe" sheetId="3" r:id="rId10"/>
-    <sheet name="Members Exhibition" sheetId="4" r:id="rId11"/>
-    <sheet name="Open Exhibition" sheetId="6" r:id="rId12"/>
-    <sheet name="Lists" sheetId="9" r:id="rId13"/>
+    <sheet name="SumUp" sheetId="18" r:id="rId10"/>
+    <sheet name="Stripe" sheetId="3" r:id="rId11"/>
+    <sheet name="Members Exhibition" sheetId="4" r:id="rId12"/>
+    <sheet name="Open Exhibition" sheetId="6" r:id="rId13"/>
+    <sheet name="Lists" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current account'!$A$1:$I$354</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Membership List'!$A$2:$A$216</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Stripe!$A$1:$W$478</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Stripe!$A$1:$W$478</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId14"/>
-    <pivotCache cacheId="10" r:id="rId15"/>
+    <pivotCache cacheId="5" r:id="rId15"/>
+    <pivotCache cacheId="15" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="1577">
   <si>
     <t>Subs</t>
   </si>
@@ -4389,6 +4390,405 @@
   </si>
   <si>
     <t>Kall Kwik Oxford 009679</t>
+  </si>
+  <si>
+    <t>SumUp Payments AccMDD PID1043007</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Transaction type</t>
+  </si>
+  <si>
+    <t>Card type</t>
+  </si>
+  <si>
+    <t>Last 4 digits</t>
+  </si>
+  <si>
+    <t>Process as</t>
+  </si>
+  <si>
+    <t>Payment method</t>
+  </si>
+  <si>
+    <t>Entry mode</t>
+  </si>
+  <si>
+    <t>Auth code</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Net sale</t>
+  </si>
+  <si>
+    <t>Tax amount</t>
+  </si>
+  <si>
+    <t>Tip amount</t>
+  </si>
+  <si>
+    <t>Payout</t>
+  </si>
+  <si>
+    <t>Payout date</t>
+  </si>
+  <si>
+    <t>Payout ID</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>oaspayments@gmail.com</t>
+  </si>
+  <si>
+    <t>TAAAT7SKUL7</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>**** **** **** 2921</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>CONTACTLESS</t>
+  </si>
+  <si>
+    <t>TAAAT7HYE92</t>
+  </si>
+  <si>
+    <t>**** **** **** 3497</t>
+  </si>
+  <si>
+    <t>DEBIT</t>
+  </si>
+  <si>
+    <t>CHIP</t>
+  </si>
+  <si>
+    <t>TAAAT67XA3M</t>
+  </si>
+  <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t>**** **** **** 8910</t>
+  </si>
+  <si>
+    <t>R27689</t>
+  </si>
+  <si>
+    <t>TAAAT63CQDX</t>
+  </si>
+  <si>
+    <t>**** **** **** 1202</t>
+  </si>
+  <si>
+    <t>TAAAT62KR3B</t>
+  </si>
+  <si>
+    <t>**** **** **** 9517</t>
+  </si>
+  <si>
+    <t>R77097</t>
+  </si>
+  <si>
+    <t>TAAAT6TPU62</t>
+  </si>
+  <si>
+    <t>**** **** **** 7933</t>
+  </si>
+  <si>
+    <t>TAAAT6TPH4F</t>
+  </si>
+  <si>
+    <t>**** **** **** 8581</t>
+  </si>
+  <si>
+    <t>TAAAT6TPFNZ</t>
+  </si>
+  <si>
+    <t>**** **** **** 1762</t>
+  </si>
+  <si>
+    <t>TAAAT6TN4BM</t>
+  </si>
+  <si>
+    <t>**** **** **** 7263</t>
+  </si>
+  <si>
+    <t>TAAAT6TLBAY</t>
+  </si>
+  <si>
+    <t>**** **** **** 5926</t>
+  </si>
+  <si>
+    <t>TAAAT6TKV9M</t>
+  </si>
+  <si>
+    <t>**** **** **** 8782</t>
+  </si>
+  <si>
+    <t>TAAAT6TGDXA</t>
+  </si>
+  <si>
+    <t>**** **** **** 8343</t>
+  </si>
+  <si>
+    <t>TAAAT6TE6Z9</t>
+  </si>
+  <si>
+    <t>**** **** **** 8561</t>
+  </si>
+  <si>
+    <t>TAAAT6TCUG9</t>
+  </si>
+  <si>
+    <t>**** **** **** 2041</t>
+  </si>
+  <si>
+    <t>TAAAT6TBXXE</t>
+  </si>
+  <si>
+    <t>**** **** **** 1017</t>
+  </si>
+  <si>
+    <t>TAAAT6TBFUG</t>
+  </si>
+  <si>
+    <t>**** **** **** 2200</t>
+  </si>
+  <si>
+    <t>TAAAT6S9TVE</t>
+  </si>
+  <si>
+    <t>**** **** **** 9223</t>
+  </si>
+  <si>
+    <t>TAAAT6S9PF2</t>
+  </si>
+  <si>
+    <t>**** **** **** 3017</t>
+  </si>
+  <si>
+    <t>TAAAT6S7R6G</t>
+  </si>
+  <si>
+    <t>**** **** **** 3256</t>
+  </si>
+  <si>
+    <t>TAAAT6S7H4D</t>
+  </si>
+  <si>
+    <t>**** **** **** 8029</t>
+  </si>
+  <si>
+    <t>TAAAT6S6X3Z</t>
+  </si>
+  <si>
+    <t>**** **** **** 2498</t>
+  </si>
+  <si>
+    <t>TAAAT6S4932</t>
+  </si>
+  <si>
+    <t>**** **** **** 6999</t>
+  </si>
+  <si>
+    <t>TAAAT6S4PVK</t>
+  </si>
+  <si>
+    <t>TAAAT6S4BNC</t>
+  </si>
+  <si>
+    <t>TAAAT6S3ZQV</t>
+  </si>
+  <si>
+    <t>**** **** **** 4894</t>
+  </si>
+  <si>
+    <t>TAAAT6S3M2K</t>
+  </si>
+  <si>
+    <t>**** **** **** 3380</t>
+  </si>
+  <si>
+    <t>TAAAT6S3GV9</t>
+  </si>
+  <si>
+    <t>**** **** **** 5609</t>
+  </si>
+  <si>
+    <t>TAAAT6S3BD2</t>
+  </si>
+  <si>
+    <t>TAAAT6S2UHP</t>
+  </si>
+  <si>
+    <t>**** **** **** 3257</t>
+  </si>
+  <si>
+    <t>R77769</t>
+  </si>
+  <si>
+    <t>TAAAT6S2RB3</t>
+  </si>
+  <si>
+    <t>**** **** **** 6833</t>
+  </si>
+  <si>
+    <t>TAAAT6SU97Z</t>
+  </si>
+  <si>
+    <t>TAAAT6SU64V</t>
+  </si>
+  <si>
+    <t>TAAAT6SUXQM</t>
+  </si>
+  <si>
+    <t>**** **** **** 5995</t>
+  </si>
+  <si>
+    <t>TAAAT6ST2RQ</t>
+  </si>
+  <si>
+    <t>TAAAT6STSVA</t>
+  </si>
+  <si>
+    <t>**** **** **** 3131</t>
+  </si>
+  <si>
+    <t>TAAAT6SSG2Y</t>
+  </si>
+  <si>
+    <t>**** **** **** 3277</t>
+  </si>
+  <si>
+    <t>TAAAT6SRKAY</t>
+  </si>
+  <si>
+    <t>**** **** **** 5795</t>
+  </si>
+  <si>
+    <t>TAAAT6SQ4XN</t>
+  </si>
+  <si>
+    <t>**** **** **** 9452</t>
+  </si>
+  <si>
+    <t>R74133</t>
+  </si>
+  <si>
+    <t>TAAAT6SQUUQ</t>
+  </si>
+  <si>
+    <t>**** **** **** 3290</t>
+  </si>
+  <si>
+    <t>TAAAT6SQLKV</t>
+  </si>
+  <si>
+    <t>**** **** **** 4704</t>
+  </si>
+  <si>
+    <t>TAAAT6SN3DS</t>
+  </si>
+  <si>
+    <t>**** **** **** 2212</t>
+  </si>
+  <si>
+    <t>TAAAT6SNHS7</t>
+  </si>
+  <si>
+    <t>**** **** **** 1102</t>
+  </si>
+  <si>
+    <t>TAAAT6SM6NV</t>
+  </si>
+  <si>
+    <t>**** **** **** 6588</t>
+  </si>
+  <si>
+    <t>TAAAT6SMSS3</t>
+  </si>
+  <si>
+    <t>TAAAT6SMEX7</t>
+  </si>
+  <si>
+    <t>TAAAT6SMCRP</t>
+  </si>
+  <si>
+    <t>**** **** **** 5118</t>
+  </si>
+  <si>
+    <t>R39168</t>
+  </si>
+  <si>
+    <t>TAAAT6SK7QN</t>
+  </si>
+  <si>
+    <t>**** **** **** 4554</t>
+  </si>
+  <si>
+    <t>TAAAT6SHUAP</t>
+  </si>
+  <si>
+    <t>**** **** **** 0245</t>
+  </si>
+  <si>
+    <t>TAAAT6SHFLA</t>
+  </si>
+  <si>
+    <t>**** **** **** 4207</t>
+  </si>
+  <si>
+    <t>TAAAT6SGB9V</t>
+  </si>
+  <si>
+    <t>TAAAT6SFUYE</t>
+  </si>
+  <si>
+    <t>**** **** **** 7030</t>
+  </si>
+  <si>
+    <t>TAAAT6SCPB7</t>
+  </si>
+  <si>
+    <t>**** **** **** 3502</t>
+  </si>
+  <si>
+    <t>TAAAT6NMVMM</t>
+  </si>
+  <si>
+    <t>**** **** **** 7394</t>
+  </si>
+  <si>
+    <t>R51434</t>
+  </si>
+  <si>
+    <t>SumUp Payments AccMDD PID1044627</t>
   </si>
 </sst>
 </file>
@@ -4401,7 +4801,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4478,6 +4878,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4531,14 +4937,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4578,13 +4987,17 @@
     <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyBorder="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{77B00252-6587-4F53-8262-8AD6E146B5D7}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{83CC2F56-7D1D-4773-AD26-1B1FE2A5DA8E}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4601,13 +5014,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45740.486744097223" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="265" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45742.416263888888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="268" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I401" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-25T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-26T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4619,13 +5032,13 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="625"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="586.42999999999995"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="12728.620000000006"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="14064.550000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="18">
+      <sharedItems containsBlank="1" count="19">
         <m/>
         <s v="Subs 2025"/>
         <s v="Donations cr"/>
@@ -4644,6 +5057,7 @@
         <s v="Bar sales"/>
         <s v="Prizes"/>
         <s v="Insurance"/>
+        <s v="Exhibitions cr"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Exhibition" numFmtId="0">
@@ -4662,13 +5076,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45740.486790972223" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="265" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45742.416487731483" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="268" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I504" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-25T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-26T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4680,13 +5094,13 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="625"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="586.42999999999995"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="12728.620000000006"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="14064.550000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="28">
+      <sharedItems containsBlank="1" count="29">
         <m/>
         <s v="Subs 2025"/>
         <s v="Donations cr"/>
@@ -4705,6 +5119,7 @@
         <s v="Bar sales"/>
         <s v="Prizes"/>
         <s v="Insurance"/>
+        <s v="Exhibitions cr"/>
         <s v="Subs" u="1"/>
         <s v="Admin" u="1"/>
         <s v="Sales cr" u="1"/>
@@ -4737,7 +5152,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="265">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="268">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -7643,6 +8058,39 @@
     <m/>
   </r>
   <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="SumUp Payments AccMDD PID1043007"/>
+    <m/>
+    <n v="1690.92"/>
+    <n v="13315.320000000007"/>
+    <x v="18"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Bar"/>
+    <m/>
+    <n v="159.37"/>
+    <n v="13474.690000000008"/>
+    <x v="15"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID1044627"/>
+    <m/>
+    <n v="589.86"/>
+    <n v="14064.550000000008"/>
+    <x v="18"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -7657,7 +8105,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="265">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="268">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -10559,6 +11007,39 @@
     <m/>
     <n v="11624.400000000007"/>
     <x v="14"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="SumUp Payments AccMDD PID1043007"/>
+    <m/>
+    <n v="1690.92"/>
+    <n v="13315.320000000007"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Bar"/>
+    <m/>
+    <n v="159.37"/>
+    <n v="13474.690000000008"/>
+    <x v="15"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID1044627"/>
+    <m/>
+    <n v="589.86"/>
+    <n v="14064.550000000008"/>
+    <x v="18"/>
     <x v="1"/>
     <m/>
   </r>
@@ -10578,7 +11059,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -10587,7 +11068,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="19">
+      <items count="20">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
@@ -10606,6 +11087,7 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10615,7 +11097,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="20">
     <i>
       <x/>
     </i>
@@ -10670,6 +11152,9 @@
     <i>
       <x v="17"/>
     </i>
+    <i>
+      <x v="18"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -10702,7 +11187,120 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item m="1" x="20"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item m="1" x="23"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item m="1" x="24"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item m="1" x="21"/>
+        <item m="1" x="25"/>
+        <item x="13"/>
+        <item m="1" x="19"/>
+        <item x="11"/>
+        <item m="1" x="26"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item m="1" x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item m="1" x="27"/>
+        <item m="1" x="22"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A19:C34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -10712,35 +11310,36 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item m="1" x="19"/>
+      <items count="30">
+        <item m="1" x="20"/>
         <item x="7"/>
         <item x="2"/>
         <item x="6"/>
-        <item m="1" x="22"/>
+        <item m="1" x="23"/>
         <item x="9"/>
         <item x="17"/>
         <item x="16"/>
-        <item m="1" x="23"/>
+        <item m="1" x="24"/>
         <item x="14"/>
         <item x="3"/>
-        <item m="1" x="20"/>
-        <item m="1" x="24"/>
+        <item m="1" x="21"/>
+        <item m="1" x="25"/>
         <item x="13"/>
-        <item m="1" x="18"/>
+        <item m="1" x="19"/>
         <item x="11"/>
-        <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="0"/>
         <item x="12"/>
         <item x="4"/>
-        <item m="1" x="27"/>
+        <item m="1" x="28"/>
         <item x="5"/>
         <item x="15"/>
-        <item m="1" x="26"/>
-        <item m="1" x="21"/>
+        <item m="1" x="27"/>
+        <item m="1" x="22"/>
         <item x="1"/>
         <item x="8"/>
         <item x="10"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10817,115 +11416,6 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="7" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="29">
-        <item m="1" x="19"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item m="1" x="22"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item m="1" x="23"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item m="1" x="20"/>
-        <item m="1" x="24"/>
-        <item x="13"/>
-        <item m="1" x="18"/>
-        <item x="11"/>
-        <item m="1" x="25"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item m="1" x="27"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item m="1" x="26"/>
-        <item m="1" x="21"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -11507,7 +11997,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="31">
         <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$3,"Category","Bar sales")</f>
-        <v>0</v>
+        <v>159.37</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -12067,12 +12557,4095 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABEE55E-E7BE-4AC9-B510-B295735902B8}">
+  <dimension ref="A1:U108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45737.541087962964</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.02</v>
+      </c>
+      <c r="R2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45737.743136574078</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K3">
+        <v>445083</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.08</v>
+      </c>
+      <c r="R3">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45737.7496875</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K4">
+        <v>88932</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>2.5</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.04</v>
+      </c>
+      <c r="R4">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45737.750590277778</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K5">
+        <v>841998</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.04</v>
+      </c>
+      <c r="R5">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45737.752881944441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K6">
+        <v>485215</v>
+      </c>
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.04</v>
+      </c>
+      <c r="R6">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45737.753750000003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K7">
+        <v>807638</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.08</v>
+      </c>
+      <c r="R7">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45737.75675925926</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K8">
+        <v>83008</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.03</v>
+      </c>
+      <c r="R8">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45737.758900462963</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="M9">
+        <v>2.5</v>
+      </c>
+      <c r="N9">
+        <v>2.5</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.04</v>
+      </c>
+      <c r="R9">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45737.759062500001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K10">
+        <v>923779</v>
+      </c>
+      <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>2.5</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.04</v>
+      </c>
+      <c r="R10">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45737.75984953704</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K11">
+        <v>63411</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.08</v>
+      </c>
+      <c r="R11">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45737.760578703703</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K12">
+        <v>583678</v>
+      </c>
+      <c r="M12">
+        <v>2.5</v>
+      </c>
+      <c r="N12">
+        <v>2.5</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.04</v>
+      </c>
+      <c r="R12">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45737.761342592596</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K13">
+        <v>667009</v>
+      </c>
+      <c r="M13">
+        <v>2.5</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.04</v>
+      </c>
+      <c r="R13">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45737.762511574074</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K14">
+        <v>4227</v>
+      </c>
+      <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>2.5</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.04</v>
+      </c>
+      <c r="R14">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45737.766018518516</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K15">
+        <v>62956</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.08</v>
+      </c>
+      <c r="R15">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45737.766296296293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K16">
+        <v>461900</v>
+      </c>
+      <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16">
+        <v>3.5</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.06</v>
+      </c>
+      <c r="R16">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45737.766840277778</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M17">
+        <v>2.5</v>
+      </c>
+      <c r="N17">
+        <v>2.5</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.04</v>
+      </c>
+      <c r="R17">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45737.767685185187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K18">
+        <v>552060</v>
+      </c>
+      <c r="M18">
+        <v>2.5</v>
+      </c>
+      <c r="N18">
+        <v>2.5</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.04</v>
+      </c>
+      <c r="R18">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45737.769687499997</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K19">
+        <v>252674</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.03</v>
+      </c>
+      <c r="R19">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45737.772418981483</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K20">
+        <v>310941</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.5</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.04</v>
+      </c>
+      <c r="R20">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45737.772928240738</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K21">
+        <v>21745</v>
+      </c>
+      <c r="M21">
+        <v>7.5</v>
+      </c>
+      <c r="N21">
+        <v>7.5</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.13</v>
+      </c>
+      <c r="R21">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45737.774780092594</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K22">
+        <v>73540</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.08</v>
+      </c>
+      <c r="R22">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45737.775266203702</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K23">
+        <v>651919</v>
+      </c>
+      <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
+        <v>2.5</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.04</v>
+      </c>
+      <c r="R23">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45737.775405092594</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K24">
+        <v>21229</v>
+      </c>
+      <c r="M24">
+        <v>2.5</v>
+      </c>
+      <c r="N24">
+        <v>2.5</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.04</v>
+      </c>
+      <c r="R24">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45737.784780092596</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K25">
+        <v>21860</v>
+      </c>
+      <c r="M25">
+        <v>2.5</v>
+      </c>
+      <c r="N25">
+        <v>2.5</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.04</v>
+      </c>
+      <c r="R25">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45737.785011574073</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M26">
+        <v>2.5</v>
+      </c>
+      <c r="N26">
+        <v>2.5</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0.04</v>
+      </c>
+      <c r="R26">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45737.785879629628</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K27">
+        <v>56140</v>
+      </c>
+      <c r="M27">
+        <v>7.5</v>
+      </c>
+      <c r="N27">
+        <v>7.5</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0.13</v>
+      </c>
+      <c r="R27">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45737.786296296297</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K28">
+        <v>14410</v>
+      </c>
+      <c r="M28">
+        <v>2.5</v>
+      </c>
+      <c r="N28">
+        <v>2.5</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0.04</v>
+      </c>
+      <c r="R28">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45737.786886574075</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K29">
+        <v>675253</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0.08</v>
+      </c>
+      <c r="R29">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45737.787395833337</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K30">
+        <v>983963</v>
+      </c>
+      <c r="M30">
+        <v>2.5</v>
+      </c>
+      <c r="N30">
+        <v>2.5</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0.04</v>
+      </c>
+      <c r="R30">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45737.787974537037</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K31">
+        <v>21746</v>
+      </c>
+      <c r="M31">
+        <v>2.5</v>
+      </c>
+      <c r="N31">
+        <v>2.5</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0.04</v>
+      </c>
+      <c r="R31">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45737.7887962963</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K32">
+        <v>69552</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0.08</v>
+      </c>
+      <c r="R32">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B33" s="6">
+        <v>45737.789930555555</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K33">
+        <v>198044</v>
+      </c>
+      <c r="M33">
+        <v>2.5</v>
+      </c>
+      <c r="N33">
+        <v>2.5</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0.04</v>
+      </c>
+      <c r="R33">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45737.791388888887</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K34">
+        <v>966881</v>
+      </c>
+      <c r="M34">
+        <v>3.5</v>
+      </c>
+      <c r="N34">
+        <v>3.5</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0.06</v>
+      </c>
+      <c r="R34">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45737.792592592596</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K35">
+        <v>669056</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0.08</v>
+      </c>
+      <c r="R35">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45737.793078703704</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K36">
+        <v>21476</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0.08</v>
+      </c>
+      <c r="R36">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45737.794918981483</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K37">
+        <v>51441</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0.08</v>
+      </c>
+      <c r="R37">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45737.795254629629</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K38">
+        <v>44494</v>
+      </c>
+      <c r="M38">
+        <v>2.5</v>
+      </c>
+      <c r="N38">
+        <v>2.5</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0.04</v>
+      </c>
+      <c r="R38">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45737.798576388886</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K39">
+        <v>143841</v>
+      </c>
+      <c r="M39">
+        <v>2.5</v>
+      </c>
+      <c r="N39">
+        <v>2.5</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.04</v>
+      </c>
+      <c r="R39">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45737.799629629626</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K40">
+        <v>55128</v>
+      </c>
+      <c r="M40">
+        <v>2.5</v>
+      </c>
+      <c r="N40">
+        <v>2.5</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0.04</v>
+      </c>
+      <c r="R40">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B41" s="6">
+        <v>45737.801550925928</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K41">
+        <v>21747</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0.08</v>
+      </c>
+      <c r="R41">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45737.806377314817</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K42">
+        <v>21477</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0.08</v>
+      </c>
+      <c r="R42">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45737.808958333335</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K43">
+        <v>21515</v>
+      </c>
+      <c r="M43">
+        <v>2.5</v>
+      </c>
+      <c r="N43">
+        <v>2.5</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0.04</v>
+      </c>
+      <c r="R43">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45737.814467592594</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K44">
+        <v>21142</v>
+      </c>
+      <c r="M44">
+        <v>2.5</v>
+      </c>
+      <c r="N44">
+        <v>2.5</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0.04</v>
+      </c>
+      <c r="R44">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45737.815243055556</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K45">
+        <v>77356</v>
+      </c>
+      <c r="M45">
+        <v>375</v>
+      </c>
+      <c r="N45">
+        <v>375</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>6.34</v>
+      </c>
+      <c r="R45">
+        <v>368.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45737.82172453704</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K46">
+        <v>21364</v>
+      </c>
+      <c r="M46">
+        <v>575</v>
+      </c>
+      <c r="N46">
+        <v>575</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="R46">
+        <v>565.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45737.822187500002</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K47">
+        <v>21748</v>
+      </c>
+      <c r="M47">
+        <v>2.5</v>
+      </c>
+      <c r="N47">
+        <v>2.5</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0.04</v>
+      </c>
+      <c r="R47">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45737.822384259256</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K48">
+        <v>21230</v>
+      </c>
+      <c r="M48">
+        <v>2.5</v>
+      </c>
+      <c r="N48">
+        <v>2.5</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0.04</v>
+      </c>
+      <c r="R48">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45737.823194444441</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K49">
+        <v>233995</v>
+      </c>
+      <c r="M49">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0.17</v>
+      </c>
+      <c r="R49">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45738.489791666667</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M50">
+        <v>240</v>
+      </c>
+      <c r="N50">
+        <v>240</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="R50">
+        <v>235.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45738.524270833332</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K51">
+        <v>533353</v>
+      </c>
+      <c r="M51">
+        <v>185</v>
+      </c>
+      <c r="N51">
+        <v>185</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>3.13</v>
+      </c>
+      <c r="R51">
+        <v>181.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B52" s="6">
+        <v>45738.677291666667</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1479</v>
+      </c>
+      <c r="M52">
+        <v>200</v>
+      </c>
+      <c r="N52">
+        <v>200</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>3.38</v>
+      </c>
+      <c r="R52">
+        <v>196.62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B53" s="6">
+        <v>45739.580196759256</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K53">
+        <v>6943</v>
+      </c>
+      <c r="M53">
+        <v>145</v>
+      </c>
+      <c r="N53">
+        <v>145</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="R53">
+        <v>142.55000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B54" s="6">
+        <v>45740.609618055554</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K54">
+        <v>905589</v>
+      </c>
+      <c r="M54">
+        <v>600</v>
+      </c>
+      <c r="N54">
+        <v>600</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>10.14</v>
+      </c>
+      <c r="R54">
+        <v>589.86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="37"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="37"/>
+      <c r="T103" s="37"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="37"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="37"/>
+      <c r="T104" s="37"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="37"/>
+      <c r="R106" s="37"/>
+      <c r="S106" s="37"/>
+      <c r="T106" s="37"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
+      <c r="R107" s="37"/>
+      <c r="S107" s="37"/>
+      <c r="T107" s="37"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="37"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="37"/>
+      <c r="R108" s="37"/>
+      <c r="S108" s="37"/>
+      <c r="T108" s="37"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U54">
+    <sortCondition ref="B2:B54"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEFBAE9-58F4-4427-A222-4B6D8D551056}">
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -21207,20 +25780,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3021DE-183F-467F-BF7A-5FF49A8AB64C}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
     <col min="3" max="3" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
     <col min="7" max="7" width="10.54296875" style="5" customWidth="1"/>
     <col min="8" max="8" width="2.7265625" style="5" customWidth="1"/>
@@ -21284,11 +25856,11 @@
         <v>240</v>
       </c>
       <c r="D3" s="27">
-        <f t="shared" ref="D3:D6" si="1">0.25 * C3</f>
+        <f t="shared" ref="D3:D8" si="1">0.25 * C3</f>
         <v>60</v>
       </c>
       <c r="E3" s="27">
-        <f t="shared" ref="E3:E6" si="2">C3-D3</f>
+        <f t="shared" ref="E3:E8" si="2">C3-D3</f>
         <v>180</v>
       </c>
       <c r="F3"/>
@@ -21387,9 +25959,17 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="27">
+        <v>600</v>
+      </c>
+      <c r="D7" s="27">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
       <c r="F7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="8"/>
@@ -21403,9 +25983,17 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="27">
+        <v>145</v>
+      </c>
+      <c r="D8" s="27">
+        <f t="shared" si="1"/>
+        <v>36.25</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="2"/>
+        <v>108.75</v>
+      </c>
       <c r="F8"/>
       <c r="O8" s="9"/>
       <c r="P8" s="8"/>
@@ -21701,7 +26289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB58F2B2-604E-41D7-8D60-AEC068EC3CDA}">
   <dimension ref="C1:AG1"/>
   <sheetViews>
@@ -21756,7 +26344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0167813-1C3C-42CC-A5D8-7CCC1B587009}">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -21941,15 +26529,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="H269" sqref="H269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" style="24" bestFit="1" customWidth="1"/>
@@ -26256,7 +30844,7 @@
         <v>30</v>
       </c>
       <c r="F205" s="24">
-        <f t="shared" ref="F205:F265" si="4">F204+E205-D205</f>
+        <f t="shared" ref="F205:F268" si="4">F204+E205-D205</f>
         <v>11168.400000000005</v>
       </c>
       <c r="G205" t="s">
@@ -27607,6 +32195,78 @@
         <v>49</v>
       </c>
       <c r="H265" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="23">
+        <v>45740</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E266">
+        <v>1690.92</v>
+      </c>
+      <c r="F266" s="24">
+        <f t="shared" si="4"/>
+        <v>13315.320000000007</v>
+      </c>
+      <c r="G266" t="s">
+        <v>85</v>
+      </c>
+      <c r="H266" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="23">
+        <v>45740</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E267">
+        <v>159.37</v>
+      </c>
+      <c r="F267" s="24">
+        <f t="shared" si="4"/>
+        <v>13474.690000000008</v>
+      </c>
+      <c r="G267" t="s">
+        <v>145</v>
+      </c>
+      <c r="H267" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="23">
+        <v>45741</v>
+      </c>
+      <c r="B268" t="s">
+        <v>259</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E268">
+        <v>589.86</v>
+      </c>
+      <c r="F268" s="24">
+        <f t="shared" si="4"/>
+        <v>14064.550000000008</v>
+      </c>
+      <c r="G268" t="s">
+        <v>85</v>
+      </c>
+      <c r="H268" t="s">
         <v>104</v>
       </c>
     </row>
@@ -30202,9 +34862,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="9" style="5"/>
     <col min="14" max="15" width="18.90625" style="5" customWidth="1"/>
     <col min="16" max="18" width="9" style="5"/>
@@ -32938,8 +37598,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="8.1796875" style="5"/>
     <col min="15" max="15" width="24.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.1796875" style="5"/>
@@ -33033,9 +37693,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33155,7 +37815,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAEDB9-0FE6-48E6-8096-45942EADC73F}">
-  <dimension ref="A3:C22"/>
+  <dimension ref="A3:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -33396,24 +38056,24 @@
       <c r="A4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="38">
         <v>6588.8800000000019</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38">
         <v>240</v>
       </c>
     </row>
@@ -33421,8 +38081,8 @@
       <c r="A7" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38">
         <v>245.4</v>
       </c>
     </row>
@@ -33430,8 +38090,8 @@
       <c r="A8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38">
         <v>97.6</v>
       </c>
     </row>
@@ -33439,17 +38099,17 @@
       <c r="A9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="37">
-        <v>30</v>
-      </c>
-      <c r="C9" s="37"/>
+      <c r="B9" s="38">
+        <v>30</v>
+      </c>
+      <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38">
         <v>200</v>
       </c>
     </row>
@@ -33457,8 +38117,8 @@
       <c r="A11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38">
         <v>132</v>
       </c>
     </row>
@@ -33466,8 +38126,8 @@
       <c r="A12" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38">
         <v>210</v>
       </c>
     </row>
@@ -33475,8 +38135,8 @@
       <c r="A13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38">
         <v>55.89</v>
       </c>
     </row>
@@ -33484,8 +38144,8 @@
       <c r="A14" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38">
         <v>625</v>
       </c>
     </row>
@@ -33493,8 +38153,8 @@
       <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38">
         <v>7.95</v>
       </c>
     </row>
@@ -33502,26 +38162,26 @@
       <c r="A16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="38">
         <v>1.77</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="38">
         <v>2443.5299999999997</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38">
         <v>606.6</v>
       </c>
     </row>
@@ -33529,8 +38189,10 @@
       <c r="A19" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37">
+      <c r="B19" s="38">
+        <v>159.37</v>
+      </c>
+      <c r="C19" s="38">
         <v>30</v>
       </c>
     </row>
@@ -33538,8 +38200,8 @@
       <c r="A20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38">
         <v>200</v>
       </c>
     </row>
@@ -33547,19 +38209,28 @@
       <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38">
         <v>613.22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="38">
+        <v>2280.7800000000002</v>
+      </c>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="37">
-        <v>9064.1800000000021</v>
-      </c>
-      <c r="C22" s="37">
+      <c r="B23" s="38">
+        <v>11504.330000000004</v>
+      </c>
+      <c r="C23" s="38">
         <v>3263.66</v>
       </c>
     </row>
@@ -33572,13 +38243,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -33606,8 +38277,8 @@
       <c r="A4" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38">
         <v>25.4</v>
       </c>
     </row>
@@ -33615,8 +38286,8 @@
       <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38">
         <v>200</v>
       </c>
     </row>
@@ -33624,8 +38295,8 @@
       <c r="A6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38">
         <v>431.6</v>
       </c>
     </row>
@@ -33633,17 +38304,17 @@
       <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <v>2443.5300000000007</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38">
         <v>245.4</v>
       </c>
     </row>
@@ -33651,19 +38322,30 @@
       <c r="A9" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37">
+      <c r="B9" s="38">
+        <v>159.37</v>
+      </c>
+      <c r="C9" s="38">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="38">
+        <v>2280.7800000000002</v>
+      </c>
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="37">
-        <v>2443.5300000000007</v>
-      </c>
-      <c r="C10" s="37">
+      <c r="B11" s="38">
+        <v>4883.68</v>
+      </c>
+      <c r="C11" s="38">
         <v>932.4</v>
       </c>
     </row>
@@ -33713,8 +38395,8 @@
       <c r="A20" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38">
         <v>132</v>
       </c>
       <c r="E20" t="s">
@@ -33734,10 +38416,10 @@
       <c r="A21" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="37">
-        <v>30</v>
-      </c>
-      <c r="C21" s="37"/>
+      <c r="B21" s="38">
+        <v>30</v>
+      </c>
+      <c r="C21" s="38"/>
       <c r="E21" t="s">
         <v>117</v>
       </c>
@@ -33752,8 +38434,8 @@
       <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38">
         <v>200</v>
       </c>
       <c r="E22" t="s">
@@ -33772,8 +38454,8 @@
       <c r="A23" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38">
         <v>30.49</v>
       </c>
     </row>
@@ -33781,8 +38463,8 @@
       <c r="A24" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38">
         <v>613.22</v>
       </c>
     </row>
@@ -33790,8 +38472,8 @@
       <c r="A25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38">
         <v>175</v>
       </c>
     </row>
@@ -33799,8 +38481,8 @@
       <c r="A26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38">
         <v>240</v>
       </c>
     </row>
@@ -33808,8 +38490,8 @@
       <c r="A27" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38">
         <v>7.95</v>
       </c>
     </row>
@@ -33817,24 +38499,24 @@
       <c r="A28" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="38">
         <v>1.77</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38">
         <v>97.6</v>
       </c>
     </row>
@@ -33842,17 +38524,17 @@
       <c r="A31" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="38">
         <v>6588.8800000000019</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="38"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38">
         <v>210</v>
       </c>
     </row>
@@ -33860,8 +38542,8 @@
       <c r="A33" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38">
         <v>625</v>
       </c>
     </row>
@@ -33869,10 +38551,10 @@
       <c r="A34" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="38">
         <v>6620.6500000000024</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="38">
         <v>2331.2600000000002</v>
       </c>
     </row>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C7B9C-1615-4DDC-AFA4-2F3F365D079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761EEB39-B3E2-4E9C-9258-1F7F4B3EAC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="6" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="8" activeTab="11" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -29,14 +29,14 @@
     <sheet name="Lists" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current account'!$A$1:$I$354</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current account'!$A$1:$I$353</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Membership List'!$A$2:$A$216</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Stripe!$A$1:$W$478</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId15"/>
-    <pivotCache cacheId="15" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="1587">
   <si>
     <t>Subs</t>
   </si>
@@ -4789,6 +4789,36 @@
   </si>
   <si>
     <t>SumUp Payments AccMDD PID1044627</t>
+  </si>
+  <si>
+    <t>CASH IN AT 403534</t>
+  </si>
+  <si>
+    <t>WILLIAM HOGG williamHogg</t>
+  </si>
+  <si>
+    <t>A Hermon Tara Palmer Woolwy</t>
+  </si>
+  <si>
+    <t>Caroline Ritson</t>
+  </si>
+  <si>
+    <t>Jill Colchester</t>
+  </si>
+  <si>
+    <t>Hannah Vickery</t>
+  </si>
+  <si>
+    <t>Helan Pakeman</t>
+  </si>
+  <si>
+    <t>SORENSEN BH HELEN PAKEMAN</t>
+  </si>
+  <si>
+    <t>LISTER J&amp;G Jenny Lister</t>
+  </si>
+  <si>
+    <t>Lister</t>
   </si>
 </sst>
 </file>
@@ -4947,7 +4977,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4990,7 +5020,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyBorder="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5014,13 +5043,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45742.416263888888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="268" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45744.730815972223" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="274" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I401" sheet="Current account"/>
+    <worksheetSource ref="A1:I400" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-26T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-29T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5035,7 +5064,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="14064.550000000008"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="15657.970000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems containsBlank="1" count="19">
@@ -5076,13 +5105,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45742.416487731483" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="268" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45744.730861805554" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="274" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I504" sheet="Current account"/>
+    <worksheetSource ref="A1:I503" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-26T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-03-29T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5097,7 +5126,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="14064.550000000008"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="15657.970000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems containsBlank="1" count="29">
@@ -5152,7 +5181,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="268">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="274">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -8091,6 +8120,72 @@
     <m/>
   </r>
   <r>
+    <d v="2025-03-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="WILLIAM HOGG williamHogg"/>
+    <m/>
+    <n v="719"/>
+    <n v="14783.550000000008"/>
+    <x v="18"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="CASH IN AT 403534"/>
+    <m/>
+    <n v="80.599999999999994"/>
+    <n v="14864.150000000009"/>
+    <x v="15"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="A Hermon Tara Palmer Woolwy"/>
+    <m/>
+    <n v="700"/>
+    <n v="15564.150000000009"/>
+    <x v="18"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sarah Dearling OAS"/>
+    <n v="15.59"/>
+    <m/>
+    <n v="15548.560000000009"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sarah Dearling OAS"/>
+    <n v="15.59"/>
+    <m/>
+    <n v="15532.970000000008"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="SORENSEN BH HELEN PAKEMAN"/>
+    <m/>
+    <n v="125"/>
+    <n v="15657.970000000008"/>
+    <x v="18"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -8105,7 +8200,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="268">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="274">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -11044,6 +11139,72 @@
     <m/>
   </r>
   <r>
+    <d v="2025-03-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="WILLIAM HOGG williamHogg"/>
+    <m/>
+    <n v="719"/>
+    <n v="14783.550000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="CASH IN AT 403534"/>
+    <m/>
+    <n v="80.599999999999994"/>
+    <n v="14864.150000000009"/>
+    <x v="15"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="A Hermon Tara Palmer Woolwy"/>
+    <m/>
+    <n v="700"/>
+    <n v="15564.150000000009"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sarah Dearling OAS"/>
+    <n v="15.59"/>
+    <m/>
+    <n v="15548.560000000009"/>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sarah Dearling OAS"/>
+    <n v="15.59"/>
+    <m/>
+    <n v="15532.970000000008"/>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="SORENSEN BH HELEN PAKEMAN"/>
+    <m/>
+    <n v="125"/>
+    <n v="15657.970000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -11058,7 +11219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -11187,7 +11348,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -11300,7 +11461,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A19:C34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -11841,7 +12002,7 @@
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="31">
-        <f>SUMIF('Current account'!G2:G402, "Subs", 'Current account'!E2:E402)</f>
+        <f>SUMIF('Current account'!G2:G401, "Subs", 'Current account'!E2:E401)</f>
         <v>0</v>
       </c>
       <c r="L4" s="17"/>
@@ -11850,7 +12011,7 @@
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="31">
-        <f>SUMIF('Current account'!G2:G402,"Prof Fees",'Current account'!D2:D402)</f>
+        <f>SUMIF('Current account'!G2:G401,"Prof Fees",'Current account'!D2:D401)</f>
         <v>0</v>
       </c>
     </row>
@@ -11880,8 +12041,8 @@
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="31">
-        <f>SUMIF('Current account'!G2:G402, "Subs 2025", 'Current account'!E2:E402)</f>
-        <v>6588.8800000000019</v>
+        <f>SUMIF('Current account'!G2:G401, "Subs 2025", 'Current account'!E2:E401)</f>
+        <v>6618.8800000000019</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17" t="s">
@@ -11889,7 +12050,7 @@
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="31">
-        <f>SUMIF('Current account'!G2:G402,"AGM",'Current account'!D2:D402)</f>
+        <f>SUMIF('Current account'!G2:G401,"AGM",'Current account'!D2:D401)</f>
         <v>132</v>
       </c>
     </row>
@@ -11917,7 +12078,7 @@
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="31">
-        <f>SUMIF('Current account'!G2:G402, "Other income", 'Current account'!D2:D402)</f>
+        <f>SUMIF('Current account'!G2:G401, "Other income", 'Current account'!D2:D401)</f>
         <v>0</v>
       </c>
       <c r="L6" s="17"/>
@@ -11926,7 +12087,7 @@
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="31">
-        <f>SUMIF('Current account'!G2:G402,"Gifts",'Current account'!D2:D402)</f>
+        <f>SUMIF('Current account'!G2:G401,"Gifts",'Current account'!D2:D401)</f>
         <v>55.89</v>
       </c>
     </row>
@@ -11961,7 +12122,7 @@
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="31">
-        <f>SUMIF('Current account'!G2:G402,"Admin",'Current account'!D2:D402)+SUMIF('Current account'!G2:G402, "Other expenses", 'Current account'!D2:D402)</f>
+        <f>SUMIF('Current account'!G2:G401,"Admin",'Current account'!D2:D401)+SUMIF('Current account'!G2:G401, "Other expenses", 'Current account'!D2:D401)</f>
         <v>97.6</v>
       </c>
     </row>
@@ -11986,8 +12147,8 @@
       </c>
       <c r="N8" s="17"/>
       <c r="O8" s="31">
-        <f ca="1">SUMIF('Current account'!G2:G402,"Website",'Current account'!D2:D41)</f>
-        <v>7.95</v>
+        <f ca="1">SUMIF('Current account'!G2:G401,"Website",'Current account'!D2:D41)</f>
+        <v>39.129999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -11997,7 +12158,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="31">
         <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$3,"Category","Bar sales")</f>
-        <v>159.37</v>
+        <v>239.97</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -12018,7 +12179,7 @@
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="31">
-        <f>SUMIF('Current account'!G2:G402, "Insurance", 'Current account'!D2:D402)</f>
+        <f>SUMIF('Current account'!G2:G401, "Insurance", 'Current account'!D2:D401)</f>
         <v>613.22</v>
       </c>
     </row>
@@ -12050,7 +12211,7 @@
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="31">
-        <f>SUMIF('Current account'!G2:G402, "Donations db", 'Current account'!D2:D402)</f>
+        <f>SUMIF('Current account'!G2:G401, "Donations db", 'Current account'!D2:D401)</f>
         <v>200</v>
       </c>
     </row>
@@ -12174,7 +12335,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="31">
         <f ca="1">SUM(O4:O13)</f>
-        <v>1106.6600000000001</v>
+        <v>1137.8400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12367,7 +12528,7 @@
       </c>
       <c r="N23" s="17"/>
       <c r="O23" s="31">
-        <f>'Savings account'!F15+'Current account'!F402</f>
+        <f>'Savings account'!F15+'Current account'!F401</f>
         <v>0</v>
       </c>
     </row>
@@ -12560,8 +12721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABEE55E-E7BE-4AC9-B510-B295735902B8}">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R54" sqref="R2:R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -25782,15 +25943,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3021DE-183F-467F-BF7A-5FF49A8AB64C}">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
+    <col min="1" max="1" width="16.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
@@ -25844,7 +26006,7 @@
       <c r="S2" s="9"/>
       <c r="U2" s="11"/>
       <c r="Z2" s="20" t="e">
-        <f t="shared" ref="Z2:Z23" si="0">S2/G2</f>
+        <f t="shared" ref="Z2:Z22" si="0">S2/G2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25856,11 +26018,11 @@
         <v>240</v>
       </c>
       <c r="D3" s="27">
-        <f t="shared" ref="D3:D8" si="1">0.25 * C3</f>
+        <f t="shared" ref="D3:D16" si="1">0.25 * C3</f>
         <v>60</v>
       </c>
       <c r="E3" s="27">
-        <f t="shared" ref="E3:E8" si="2">C3-D3</f>
+        <f t="shared" ref="E3:E16" si="2">C3-D3</f>
         <v>180</v>
       </c>
       <c r="F3"/>
@@ -25871,7 +26033,7 @@
       <c r="S3" s="9"/>
       <c r="U3" s="10"/>
       <c r="X3" s="12">
-        <f>Q3-N21</f>
+        <f>Q3-N20</f>
         <v>0</v>
       </c>
       <c r="Z3" s="20" t="e">
@@ -26007,9 +26169,17 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="27">
+        <v>700</v>
+      </c>
+      <c r="D9" s="27">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="2"/>
+        <v>525</v>
+      </c>
       <c r="F9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="8"/>
@@ -26023,9 +26193,20 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C10" s="27">
+        <v>240</v>
+      </c>
+      <c r="D10" s="27">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
       <c r="F10"/>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
@@ -26039,9 +26220,20 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C11" s="27">
+        <v>284</v>
+      </c>
+      <c r="D11" s="27">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
       <c r="F11"/>
       <c r="O11" s="9"/>
       <c r="P11" s="8"/>
@@ -26055,9 +26247,20 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C12" s="27">
+        <v>195</v>
+      </c>
+      <c r="D12" s="27">
+        <f t="shared" si="1"/>
+        <v>48.75</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="2"/>
+        <v>146.25</v>
+      </c>
       <c r="F12"/>
       <c r="O12" s="9"/>
       <c r="P12" s="8"/>
@@ -26071,42 +26274,70 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C13" s="27">
+        <v>125</v>
+      </c>
+      <c r="D13" s="27">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="2"/>
+        <v>93.75</v>
+      </c>
       <c r="F13"/>
       <c r="O13" s="9"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="8"/>
       <c r="S13" s="9"/>
-      <c r="U13" s="10"/>
+      <c r="U13" s="11"/>
       <c r="Z13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14"/>
+      <c r="C14" s="27">
+        <v>1250</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="2"/>
+        <v>937.5</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="8"/>
       <c r="S14" s="9"/>
-      <c r="U14" s="11"/>
+      <c r="U14" s="10"/>
       <c r="Z14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C15" s="27">
+        <v>175</v>
+      </c>
+      <c r="D15" s="27">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="2"/>
+        <v>131.25</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="8"/>
       <c r="S15" s="9"/>
       <c r="U15" s="10"/>
       <c r="Z15" s="20" t="e">
@@ -26115,6 +26346,17 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C16" s="27">
+        <v>325</v>
+      </c>
+      <c r="D16" s="27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="2"/>
+        <v>243.75</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="9"/>
@@ -26129,6 +26371,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="9"/>
+      <c r="R17" s="8"/>
       <c r="S17" s="9"/>
       <c r="U17" s="10"/>
       <c r="Z17" s="20" t="e">
@@ -26149,10 +26392,10 @@
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="8"/>
       <c r="S19" s="9"/>
       <c r="U19" s="10"/>
       <c r="Z19" s="20" t="e">
@@ -26204,56 +26447,51 @@
       <c r="S23" s="9"/>
       <c r="U23" s="10"/>
       <c r="Z23" s="20" t="e">
-        <f t="shared" si="0"/>
+        <f>S23/G23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="U24" s="10"/>
-      <c r="Z24" s="20" t="e">
-        <f>S24/G24</f>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="G25" s="5">
+        <f>SUM(G2:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <f>SUM(S2:S23)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="20" t="e">
+        <f>S25/G25</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="G26" s="5">
-        <f>SUM(G2:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="12">
-        <f>SUM(S2:S24)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="20" t="e">
-        <f>S26/G26</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+      <c r="G27" s="2"/>
       <c r="H27"/>
+      <c r="I27"/>
+      <c r="S27" s="2">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="G28" s="2"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="S28" s="2">
-        <v>62.5</v>
-      </c>
+      <c r="F28"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B29"/>
@@ -26261,6 +26499,8 @@
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30"/>
@@ -26268,20 +26508,11 @@
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31" s="12"/>
+      <c r="G30" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U24">
-    <sortCondition ref="O2:O24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U23">
+    <sortCondition ref="O2:O23"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26529,10 +26760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I275"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="H269" sqref="H269"/>
+    <sheetView topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -30844,7 +31075,7 @@
         <v>30</v>
       </c>
       <c r="F205" s="24">
-        <f t="shared" ref="F205:F268" si="4">F204+E205-D205</f>
+        <f t="shared" ref="F205:F269" si="4">F204+E205-D205</f>
         <v>11168.400000000005</v>
       </c>
       <c r="G205" t="s">
@@ -32270,8 +32501,167 @@
         <v>104</v>
       </c>
     </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="23">
+        <v>45742</v>
+      </c>
+      <c r="B269" t="s">
+        <v>259</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E269">
+        <v>719</v>
+      </c>
+      <c r="F269" s="24">
+        <f t="shared" si="4"/>
+        <v>14783.550000000008</v>
+      </c>
+      <c r="G269" t="s">
+        <v>85</v>
+      </c>
+      <c r="H269" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="23">
+        <v>45742</v>
+      </c>
+      <c r="B270" t="s">
+        <v>259</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E270">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F270" s="24">
+        <f t="shared" ref="F270:F275" si="5">F269+E270-D270</f>
+        <v>14864.150000000009</v>
+      </c>
+      <c r="G270" t="s">
+        <v>145</v>
+      </c>
+      <c r="H270" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="23">
+        <v>45743</v>
+      </c>
+      <c r="B271" t="s">
+        <v>259</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E271">
+        <v>700</v>
+      </c>
+      <c r="F271" s="24">
+        <f t="shared" si="5"/>
+        <v>15564.150000000009</v>
+      </c>
+      <c r="G271" t="s">
+        <v>85</v>
+      </c>
+      <c r="H271" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="23">
+        <v>45744</v>
+      </c>
+      <c r="B272" t="s">
+        <v>264</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D272">
+        <v>15.59</v>
+      </c>
+      <c r="F272" s="24">
+        <f t="shared" si="5"/>
+        <v>15548.560000000009</v>
+      </c>
+      <c r="G272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="23">
+        <v>45744</v>
+      </c>
+      <c r="B273" t="s">
+        <v>264</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D273">
+        <v>15.59</v>
+      </c>
+      <c r="F273" s="24">
+        <f t="shared" si="5"/>
+        <v>15532.970000000008</v>
+      </c>
+      <c r="G273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="23">
+        <v>45744</v>
+      </c>
+      <c r="B274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E274">
+        <v>125</v>
+      </c>
+      <c r="F274" s="24">
+        <f t="shared" si="5"/>
+        <v>15657.970000000008</v>
+      </c>
+      <c r="G274" t="s">
+        <v>85</v>
+      </c>
+      <c r="H274" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="23">
+        <v>45744</v>
+      </c>
+      <c r="B275" t="s">
+        <v>259</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E275">
+        <v>30</v>
+      </c>
+      <c r="F275" s="24">
+        <f t="shared" si="5"/>
+        <v>15687.970000000008</v>
+      </c>
+      <c r="G275" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I354" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
+  <autoFilter ref="A1:I353" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -34857,7 +35247,7 @@
   <dimension ref="A1:V242"/>
   <sheetViews>
     <sheetView topLeftCell="A222" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+      <selection activeCell="A237" sqref="A237:XFD237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -37515,43 +37905,43 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>523</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>481</v>
+        <v>682</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1118</v>
+        <v>1311</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>682</v>
+        <v>1313</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>1120</v>
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>466</v>
@@ -37559,24 +37949,24 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1314</v>
+        <v>481</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>466</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>1320</v>
+        <v>1585</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>1321</v>
+        <v>1586</v>
       </c>
     </row>
   </sheetData>
@@ -38056,24 +38446,20 @@
       <c r="A4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4">
         <v>6588.8800000000019</v>
       </c>
-      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38">
+      <c r="C6">
         <v>240</v>
       </c>
     </row>
@@ -38081,8 +38467,7 @@
       <c r="A7" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38">
+      <c r="C7">
         <v>245.4</v>
       </c>
     </row>
@@ -38090,8 +38475,7 @@
       <c r="A8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38">
+      <c r="C8">
         <v>97.6</v>
       </c>
     </row>
@@ -38099,17 +38483,15 @@
       <c r="A9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="38">
-        <v>30</v>
-      </c>
-      <c r="C9" s="38"/>
+      <c r="B9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38">
+      <c r="C10">
         <v>200</v>
       </c>
     </row>
@@ -38117,8 +38499,7 @@
       <c r="A11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38">
+      <c r="C11">
         <v>132</v>
       </c>
     </row>
@@ -38126,8 +38507,7 @@
       <c r="A12" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38">
+      <c r="C12">
         <v>210</v>
       </c>
     </row>
@@ -38135,8 +38515,7 @@
       <c r="A13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38">
+      <c r="C13">
         <v>55.89</v>
       </c>
     </row>
@@ -38144,8 +38523,7 @@
       <c r="A14" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38">
+      <c r="C14">
         <v>625</v>
       </c>
     </row>
@@ -38153,35 +38531,31 @@
       <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38">
-        <v>7.95</v>
+      <c r="C15">
+        <v>39.129999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16">
         <v>1.77</v>
       </c>
-      <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17">
         <v>2443.5299999999997</v>
       </c>
-      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38">
+      <c r="C18">
         <v>606.6</v>
       </c>
     </row>
@@ -38189,10 +38563,10 @@
       <c r="A19" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="38">
-        <v>159.37</v>
-      </c>
-      <c r="C19" s="38">
+      <c r="B19">
+        <v>239.97</v>
+      </c>
+      <c r="C19">
         <v>30</v>
       </c>
     </row>
@@ -38200,8 +38574,7 @@
       <c r="A20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38">
+      <c r="C20">
         <v>200</v>
       </c>
     </row>
@@ -38209,8 +38582,7 @@
       <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38">
+      <c r="C21">
         <v>613.22</v>
       </c>
     </row>
@@ -38218,20 +38590,19 @@
       <c r="A22" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="38">
-        <v>2280.7800000000002</v>
-      </c>
-      <c r="C22" s="38"/>
+      <c r="B22">
+        <v>3824.78</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="38">
-        <v>11504.330000000004</v>
-      </c>
-      <c r="C23" s="38">
-        <v>3263.66</v>
+      <c r="B23">
+        <v>13128.930000000002</v>
+      </c>
+      <c r="C23">
+        <v>3294.84</v>
       </c>
     </row>
   </sheetData>
@@ -38243,8 +38614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -38254,7 +38625,7 @@
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>106</v>
       </c>
@@ -38262,7 +38633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>82</v>
       </c>
@@ -38273,86 +38644,74 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38">
+      <c r="C4">
         <v>25.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38">
+      <c r="C5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38">
+      <c r="C6">
         <v>431.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7">
         <v>2443.5300000000007</v>
       </c>
-      <c r="C7" s="38"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38">
+      <c r="C8">
         <v>245.4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="38">
-        <v>159.37</v>
-      </c>
-      <c r="C9" s="38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>239.97</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="38">
-        <v>2280.7800000000002</v>
-      </c>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3824.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="38">
-        <v>4883.68</v>
-      </c>
-      <c r="C11" s="38">
+      <c r="B11">
+        <v>6508.2800000000007</v>
+      </c>
+      <c r="C11">
         <v>932.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I12">
-        <f>7695.3-7590.3</f>
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -38395,8 +38754,7 @@
       <c r="A20" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38">
+      <c r="C20">
         <v>132</v>
       </c>
       <c r="E20" t="s">
@@ -38416,10 +38774,9 @@
       <c r="A21" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="38">
-        <v>30</v>
-      </c>
-      <c r="C21" s="38"/>
+      <c r="B21">
+        <v>30</v>
+      </c>
       <c r="E21" t="s">
         <v>117</v>
       </c>
@@ -38434,8 +38791,7 @@
       <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38">
+      <c r="C22">
         <v>200</v>
       </c>
       <c r="E22" t="s">
@@ -38454,8 +38810,7 @@
       <c r="A23" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38">
+      <c r="C23">
         <v>30.49</v>
       </c>
     </row>
@@ -38463,8 +38818,7 @@
       <c r="A24" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38">
+      <c r="C24">
         <v>613.22</v>
       </c>
     </row>
@@ -38472,8 +38826,7 @@
       <c r="A25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38">
+      <c r="C25">
         <v>175</v>
       </c>
     </row>
@@ -38481,8 +38834,7 @@
       <c r="A26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38">
+      <c r="C26">
         <v>240</v>
       </c>
     </row>
@@ -38490,33 +38842,28 @@
       <c r="A27" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38">
-        <v>7.95</v>
+      <c r="C27">
+        <v>39.129999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29">
         <v>1.77</v>
       </c>
-      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38">
+      <c r="C30">
         <v>97.6</v>
       </c>
     </row>
@@ -38524,17 +38871,15 @@
       <c r="A31" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31">
         <v>6588.8800000000019</v>
       </c>
-      <c r="C31" s="38"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38">
+      <c r="C32">
         <v>210</v>
       </c>
     </row>
@@ -38542,8 +38887,7 @@
       <c r="A33" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38">
+      <c r="C33">
         <v>625</v>
       </c>
     </row>
@@ -38551,11 +38895,11 @@
       <c r="A34" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34">
         <v>6620.6500000000024</v>
       </c>
-      <c r="C34" s="38">
-        <v>2331.2600000000002</v>
+      <c r="C34">
+        <v>2362.44</v>
       </c>
     </row>
   </sheetData>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427F50D-C19A-4C3D-B826-0C3E0C6E943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BFD9A-5255-4DD1-9EF7-1982798E01E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" firstSheet="1" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4323" uniqueCount="1669">
   <si>
     <t>Subs</t>
   </si>
@@ -4936,9 +4936,6 @@
     <t>Artist paid</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -5033,6 +5030,42 @@
   </si>
   <si>
     <t>Philip Vainker OAS</t>
+  </si>
+  <si>
+    <t>Susan Wheeler OAS</t>
+  </si>
+  <si>
+    <t>Vivian Shelton OAS</t>
+  </si>
+  <si>
+    <t>Deborah Williams OAS</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16APR2025</t>
+  </si>
+  <si>
+    <t>TOTAL CHARGES TO 30MAR2025</t>
+  </si>
+  <si>
+    <t>Stripe OAS</t>
+  </si>
+  <si>
+    <t>Committee meeting refreshments</t>
+  </si>
+  <si>
+    <t>Roberta Catizone OAS</t>
+  </si>
+  <si>
+    <t>Commision on direct sale</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Erin Thomas OAS</t>
+  </si>
+  <si>
+    <t>Young artists</t>
   </si>
 </sst>
 </file>
@@ -5290,13 +5323,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45761.461562268516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="299" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45786.524010532405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="315" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I400" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-04-15T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-05-10T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5305,7 +5338,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="937.5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1500"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
@@ -5314,7 +5347,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="18411.630000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="21">
+      <sharedItems containsBlank="1" count="23">
         <m/>
         <s v="Subs 2025"/>
         <s v="Donations cr"/>
@@ -5335,6 +5368,8 @@
         <s v="Insurance"/>
         <s v="Sales cr"/>
         <s v="Sales db"/>
+        <s v="Exhibition organisers fees"/>
+        <s v="Website manager's fee"/>
         <s v="Exhibitions cr" u="1"/>
       </sharedItems>
     </cacheField>
@@ -5354,13 +5389,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45761.461653356484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="299" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45786.524056249997" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="315" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I503" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-04-15T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-05-10T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5369,7 +5404,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="937.5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1500"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
@@ -5399,11 +5434,11 @@
         <s v="Insurance"/>
         <s v="Sales cr"/>
         <s v="Sales db"/>
+        <s v="Exhibition organisers fees"/>
+        <s v="Website manager's fee"/>
         <s v="Exhibitions cr" u="1"/>
         <s v="Subs" u="1"/>
         <s v="Admin" u="1"/>
-        <s v="Website manager's fee" u="1"/>
-        <s v="Exhibition organisers fees" u="1"/>
         <s v="Prof Fees" u="1"/>
         <s v="Venue hire" u="1"/>
         <s v="Transfer Out" u="1"/>
@@ -5411,9 +5446,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Exhibition" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <m/>
         <s v="Members"/>
+        <s v="Young artists"/>
         <s v="Open" u="1"/>
       </sharedItems>
     </cacheField>
@@ -5430,7 +5466,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="299">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="315">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -8710,6 +8746,182 @@
     <m/>
   </r>
   <r>
+    <d v="2025-04-15T00:00:00"/>
+    <s v="BP"/>
+    <s v="Susan Wheeler OAS"/>
+    <n v="281.25"/>
+    <m/>
+    <n v="14323.500000000007"/>
+    <x v="19"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="750"/>
+    <m/>
+    <n v="13573.500000000007"/>
+    <x v="20"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="43.17"/>
+    <m/>
+    <n v="13530.330000000007"/>
+    <x v="4"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="124.65"/>
+    <m/>
+    <n v="13405.680000000008"/>
+    <x v="4"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="750"/>
+    <m/>
+    <n v="12655.680000000008"/>
+    <x v="20"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-21T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="66.790000000000006"/>
+    <m/>
+    <n v="12588.890000000007"/>
+    <x v="4"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30MAR2025"/>
+    <n v="5.72"/>
+    <m/>
+    <n v="12583.170000000007"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jill Colchester OAS"/>
+    <n v="213"/>
+    <m/>
+    <n v="12370.170000000007"/>
+    <x v="19"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Stripe OAS"/>
+    <n v="15"/>
+    <m/>
+    <n v="12355.170000000007"/>
+    <x v="3"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="17.75"/>
+    <m/>
+    <n v="12337.420000000007"/>
+    <x v="5"/>
+    <m/>
+    <s v="Committee meeting refreshments"/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Roberta Catizone OAS"/>
+    <n v="1500"/>
+    <m/>
+    <n v="10837.420000000007"/>
+    <x v="21"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Roberta Catizone OAS"/>
+    <n v="264.14999999999998"/>
+    <m/>
+    <n v="10573.270000000008"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="Olding Alexandra ALEXANDRA BUCKLE"/>
+    <m/>
+    <n v="47.5"/>
+    <n v="10620.770000000008"/>
+    <x v="18"/>
+    <s v="Members"/>
+    <s v="Commision on direct sale"/>
+  </r>
+  <r>
+    <d v="2025-05-01T00:00:00"/>
+    <s v="SO"/>
+    <s v="Jeremy Morgan OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="10380.770000000008"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="41.42"/>
+    <m/>
+    <n v="10339.350000000008"/>
+    <x v="14"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="122.1"/>
+    <m/>
+    <n v="10217.250000000007"/>
+    <x v="20"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -8724,7 +8936,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="299">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="315">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -12001,6 +12213,182 @@
     <n v="14604.750000000007"/>
     <x v="19"/>
     <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-15T00:00:00"/>
+    <s v="BP"/>
+    <s v="Susan Wheeler OAS"/>
+    <n v="281.25"/>
+    <m/>
+    <n v="14323.500000000007"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="750"/>
+    <m/>
+    <n v="13573.500000000007"/>
+    <x v="20"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="43.17"/>
+    <m/>
+    <n v="13530.330000000007"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="124.65"/>
+    <m/>
+    <n v="13405.680000000008"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="750"/>
+    <m/>
+    <n v="12655.680000000008"/>
+    <x v="20"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-21T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="66.790000000000006"/>
+    <m/>
+    <n v="12588.890000000007"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30MAR2025"/>
+    <n v="5.72"/>
+    <m/>
+    <n v="12583.170000000007"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jill Colchester OAS"/>
+    <n v="213"/>
+    <m/>
+    <n v="12370.170000000007"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Stripe OAS"/>
+    <n v="15"/>
+    <m/>
+    <n v="12355.170000000007"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="17.75"/>
+    <m/>
+    <n v="12337.420000000007"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Committee meeting refreshments"/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Roberta Catizone OAS"/>
+    <n v="1500"/>
+    <m/>
+    <n v="10837.420000000007"/>
+    <x v="21"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Roberta Catizone OAS"/>
+    <n v="264.14999999999998"/>
+    <m/>
+    <n v="10573.270000000008"/>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="Olding Alexandra ALEXANDRA BUCKLE"/>
+    <m/>
+    <n v="47.5"/>
+    <n v="10620.770000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <s v="Commision on direct sale"/>
+  </r>
+  <r>
+    <d v="2025-05-01T00:00:00"/>
+    <s v="SO"/>
+    <s v="Jeremy Morgan OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="10380.770000000008"/>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="41.42"/>
+    <m/>
+    <n v="10339.350000000008"/>
+    <x v="14"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="122.1"/>
+    <m/>
+    <n v="10217.250000000007"/>
+    <x v="20"/>
+    <x v="2"/>
     <m/>
   </r>
   <r>
@@ -12019,7 +12407,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -12028,7 +12416,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="22">
+      <items count="24">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
@@ -12047,9 +12435,11 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
-        <item m="1" x="20"/>
+        <item m="1" x="22"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12059,7 +12449,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="23">
     <i>
       <x/>
     </i>
@@ -12120,6 +12510,12 @@
     <i>
       <x v="20"/>
     </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -12153,7 +12549,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -12163,11 +12559,11 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="30">
-        <item m="1" x="22"/>
+        <item m="1" x="24"/>
         <item x="7"/>
         <item x="2"/>
         <item x="6"/>
-        <item m="1" x="24"/>
+        <item x="20"/>
         <item x="9"/>
         <item x="17"/>
         <item x="16"/>
@@ -12177,7 +12573,7 @@
         <item x="18"/>
         <item x="19"/>
         <item x="13"/>
-        <item m="1" x="21"/>
+        <item m="1" x="23"/>
         <item x="11"/>
         <item m="1" x="26"/>
         <item x="0"/>
@@ -12187,19 +12583,20 @@
         <item x="5"/>
         <item x="15"/>
         <item m="1" x="27"/>
-        <item m="1" x="23"/>
+        <item x="21"/>
         <item x="1"/>
         <item x="8"/>
         <item x="10"/>
-        <item m="1" x="20"/>
+        <item m="1" x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="1"/>
-        <item m="1" x="2"/>
+        <item m="1" x="3"/>
         <item x="0"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12208,7 +12605,10 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="12">
+    <i>
+      <x v="4"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
@@ -12217,6 +12617,9 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="11"/>
@@ -12232,6 +12635,9 @@
     </i>
     <i>
       <x v="22"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i t="grand">
       <x/>
@@ -12269,7 +12675,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A19:C34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A19:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -12279,11 +12685,11 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="30">
-        <item m="1" x="22"/>
+        <item m="1" x="24"/>
         <item x="7"/>
         <item x="2"/>
         <item x="6"/>
-        <item m="1" x="24"/>
+        <item x="20"/>
         <item x="9"/>
         <item x="17"/>
         <item x="16"/>
@@ -12293,7 +12699,7 @@
         <item x="18"/>
         <item x="19"/>
         <item x="13"/>
-        <item m="1" x="21"/>
+        <item m="1" x="23"/>
         <item x="11"/>
         <item m="1" x="26"/>
         <item x="0"/>
@@ -12303,19 +12709,20 @@
         <item x="5"/>
         <item x="15"/>
         <item m="1" x="27"/>
-        <item m="1" x="23"/>
+        <item x="21"/>
         <item x="1"/>
         <item x="8"/>
         <item x="10"/>
-        <item m="1" x="20"/>
+        <item m="1" x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="1"/>
-        <item m="1" x="2"/>
+        <item m="1" x="3"/>
         <item x="0"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12324,48 +12731,12 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="3">
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
     </i>
     <i t="grand">
       <x/>
@@ -12383,7 +12754,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="7" item="2" hier="-1"/>
+    <pageField fld="7" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -12831,7 +13202,7 @@
       </c>
       <c r="C5" s="31">
         <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$3,"Category","Sales cr")</f>
-        <v>8167.8099999999995</v>
+        <v>8215.31</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
@@ -12868,15 +13239,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="34">
         <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$3,"Category","Sales db")</f>
-        <v>5426.25</v>
+        <v>5920.5</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="31" t="e">
+      <c r="F6" s="31">
         <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$3,"Category","Website manager's fee")</f>
-        <v>#REF!</v>
+        <v>1500</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -12903,15 +13274,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="31">
         <f>C5-C6</f>
-        <v>2741.5599999999995</v>
+        <v>2294.8099999999995</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="31" t="e">
+      <c r="F7" s="31">
         <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$3,"Category","Exhibition organisers fees")</f>
-        <v>#REF!</v>
+        <v>1500</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -12921,7 +13292,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="31">
         <f>SUMIF('Savings account'!G2:G15, "Interest", 'Savings account'!E2:E15)</f>
-        <v>101.69</v>
+        <v>135.74</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17" t="s">
@@ -12930,7 +13301,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="31">
         <f>SUMIF('Current account'!G2:G401,"Admin",'Current account'!D2:D401)+SUMIF('Current account'!G2:G401, "Other expenses", 'Current account'!D2:D401)</f>
-        <v>97.6</v>
+        <v>121.07</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -12955,7 +13326,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="31">
         <f ca="1">SUMIF('Current account'!G2:G401,"Website",'Current account'!D2:D41)</f>
-        <v>39.129999999999995</v>
+        <v>303.27999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -13003,9 +13374,9 @@
       <c r="E10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="31" t="e">
+      <c r="F10" s="31">
         <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$3,"Category","Refunds")</f>
-        <v>#REF!</v>
+        <v>15</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -13142,7 +13513,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="31">
         <f ca="1">SUM(O4:O13)</f>
-        <v>1137.8400000000001</v>
+        <v>1425.46</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -16631,7 +17002,7 @@
         <v>45752.486319444448</v>
       </c>
       <c r="C59" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D59" t="s">
         <v>1460</v>
@@ -16643,7 +17014,7 @@
         <v>1462</v>
       </c>
       <c r="G59" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H59" t="s">
         <v>1469</v>
@@ -16655,7 +17026,7 @@
         <v>1470</v>
       </c>
       <c r="K59" s="42" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="M59">
         <v>360</v>
@@ -16685,7 +17056,7 @@
         <v>45752.559618055559</v>
       </c>
       <c r="C60" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D60" t="s">
         <v>1460</v>
@@ -16697,7 +17068,7 @@
         <v>1462</v>
       </c>
       <c r="G60" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H60" t="s">
         <v>1469</v>
@@ -16739,7 +17110,7 @@
         <v>45752.713935185187</v>
       </c>
       <c r="C61" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D61" t="s">
         <v>1460</v>
@@ -16751,7 +17122,7 @@
         <v>1462</v>
       </c>
       <c r="G61" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H61" t="s">
         <v>1464</v>
@@ -16763,7 +17134,7 @@
         <v>1470</v>
       </c>
       <c r="K61" s="42" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="M61">
         <v>375</v>
@@ -27023,7 +27394,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -27068,7 +27439,7 @@
         <v>1611</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>1624</v>
@@ -27099,7 +27470,7 @@
         <v>1616</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="8"/>
@@ -27137,7 +27508,7 @@
         <v>1616</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="8"/>
@@ -27179,7 +27550,7 @@
         <v>1612</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="8"/>
@@ -27216,7 +27587,7 @@
         <v>148</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="8"/>
@@ -27253,7 +27624,7 @@
         <v>1616</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="8"/>
@@ -27291,7 +27662,7 @@
         <v>1616</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="8"/>
@@ -27367,7 +27738,7 @@
         <v>1616</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="8"/>
@@ -27405,7 +27776,7 @@
         <v>1616</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
@@ -27443,7 +27814,7 @@
         <v>1616</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="8"/>
@@ -27481,7 +27852,7 @@
         <v>1616</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="8"/>
@@ -27519,7 +27890,7 @@
         <v>1616</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="8"/>
@@ -27557,7 +27928,7 @@
         <v>1616</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="8"/>
@@ -27595,7 +27966,7 @@
         <v>1617</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="8"/>
@@ -27632,7 +28003,7 @@
         <v>1617</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="8"/>
@@ -27669,7 +28040,7 @@
         <v>1617</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="8"/>
@@ -27707,7 +28078,7 @@
         <v>1617</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="8"/>
@@ -27745,7 +28116,7 @@
         <v>1616</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -27783,7 +28154,7 @@
         <v>1616</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -27821,7 +28192,7 @@
         <v>1616</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -27859,7 +28230,7 @@
         <v>1617</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -27897,7 +28268,7 @@
         <v>1616</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -28060,8 +28431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0167813-1C3C-42CC-A5D8-7CCC1B587009}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -28102,6 +28473,9 @@
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B5" t="s">
+        <v>1668</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -28241,10 +28615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="H300" sqref="H300"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -34020,7 +34394,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="F270" s="24">
-        <f t="shared" ref="F270:F299" si="5">F269+E270-D270</f>
+        <f t="shared" ref="F270:F315" si="5">F269+E270-D270</f>
         <v>14864.150000000009</v>
       </c>
       <c r="G270" t="s">
@@ -34221,7 +34595,7 @@
         <v>264</v>
       </c>
       <c r="C279" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D279">
         <v>90</v>
@@ -34245,7 +34619,7 @@
         <v>264</v>
       </c>
       <c r="C280" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E280">
         <v>375</v>
@@ -34261,7 +34635,7 @@
         <v>104</v>
       </c>
       <c r="I280" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
@@ -34272,7 +34646,7 @@
         <v>264</v>
       </c>
       <c r="C281" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D281">
         <v>187.5</v>
@@ -34296,7 +34670,7 @@
         <v>264</v>
       </c>
       <c r="C282" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D282">
         <v>270</v>
@@ -34320,7 +34694,7 @@
         <v>264</v>
       </c>
       <c r="C283" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D283">
         <v>431.25</v>
@@ -34344,7 +34718,7 @@
         <v>264</v>
       </c>
       <c r="C284" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D284">
         <v>180</v>
@@ -34368,7 +34742,7 @@
         <v>264</v>
       </c>
       <c r="C285" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D285">
         <v>138.75</v>
@@ -34392,7 +34766,7 @@
         <v>264</v>
       </c>
       <c r="C286" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D286">
         <v>525</v>
@@ -34416,7 +34790,7 @@
         <v>264</v>
       </c>
       <c r="C287" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D287">
         <v>450</v>
@@ -34440,7 +34814,7 @@
         <v>264</v>
       </c>
       <c r="C288" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D288">
         <v>543.75</v>
@@ -34464,7 +34838,7 @@
         <v>264</v>
       </c>
       <c r="C289" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D289">
         <v>146.25</v>
@@ -34488,7 +34862,7 @@
         <v>264</v>
       </c>
       <c r="C290" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D290">
         <v>180</v>
@@ -34512,7 +34886,7 @@
         <v>264</v>
       </c>
       <c r="C291" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D291">
         <v>337.5</v>
@@ -34536,7 +34910,7 @@
         <v>264</v>
       </c>
       <c r="C292" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D292">
         <v>131.25</v>
@@ -34560,7 +34934,7 @@
         <v>259</v>
       </c>
       <c r="C293" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E293">
         <v>1086.32</v>
@@ -34584,7 +34958,7 @@
         <v>264</v>
       </c>
       <c r="C294" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D294">
         <v>108.75</v>
@@ -34632,7 +35006,7 @@
         <v>264</v>
       </c>
       <c r="C296" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D296">
         <v>937.5</v>
@@ -34656,7 +35030,7 @@
         <v>264</v>
       </c>
       <c r="C297" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D297">
         <v>281.25</v>
@@ -34680,7 +35054,7 @@
         <v>264</v>
       </c>
       <c r="C298" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D298">
         <v>337.5</v>
@@ -34704,7 +35078,7 @@
         <v>264</v>
       </c>
       <c r="C299" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D299">
         <v>150</v>
@@ -34720,9 +35094,388 @@
         <v>104</v>
       </c>
     </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A300" s="23">
+        <v>45762</v>
+      </c>
+      <c r="B300" t="s">
+        <v>264</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D300">
+        <v>281.25</v>
+      </c>
+      <c r="F300" s="24">
+        <f t="shared" si="5"/>
+        <v>14323.500000000007</v>
+      </c>
+      <c r="G300" t="s">
+        <v>87</v>
+      </c>
+      <c r="H300" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A301" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B301" t="s">
+        <v>264</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D301">
+        <v>750</v>
+      </c>
+      <c r="F301" s="24">
+        <f t="shared" si="5"/>
+        <v>13573.500000000007</v>
+      </c>
+      <c r="G301" t="s">
+        <v>103</v>
+      </c>
+      <c r="H301" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A302" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B302" t="s">
+        <v>264</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D302">
+        <v>43.17</v>
+      </c>
+      <c r="F302" s="24">
+        <f t="shared" si="5"/>
+        <v>13530.330000000007</v>
+      </c>
+      <c r="G302" t="s">
+        <v>89</v>
+      </c>
+      <c r="H302" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A303" s="23">
+        <v>45765</v>
+      </c>
+      <c r="B303" t="s">
+        <v>264</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D303">
+        <v>124.65</v>
+      </c>
+      <c r="F303" s="24">
+        <f t="shared" si="5"/>
+        <v>13405.680000000008</v>
+      </c>
+      <c r="G303" t="s">
+        <v>89</v>
+      </c>
+      <c r="H303" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A304" s="23">
+        <v>45765</v>
+      </c>
+      <c r="B304" t="s">
+        <v>264</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D304">
+        <v>750</v>
+      </c>
+      <c r="F304" s="24">
+        <f t="shared" si="5"/>
+        <v>12655.680000000008</v>
+      </c>
+      <c r="G304" t="s">
+        <v>103</v>
+      </c>
+      <c r="H304" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A305" s="23">
+        <v>45768</v>
+      </c>
+      <c r="B305" t="s">
+        <v>264</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D305">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="F305" s="24">
+        <f t="shared" si="5"/>
+        <v>12588.890000000007</v>
+      </c>
+      <c r="G305" t="s">
+        <v>89</v>
+      </c>
+      <c r="H305" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A306" s="23">
+        <v>45768</v>
+      </c>
+      <c r="B306" t="s">
+        <v>782</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D306">
+        <v>5.72</v>
+      </c>
+      <c r="F306" s="24">
+        <f t="shared" si="5"/>
+        <v>12583.170000000007</v>
+      </c>
+      <c r="G306" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A307" s="23">
+        <v>45771</v>
+      </c>
+      <c r="B307" t="s">
+        <v>264</v>
+      </c>
+      <c r="C307" t="s">
+        <v>807</v>
+      </c>
+      <c r="D307">
+        <v>213</v>
+      </c>
+      <c r="F307" s="24">
+        <f t="shared" si="5"/>
+        <v>12370.170000000007</v>
+      </c>
+      <c r="G307" t="s">
+        <v>87</v>
+      </c>
+      <c r="H307" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A308" s="23">
+        <v>45771</v>
+      </c>
+      <c r="B308" t="s">
+        <v>264</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D308">
+        <v>15</v>
+      </c>
+      <c r="F308" s="24">
+        <f t="shared" si="5"/>
+        <v>12355.170000000007</v>
+      </c>
+      <c r="G308" t="s">
+        <v>5</v>
+      </c>
+      <c r="H308" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A309" s="23">
+        <v>45771</v>
+      </c>
+      <c r="B309" t="s">
+        <v>264</v>
+      </c>
+      <c r="C309" t="s">
+        <v>725</v>
+      </c>
+      <c r="D309">
+        <v>17.75</v>
+      </c>
+      <c r="F309" s="24">
+        <f t="shared" si="5"/>
+        <v>12337.420000000007</v>
+      </c>
+      <c r="G309" t="s">
+        <v>113</v>
+      </c>
+      <c r="I309" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A310" s="23">
+        <v>45771</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D310">
+        <v>1500</v>
+      </c>
+      <c r="F310" s="24">
+        <f t="shared" si="5"/>
+        <v>10837.420000000007</v>
+      </c>
+      <c r="G310" t="s">
+        <v>170</v>
+      </c>
+      <c r="H310" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A311" s="23">
+        <v>45771</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D311">
+        <v>264.14999999999998</v>
+      </c>
+      <c r="F311" s="24">
+        <f t="shared" si="5"/>
+        <v>10573.270000000008</v>
+      </c>
+      <c r="G311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A312" s="23">
+        <v>45772</v>
+      </c>
+      <c r="B312" t="s">
+        <v>259</v>
+      </c>
+      <c r="C312" t="s">
+        <v>192</v>
+      </c>
+      <c r="E312">
+        <v>47.5</v>
+      </c>
+      <c r="F312" s="24">
+        <f t="shared" si="5"/>
+        <v>10620.770000000008</v>
+      </c>
+      <c r="G312" t="s">
+        <v>86</v>
+      </c>
+      <c r="H312" t="s">
+        <v>104</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A313" s="23">
+        <v>45778</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C313" t="s">
+        <v>982</v>
+      </c>
+      <c r="D313">
+        <v>240</v>
+      </c>
+      <c r="F313" s="24">
+        <f t="shared" si="5"/>
+        <v>10380.770000000008</v>
+      </c>
+      <c r="G313" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A314" s="23">
+        <v>45786</v>
+      </c>
+      <c r="B314" t="s">
+        <v>264</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D314">
+        <v>41.42</v>
+      </c>
+      <c r="F314" s="24">
+        <f t="shared" si="5"/>
+        <v>10339.350000000008</v>
+      </c>
+      <c r="G314" t="s">
+        <v>49</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A315" s="23">
+        <v>45786</v>
+      </c>
+      <c r="B315" t="s">
+        <v>264</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D315">
+        <v>122.1</v>
+      </c>
+      <c r="F315" s="24">
+        <f t="shared" si="5"/>
+        <v>10217.250000000007</v>
+      </c>
+      <c r="G315" t="s">
+        <v>103</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1668</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I353" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -34732,11 +35485,11 @@
           </x14:formula1>
           <xm:sqref>G1:G190 G192:G195 G197:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E82AE568-40FA-4E8D-9A51-0EEEFCB67DE0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FBF1F7E-70E4-4F92-A226-94216AF53046}">
           <x14:formula1>
-            <xm:f>Lists!$B$3:$B$4</xm:f>
+            <xm:f>Lists!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -34749,10 +35502,10 @@
   <dimension ref="A1:Y349"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B291" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D268" sqref="D268"/>
+      <selection pane="bottomRight" activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -37590,7 +38343,7 @@
         <v>15.59</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="23">
         <v>45744</v>
       </c>
@@ -37598,7 +38351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="23">
         <v>45744</v>
       </c>
@@ -37606,7 +38359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="23">
         <v>45746</v>
       </c>
@@ -37614,7 +38367,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="23">
         <v>45747</v>
       </c>
@@ -37622,12 +38375,308 @@
         <v>1400.91</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="23">
         <v>45751</v>
       </c>
       <c r="F277">
         <v>712.75</v>
+      </c>
+      <c r="L277" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278" s="23">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279" s="23">
+        <v>45754</v>
+      </c>
+      <c r="F279" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L280">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A281" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L281">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A282" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L282">
+        <v>431.25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A283" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L283">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A284" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L284">
+        <v>138.75</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L285">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A286" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L286">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A287" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L287">
+        <v>543.75</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A288" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L288">
+        <v>146.25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A289" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L289">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A290" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L290">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A291" s="23">
+        <v>45754</v>
+      </c>
+      <c r="L291">
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A292" s="23">
+        <v>45754</v>
+      </c>
+      <c r="F292">
+        <v>1086.32</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A293" s="23">
+        <v>45755</v>
+      </c>
+      <c r="L293">
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A294" s="23">
+        <v>45755</v>
+      </c>
+      <c r="F294">
+        <v>443.05</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A295" s="23">
+        <v>45755</v>
+      </c>
+      <c r="L295">
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A296" s="23">
+        <v>45755</v>
+      </c>
+      <c r="L296">
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A297" s="23">
+        <v>45760</v>
+      </c>
+      <c r="L297">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A298" s="23">
+        <v>45761</v>
+      </c>
+      <c r="L298">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A299" s="23">
+        <v>45762</v>
+      </c>
+      <c r="L299">
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A300" s="23">
+        <v>45763</v>
+      </c>
+      <c r="R300">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A301" s="23">
+        <v>45763</v>
+      </c>
+      <c r="R301">
+        <v>43.17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A302" s="23">
+        <v>45765</v>
+      </c>
+      <c r="R302">
+        <v>124.65</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A303" s="23">
+        <v>45765</v>
+      </c>
+      <c r="R303">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A304" s="23">
+        <v>45768</v>
+      </c>
+      <c r="R304">
+        <v>66.790000000000006</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A305" s="23">
+        <v>45768</v>
+      </c>
+      <c r="K305">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A306" s="23">
+        <v>45771</v>
+      </c>
+      <c r="R306">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A307" s="23">
+        <v>45771</v>
+      </c>
+      <c r="J307">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A308" s="23">
+        <v>45771</v>
+      </c>
+      <c r="M308">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A309" s="23">
+        <v>45771</v>
+      </c>
+      <c r="N309" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A310" s="23">
+        <v>45771</v>
+      </c>
+      <c r="N310">
+        <v>264.14999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A311" s="23">
+        <v>45772</v>
+      </c>
+      <c r="F311">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A312" s="23">
+        <v>45778</v>
+      </c>
+      <c r="M312">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A313" s="23">
+        <v>45786</v>
+      </c>
+      <c r="R313">
+        <v>41.42</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A314" s="23">
+        <v>45786</v>
+      </c>
+      <c r="R314">
+        <v>122.1</v>
       </c>
     </row>
     <row r="349" spans="25:25" x14ac:dyDescent="0.35">
@@ -37793,7 +38842,7 @@
   <dimension ref="A1:V242"/>
   <sheetViews>
     <sheetView topLeftCell="A222" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237:XFD237"/>
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -40621,10 +41670,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8BED0-6F25-4951-9707-565F124E30A4}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -40729,6 +41778,27 @@
         <v>22778.539999999997</v>
       </c>
       <c r="G5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="23">
+        <v>45764</v>
+      </c>
+      <c r="B6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E6">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="F6" s="27">
+        <f>F5+E6-D6</f>
+        <v>22812.589999999997</v>
+      </c>
+      <c r="G6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -40751,7 +41821,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAEDB9-0FE6-48E6-8096-45942EADC73F}">
-  <dimension ref="A3:C24"/>
+  <dimension ref="A3:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -40759,9 +41829,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="2.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
@@ -41006,7 +42076,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -41014,7 +42084,7 @@
         <v>89</v>
       </c>
       <c r="C7">
-        <v>245.4</v>
+        <v>480.01000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -41022,7 +42092,7 @@
         <v>113</v>
       </c>
       <c r="C8">
-        <v>97.6</v>
+        <v>121.07</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -41054,7 +42124,7 @@
         <v>983</v>
       </c>
       <c r="C12">
-        <v>210</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -41078,7 +42148,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>39.129999999999995</v>
+        <v>303.27999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -41102,7 +42172,7 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>606.6</v>
+        <v>648.02</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -41137,7 +42207,7 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>8167.81</v>
+        <v>8215.3100000000013</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -41145,18 +42215,34 @@
         <v>87</v>
       </c>
       <c r="C23">
-        <v>5426.25</v>
+        <v>5920.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24">
+        <v>1622.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B24">
-        <v>17501.960000000003</v>
-      </c>
-      <c r="C24">
-        <v>8721.09</v>
+      <c r="B26">
+        <v>17549.460000000003</v>
+      </c>
+      <c r="C26">
+        <v>13156.09</v>
       </c>
     </row>
   </sheetData>
@@ -41166,17 +42252,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -41200,87 +42286,111 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>25.4</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>431.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>8167.8099999999995</v>
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>431.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5426.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>2443.5300000000007</v>
+        <v>8215.31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10">
-        <v>245.4</v>
+        <v>5920.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>239.97</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
+        <v>2443.5300000000007</v>
       </c>
       <c r="E11" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12">
-        <v>10851.31</v>
+        <v>89</v>
       </c>
       <c r="C12">
-        <v>6358.65</v>
+        <v>480.01</v>
       </c>
       <c r="E12">
         <f>GETPIVOTDATA("Sum of Income",$A$3)-GETPIVOTDATA("Sum of Expenditure",$A$3)</f>
-        <v>4492.66</v>
+        <v>796.29999999999927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13">
+        <v>239.97</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>10898.81</v>
+      </c>
+      <c r="C15">
+        <v>10102.51</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -41288,7 +42398,7 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -41321,10 +42431,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C20">
-        <v>132</v>
+        <v>122.1</v>
       </c>
       <c r="E20" t="s">
         <v>116</v>
@@ -41341,10 +42451,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>41.42</v>
       </c>
       <c r="E21" t="s">
         <v>117</v>
@@ -41358,10 +42468,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C22">
-        <v>200</v>
+        <v>163.51999999999998</v>
       </c>
       <c r="E22" t="s">
         <v>97</v>
@@ -41373,102 +42483,6 @@
       <c r="H22">
         <f>SUM(H19:H21)</f>
         <v>8007.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23">
-        <v>30.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24">
-        <v>613.22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>39.129999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30">
-        <v>97.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31">
-        <v>6618.8800000000019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
-        <v>983</v>
-      </c>
-      <c r="C32">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
-        <v>990</v>
-      </c>
-      <c r="C33">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34">
-        <v>6650.6500000000024</v>
-      </c>
-      <c r="C34">
-        <v>2362.44</v>
       </c>
     </row>
   </sheetData>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BFD9A-5255-4DD1-9EF7-1982798E01E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200E3ABF-C43E-4931-AE5C-D356F1D00A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" firstSheet="1" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="4125" yWindow="2550" windowWidth="16200" windowHeight="9308" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -36,8 +36,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="5" r:id="rId15"/>
+    <pivotCache cacheId="10" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4323" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="1676">
   <si>
     <t>Subs</t>
   </si>
@@ -5066,6 +5066,27 @@
   </si>
   <si>
     <t>Young artists</t>
+  </si>
+  <si>
+    <t>St Johns College 5002612</t>
+  </si>
+  <si>
+    <t>foranimall LTD Art Prize Fund</t>
+  </si>
+  <si>
+    <t>SHERLAW JOHN SA SALLY WAINWRIGHT</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16MAY2025</t>
+  </si>
+  <si>
+    <t>Commission on sales</t>
+  </si>
+  <si>
+    <t>K.E.H. CONSULTING Lofgrens YA Exh</t>
+  </si>
+  <si>
+    <t>TOTAL CHARGES TO 29APR2025</t>
   </si>
 </sst>
 </file>
@@ -5236,7 +5257,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5284,6 +5305,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5323,13 +5345,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45786.524010532405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="315" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45799.397528240741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="320" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I400" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-05-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-05-22T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5338,7 +5360,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1500"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1952.11"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
@@ -5347,7 +5369,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="18411.630000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="23">
+      <sharedItems containsBlank="1" count="24">
         <m/>
         <s v="Subs 2025"/>
         <s v="Donations cr"/>
@@ -5370,6 +5392,7 @@
         <s v="Sales db"/>
         <s v="Exhibition organisers fees"/>
         <s v="Website manager's fee"/>
+        <s v="Venue hire"/>
         <s v="Exhibitions cr" u="1"/>
       </sharedItems>
     </cacheField>
@@ -5389,13 +5412,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45786.524056249997" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="315" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45799.397602546298" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="320" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I503" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-05-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-05-22T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5404,7 +5427,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1500"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1952.11"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
@@ -5436,11 +5459,11 @@
         <s v="Sales db"/>
         <s v="Exhibition organisers fees"/>
         <s v="Website manager's fee"/>
+        <s v="Venue hire"/>
         <s v="Exhibitions cr" u="1"/>
         <s v="Subs" u="1"/>
         <s v="Admin" u="1"/>
         <s v="Prof Fees" u="1"/>
-        <s v="Venue hire" u="1"/>
         <s v="Transfer Out" u="1"/>
         <s v="Honoraria" u="1"/>
       </sharedItems>
@@ -5466,7 +5489,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="315">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="320">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -8922,6 +8945,61 @@
     <m/>
   </r>
   <r>
+    <d v="2025-05-12T00:00:00"/>
+    <s v="BP"/>
+    <s v="St Johns College 5002612"/>
+    <n v="1952.11"/>
+    <m/>
+    <n v="8265.1400000000067"/>
+    <x v="22"/>
+    <s v="Members"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="foranimall LTD Art Prize Fund"/>
+    <m/>
+    <n v="50"/>
+    <n v="8315.1400000000067"/>
+    <x v="2"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHERLAW JOHN SA SALLY WAINWRIGHT"/>
+    <m/>
+    <n v="100"/>
+    <n v="8415.1400000000067"/>
+    <x v="2"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="K.E.H. CONSULTING Lofgrens YA Exh"/>
+    <m/>
+    <n v="25"/>
+    <n v="8440.1400000000067"/>
+    <x v="2"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29APR2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="8435.1400000000067"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -8936,7 +9014,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="315">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="320">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -12392,6 +12470,61 @@
     <m/>
   </r>
   <r>
+    <d v="2025-05-12T00:00:00"/>
+    <s v="BP"/>
+    <s v="St Johns College 5002612"/>
+    <n v="1952.11"/>
+    <m/>
+    <n v="8265.1400000000067"/>
+    <x v="22"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="foranimall LTD Art Prize Fund"/>
+    <m/>
+    <n v="50"/>
+    <n v="8315.1400000000067"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHERLAW JOHN SA SALLY WAINWRIGHT"/>
+    <m/>
+    <n v="100"/>
+    <n v="8415.1400000000067"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="K.E.H. CONSULTING Lofgrens YA Exh"/>
+    <m/>
+    <n v="25"/>
+    <n v="8440.1400000000067"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29APR2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="8435.1400000000067"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -12406,8 +12539,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -12416,7 +12549,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="24">
+      <items count="25">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
@@ -12435,11 +12568,12 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
-        <item m="1" x="22"/>
+        <item m="1" x="23"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
+        <item x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12449,7 +12583,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="24">
     <i>
       <x/>
     </i>
@@ -12516,6 +12650,9 @@
     <i>
       <x v="22"/>
     </i>
+    <i>
+      <x v="23"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -12548,8 +12685,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -12559,7 +12696,7 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="30">
-        <item m="1" x="24"/>
+        <item m="1" x="25"/>
         <item x="7"/>
         <item x="2"/>
         <item x="6"/>
@@ -12567,15 +12704,15 @@
         <item x="9"/>
         <item x="17"/>
         <item x="16"/>
-        <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="14"/>
         <item x="3"/>
         <item x="18"/>
         <item x="19"/>
         <item x="13"/>
-        <item m="1" x="23"/>
+        <item m="1" x="24"/>
         <item x="11"/>
-        <item m="1" x="26"/>
+        <item x="22"/>
         <item x="0"/>
         <item x="12"/>
         <item x="4"/>
@@ -12587,7 +12724,7 @@
         <item x="1"/>
         <item x="8"/>
         <item x="10"/>
-        <item m="1" x="22"/>
+        <item m="1" x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12605,7 +12742,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="13">
     <i>
       <x v="4"/>
     </i>
@@ -12629,6 +12766,9 @@
     </i>
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i>
       <x v="19"/>
@@ -12674,8 +12814,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A19:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -12685,7 +12825,7 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="30">
-        <item m="1" x="24"/>
+        <item m="1" x="25"/>
         <item x="7"/>
         <item x="2"/>
         <item x="6"/>
@@ -12693,15 +12833,15 @@
         <item x="9"/>
         <item x="17"/>
         <item x="16"/>
-        <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="14"/>
         <item x="3"/>
         <item x="18"/>
         <item x="19"/>
         <item x="13"/>
-        <item m="1" x="23"/>
+        <item m="1" x="24"/>
         <item x="11"/>
-        <item m="1" x="26"/>
+        <item x="22"/>
         <item x="0"/>
         <item x="12"/>
         <item x="4"/>
@@ -12713,7 +12853,7 @@
         <item x="1"/>
         <item x="8"/>
         <item x="10"/>
-        <item m="1" x="22"/>
+        <item m="1" x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12731,7 +12871,10 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
@@ -13292,7 +13435,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="31">
         <f>SUMIF('Savings account'!G2:G15, "Interest", 'Savings account'!E2:E15)</f>
-        <v>135.74</v>
+        <v>167.39000000000001</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17" t="s">
@@ -13301,7 +13444,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="31">
         <f>SUMIF('Current account'!G2:G401,"Admin",'Current account'!D2:D401)+SUMIF('Current account'!G2:G401, "Other expenses", 'Current account'!D2:D401)</f>
-        <v>121.07</v>
+        <v>126.07</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -13310,9 +13453,9 @@
       <c r="E8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="31" t="e">
+      <c r="F8" s="31">
         <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$3,"Category","Venue hire")</f>
-        <v>#REF!</v>
+        <v>1952.11</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -13436,9 +13579,9 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="31" t="e">
+      <c r="F12" s="31">
         <f>SUM(F5:F11)</f>
-        <v>#REF!</v>
+        <v>5598.71</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -13513,7 +13656,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="31">
         <f ca="1">SUM(O4:O13)</f>
-        <v>1425.46</v>
+        <v>1430.46</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -13611,7 +13754,7 @@
         <v>171</v>
       </c>
       <c r="C20" s="27" t="e">
-        <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$19,"Category","Sales cr")</f>
+        <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$22,"Category","Sales cr")</f>
         <v>#REF!</v>
       </c>
       <c r="D20" s="17"/>
@@ -13635,7 +13778,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="27" t="e">
-        <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$19,"Category","Sales db")</f>
+        <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$22,"Category","Sales db")</f>
         <v>#REF!</v>
       </c>
       <c r="D21" s="17"/>
@@ -13735,7 +13878,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="27" t="e">
-        <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$19,"Category","Bar sales")</f>
+        <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$22,"Category","Bar sales")</f>
         <v>#REF!</v>
       </c>
       <c r="D25" s="17"/>
@@ -13783,7 +13926,7 @@
         <v>172</v>
       </c>
       <c r="C27" s="27" t="e">
-        <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$19,"Category","Submissions")</f>
+        <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$22,"Category","Submissions")</f>
         <v>#REF!</v>
       </c>
       <c r="D27" s="17"/>
@@ -28615,10 +28758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I315"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="G321" sqref="G321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -34394,7 +34537,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="F270" s="24">
-        <f t="shared" ref="F270:F315" si="5">F269+E270-D270</f>
+        <f t="shared" ref="F270:F320" si="5">F269+E270-D270</f>
         <v>14864.150000000009</v>
       </c>
       <c r="G270" t="s">
@@ -35470,6 +35613,123 @@
       </c>
       <c r="H315" t="s">
         <v>1668</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A316" s="23">
+        <v>45789</v>
+      </c>
+      <c r="B316" t="s">
+        <v>264</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D316">
+        <v>1952.11</v>
+      </c>
+      <c r="F316" s="24">
+        <f t="shared" si="5"/>
+        <v>8265.1400000000067</v>
+      </c>
+      <c r="G316" t="s">
+        <v>102</v>
+      </c>
+      <c r="H316" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A317" s="23">
+        <v>45792</v>
+      </c>
+      <c r="B317" t="s">
+        <v>259</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E317">
+        <v>50</v>
+      </c>
+      <c r="F317" s="24">
+        <f t="shared" si="5"/>
+        <v>8315.1400000000067</v>
+      </c>
+      <c r="G317" t="s">
+        <v>90</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A318" s="23">
+        <v>45795</v>
+      </c>
+      <c r="B318" t="s">
+        <v>259</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E318">
+        <v>100</v>
+      </c>
+      <c r="F318" s="24">
+        <f t="shared" si="5"/>
+        <v>8415.1400000000067</v>
+      </c>
+      <c r="G318" t="s">
+        <v>90</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A319" s="23">
+        <v>45797</v>
+      </c>
+      <c r="B319" t="s">
+        <v>259</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E319">
+        <v>25</v>
+      </c>
+      <c r="F319" s="24">
+        <f t="shared" si="5"/>
+        <v>8440.1400000000067</v>
+      </c>
+      <c r="G319" t="s">
+        <v>90</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A320" s="23">
+        <v>45798</v>
+      </c>
+      <c r="B320" t="s">
+        <v>782</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D320">
+        <v>5</v>
+      </c>
+      <c r="F320" s="24">
+        <f t="shared" si="5"/>
+        <v>8435.1400000000067</v>
+      </c>
+      <c r="G320" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -41670,10 +41930,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8BED0-6F25-4951-9707-565F124E30A4}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -41799,6 +42059,27 @@
         <v>22812.589999999997</v>
       </c>
       <c r="G6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
+        <v>45794</v>
+      </c>
+      <c r="B7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E7">
+        <v>31.65</v>
+      </c>
+      <c r="F7" s="27">
+        <f>F6+E7-D7</f>
+        <v>22844.239999999998</v>
+      </c>
+      <c r="G7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -41821,7 +42102,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAEDB9-0FE6-48E6-8096-45942EADC73F}">
-  <dimension ref="A3:C26"/>
+  <dimension ref="A3:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -42062,20 +42343,24 @@
       <c r="A4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="43">
         <v>6618.8800000000019</v>
       </c>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>84</v>
       </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
         <v>255</v>
       </c>
     </row>
@@ -42083,7 +42368,8 @@
       <c r="A7" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43">
         <v>480.01000000000005</v>
       </c>
     </row>
@@ -42091,23 +42377,26 @@
       <c r="A8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C8">
-        <v>121.07</v>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43">
+        <v>126.07</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
+      <c r="B9" s="43">
+        <v>205</v>
+      </c>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43">
         <v>200</v>
       </c>
     </row>
@@ -42115,7 +42404,8 @@
       <c r="A11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
         <v>132</v>
       </c>
     </row>
@@ -42123,7 +42413,8 @@
       <c r="A12" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43">
         <v>450</v>
       </c>
     </row>
@@ -42131,7 +42422,8 @@
       <c r="A13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
         <v>55.89</v>
       </c>
     </row>
@@ -42139,7 +42431,8 @@
       <c r="A14" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43">
         <v>625</v>
       </c>
     </row>
@@ -42147,7 +42440,8 @@
       <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43">
         <v>303.27999999999997</v>
       </c>
     </row>
@@ -42155,23 +42449,26 @@
       <c r="A16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="43">
         <v>1.77</v>
       </c>
+      <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="43">
         <v>2443.5299999999997</v>
       </c>
+      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C18">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43">
         <v>648.02</v>
       </c>
     </row>
@@ -42179,10 +42476,10 @@
       <c r="A19" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="43">
         <v>239.97</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="43">
         <v>30</v>
       </c>
     </row>
@@ -42190,7 +42487,8 @@
       <c r="A20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43">
         <v>200</v>
       </c>
     </row>
@@ -42198,7 +42496,8 @@
       <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43">
         <v>613.22</v>
       </c>
     </row>
@@ -42206,15 +42505,17 @@
       <c r="A22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="43">
         <v>8215.3100000000013</v>
       </c>
+      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C23">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43">
         <v>5920.5</v>
       </c>
     </row>
@@ -42222,7 +42523,8 @@
       <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C24">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43">
         <v>1622.1</v>
       </c>
     </row>
@@ -42230,19 +42532,29 @@
       <c r="A25" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43">
         <v>1500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43">
+        <v>1952.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B26">
-        <v>17549.460000000003</v>
-      </c>
-      <c r="C26">
-        <v>13156.09</v>
+      <c r="B27" s="43">
+        <v>17724.460000000003</v>
+      </c>
+      <c r="C27" s="43">
+        <v>15113.2</v>
       </c>
     </row>
   </sheetData>
@@ -42252,10 +42564,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -42265,7 +42577,7 @@
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>106</v>
       </c>
@@ -42273,7 +42585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>82</v>
       </c>
@@ -42284,205 +42596,243 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
+      <c r="H5">
+        <v>7872</v>
+      </c>
+      <c r="I5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6">
+        <v>43.2</v>
+      </c>
+      <c r="H6">
+        <v>-176.35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43">
         <v>431.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7">
+        <v>118.5</v>
+      </c>
+      <c r="H7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F5:F7)</f>
+        <v>281.7</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H5:H7)</f>
+        <v>8007.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="43">
         <v>8215.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43">
         <v>5920.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="43">
         <v>2443.5300000000007</v>
       </c>
+      <c r="C11" s="43"/>
       <c r="E11" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I11">
+        <f>GETPIVOTDATA("Sum of Income",$A$3,"Category","Sales cr")-GETPIVOTDATA("Sum of Expenditure",$A$3,"Category","Sales db")</f>
+        <v>2294.8099999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12">
-        <v>480.01</v>
+        <v>102</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43">
+        <v>1952.11</v>
       </c>
       <c r="E12">
         <f>GETPIVOTDATA("Sum of Income",$A$3)-GETPIVOTDATA("Sum of Expenditure",$A$3)</f>
-        <v>796.29999999999927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-1155.8100000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
+        <v>480.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="43">
         <v>239.97</v>
       </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="C14" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C14">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="43">
         <v>10898.81</v>
       </c>
-      <c r="C15">
-        <v>10102.51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
+      <c r="C16" s="43">
+        <v>12054.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="25" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>111</v>
       </c>
-      <c r="E19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19">
-        <v>120</v>
-      </c>
-      <c r="H19">
-        <v>7872</v>
-      </c>
-      <c r="I19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="43">
+        <v>175</v>
+      </c>
+      <c r="C23" s="43"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C20">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43">
         <v>122.1</v>
       </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20">
-        <v>43.2</v>
-      </c>
-      <c r="H20">
-        <v>-176.35</v>
-      </c>
-      <c r="I20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C21">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43">
         <v>41.42</v>
       </c>
-      <c r="E21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21">
-        <v>118.5</v>
-      </c>
-      <c r="H21">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C22">
+      <c r="B26" s="43">
+        <v>175</v>
+      </c>
+      <c r="C26" s="43">
         <v>163.51999999999998</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22">
-        <f>SUM(F19:F21)</f>
-        <v>281.7</v>
-      </c>
-      <c r="H22">
-        <f>SUM(H19:H21)</f>
-        <v>8007.65</v>
       </c>
     </row>
   </sheetData>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D8860-274A-46F8-8EE5-A67428386689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E777978F-85B6-4968-9A6D-7C3B59DC240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3533" yWindow="2228" windowWidth="16200" windowHeight="9307" firstSheet="1" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" firstSheet="7" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -29,15 +29,15 @@
     <sheet name="Lists" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current account'!$A$1:$I$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current account'!$A$1:$I$355</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Members Exhibition'!$A$1:$H$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Membership List'!$A$2:$A$216</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Stripe!$A$1:$W$478</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId15"/>
-    <pivotCache cacheId="10" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="1749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="1766">
   <si>
     <t>Subs</t>
   </si>
@@ -5306,6 +5306,57 @@
   </si>
   <si>
     <t>Gifts to organisers</t>
+  </si>
+  <si>
+    <t>Phoebe Birch YA Prize</t>
+  </si>
+  <si>
+    <t>Ash Goller YA Prize</t>
+  </si>
+  <si>
+    <t>Amanda Jewell OAS</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Magdalen Road StudMAS hire</t>
+  </si>
+  <si>
+    <t>Meeting room hire</t>
+  </si>
+  <si>
+    <t>L Wootton-Davies OAS</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Erin 2</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16JUN2025</t>
+  </si>
+  <si>
+    <t>Leaflet printing</t>
+  </si>
+  <si>
+    <t>Poster printing</t>
+  </si>
+  <si>
+    <t>Molly Palmer YA Prize</t>
+  </si>
+  <si>
+    <t>Flyers and  posters</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Price list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost: </t>
   </si>
 </sst>
 </file>
@@ -5476,7 +5527,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5524,7 +5575,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5564,13 +5614,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45815.588818865741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="331" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45827.539443634261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="352" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I503" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-08T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-20T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5585,7 +5635,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="18411.630000000008"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5417.7200000000066" maxValue="18411.630000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems containsBlank="1" count="29">
@@ -5612,9 +5662,9 @@
         <s v="Exhibition organisers fees"/>
         <s v="Website manager's fee"/>
         <s v="Venue hire"/>
+        <s v="Admin"/>
         <s v="Exhibitions cr" u="1"/>
         <s v="Subs" u="1"/>
-        <s v="Admin" u="1"/>
         <s v="Prof Fees" u="1"/>
         <s v="Transfer Out" u="1"/>
         <s v="Honoraria" u="1"/>
@@ -5641,13 +5691,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45815.588925462966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="331" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45827.539532407405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="352" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I400" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-08T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-20T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5662,10 +5712,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5823.88" maxValue="18411.630000000008"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5417.7200000000066" maxValue="18411.630000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="24">
+      <sharedItems containsBlank="1" count="25">
         <m/>
         <s v="Subs 2025"/>
         <s v="Donations cr"/>
@@ -5689,6 +5739,7 @@
         <s v="Exhibition organisers fees"/>
         <s v="Website manager's fee"/>
         <s v="Venue hire"/>
+        <s v="Admin"/>
         <s v="Exhibitions cr" u="1"/>
       </sharedItems>
     </cacheField>
@@ -5708,7 +5759,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="331">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="352">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -8270,7 +8321,7 @@
     <n v="10805.810000000005"/>
     <x v="14"/>
     <x v="1"/>
-    <m/>
+    <s v="Flyers and  posters"/>
   </r>
   <r>
     <d v="2025-02-26T00:00:00"/>
@@ -8598,9 +8649,9 @@
     <n v="63.6"/>
     <m/>
     <n v="11761.400000000007"/>
-    <x v="14"/>
-    <x v="1"/>
-    <m/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="Labels"/>
   </r>
   <r>
     <d v="2025-03-24T00:00:00"/>
@@ -8611,7 +8662,7 @@
     <n v="11624.400000000007"/>
     <x v="14"/>
     <x v="1"/>
-    <m/>
+    <s v="Price list"/>
   </r>
   <r>
     <d v="2025-03-24T00:00:00"/>
@@ -9150,7 +9201,7 @@
     <n v="10339.350000000008"/>
     <x v="14"/>
     <x v="2"/>
-    <m/>
+    <s v="Leaflet printing"/>
   </r>
   <r>
     <d v="2025-05-09T00:00:00"/>
@@ -9293,7 +9344,7 @@
     <n v="7435.2000000000071"/>
     <x v="14"/>
     <x v="2"/>
-    <m/>
+    <s v="Poster printing"/>
   </r>
   <r>
     <d v="2025-06-06T00:00:00"/>
@@ -9340,6 +9391,237 @@
     <s v="Gifts to organisers"/>
   </r>
   <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Phoebe Birch YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="7279.7000000000071"/>
+    <x v="16"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Ash Goller YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="7179.7000000000071"/>
+    <x v="16"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Amanda Jewell OAS"/>
+    <n v="220.68"/>
+    <m/>
+    <n v="6959.0200000000068"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Drinks"/>
+  </r>
+  <r>
+    <d v="2025-06-13T00:00:00"/>
+    <s v="BP"/>
+    <s v="Magdalen Road StudMAS hire"/>
+    <n v="225"/>
+    <m/>
+    <n v="6734.0200000000068"/>
+    <x v="23"/>
+    <x v="0"/>
+    <s v="Meeting room hire"/>
+  </r>
+  <r>
+    <d v="2025-06-13T00:00:00"/>
+    <s v="BP"/>
+    <s v="Magdalen Road StudMAS hire"/>
+    <n v="700"/>
+    <m/>
+    <n v="6034.0200000000068"/>
+    <x v="22"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="L Wootton-Davies OAS"/>
+    <n v="319.2"/>
+    <m/>
+    <n v="5714.820000000007"/>
+    <x v="20"/>
+    <x v="2"/>
+    <s v="Louis"/>
+  </r>
+  <r>
+    <d v="2025-06-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="197.1"/>
+    <m/>
+    <n v="5517.7200000000066"/>
+    <x v="20"/>
+    <x v="2"/>
+    <s v="Erin 2"/>
+  </r>
+  <r>
+    <d v="2025-06-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Molly Palmer YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="5417.7200000000066"/>
+    <x v="16"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -9354,7 +9636,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="331">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="352">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -11916,7 +12198,7 @@
     <n v="10805.810000000005"/>
     <x v="14"/>
     <s v="Members"/>
-    <m/>
+    <s v="Flyers and  posters"/>
   </r>
   <r>
     <d v="2025-02-26T00:00:00"/>
@@ -12244,9 +12526,9 @@
     <n v="63.6"/>
     <m/>
     <n v="11761.400000000007"/>
-    <x v="14"/>
+    <x v="4"/>
     <s v="Members"/>
-    <m/>
+    <s v="Labels"/>
   </r>
   <r>
     <d v="2025-03-24T00:00:00"/>
@@ -12257,7 +12539,7 @@
     <n v="11624.400000000007"/>
     <x v="14"/>
     <s v="Members"/>
-    <m/>
+    <s v="Price list"/>
   </r>
   <r>
     <d v="2025-03-24T00:00:00"/>
@@ -12796,7 +13078,7 @@
     <n v="10339.350000000008"/>
     <x v="14"/>
     <s v="Young artists"/>
-    <m/>
+    <s v="Leaflet printing"/>
   </r>
   <r>
     <d v="2025-05-09T00:00:00"/>
@@ -12939,7 +13221,7 @@
     <n v="7435.2000000000071"/>
     <x v="14"/>
     <s v="Young artists"/>
-    <m/>
+    <s v="Poster printing"/>
   </r>
   <r>
     <d v="2025-06-06T00:00:00"/>
@@ -12986,6 +13268,237 @@
     <s v="Gifts to organisers"/>
   </r>
   <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Phoebe Birch YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="7279.7000000000071"/>
+    <x v="16"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Ash Goller YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="7179.7000000000071"/>
+    <x v="16"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Amanda Jewell OAS"/>
+    <n v="220.68"/>
+    <m/>
+    <n v="6959.0200000000068"/>
+    <x v="4"/>
+    <s v="Young artists"/>
+    <s v="Drinks"/>
+  </r>
+  <r>
+    <d v="2025-06-13T00:00:00"/>
+    <s v="BP"/>
+    <s v="Magdalen Road StudMAS hire"/>
+    <n v="225"/>
+    <m/>
+    <n v="6734.0200000000068"/>
+    <x v="23"/>
+    <m/>
+    <s v="Meeting room hire"/>
+  </r>
+  <r>
+    <d v="2025-06-13T00:00:00"/>
+    <s v="BP"/>
+    <s v="Magdalen Road StudMAS hire"/>
+    <n v="700"/>
+    <m/>
+    <n v="6034.0200000000068"/>
+    <x v="22"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="L Wootton-Davies OAS"/>
+    <n v="319.2"/>
+    <m/>
+    <n v="5714.820000000007"/>
+    <x v="20"/>
+    <s v="Young artists"/>
+    <s v="Louis"/>
+  </r>
+  <r>
+    <d v="2025-06-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="197.1"/>
+    <m/>
+    <n v="5517.7200000000066"/>
+    <x v="20"/>
+    <s v="Young artists"/>
+    <s v="Erin 2"/>
+  </r>
+  <r>
+    <d v="2025-06-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Molly Palmer YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="5417.7200000000066"/>
+    <x v="16"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -13000,8 +13513,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -13010,7 +13523,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="25">
+      <items count="26">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
@@ -13029,12 +13542,13 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
-        <item m="1" x="23"/>
+        <item m="1" x="24"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13044,7 +13558,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="24">
+  <rowItems count="25">
     <i>
       <x/>
     </i>
@@ -13114,6 +13628,9 @@
     <i>
       <x v="23"/>
     </i>
+    <i>
+      <x v="24"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -13146,8 +13663,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -13157,7 +13674,7 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="30">
-        <item m="1" x="25"/>
+        <item x="23"/>
         <item x="7"/>
         <item x="2"/>
         <item x="6"/>
@@ -13171,7 +13688,7 @@
         <item x="18"/>
         <item x="19"/>
         <item x="13"/>
-        <item m="1" x="24"/>
+        <item m="1" x="25"/>
         <item x="11"/>
         <item x="22"/>
         <item x="0"/>
@@ -13185,7 +13702,124 @@
         <item x="1"/>
         <item x="8"/>
         <item x="10"/>
-        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item x="23"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item m="1" x="26"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item m="1" x="25"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item m="1" x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item m="1" x="27"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item m="1" x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13257,117 +13891,6 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="7" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:C29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item m="1" x="25"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item m="1" x="26"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item m="1" x="24"/>
-        <item x="11"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item m="1" x="28"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item m="1" x="27"/>
-        <item x="21"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item m="1" x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -13691,22 +14214,22 @@
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.19921875" style="5"/>
-    <col min="5" max="5" width="16.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.19921875" style="5"/>
     <col min="9" max="9" width="24.796875" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.19921875" style="5"/>
-    <col min="13" max="13" width="22.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="22.3984375" style="5" customWidth="1"/>
     <col min="14" max="14" width="8.19921875" style="5"/>
     <col min="15" max="15" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="8.19921875" style="5"/>
-    <col min="19" max="19" width="9.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.53125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="9.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.59765625" style="5" customWidth="1"/>
     <col min="21" max="16384" width="8.19921875" style="5"/>
   </cols>
   <sheetData>
@@ -13905,7 +14428,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="31">
         <f>SUMIF('Savings account'!G2:G15, "Interest", 'Savings account'!E2:E15)</f>
-        <v>167.39000000000001</v>
+        <v>199.21</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17" t="s">
@@ -13914,7 +14437,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="31">
         <f>SUMIF('Current account'!G2:G401,"Admin",'Current account'!D2:D401)+SUMIF('Current account'!G2:G401, "Other expenses", 'Current account'!D2:D401)</f>
-        <v>126.07</v>
+        <v>351.07</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -13957,7 +14480,7 @@
       </c>
       <c r="F9" s="31">
         <f>GETPIVOTDATA("Sum of Expenditure",Exhibitions!$A$3,"Category","Publicity")</f>
-        <v>431.6</v>
+        <v>368</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -14051,7 +14574,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="31">
         <f>SUM(F5:F11)</f>
-        <v>5598.71</v>
+        <v>5535.11</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -14126,7 +14649,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="31">
         <f ca="1">SUM(O4:O13)</f>
-        <v>2537.46</v>
+        <v>2762.46</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -19757,16 +20280,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" customWidth="1"/>
     <col min="6" max="6" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="11" max="11" width="68.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="68.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="53.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
@@ -28949,18 +29472,18 @@
   <cols>
     <col min="1" max="1" width="16.46484375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="26.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1328125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.06640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="17.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" style="5" customWidth="1"/>
     <col min="11" max="11" width="35.19921875" style="5" customWidth="1"/>
     <col min="12" max="12" width="9" style="5" customWidth="1"/>
     <col min="13" max="13" width="22" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.46484375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.53125" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.796875" style="5" customWidth="1"/>
     <col min="18" max="18" width="10.53125" style="5" bestFit="1" customWidth="1"/>
@@ -29937,10 +30460,10 @@
     <col min="6" max="7" width="9" style="5"/>
     <col min="8" max="8" width="6.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="26" width="9" style="5"/>
     <col min="27" max="27" width="25.19921875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="32.73046875" style="5" customWidth="1"/>
+    <col min="28" max="28" width="32.796875" style="5" customWidth="1"/>
     <col min="29" max="29" width="9" style="9"/>
     <col min="30" max="30" width="9" style="5"/>
     <col min="31" max="32" width="15.53125" style="5" customWidth="1"/>
@@ -29985,7 +30508,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
@@ -30163,20 +30686,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="I332" sqref="I332"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G361" sqref="G361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -34888,7 +35411,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="23">
         <v>45706</v>
       </c>
@@ -34912,7 +35435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="23">
         <v>45707</v>
       </c>
@@ -34936,7 +35459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="23">
         <v>45707</v>
       </c>
@@ -34957,7 +35480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="23">
         <v>45707</v>
       </c>
@@ -34978,7 +35501,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="23">
         <v>45708</v>
       </c>
@@ -35002,7 +35525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="23">
         <v>45709</v>
       </c>
@@ -35026,7 +35549,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="23">
         <v>45709</v>
       </c>
@@ -35047,7 +35570,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="23">
         <v>45712</v>
       </c>
@@ -35071,7 +35594,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="23">
         <v>45713</v>
       </c>
@@ -35095,7 +35618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="23">
         <v>45713</v>
       </c>
@@ -35118,8 +35641,11 @@
       <c r="H234" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I234" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="23">
         <v>45714</v>
       </c>
@@ -35140,7 +35666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="23">
         <v>45714</v>
       </c>
@@ -35164,7 +35690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="23">
         <v>45715</v>
       </c>
@@ -35188,7 +35714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="23">
         <v>45716</v>
       </c>
@@ -35212,7 +35738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="23">
         <v>45719</v>
       </c>
@@ -35236,7 +35762,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="23">
         <v>45719</v>
       </c>
@@ -35803,10 +36329,13 @@
         <v>11761.400000000007</v>
       </c>
       <c r="G264" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H264" t="s">
         <v>104</v>
+      </c>
+      <c r="I264" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
@@ -35832,6 +36361,9 @@
       <c r="H265" t="s">
         <v>104</v>
       </c>
+      <c r="I265" t="s">
+        <v>1764</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="23">
@@ -35943,7 +36475,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="F270" s="24">
-        <f t="shared" ref="F270:F331" si="5">F269+E270-D270</f>
+        <f t="shared" ref="F270:F335" si="5">F269+E270-D270</f>
         <v>14864.150000000009</v>
       </c>
       <c r="G270" t="s">
@@ -36996,6 +37528,9 @@
       <c r="H314" t="s">
         <v>1668</v>
       </c>
+      <c r="I314" t="s">
+        <v>1759</v>
+      </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="23">
@@ -37305,6 +37840,9 @@
       <c r="H327" t="s">
         <v>1668</v>
       </c>
+      <c r="I327" t="s">
+        <v>1760</v>
+      </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="23">
@@ -37408,8 +37946,209 @@
         <v>1748</v>
       </c>
     </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A332" s="23">
+        <v>45818</v>
+      </c>
+      <c r="B332" t="s">
+        <v>264</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D332">
+        <v>100</v>
+      </c>
+      <c r="F332" s="24">
+        <f t="shared" si="5"/>
+        <v>7279.7000000000071</v>
+      </c>
+      <c r="G332" t="s">
+        <v>10</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A333" s="23">
+        <v>45818</v>
+      </c>
+      <c r="B333" t="s">
+        <v>264</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D333">
+        <v>100</v>
+      </c>
+      <c r="F333" s="24">
+        <f t="shared" si="5"/>
+        <v>7179.7000000000071</v>
+      </c>
+      <c r="G333" t="s">
+        <v>10</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A334" s="23">
+        <v>45818</v>
+      </c>
+      <c r="B334" t="s">
+        <v>264</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D334">
+        <v>220.68</v>
+      </c>
+      <c r="F334" s="24">
+        <f t="shared" si="5"/>
+        <v>6959.0200000000068</v>
+      </c>
+      <c r="G334" t="s">
+        <v>89</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I334" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A335" s="23">
+        <v>45821</v>
+      </c>
+      <c r="B335" t="s">
+        <v>264</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D335">
+        <v>225</v>
+      </c>
+      <c r="F335" s="24">
+        <f t="shared" si="5"/>
+        <v>6734.0200000000068</v>
+      </c>
+      <c r="G335" t="s">
+        <v>6</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A336" s="23">
+        <v>45821</v>
+      </c>
+      <c r="B336" t="s">
+        <v>264</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D336">
+        <v>700</v>
+      </c>
+      <c r="F336" s="24">
+        <f t="shared" ref="F336:F339" si="6">F335+E336-D336</f>
+        <v>6034.0200000000068</v>
+      </c>
+      <c r="G336" t="s">
+        <v>102</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A337" s="23">
+        <v>45824</v>
+      </c>
+      <c r="B337" t="s">
+        <v>264</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D337">
+        <v>319.2</v>
+      </c>
+      <c r="F337" s="24">
+        <f t="shared" si="6"/>
+        <v>5714.820000000007</v>
+      </c>
+      <c r="G337" t="s">
+        <v>103</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I337" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338" s="23">
+        <v>45824</v>
+      </c>
+      <c r="B338" t="s">
+        <v>264</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D338">
+        <v>197.1</v>
+      </c>
+      <c r="F338" s="24">
+        <f t="shared" si="6"/>
+        <v>5517.7200000000066</v>
+      </c>
+      <c r="G338" t="s">
+        <v>103</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A339" s="23">
+        <v>45827</v>
+      </c>
+      <c r="B339" t="s">
+        <v>264</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D339">
+        <v>100</v>
+      </c>
+      <c r="F339" s="24">
+        <f t="shared" si="6"/>
+        <v>5417.7200000000066</v>
+      </c>
+      <c r="G339" t="s">
+        <v>10</v>
+      </c>
+      <c r="H339" t="s">
+        <v>1668</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I353" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
+  <autoFilter ref="A1:I355" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -37449,7 +38188,7 @@
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.59765625" customWidth="1"/>
     <col min="3" max="3" width="18.19921875" customWidth="1"/>
-    <col min="4" max="20" width="12.59765625" style="2" customWidth="1"/>
+    <col min="4" max="20" width="12.53125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -40649,12 +41388,12 @@
   <cols>
     <col min="1" max="1" width="11.59765625" style="5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="16.73046875" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" style="5" customWidth="1"/>
     <col min="4" max="5" width="8.19921875" style="5"/>
     <col min="6" max="6" width="11.06640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.19921875" style="5"/>
-    <col min="8" max="8" width="10.59765625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.19921875" style="5"/>
   </cols>
   <sheetData>
@@ -40785,9 +41524,9 @@
   <cols>
     <col min="1" max="1" width="42.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.53125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="9" style="5"/>
-    <col min="14" max="15" width="18.9296875" style="5" customWidth="1"/>
+    <col min="14" max="15" width="18.86328125" style="5" customWidth="1"/>
     <col min="16" max="18" width="9" style="5"/>
     <col min="19" max="20" width="32.19921875" style="5" customWidth="1"/>
     <col min="21" max="21" width="18.46484375" style="5" customWidth="1"/>
@@ -40795,7 +41534,7 @@
     <col min="23" max="23" width="11.06640625" style="5" customWidth="1"/>
     <col min="24" max="24" width="9" style="5"/>
     <col min="25" max="25" width="10.53125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.46484375" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.3984375" style="5" customWidth="1"/>
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -43522,7 +44261,7 @@
     <col min="1" max="1" width="8.73046875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.06640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="8.19921875" style="5"/>
-    <col min="15" max="15" width="24.06640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.19921875" style="5"/>
   </cols>
   <sheetData>
@@ -43606,17 +44345,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8BED0-6F25-4951-9707-565F124E30A4}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43668,7 +44407,7 @@
         <v>36.21</v>
       </c>
       <c r="F3" s="27">
-        <f>F2+E3-D3</f>
+        <f t="shared" ref="F3:F8" si="0">F2+E3-D3</f>
         <v>22713.059999999998</v>
       </c>
       <c r="G3" t="s">
@@ -43689,7 +44428,7 @@
         <v>34.770000000000003</v>
       </c>
       <c r="F4" s="27">
-        <f>F3+E4-D4</f>
+        <f t="shared" si="0"/>
         <v>22747.829999999998</v>
       </c>
       <c r="G4" t="s">
@@ -43710,7 +44449,7 @@
         <v>30.71</v>
       </c>
       <c r="F5" s="27">
-        <f>F4+E5-D5</f>
+        <f t="shared" si="0"/>
         <v>22778.539999999997</v>
       </c>
       <c r="G5" t="s">
@@ -43731,7 +44470,7 @@
         <v>34.049999999999997</v>
       </c>
       <c r="F6" s="27">
-        <f>F5+E6-D6</f>
+        <f t="shared" si="0"/>
         <v>22812.589999999997</v>
       </c>
       <c r="G6" t="s">
@@ -43752,10 +44491,31 @@
         <v>31.65</v>
       </c>
       <c r="F7" s="27">
-        <f>F6+E7-D7</f>
+        <f t="shared" si="0"/>
         <v>22844.239999999998</v>
       </c>
       <c r="G7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
+        <v>45825</v>
+      </c>
+      <c r="B8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E8">
+        <v>31.82</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="0"/>
+        <v>22876.059999999998</v>
+      </c>
+      <c r="G8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -43778,7 +44538,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAEDB9-0FE6-48E6-8096-45942EADC73F}">
-  <dimension ref="A3:C27"/>
+  <dimension ref="A3:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -43813,12 +44573,12 @@
     <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.9296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.06640625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
@@ -43869,31 +44629,31 @@
     <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="15" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="20" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.9296875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="15" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="15" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="15" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="15" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="15" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="15" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="15" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -43901,35 +44661,35 @@
     <col min="129" max="129" width="18.46484375" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="15" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="15" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="15" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="15" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="15" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="15" bestFit="1" customWidth="1"/>
     <col min="155" max="155" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="157" max="157" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="15" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="15" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -43937,15 +44697,15 @@
     <col min="165" max="165" width="18.46484375" bestFit="1" customWidth="1"/>
     <col min="166" max="166" width="15" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="15" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="15" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="178" max="178" width="15" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -43953,15 +44713,15 @@
     <col min="181" max="181" width="18.46484375" bestFit="1" customWidth="1"/>
     <col min="182" max="182" width="15" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="15" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="189" max="189" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="190" max="190" width="15" bestFit="1" customWidth="1"/>
     <col min="191" max="191" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="193" max="193" width="19.53125" bestFit="1" customWidth="1"/>
     <col min="194" max="194" width="15" bestFit="1" customWidth="1"/>
     <col min="195" max="195" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -43999,8 +44759,8 @@
     <col min="227" max="227" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="15" bestFit="1" customWidth="1"/>
     <col min="229" max="229" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="231" max="232" width="20" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="231" max="232" width="19.9296875" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -44019,24 +44779,20 @@
       <c r="A4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4">
         <v>6618.8800000000019</v>
       </c>
-      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43">
+      <c r="C6">
         <v>255</v>
       </c>
     </row>
@@ -44044,17 +44800,15 @@
       <c r="A7" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43">
-        <v>495.51000000000005</v>
+      <c r="C7">
+        <v>779.79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43">
+      <c r="C8">
         <v>126.07</v>
       </c>
     </row>
@@ -44062,17 +44816,15 @@
       <c r="A9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9">
         <v>230</v>
       </c>
-      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43">
+      <c r="C10">
         <v>200</v>
       </c>
     </row>
@@ -44080,8 +44832,7 @@
       <c r="A11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43">
+      <c r="C11">
         <v>132</v>
       </c>
     </row>
@@ -44089,8 +44840,7 @@
       <c r="A12" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43">
+      <c r="C12">
         <v>450</v>
       </c>
     </row>
@@ -44098,8 +44848,7 @@
       <c r="A13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43">
+      <c r="C13">
         <v>105.89</v>
       </c>
     </row>
@@ -44107,8 +44856,7 @@
       <c r="A14" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43">
+      <c r="C14">
         <v>812.5</v>
       </c>
     </row>
@@ -44116,8 +44864,7 @@
       <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43">
+      <c r="C15">
         <v>1360.28</v>
       </c>
     </row>
@@ -44125,37 +44872,34 @@
       <c r="A16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16">
         <v>1.77</v>
       </c>
-      <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17">
         <v>2700.95</v>
       </c>
-      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43">
-        <v>675.88</v>
+      <c r="C18">
+        <v>612.28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19">
         <v>239.97</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19">
         <v>30</v>
       </c>
     </row>
@@ -44163,17 +44907,15 @@
       <c r="A20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43">
-        <v>200</v>
+      <c r="C20">
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43">
+      <c r="C21">
         <v>613.22</v>
       </c>
     </row>
@@ -44181,17 +44923,15 @@
       <c r="A22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22">
         <v>8215.3100000000013</v>
       </c>
-      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43">
+      <c r="C23">
         <v>5920.5</v>
       </c>
     </row>
@@ -44199,17 +44939,15 @@
       <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43">
-        <v>1622.1</v>
+      <c r="C24">
+        <v>2138.4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43">
+      <c r="C25">
         <v>1500</v>
       </c>
     </row>
@@ -44217,20 +44955,27 @@
       <c r="A26" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43">
-        <v>1952.11</v>
+      <c r="C26">
+        <v>2652.1099999999997</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B28">
         <v>18006.880000000005</v>
       </c>
-      <c r="C27" s="43">
-        <v>16451.060000000001</v>
+      <c r="C28">
+        <v>18413.039999999997</v>
       </c>
     </row>
   </sheetData>
@@ -44240,10 +44985,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -44276,8 +45021,7 @@
       <c r="A4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43">
+      <c r="C4">
         <v>1500</v>
       </c>
       <c r="E4" t="s">
@@ -44288,8 +45032,7 @@
       <c r="A5" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43">
+      <c r="C5">
         <v>25.4</v>
       </c>
       <c r="E5" t="s">
@@ -44309,8 +45052,7 @@
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43">
+      <c r="C6">
         <v>200</v>
       </c>
       <c r="E6" t="s">
@@ -44330,9 +45072,8 @@
       <c r="A7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43">
-        <v>431.6</v>
+      <c r="C7">
+        <v>368</v>
       </c>
       <c r="E7" t="s">
         <v>117</v>
@@ -44348,8 +45089,7 @@
       <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43">
+      <c r="C8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
@@ -44368,17 +45108,15 @@
       <c r="A9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9">
         <v>8215.31</v>
       </c>
-      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43">
+      <c r="C10">
         <v>5920.5</v>
       </c>
     </row>
@@ -44386,10 +45124,9 @@
       <c r="A11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11">
         <v>2443.5300000000007</v>
       </c>
-      <c r="C11" s="43"/>
       <c r="E11" t="s">
         <v>1646</v>
       </c>
@@ -44405,8 +45142,7 @@
       <c r="A12" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43">
+      <c r="C12">
         <v>1952.11</v>
       </c>
       <c r="E12">
@@ -44418,19 +45154,18 @@
       <c r="A13" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43">
-        <v>480.01</v>
+      <c r="C13">
+        <v>543.61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14">
         <v>239.97</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14">
         <v>30</v>
       </c>
     </row>
@@ -44438,8 +45173,7 @@
       <c r="A15" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43">
+      <c r="C15">
         <v>1500</v>
       </c>
     </row>
@@ -44447,14 +45181,14 @@
       <c r="A16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16">
         <v>10898.81</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16">
         <v>12054.62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>106</v>
       </c>
@@ -44462,7 +45196,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>82</v>
       </c>
@@ -44473,69 +45207,86 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23">
         <v>200</v>
       </c>
-      <c r="C23" s="43"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43">
-        <v>122.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>638.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43">
+      <c r="C25">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43">
+      <c r="C27">
         <v>69.28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B28">
         <v>257.41999999999996</v>
       </c>
-      <c r="C27" s="43"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
+      <c r="C30">
+        <v>236.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B31">
         <v>457.41999999999996</v>
       </c>
-      <c r="C29" s="43">
-        <v>256.88</v>
+      <c r="C31">
+        <v>1993.8600000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F31">
+        <f>GETPIVOTDATA("Sum of Expenditure",$A$22)-GETPIVOTDATA("Sum of Income",$A$22)</f>
+        <v>1536.44</v>
       </c>
     </row>
   </sheetData>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E777978F-85B6-4968-9A6D-7C3B59DC240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3EC650-4A71-48EC-AA94-F6B852A649FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" firstSheet="7" activeTab="8" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" firstSheet="1" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Lists" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current account'!$A$1:$I$355</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current account'!$A$1:$I$356</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Members Exhibition'!$A$1:$H$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Membership List'!$A$2:$A$216</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Stripe!$A$1:$W$478</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="1770">
   <si>
     <t>Subs</t>
   </si>
@@ -5357,6 +5357,18 @@
   </si>
   <si>
     <t xml:space="preserve">Cost: </t>
+  </si>
+  <si>
+    <t>Toby Michael YA Prize</t>
+  </si>
+  <si>
+    <t>Erin 3</t>
+  </si>
+  <si>
+    <t>TOTAL CHARGES TO 30MAY2025</t>
+  </si>
+  <si>
+    <t>China meeting refreshments</t>
   </si>
 </sst>
 </file>
@@ -5614,13 +5626,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45827.539443634261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="352" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45828.412896412039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="341" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I503" sheet="Current account"/>
+    <worksheetSource ref="A1:I401" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-20T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-21T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5635,7 +5647,75 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5417.7200000000066" maxValue="18411.630000000008"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4829.320000000007" maxValue="18411.630000000008"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1" count="25">
+        <m/>
+        <s v="Subs 2025"/>
+        <s v="Donations cr"/>
+        <s v="Refunds"/>
+        <s v="Exhibitions db"/>
+        <s v="Other expenses"/>
+        <s v="Donations db"/>
+        <s v="AGM"/>
+        <s v="Storage"/>
+        <s v="Gifts"/>
+        <s v="Secretarys fee"/>
+        <s v="Website"/>
+        <s v="Other income"/>
+        <s v="Submissions"/>
+        <s v="Publicity"/>
+        <s v="Bar sales"/>
+        <s v="Prizes"/>
+        <s v="Insurance"/>
+        <s v="Sales cr"/>
+        <s v="Sales db"/>
+        <s v="Exhibition organisers fees"/>
+        <s v="Website manager's fee"/>
+        <s v="Venue hire"/>
+        <s v="Admin"/>
+        <s v="Exhibitions cr" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Exhibition" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45828.412969328703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="341" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I504" sheet="Current account"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-21T00:00:00"/>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Expenditure" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1952.11"/>
+    </cacheField>
+    <cacheField name="Income" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
+    </cacheField>
+    <cacheField name="Balance" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4829.320000000007" maxValue="18411.630000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems containsBlank="1" count="29">
@@ -5690,3953 +5770,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45827.539532407405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="352" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I400" sheet="Current account"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-20T00:00:00"/>
-    </cacheField>
-    <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1952.11"/>
-    </cacheField>
-    <cacheField name="Income" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
-    </cacheField>
-    <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5417.7200000000066" maxValue="18411.630000000008"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="25">
-        <m/>
-        <s v="Subs 2025"/>
-        <s v="Donations cr"/>
-        <s v="Refunds"/>
-        <s v="Exhibitions db"/>
-        <s v="Other expenses"/>
-        <s v="Donations db"/>
-        <s v="AGM"/>
-        <s v="Storage"/>
-        <s v="Gifts"/>
-        <s v="Secretarys fee"/>
-        <s v="Website"/>
-        <s v="Other income"/>
-        <s v="Submissions"/>
-        <s v="Publicity"/>
-        <s v="Bar sales"/>
-        <s v="Prizes"/>
-        <s v="Insurance"/>
-        <s v="Sales cr"/>
-        <s v="Sales db"/>
-        <s v="Exhibition organisers fees"/>
-        <s v="Website manager's fee"/>
-        <s v="Venue hire"/>
-        <s v="Admin"/>
-        <s v="Exhibitions cr" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Exhibition" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Comments" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="352">
-  <r>
-    <d v="2025-01-01T00:00:00"/>
-    <m/>
-    <s v="Opening balance"/>
-    <m/>
-    <m/>
-    <n v="5823.88"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="TAYLOR L M LOUISE TAYLOR"/>
-    <m/>
-    <n v="30"/>
-    <n v="5853.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-01T00:00:00"/>
-    <s v="CR"/>
-    <s v="FREEMANTLE SCHR ECFREEMANTLESCHREMP"/>
-    <m/>
-    <n v="30"/>
-    <n v="5883.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="V Shelton Vivien Shelton"/>
-    <m/>
-    <n v="30"/>
-    <n v="5913.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LEVELL BK+S SALLY LEVELL"/>
-    <m/>
-    <n v="30"/>
-    <n v="5943.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MARTINO FOSCHI FOSCHI&amp;DZEPAVA"/>
-    <m/>
-    <n v="30"/>
-    <n v="5973.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="BP"/>
-    <s v="DUTTON J C JOAN DUTTON"/>
-    <m/>
-    <n v="30"/>
-    <n v="6003.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WEBB DA DENNY WEBB"/>
-    <m/>
-    <n v="30"/>
-    <n v="6033.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GLYNNE-JONES AM AGLYNNEJONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="6063.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SHI B MEMBERSHIP FEE"/>
-    <m/>
-    <n v="30"/>
-    <n v="6093.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS JILLIAN R COLCJ COLCHESTER"/>
-    <m/>
-    <n v="30"/>
-    <n v="6123.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ISAACSON KM ISAACSON"/>
-    <m/>
-    <n v="30"/>
-    <n v="6153.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Bicknell Maggie"/>
-    <m/>
-    <n v="30"/>
-    <n v="6183.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Somerscales John ART"/>
-    <m/>
-    <n v="30"/>
-    <n v="6213.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WALL SJC SJ WALL MEMBERSHIP"/>
-    <m/>
-    <n v="30"/>
-    <n v="6243.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LAWRENCE P ATTNY P G LAWRENCE"/>
-    <m/>
-    <n v="30"/>
-    <n v="6273.88"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GANLY HM NO REF"/>
-    <m/>
-    <n v="30"/>
-    <n v="6303.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LAWSON B BRIONY LAWSON"/>
-    <m/>
-    <n v="50"/>
-    <n v="6353.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="KIRKHAM EA KIRKHAM EA"/>
-    <m/>
-    <n v="30"/>
-    <n v="6383.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Rebecca GouverneurBECKY GOUVERNEUR"/>
-    <m/>
-    <n v="30"/>
-    <n v="6413.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="STRANGE RDTW RAYMOND STRANGE"/>
-    <m/>
-    <n v="30"/>
-    <n v="6443.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WELCHMAN SA ALEX HYDE"/>
-    <m/>
-    <n v="30"/>
-    <n v="6473.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="RICHARD FOX T/AS OAS MEMBERSHIP"/>
-    <m/>
-    <n v="30"/>
-    <n v="6503.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SALMON G L NO REF"/>
-    <m/>
-    <n v="30"/>
-    <n v="6533.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MATHEWS J C MRS J MATHEWS"/>
-    <m/>
-    <n v="30"/>
-    <n v="6563.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="YARROW J K G NO REF"/>
-    <m/>
-    <n v="30"/>
-    <n v="6593.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SMITH RE+ML RE + ML SMITH"/>
-    <m/>
-    <n v="30"/>
-    <n v="6623.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="DOBSON+DOOLEY S DOOLEY"/>
-    <m/>
-    <n v="30"/>
-    <n v="6653.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="HOPE B T BUS A/C BENJAMIN HOPE"/>
-    <m/>
-    <n v="30"/>
-    <n v="6683.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v=" COLLINS MA"/>
-    <m/>
-    <n v="30"/>
-    <n v="6713.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="COX S M"/>
-    <m/>
-    <n v="30"/>
-    <n v="6743.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="DILLON A AD ANNA DILLON"/>
-    <m/>
-    <n v="30"/>
-    <n v="6773.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Frank Dianne FRANK"/>
-    <m/>
-    <n v="30"/>
-    <n v="6803.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="FULLJAMES P A C"/>
-    <m/>
-    <n v="30"/>
-    <n v="6833.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GLOVER S &amp; C"/>
-    <m/>
-    <n v="25"/>
-    <n v="6858.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="PAKEMAN HC MRS GCQHELEN PAKEMAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="6888.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="COCKBURN PB+D COCKBURN PB+D"/>
-    <m/>
-    <n v="30"/>
-    <n v="6918.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="KENNER R E"/>
-    <m/>
-    <n v="30"/>
-    <n v="6948.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BASS SMB &amp; CA AUTOCHRISTINE BASS"/>
-    <m/>
-    <n v="30"/>
-    <n v="6978.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Bayton Mavis DR MAVIS BAYTON"/>
-    <m/>
-    <n v="30"/>
-    <n v="7008.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS SUSAN J WHEELESJ WHEELER"/>
-    <m/>
-    <n v="30"/>
-    <n v="7038.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BALMER J A"/>
-    <m/>
-    <n v="30"/>
-    <n v="7068.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J COLCHESTER JILL COLCHESTER"/>
-    <m/>
-    <n v="30"/>
-    <n v="7098.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="C H JONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="7128.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="P J FARLEY"/>
-    <m/>
-    <n v="30"/>
-    <n v="7158.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WOOTTON A GNY F WOOTTON"/>
-    <m/>
-    <n v="30"/>
-    <n v="7188.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="C KING CAROLINE KING OAS"/>
-    <m/>
-    <n v="30"/>
-    <n v="7218.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="PENNY T WD0 F PENNY"/>
-    <m/>
-    <n v="30"/>
-    <n v="7248.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="R FORD RON FORD"/>
-    <m/>
-    <n v="30"/>
-    <n v="7278.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MILBURN D. MILBURN"/>
-    <m/>
-    <n v="30"/>
-    <n v="7308.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="GORAYSKA B 1B7 F GORAYSKA"/>
-    <m/>
-    <n v="30"/>
-    <n v="7338.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="STEPHEN J S2X F STEPHEN"/>
-    <m/>
-    <n v="30"/>
-    <n v="7368.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ORT J DG0 F ORT"/>
-    <m/>
-    <n v="30"/>
-    <n v="7398.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LINDISFARNE JOK F LINDISFARNE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7428.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="DUCKER R MY8 F DUCKER"/>
-    <m/>
-    <n v="30"/>
-    <n v="7458.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="B JONES BEVERLEY JONES SUB"/>
-    <m/>
-    <n v="30"/>
-    <n v="7488.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ALAN BERMAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="7518.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="R J COON"/>
-    <m/>
-    <n v="30"/>
-    <n v="7548.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="H F KING"/>
-    <m/>
-    <n v="30"/>
-    <n v="7578.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="HOLLAND M FGE F HOLLAND"/>
-    <m/>
-    <n v="30"/>
-    <n v="7608.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="C DAVIES ANNUAL SUBS"/>
-    <m/>
-    <n v="30"/>
-    <n v="7638.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SOSKIES A. SOSKIES"/>
-    <m/>
-    <n v="30"/>
-    <n v="7668.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LINE K VUB F LINE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7698.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS BYGOTT ANNETTE BYGOTT"/>
-    <m/>
-    <n v="30"/>
-    <n v="7728.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="C MOORE CAROLINE MOORE"/>
-    <m/>
-    <n v="30"/>
-    <n v="7758.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MR GUASTALLA &amp; MS SUB"/>
-    <m/>
-    <n v="30"/>
-    <n v="7788.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MR ROBINSON OXFORD ART SOCIETY"/>
-    <m/>
-    <n v="30"/>
-    <n v="7818.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS NEWHOFER NEWHOFER"/>
-    <m/>
-    <n v="30"/>
-    <n v="7848.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MS &amp; MR BURRELL LW &amp; JO BURRELL"/>
-    <m/>
-    <n v="30"/>
-    <n v="7878.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS WATES WATES"/>
-    <m/>
-    <n v="30"/>
-    <n v="7908.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="R PATON BECKY PATON"/>
-    <m/>
-    <n v="30"/>
-    <n v="7938.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Moeran Nicola NICOLA MOERAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="7968.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="K GIBBONS KAY GIBBONS"/>
-    <m/>
-    <n v="30"/>
-    <n v="7998.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LINES EDK F LINES"/>
-    <m/>
-    <n v="30"/>
-    <n v="8028.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J.P PEART S4N 1 J.P PEART"/>
-    <m/>
-    <n v="30"/>
-    <n v="8058.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J CONWAY J CONWAY"/>
-    <m/>
-    <n v="30"/>
-    <n v="8088.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="KIRKMAN AJ+S KIRKMAN AJ+S"/>
-    <m/>
-    <n v="30"/>
-    <n v="8118.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="D WILLIAMS 0NS M WILLIAMS"/>
-    <m/>
-    <n v="30"/>
-    <n v="8148.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MORNA RHYS MORANA RHYS"/>
-    <m/>
-    <n v="30"/>
-    <n v="8178.88"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LESTER P R ZZ"/>
-    <m/>
-    <n v="25"/>
-    <n v="8203.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Clutton-Brock EleaCLUTTON-BROCK"/>
-    <m/>
-    <n v="30"/>
-    <n v="8233.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="JONES D LVW F JONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="8263.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="YMR ROBINSON YM"/>
-    <m/>
-    <n v="30"/>
-    <n v="8293.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="LEVELL B&amp;S"/>
-    <m/>
-    <n v="30"/>
-    <n v="8323.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BATES A M"/>
-    <m/>
-    <n v="30"/>
-    <n v="8353.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Laidlaw W &amp; D"/>
-    <m/>
-    <n v="30"/>
-    <n v="8383.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SALLY WYATT SALLY WYATT"/>
-    <m/>
-    <n v="30"/>
-    <n v="8413.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="STEVE DAGGITT GREBENIK&amp;DAGGITT"/>
-    <m/>
-    <n v="30"/>
-    <n v="8443.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ANGIE HUNT SUBS HUNT AJ"/>
-    <m/>
-    <n v="30"/>
-    <n v="8473.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SUBSCRIPTION FENNE SKELS"/>
-    <m/>
-    <n v="30"/>
-    <n v="8503.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WILSON W A"/>
-    <m/>
-    <n v="30"/>
-    <n v="8533.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SANDH C&amp;I"/>
-    <m/>
-    <n v="25"/>
-    <n v="8558.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="COLE E A"/>
-    <m/>
-    <n v="25"/>
-    <n v="8583.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="CULLEN F SHAKESPEARE F"/>
-    <m/>
-    <n v="30"/>
-    <n v="8613.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="JENNYFAYART"/>
-    <m/>
-    <n v="30"/>
-    <n v="8643.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="WATERS S G"/>
-    <m/>
-    <n v="25"/>
-    <n v="8668.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="KIRBY TESSA KIRBY T"/>
-    <m/>
-    <n v="30"/>
-    <n v="8698.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="JAMES HAMILT"/>
-    <m/>
-    <n v="30"/>
-    <n v="8728.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="W S-SMITH SO8 1 W SKINNER-SMITH"/>
-    <m/>
-    <n v="35"/>
-    <n v="8763.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BUTLER A. BUTLER"/>
-    <m/>
-    <n v="30"/>
-    <n v="8793.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J STROTHER"/>
-    <m/>
-    <n v="30"/>
-    <n v="8823.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Hinchliffe Antony HINCHLIFFE"/>
-    <m/>
-    <n v="30"/>
-    <n v="8853.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="FLUDRA A &amp; L CP"/>
-    <m/>
-    <n v="30"/>
-    <n v="8883.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS FERN STRANGE"/>
-    <m/>
-    <n v="30"/>
-    <n v="8913.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SELHURST MM MANDY SELHURST"/>
-    <m/>
-    <n v="30"/>
-    <n v="8943.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SELHURST MM SELHURST"/>
-    <m/>
-    <n v="30"/>
-    <n v="8973.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="J COOPER FASTER PAYMENT"/>
-    <m/>
-    <n v="30"/>
-    <n v="9003.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Anna Lever N140590"/>
-    <m/>
-    <n v="30"/>
-    <n v="9033.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="SAMPSON JS &amp; JM PPJOHN SAMPSON"/>
-    <m/>
-    <n v="30"/>
-    <n v="9063.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MR PHILIP S VAINKEPHILIP VAINKER"/>
-    <m/>
-    <n v="30"/>
-    <n v="9093.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="MS AMY F GLEES OASGLEES"/>
-    <m/>
-    <n v="30"/>
-    <n v="9123.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="JOHN MCALOON MCALOON PA"/>
-    <m/>
-    <n v="30"/>
-    <n v="9153.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="ANGELA RADCLIFFE ms a radcliffe"/>
-    <m/>
-    <n v="30"/>
-    <n v="9183.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Robinson Mary MARY ROBINSON"/>
-    <m/>
-    <n v="30"/>
-    <n v="9213.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="L ROWE"/>
-    <m/>
-    <n v="30"/>
-    <n v="9243.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Thompson Marc MR M H THOMPSOM"/>
-    <m/>
-    <n v="30"/>
-    <n v="9273.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Side Richard SUE SIDE"/>
-    <m/>
-    <n v="30"/>
-    <n v="9303.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Anuk Naumann FASTER PAYMENT"/>
-    <m/>
-    <n v="30"/>
-    <n v="9333.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="A KESTNER ALAN KESTNER SUBS"/>
-    <m/>
-    <n v="30"/>
-    <n v="9363.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="BEVAN A. BEVAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="9393.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Pretorius DiederikDIRK PRETORIUS"/>
-    <m/>
-    <n v="30"/>
-    <n v="9423.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Bell Elizabeth"/>
-    <m/>
-    <n v="30"/>
-    <n v="9453.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="Williams Elaine HSBC OAS"/>
-    <m/>
-    <n v="30"/>
-    <n v="9483.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="CLAIRE DRINKWATER DRINKWATER"/>
-    <m/>
-    <n v="30"/>
-    <n v="9513.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-02T00:00:00"/>
-    <s v="CR"/>
-    <s v="E R WHEELER LIZZIEWHEELER"/>
-    <m/>
-    <n v="30"/>
-    <n v="9543.880000000001"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="143.94"/>
-    <n v="9687.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="H WARD HELEN WARD"/>
-    <m/>
-    <n v="30"/>
-    <n v="9717.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="ACTON P &amp; KT KATHRYN ACTON"/>
-    <m/>
-    <n v="30"/>
-    <n v="9747.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="ACTON P &amp; KT PAULACTON"/>
-    <m/>
-    <n v="30"/>
-    <n v="9777.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="OSTER B R BARBARA OSTER"/>
-    <m/>
-    <n v="30"/>
-    <n v="9807.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="SPACKMAN S D C SPACKMAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="9837.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="GRAY SR+C SUBSCRIPTION"/>
-    <m/>
-    <n v="30"/>
-    <n v="9867.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="MEMBERSHIP FEES BIGGS A D"/>
-    <m/>
-    <n v="30"/>
-    <n v="9897.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="Hipkiss Katherine KATE HIPKISS"/>
-    <m/>
-    <n v="30"/>
-    <n v="9927.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="B GORAYSKA"/>
-    <m/>
-    <n v="30"/>
-    <n v="9957.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="June Dent June Dent Membersh"/>
-    <m/>
-    <n v="30"/>
-    <n v="9987.8200000000015"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="HUGH TURNER OAS Membership"/>
-    <m/>
-    <n v="30"/>
-    <n v="10017.820000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="56.7"/>
-    <n v="10074.520000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="Jamieson Kay KAY JAMIESON"/>
-    <m/>
-    <n v="30"/>
-    <n v="10104.520000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="Griffiths Eirian EIRIAN GRIFFITHS"/>
-    <m/>
-    <n v="30"/>
-    <n v="10134.520000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="86.56"/>
-    <n v="10221.080000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-09T00:00:00"/>
-    <s v="CR"/>
-    <s v="Whitehouse Paul PAUL WHITEHOUSE"/>
-    <m/>
-    <n v="30"/>
-    <n v="10251.080000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-09T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="86.59"/>
-    <n v="10337.670000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-09T00:00:00"/>
-    <s v="CR"/>
-    <s v="DOWSE &amp; BENTLEY CAMILLA DOWSE"/>
-    <m/>
-    <n v="30"/>
-    <n v="10367.670000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-09T00:00:00"/>
-    <s v="CR"/>
-    <s v="PETTS VR VALERIE PETTS"/>
-    <m/>
-    <n v="30"/>
-    <n v="10397.670000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-10T00:00:00"/>
-    <s v="CR"/>
-    <s v="R MARSDEN RONA"/>
-    <m/>
-    <n v="30"/>
-    <n v="10427.670000000002"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="115.78"/>
-    <n v="10543.450000000003"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-13T00:00:00"/>
-    <s v="BP"/>
-    <s v="SIMMONS J Julia Simmons"/>
-    <m/>
-    <n v="30"/>
-    <n v="10573.450000000003"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="BENSTEAD A C Amanda Benstead"/>
-    <m/>
-    <n v="30"/>
-    <n v="10603.450000000003"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-14T00:00:00"/>
-    <s v="CR"/>
-    <s v="C Groom Candida Groom"/>
-    <m/>
-    <n v="30"/>
-    <n v="10633.450000000003"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.35"/>
-    <n v="10662.800000000003"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-16T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.2"/>
-    <n v="10692.000000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-16T00:00:00"/>
-    <s v="BP"/>
-    <s v="Lin Kerr OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="10662.000000000004"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-16T00:00:00"/>
-    <s v="BP"/>
-    <s v="Spencer Holt INV-7689"/>
-    <n v="245.4"/>
-    <m/>
-    <n v="10416.600000000004"/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-16T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rebecca Payton OAS"/>
-    <n v="14.4"/>
-    <m/>
-    <n v="10402.200000000004"/>
-    <x v="5"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-17T00:00:00"/>
-    <s v="CR"/>
-    <s v="J Morgan JEREMY MORGAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="10432.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-17T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS S J &amp; MR M R CM CLAY SUBS"/>
-    <m/>
-    <n v="30"/>
-    <n v="10462.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-17T00:00:00"/>
-    <s v="CR"/>
-    <s v="V Stanway VICTORIA STANWAY"/>
-    <m/>
-    <n v="30"/>
-    <n v="10492.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-18T00:00:00"/>
-    <s v="CR"/>
-    <s v="Jackson Morgan MM PLUMM"/>
-    <m/>
-    <n v="30"/>
-    <n v="10522.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-19T00:00:00"/>
-    <s v="CR"/>
-    <s v="Claire Venables Claire Venables"/>
-    <m/>
-    <n v="30"/>
-    <n v="10552.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="Ruth Margaret SwaiRuth Swain"/>
-    <m/>
-    <n v="30"/>
-    <n v="10582.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="SHUCKBURGH P M B PIP SHUCKURGH"/>
-    <m/>
-    <n v="30"/>
-    <n v="10612.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="MARY CRAIG Roderick Craig"/>
-    <m/>
-    <n v="30"/>
-    <n v="10642.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="BP"/>
-    <s v="BERRETT MGS&amp;AR Alison Berrett"/>
-    <m/>
-    <n v="30"/>
-    <n v="10672.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="ENGELHARDT MM JULIA ENGELHARDT"/>
-    <m/>
-    <n v="30"/>
-    <n v="10702.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="EMMA DAVIS T/AS EMMA DAVIS 2025"/>
-    <m/>
-    <n v="30"/>
-    <n v="10732.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="ANNE GIRLING Anne Girling"/>
-    <m/>
-    <n v="30"/>
-    <n v="10762.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="BP"/>
-    <s v="WILLIAMS DH&amp;SJ David Williams"/>
-    <m/>
-    <n v="30"/>
-    <n v="10792.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="ZUR JN JUDITH ZUR"/>
-    <m/>
-    <n v="30"/>
-    <n v="10822.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="JONES M G CP MYRICA JONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="10852.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="PARKER WOOLWAY T TARA PW"/>
-    <m/>
-    <n v="30"/>
-    <n v="10882.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="SHEPHERD M C PP MARIE SHEPHERD"/>
-    <m/>
-    <n v="30"/>
-    <n v="10912.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="E Coleman-Jones EMMA COLEMAN-JONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="10942.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="JASON DANELY Robin Danely"/>
-    <m/>
-    <n v="30"/>
-    <n v="10972.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="Johannes Von StummJohannes von Stumm"/>
-    <m/>
-    <n v="30"/>
-    <n v="11002.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="C Landell-Mills CATHY LANDELL MILL"/>
-    <m/>
-    <n v="30"/>
-    <n v="11032.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-21T00:00:00"/>
-    <s v="BP"/>
-    <s v="FRANKLIN A J Alan Franklin"/>
-    <m/>
-    <n v="30"/>
-    <n v="11062.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="J Huggett Jenny Huggett 2025"/>
-    <m/>
-    <n v="30"/>
-    <n v="11092.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="Bayton Mavis MAVIS BAYTON"/>
-    <m/>
-    <n v="30"/>
-    <n v="11122.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 30DEC2024"/>
-    <n v="5"/>
-    <m/>
-    <n v="11117.200000000004"/>
-    <x v="5"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS HOFFMAN BEATRICE HOFFMAN"/>
-    <m/>
-    <n v="30"/>
-    <n v="11147.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="Smart Adrian ADRIAN SMART"/>
-    <m/>
-    <n v="30"/>
-    <n v="11177.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="Anuk Naumann Anuk Naumann"/>
-    <m/>
-    <n v="30"/>
-    <n v="11207.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="J Colchester JILL COLCHESTER"/>
-    <m/>
-    <n v="30"/>
-    <n v="11237.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-22T00:00:00"/>
-    <s v="BP"/>
-    <s v="ABELL S C Suzanne Abell"/>
-    <m/>
-    <n v="30"/>
-    <n v="11267.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-22T00:00:00"/>
-    <s v="BP"/>
-    <s v="Jill Colchester OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="11237.200000000004"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-23T00:00:00"/>
-    <s v="CR"/>
-    <s v="ANGELA RADCLIFFE AngelaRadcliffe"/>
-    <m/>
-    <n v="30"/>
-    <n v="11267.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-23T00:00:00"/>
-    <s v="BP"/>
-    <s v="Sally-Anne S Sally-Anne Stewart"/>
-    <m/>
-    <n v="30"/>
-    <n v="11297.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-23T00:00:00"/>
-    <s v="CR"/>
-    <s v="Zelga Miller zelga miller"/>
-    <m/>
-    <n v="30"/>
-    <n v="11327.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-23T00:00:00"/>
-    <s v="BP"/>
-    <s v="Angela Radcliffe OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="11297.200000000004"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-23T00:00:00"/>
-    <s v="CR"/>
-    <s v="INDIGO ARTS ANTONIAGLYNNEJONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="11327.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-24T00:00:00"/>
-    <s v="CR"/>
-    <s v="CROPPER J &amp; LR LOUISE CROPPER"/>
-    <m/>
-    <n v="30"/>
-    <n v="11357.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-24T00:00:00"/>
-    <s v="CR"/>
-    <s v="R Ducker Rachel Ducker"/>
-    <m/>
-    <n v="30"/>
-    <n v="11387.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-25T00:00:00"/>
-    <s v="CR"/>
-    <s v="A Jones A MCNEILE JONES"/>
-    <m/>
-    <n v="30"/>
-    <n v="11417.200000000004"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-26T00:00:00"/>
-    <s v="BP"/>
-    <s v="Cathy Landell MillOAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="11387.200000000004"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="26.1"/>
-    <n v="11413.300000000005"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="EAGLE HC HARRIET EAGLE"/>
-    <m/>
-    <n v="30"/>
-    <n v="11443.300000000005"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-27T00:00:00"/>
-    <s v="BP"/>
-    <s v="Magdalen Road StudOAS donation"/>
-    <n v="200"/>
-    <m/>
-    <n v="11243.300000000005"/>
-    <x v="6"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-27T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rebecca Payton OAS"/>
-    <n v="60"/>
-    <m/>
-    <n v="11183.300000000005"/>
-    <x v="7"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-27T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rachel Ducker OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="11153.300000000005"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="27.1"/>
-    <n v="11180.400000000005"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="STILES KJ 2 KIERAN STILES"/>
-    <m/>
-    <n v="30"/>
-    <n v="11210.400000000005"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-29T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rebecca Payton OAS"/>
-    <n v="72"/>
-    <m/>
-    <n v="11138.400000000005"/>
-    <x v="7"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-29T00:00:00"/>
-    <s v="CR"/>
-    <s v="ART PROFILE LIMITEPeter Keegan"/>
-    <m/>
-    <n v="30"/>
-    <n v="11168.400000000005"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-30T00:00:00"/>
-    <s v="BP"/>
-    <s v="Caroline Moore OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="11138.400000000005"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-01-30T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="21.54"/>
-    <n v="11159.940000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-01T00:00:00"/>
-    <s v="BP"/>
-    <s v="HEATON GA Gill Heaton sub"/>
-    <m/>
-    <n v="30"/>
-    <n v="11189.940000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-01T00:00:00"/>
-    <s v="BP"/>
-    <s v="Jeremy Morgan OAS"/>
-    <n v="210"/>
-    <m/>
-    <n v="10979.940000000006"/>
-    <x v="8"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="CROFT TWR TOM CROFT"/>
-    <m/>
-    <n v="30"/>
-    <n v="11009.940000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="KULABKO M M KULABKO"/>
-    <m/>
-    <n v="30"/>
-    <n v="11039.940000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-04T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rebecca Payton OAS"/>
-    <n v="9.6999999999999993"/>
-    <m/>
-    <n v="11030.240000000005"/>
-    <x v="5"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-04T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rebecca Payton OAS"/>
-    <n v="30.49"/>
-    <m/>
-    <n v="10999.750000000005"/>
-    <x v="9"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-04T00:00:00"/>
-    <s v="BP"/>
-    <s v="Deborah Digby OAS"/>
-    <n v="625"/>
-    <m/>
-    <n v="10374.750000000005"/>
-    <x v="10"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="26.67"/>
-    <n v="10401.420000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="K Turner KATHY TURNER SUB"/>
-    <m/>
-    <n v="30"/>
-    <n v="10431.420000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="PERRY A ANTONY PERRY"/>
-    <m/>
-    <n v="30"/>
-    <n v="10461.420000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="C Binnie C BINNIE"/>
-    <m/>
-    <n v="30"/>
-    <n v="10491.420000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Sarah Dearling OAS"/>
-    <n v="7.95"/>
-    <m/>
-    <n v="10483.470000000005"/>
-    <x v="11"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-10T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="1.77"/>
-    <n v="10485.240000000005"/>
-    <x v="12"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="ROSEMARY PHIPPS annualfee"/>
-    <m/>
-    <n v="30"/>
-    <n v="10515.240000000005"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Split payment"/>
-    <m/>
-    <n v="29.35"/>
-    <n v="10544.590000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-13T00:00:00"/>
-    <s v="Split"/>
-    <s v="Stripe Split payment"/>
-    <m/>
-    <n v="43.11"/>
-    <n v="10587.700000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-17T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stacey Gledhill ArSTACEY GLEDHILL"/>
-    <m/>
-    <n v="30"/>
-    <n v="10617.700000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-18T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="116.08"/>
-    <n v="10733.780000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-19T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="14.57"/>
-    <n v="10748.350000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-19T00:00:00"/>
-    <s v="CR"/>
-    <s v="ARTS - INC. SUBSCRIPTION"/>
-    <m/>
-    <n v="30"/>
-    <n v="10778.350000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-19T00:00:00"/>
-    <s v="CR"/>
-    <s v="JANE KELLY JaneKelly"/>
-    <m/>
-    <n v="30"/>
-    <n v="10808.350000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="131.81"/>
-    <n v="10940.160000000005"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-21T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="14.57"/>
-    <n v="10954.730000000005"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 31JAN2025"/>
-    <n v="5"/>
-    <m/>
-    <n v="10949.730000000005"/>
-    <x v="5"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-24T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="43.8"/>
-    <n v="10993.530000000004"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-25T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="43.28"/>
-    <n v="11036.810000000005"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-25T00:00:00"/>
-    <s v="BP"/>
-    <s v="Kall Kwik Oxford 006746"/>
-    <n v="231"/>
-    <m/>
-    <n v="10805.810000000005"/>
-    <x v="14"/>
-    <x v="1"/>
-    <s v="Flyers and  posters"/>
-  </r>
-  <r>
-    <d v="2025-02-26T00:00:00"/>
-    <s v="BP"/>
-    <s v="Oxford Visual ArtsAW25OAS"/>
-    <n v="175"/>
-    <m/>
-    <n v="10630.810000000005"/>
-    <x v="14"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-26T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="14.57"/>
-    <n v="10645.380000000005"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="132.11000000000001"/>
-    <n v="10777.490000000005"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-02-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="29.35"/>
-    <n v="10806.840000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="73"/>
-    <n v="10879.840000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="Ralfe Carolyn"/>
-    <m/>
-    <n v="30"/>
-    <n v="10909.840000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="JANE KELLY Jane Kelly oas"/>
-    <m/>
-    <n v="30"/>
-    <n v="10939.840000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-03T00:00:00"/>
-    <s v="BP"/>
-    <s v="FENNE SKELS Entry"/>
-    <m/>
-    <n v="15"/>
-    <n v="10954.840000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-03T00:00:00"/>
-    <s v="BP"/>
-    <s v="Jane Kelly OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="10924.840000000006"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-04T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="43.92"/>
-    <n v="10968.760000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="586.42999999999995"/>
-    <n v="11555.190000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="Fergus Laidlaw Fergus Laidlaw"/>
-    <m/>
-    <n v="30"/>
-    <n v="11585.190000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="LAIDLAW ACH A LAIDLAW MEMBER"/>
-    <m/>
-    <n v="30"/>
-    <n v="11615.190000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Mark Clay OAS"/>
-    <n v="58.5"/>
-    <m/>
-    <n v="11556.690000000006"/>
-    <x v="5"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="73.27"/>
-    <n v="11629.960000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="FULLJAMES PAC Submission Members"/>
-    <m/>
-    <n v="30"/>
-    <n v="11659.960000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="J Morgan Jeremy M - entry"/>
-    <m/>
-    <n v="15"/>
-    <n v="11674.960000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="DUFF BJ B.JANE DUFF mem"/>
-    <m/>
-    <n v="30"/>
-    <n v="11704.960000000006"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-10T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="145.80000000000001"/>
-    <n v="11850.760000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-11T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="131.22999999999999"/>
-    <n v="11981.990000000005"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-12T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="146.54"/>
-    <n v="12128.530000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="MRS ELIZABETH F BEBETSY TYLER BELL"/>
-    <m/>
-    <n v="30"/>
-    <n v="12158.530000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-13T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="570.09"/>
-    <n v="12728.620000000006"/>
-    <x v="13"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-18T00:00:00"/>
-    <s v="BP"/>
-    <s v="Jennifer Newman OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="12698.620000000006"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-20T00:00:00"/>
-    <s v="BP"/>
-    <s v="David Barron OAS"/>
-    <n v="30"/>
-    <m/>
-    <n v="12668.620000000006"/>
-    <x v="15"/>
-    <x v="1"/>
-    <s v="Float"/>
-  </r>
-  <r>
-    <d v="2025-03-20T00:00:00"/>
-    <s v="BP"/>
-    <s v="David Barron OAS"/>
-    <n v="200"/>
-    <m/>
-    <n v="12468.620000000006"/>
-    <x v="16"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-20T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rebecca Payton OAS"/>
-    <n v="25.4"/>
-    <m/>
-    <n v="12443.220000000007"/>
-    <x v="9"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 27FEB2025"/>
-    <n v="5"/>
-    <m/>
-    <n v="12438.220000000007"/>
-    <x v="5"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-24T00:00:00"/>
-    <s v="BP"/>
-    <s v="Marsh Commercial 1515451"/>
-    <n v="613.22"/>
-    <m/>
-    <n v="11825.000000000007"/>
-    <x v="17"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-24T00:00:00"/>
-    <s v="BP"/>
-    <s v="Kall Kwik Oxford 009679"/>
-    <n v="63.6"/>
-    <m/>
-    <n v="11761.400000000007"/>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="Labels"/>
-  </r>
-  <r>
-    <d v="2025-03-24T00:00:00"/>
-    <s v="BP"/>
-    <s v="Kall Kwik Oxford 009679"/>
-    <n v="137"/>
-    <m/>
-    <n v="11624.400000000007"/>
-    <x v="14"/>
-    <x v="1"/>
-    <s v="Price list"/>
-  </r>
-  <r>
-    <d v="2025-03-24T00:00:00"/>
-    <s v="Split"/>
-    <s v="SumUp Payments AccMDD PID1043007"/>
-    <m/>
-    <n v="1690.92"/>
-    <n v="13315.320000000007"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-24T00:00:00"/>
-    <s v="Split"/>
-    <s v="Bar"/>
-    <m/>
-    <n v="159.37"/>
-    <n v="13474.690000000008"/>
-    <x v="15"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-25T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID1044627"/>
-    <m/>
-    <n v="589.86"/>
-    <n v="14064.550000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-26T00:00:00"/>
-    <s v="CR"/>
-    <s v="WILLIAM HOGG williamHogg"/>
-    <m/>
-    <n v="719"/>
-    <n v="14783.550000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-26T00:00:00"/>
-    <s v="CR"/>
-    <s v="CASH IN AT 403534"/>
-    <m/>
-    <n v="80.599999999999994"/>
-    <n v="14864.150000000009"/>
-    <x v="15"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-27T00:00:00"/>
-    <s v="CR"/>
-    <s v="A Hermon Tara Palmer Woolwy"/>
-    <m/>
-    <n v="700"/>
-    <n v="15564.150000000009"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-28T00:00:00"/>
-    <s v="BP"/>
-    <s v="Sarah Dearling OAS"/>
-    <n v="15.59"/>
-    <m/>
-    <n v="15548.560000000009"/>
-    <x v="11"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-28T00:00:00"/>
-    <s v="BP"/>
-    <s v="Sarah Dearling OAS"/>
-    <n v="15.59"/>
-    <m/>
-    <n v="15532.970000000008"/>
-    <x v="11"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="SORENSEN BH HELEN PAKEMAN"/>
-    <m/>
-    <n v="125"/>
-    <n v="15657.970000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-28T00:00:00"/>
-    <s v="CR"/>
-    <s v="LISTER J&amp;G Jenny Lister"/>
-    <m/>
-    <n v="30"/>
-    <n v="15687.970000000008"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-30T00:00:00"/>
-    <s v="CR"/>
-    <s v="INET STRYDOM 88 Pakeman"/>
-    <m/>
-    <n v="325"/>
-    <n v="16012.970000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-03-31T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID1055122"/>
-    <m/>
-    <n v="1400.91"/>
-    <n v="17413.880000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-04T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID1062445"/>
-    <m/>
-    <n v="712.75"/>
-    <n v="18126.630000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Gerry Coles PrintsOAS"/>
-    <n v="90"/>
-    <m/>
-    <n v="18036.630000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="BERRETT MGS&amp;AR Ali Berrett Sale"/>
-    <m/>
-    <n v="375"/>
-    <n v="18411.630000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <s v="Direct sale to artist, so this is our commission"/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="K Acton OAS"/>
-    <n v="187.5"/>
-    <m/>
-    <n v="18224.130000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Harriet Eagle OAS"/>
-    <n v="270"/>
-    <m/>
-    <n v="17954.130000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Kay Gibbons OAS"/>
-    <n v="431.25"/>
-    <m/>
-    <n v="17522.880000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Mrs Anne C Butler OAS"/>
-    <n v="180"/>
-    <m/>
-    <n v="17342.880000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Amanda Benstead OAS"/>
-    <n v="138.75"/>
-    <m/>
-    <n v="17204.130000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="T J Parker WoolwayOAS"/>
-    <n v="525"/>
-    <m/>
-    <n v="16679.130000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Dr Bing Shi OAS"/>
-    <n v="450"/>
-    <m/>
-    <n v="16229.130000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Candida J Groom OAS"/>
-    <n v="543.75"/>
-    <m/>
-    <n v="15685.380000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Hannah Vickery OAS"/>
-    <n v="146.25"/>
-    <m/>
-    <n v="15539.130000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Alexandra Olding OSS"/>
-    <n v="180"/>
-    <m/>
-    <n v="15359.130000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Helen Pakeman OAS"/>
-    <n v="337.5"/>
-    <m/>
-    <n v="15021.630000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Julia Simmons OAS"/>
-    <n v="131.25"/>
-    <m/>
-    <n v="14890.380000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-07T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID1067611"/>
-    <m/>
-    <n v="1086.32"/>
-    <n v="15976.700000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-08T00:00:00"/>
-    <s v="BP"/>
-    <s v="Charlie Davies OAS"/>
-    <n v="108.75"/>
-    <m/>
-    <n v="15867.950000000008"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-08T00:00:00"/>
-    <s v="CR"/>
-    <s v="Stripe Payments UKSTRIPE"/>
-    <m/>
-    <n v="443.05"/>
-    <n v="16311.000000000007"/>
-    <x v="18"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-08T00:00:00"/>
-    <s v="BP"/>
-    <s v="Katherine Hipkiss OAS"/>
-    <n v="937.5"/>
-    <m/>
-    <n v="15373.500000000007"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-08T00:00:00"/>
-    <s v="BP"/>
-    <s v="Mrs C Sadler OAS"/>
-    <n v="281.25"/>
-    <m/>
-    <n v="15092.250000000007"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-13T00:00:00"/>
-    <s v="BP"/>
-    <s v="David Bliss OAS"/>
-    <n v="337.5"/>
-    <m/>
-    <n v="14754.750000000007"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-14T00:00:00"/>
-    <s v="BP"/>
-    <s v="Philip Vainker OAS"/>
-    <n v="150"/>
-    <m/>
-    <n v="14604.750000000007"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-15T00:00:00"/>
-    <s v="BP"/>
-    <s v="Susan Wheeler OAS"/>
-    <n v="281.25"/>
-    <m/>
-    <n v="14323.500000000007"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-16T00:00:00"/>
-    <s v="BP"/>
-    <s v="Vivian Shelton OAS"/>
-    <n v="750"/>
-    <m/>
-    <n v="13573.500000000007"/>
-    <x v="20"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-16T00:00:00"/>
-    <s v="BP"/>
-    <s v="Vivian Shelton OAS"/>
-    <n v="43.17"/>
-    <m/>
-    <n v="13530.330000000007"/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-18T00:00:00"/>
-    <s v="BP"/>
-    <s v="Deborah Williams OAS"/>
-    <n v="124.65"/>
-    <m/>
-    <n v="13405.680000000008"/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-18T00:00:00"/>
-    <s v="BP"/>
-    <s v="Deborah Williams OAS"/>
-    <n v="750"/>
-    <m/>
-    <n v="12655.680000000008"/>
-    <x v="20"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-21T00:00:00"/>
-    <s v="BP"/>
-    <s v="Deborah Williams OAS"/>
-    <n v="66.790000000000006"/>
-    <m/>
-    <n v="12588.890000000007"/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 30MAR2025"/>
-    <n v="5.72"/>
-    <m/>
-    <n v="12583.170000000007"/>
-    <x v="5"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-24T00:00:00"/>
-    <s v="BP"/>
-    <s v="Jill Colchester OAS"/>
-    <n v="213"/>
-    <m/>
-    <n v="12370.170000000007"/>
-    <x v="19"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-24T00:00:00"/>
-    <s v="BP"/>
-    <s v="Stripe OAS"/>
-    <n v="15"/>
-    <m/>
-    <n v="12355.170000000007"/>
-    <x v="3"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-24T00:00:00"/>
-    <s v="BP"/>
-    <s v="Rebecca Payton OAS"/>
-    <n v="17.75"/>
-    <m/>
-    <n v="12337.420000000007"/>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="Committee meeting refreshments"/>
-  </r>
-  <r>
-    <d v="2025-04-24T00:00:00"/>
-    <s v="Split"/>
-    <s v="Roberta Catizone OAS"/>
-    <n v="1500"/>
-    <m/>
-    <n v="10837.420000000007"/>
-    <x v="21"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-24T00:00:00"/>
-    <s v="Split"/>
-    <s v="Roberta Catizone OAS"/>
-    <n v="264.14999999999998"/>
-    <m/>
-    <n v="10573.270000000008"/>
-    <x v="11"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-04-25T00:00:00"/>
-    <s v="CR"/>
-    <s v="Olding Alexandra ALEXANDRA BUCKLE"/>
-    <m/>
-    <n v="47.5"/>
-    <n v="10620.770000000008"/>
-    <x v="18"/>
-    <x v="1"/>
-    <s v="Commision on direct sale"/>
-  </r>
-  <r>
-    <d v="2025-05-01T00:00:00"/>
-    <s v="SO"/>
-    <s v="Jeremy Morgan OAS"/>
-    <n v="240"/>
-    <m/>
-    <n v="10380.770000000008"/>
-    <x v="8"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-05-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Erin Thomas OAS"/>
-    <n v="41.42"/>
-    <m/>
-    <n v="10339.350000000008"/>
-    <x v="14"/>
-    <x v="2"/>
-    <s v="Leaflet printing"/>
-  </r>
-  <r>
-    <d v="2025-05-09T00:00:00"/>
-    <s v="BP"/>
-    <s v="Erin Thomas OAS"/>
-    <n v="122.1"/>
-    <m/>
-    <n v="10217.250000000007"/>
-    <x v="20"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-05-12T00:00:00"/>
-    <s v="BP"/>
-    <s v="St Johns College 5002612"/>
-    <n v="1952.11"/>
-    <m/>
-    <n v="8265.1400000000067"/>
-    <x v="22"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-05-15T00:00:00"/>
-    <s v="CR"/>
-    <s v="foranimall LTD Art Prize Fund"/>
-    <m/>
-    <n v="50"/>
-    <n v="8315.1400000000067"/>
-    <x v="2"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-05-18T00:00:00"/>
-    <s v="CR"/>
-    <s v="SHERLAW JOHN SA SALLY WAINWRIGHT"/>
-    <m/>
-    <n v="100"/>
-    <n v="8415.1400000000067"/>
-    <x v="2"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-05-20T00:00:00"/>
-    <s v="CR"/>
-    <s v="K.E.H. CONSULTING Lofgrens YA Exh"/>
-    <m/>
-    <n v="25"/>
-    <n v="8440.1400000000067"/>
-    <x v="2"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-05-21T00:00:00"/>
-    <s v="CHG"/>
-    <s v="TOTAL CHARGES TO 29APR2025"/>
-    <n v="5"/>
-    <m/>
-    <n v="8435.1400000000067"/>
-    <x v="5"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-05-23T00:00:00"/>
-    <s v="CR"/>
-    <s v="THURSTON AR UG ELLES DELI"/>
-    <m/>
-    <n v="25"/>
-    <n v="8460.1400000000067"/>
-    <x v="2"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-06-02T00:00:00"/>
-    <s v="BP"/>
-    <s v="Webscape Gardener WG546"/>
-    <n v="177"/>
-    <m/>
-    <n v="8283.1400000000067"/>
-    <x v="11"/>
-    <x v="0"/>
-    <s v="Forms license fee"/>
-  </r>
-  <r>
-    <d v="2025-06-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="BARRON D Young Artists"/>
-    <m/>
-    <n v="90"/>
-    <n v="8373.1400000000067"/>
-    <x v="13"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-06-03T00:00:00"/>
-    <s v="CR"/>
-    <s v="SumUp Payments AccMDD PID1166729"/>
-    <m/>
-    <n v="157.41999999999999"/>
-    <n v="8530.5600000000068"/>
-    <x v="13"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-06-04T00:00:00"/>
-    <s v="BP"/>
-    <s v="Webscape Gardener WG549"/>
-    <n v="880"/>
-    <m/>
-    <n v="7650.5600000000068"/>
-    <x v="11"/>
-    <x v="0"/>
-    <s v="Maintenance plan, 1/6/25-31/5/26"/>
-  </r>
-  <r>
-    <d v="2025-06-05T00:00:00"/>
-    <s v="BP"/>
-    <s v="Amanda Bond OAS"/>
-    <n v="187.5"/>
-    <m/>
-    <n v="7463.0600000000068"/>
-    <x v="10"/>
-    <x v="0"/>
-    <s v="Feb-Apr"/>
-  </r>
-  <r>
-    <d v="2025-06-05T00:00:00"/>
-    <s v="BP"/>
-    <s v="Erin Thomas OAS"/>
-    <n v="27.86"/>
-    <m/>
-    <n v="7435.2000000000071"/>
-    <x v="14"/>
-    <x v="2"/>
-    <s v="Poster printing"/>
-  </r>
-  <r>
-    <d v="2025-06-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="Y Cho YunseoCho"/>
-    <m/>
-    <n v="5"/>
-    <n v="7440.2000000000071"/>
-    <x v="13"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-06-06T00:00:00"/>
-    <s v="CR"/>
-    <s v="GOLLER P ASH -ART EXHIBITIO"/>
-    <m/>
-    <n v="5"/>
-    <n v="7445.2000000000071"/>
-    <x v="13"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-06-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Emma Davis OAS"/>
-    <n v="15.5"/>
-    <m/>
-    <n v="7429.7000000000071"/>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="Ice for PV"/>
-  </r>
-  <r>
-    <d v="2025-06-07T00:00:00"/>
-    <s v="BP"/>
-    <s v="Emma Davis OAS"/>
-    <n v="50"/>
-    <m/>
-    <n v="7379.7000000000071"/>
-    <x v="9"/>
-    <x v="2"/>
-    <s v="Gifts to organisers"/>
-  </r>
-  <r>
-    <d v="2025-06-10T00:00:00"/>
-    <s v="BP"/>
-    <s v="Phoebe Birch YA Prize"/>
-    <n v="100"/>
-    <m/>
-    <n v="7279.7000000000071"/>
-    <x v="16"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-06-10T00:00:00"/>
-    <s v="BP"/>
-    <s v="Ash Goller YA Prize"/>
-    <n v="100"/>
-    <m/>
-    <n v="7179.7000000000071"/>
-    <x v="16"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-06-10T00:00:00"/>
-    <s v="BP"/>
-    <s v="Amanda Jewell OAS"/>
-    <n v="220.68"/>
-    <m/>
-    <n v="6959.0200000000068"/>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="Drinks"/>
-  </r>
-  <r>
-    <d v="2025-06-13T00:00:00"/>
-    <s v="BP"/>
-    <s v="Magdalen Road StudMAS hire"/>
-    <n v="225"/>
-    <m/>
-    <n v="6734.0200000000068"/>
-    <x v="23"/>
-    <x v="0"/>
-    <s v="Meeting room hire"/>
-  </r>
-  <r>
-    <d v="2025-06-13T00:00:00"/>
-    <s v="BP"/>
-    <s v="Magdalen Road StudMAS hire"/>
-    <n v="700"/>
-    <m/>
-    <n v="6034.0200000000068"/>
-    <x v="22"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <d v="2025-06-16T00:00:00"/>
-    <s v="BP"/>
-    <s v="L Wootton-Davies OAS"/>
-    <n v="319.2"/>
-    <m/>
-    <n v="5714.820000000007"/>
-    <x v="20"/>
-    <x v="2"/>
-    <s v="Louis"/>
-  </r>
-  <r>
-    <d v="2025-06-16T00:00:00"/>
-    <s v="BP"/>
-    <s v="Erin Thomas OAS"/>
-    <n v="197.1"/>
-    <m/>
-    <n v="5517.7200000000066"/>
-    <x v="20"/>
-    <x v="2"/>
-    <s v="Erin 2"/>
-  </r>
-  <r>
-    <d v="2025-06-19T00:00:00"/>
-    <s v="BP"/>
-    <s v="Molly Palmer YA Prize"/>
-    <n v="100"/>
-    <m/>
-    <n v="5417.7200000000066"/>
-    <x v="16"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="352">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="341">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -13356,6 +9491,28 @@
     <m/>
   </r>
   <r>
+    <d v="2025-06-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Toby Michael YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="5317.7200000000066"/>
+    <x v="16"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-20T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="488.4"/>
+    <m/>
+    <n v="4829.320000000007"/>
+    <x v="20"/>
+    <s v="Young artists"/>
+    <s v="Erin 3"/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -13366,154 +9523,3767 @@
     <m/>
     <m/>
   </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="341">
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <m/>
+    <s v="Opening balance"/>
+    <m/>
+    <m/>
+    <n v="5823.88"/>
     <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="TAYLOR L M LOUISE TAYLOR"/>
+    <m/>
+    <n v="30"/>
+    <n v="5853.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="FREEMANTLE SCHR ECFREEMANTLESCHREMP"/>
+    <m/>
+    <n v="30"/>
+    <n v="5883.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="V Shelton Vivien Shelton"/>
+    <m/>
+    <n v="30"/>
+    <n v="5913.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LEVELL BK+S SALLY LEVELL"/>
+    <m/>
+    <n v="30"/>
+    <n v="5943.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MARTINO FOSCHI FOSCHI&amp;DZEPAVA"/>
+    <m/>
+    <n v="30"/>
+    <n v="5973.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="BP"/>
+    <s v="DUTTON J C JOAN DUTTON"/>
+    <m/>
+    <n v="30"/>
+    <n v="6003.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WEBB DA DENNY WEBB"/>
+    <m/>
+    <n v="30"/>
+    <n v="6033.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GLYNNE-JONES AM AGLYNNEJONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="6063.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHI B MEMBERSHIP FEE"/>
+    <m/>
+    <n v="30"/>
+    <n v="6093.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS JILLIAN R COLCJ COLCHESTER"/>
+    <m/>
+    <n v="30"/>
+    <n v="6123.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ISAACSON KM ISAACSON"/>
+    <m/>
+    <n v="30"/>
+    <n v="6153.88"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Bicknell Maggie"/>
+    <m/>
+    <n v="30"/>
+    <n v="6183.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Somerscales John ART"/>
+    <m/>
+    <n v="30"/>
+    <n v="6213.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WALL SJC SJ WALL MEMBERSHIP"/>
+    <m/>
+    <n v="30"/>
+    <n v="6243.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LAWRENCE P ATTNY P G LAWRENCE"/>
+    <m/>
+    <n v="30"/>
+    <n v="6273.88"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GANLY HM NO REF"/>
+    <m/>
+    <n v="30"/>
+    <n v="6303.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LAWSON B BRIONY LAWSON"/>
+    <m/>
+    <n v="50"/>
+    <n v="6353.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="KIRKHAM EA KIRKHAM EA"/>
+    <m/>
+    <n v="30"/>
+    <n v="6383.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Rebecca GouverneurBECKY GOUVERNEUR"/>
+    <m/>
+    <n v="30"/>
+    <n v="6413.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="STRANGE RDTW RAYMOND STRANGE"/>
+    <m/>
+    <n v="30"/>
+    <n v="6443.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WELCHMAN SA ALEX HYDE"/>
+    <m/>
+    <n v="30"/>
+    <n v="6473.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="RICHARD FOX T/AS OAS MEMBERSHIP"/>
+    <m/>
+    <n v="30"/>
+    <n v="6503.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SALMON G L NO REF"/>
+    <m/>
+    <n v="30"/>
+    <n v="6533.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MATHEWS J C MRS J MATHEWS"/>
+    <m/>
+    <n v="30"/>
+    <n v="6563.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="YARROW J K G NO REF"/>
+    <m/>
+    <n v="30"/>
+    <n v="6593.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SMITH RE+ML RE + ML SMITH"/>
+    <m/>
+    <n v="30"/>
+    <n v="6623.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="DOBSON+DOOLEY S DOOLEY"/>
+    <m/>
+    <n v="30"/>
+    <n v="6653.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="HOPE B T BUS A/C BENJAMIN HOPE"/>
+    <m/>
+    <n v="30"/>
+    <n v="6683.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v=" COLLINS MA"/>
+    <m/>
+    <n v="30"/>
+    <n v="6713.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="COX S M"/>
+    <m/>
+    <n v="30"/>
+    <n v="6743.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="DILLON A AD ANNA DILLON"/>
+    <m/>
+    <n v="30"/>
+    <n v="6773.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Frank Dianne FRANK"/>
+    <m/>
+    <n v="30"/>
+    <n v="6803.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="FULLJAMES P A C"/>
+    <m/>
+    <n v="30"/>
+    <n v="6833.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GLOVER S &amp; C"/>
+    <m/>
+    <n v="25"/>
+    <n v="6858.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="PAKEMAN HC MRS GCQHELEN PAKEMAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="6888.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="COCKBURN PB+D COCKBURN PB+D"/>
+    <m/>
+    <n v="30"/>
+    <n v="6918.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="KENNER R E"/>
+    <m/>
+    <n v="30"/>
+    <n v="6948.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BASS SMB &amp; CA AUTOCHRISTINE BASS"/>
+    <m/>
+    <n v="30"/>
+    <n v="6978.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Bayton Mavis DR MAVIS BAYTON"/>
+    <m/>
+    <n v="30"/>
+    <n v="7008.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS SUSAN J WHEELESJ WHEELER"/>
+    <m/>
+    <n v="30"/>
+    <n v="7038.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BALMER J A"/>
+    <m/>
+    <n v="30"/>
+    <n v="7068.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J COLCHESTER JILL COLCHESTER"/>
+    <m/>
+    <n v="30"/>
+    <n v="7098.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="C H JONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="7128.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="P J FARLEY"/>
+    <m/>
+    <n v="30"/>
+    <n v="7158.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WOOTTON A GNY F WOOTTON"/>
+    <m/>
+    <n v="30"/>
+    <n v="7188.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="C KING CAROLINE KING OAS"/>
+    <m/>
+    <n v="30"/>
+    <n v="7218.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="PENNY T WD0 F PENNY"/>
+    <m/>
+    <n v="30"/>
+    <n v="7248.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="R FORD RON FORD"/>
+    <m/>
+    <n v="30"/>
+    <n v="7278.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MILBURN D. MILBURN"/>
+    <m/>
+    <n v="30"/>
+    <n v="7308.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="GORAYSKA B 1B7 F GORAYSKA"/>
+    <m/>
+    <n v="30"/>
+    <n v="7338.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="STEPHEN J S2X F STEPHEN"/>
+    <m/>
+    <n v="30"/>
+    <n v="7368.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ORT J DG0 F ORT"/>
+    <m/>
+    <n v="30"/>
+    <n v="7398.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LINDISFARNE JOK F LINDISFARNE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7428.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="DUCKER R MY8 F DUCKER"/>
+    <m/>
+    <n v="30"/>
+    <n v="7458.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="B JONES BEVERLEY JONES SUB"/>
+    <m/>
+    <n v="30"/>
+    <n v="7488.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ALAN BERMAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="7518.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="R J COON"/>
+    <m/>
+    <n v="30"/>
+    <n v="7548.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="H F KING"/>
+    <m/>
+    <n v="30"/>
+    <n v="7578.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="HOLLAND M FGE F HOLLAND"/>
+    <m/>
+    <n v="30"/>
+    <n v="7608.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="C DAVIES ANNUAL SUBS"/>
+    <m/>
+    <n v="30"/>
+    <n v="7638.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SOSKIES A. SOSKIES"/>
+    <m/>
+    <n v="30"/>
+    <n v="7668.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LINE K VUB F LINE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7698.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS BYGOTT ANNETTE BYGOTT"/>
+    <m/>
+    <n v="30"/>
+    <n v="7728.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="C MOORE CAROLINE MOORE"/>
+    <m/>
+    <n v="30"/>
+    <n v="7758.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MR GUASTALLA &amp; MS SUB"/>
+    <m/>
+    <n v="30"/>
+    <n v="7788.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MR ROBINSON OXFORD ART SOCIETY"/>
+    <m/>
+    <n v="30"/>
+    <n v="7818.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS NEWHOFER NEWHOFER"/>
+    <m/>
+    <n v="30"/>
+    <n v="7848.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MS &amp; MR BURRELL LW &amp; JO BURRELL"/>
+    <m/>
+    <n v="30"/>
+    <n v="7878.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS WATES WATES"/>
+    <m/>
+    <n v="30"/>
+    <n v="7908.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="R PATON BECKY PATON"/>
+    <m/>
+    <n v="30"/>
+    <n v="7938.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Moeran Nicola NICOLA MOERAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="7968.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="K GIBBONS KAY GIBBONS"/>
+    <m/>
+    <n v="30"/>
+    <n v="7998.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LINES EDK F LINES"/>
+    <m/>
+    <n v="30"/>
+    <n v="8028.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J.P PEART S4N 1 J.P PEART"/>
+    <m/>
+    <n v="30"/>
+    <n v="8058.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J CONWAY J CONWAY"/>
+    <m/>
+    <n v="30"/>
+    <n v="8088.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="KIRKMAN AJ+S KIRKMAN AJ+S"/>
+    <m/>
+    <n v="30"/>
+    <n v="8118.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="D WILLIAMS 0NS M WILLIAMS"/>
+    <m/>
+    <n v="30"/>
+    <n v="8148.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MORNA RHYS MORANA RHYS"/>
+    <m/>
+    <n v="30"/>
+    <n v="8178.88"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LESTER P R ZZ"/>
+    <m/>
+    <n v="25"/>
+    <n v="8203.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Clutton-Brock EleaCLUTTON-BROCK"/>
+    <m/>
+    <n v="30"/>
+    <n v="8233.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="JONES D LVW F JONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="8263.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="YMR ROBINSON YM"/>
+    <m/>
+    <n v="30"/>
+    <n v="8293.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="LEVELL B&amp;S"/>
+    <m/>
+    <n v="30"/>
+    <n v="8323.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BATES A M"/>
+    <m/>
+    <n v="30"/>
+    <n v="8353.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Laidlaw W &amp; D"/>
+    <m/>
+    <n v="30"/>
+    <n v="8383.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SALLY WYATT SALLY WYATT"/>
+    <m/>
+    <n v="30"/>
+    <n v="8413.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="STEVE DAGGITT GREBENIK&amp;DAGGITT"/>
+    <m/>
+    <n v="30"/>
+    <n v="8443.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ANGIE HUNT SUBS HUNT AJ"/>
+    <m/>
+    <n v="30"/>
+    <n v="8473.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SUBSCRIPTION FENNE SKELS"/>
+    <m/>
+    <n v="30"/>
+    <n v="8503.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WILSON W A"/>
+    <m/>
+    <n v="30"/>
+    <n v="8533.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SANDH C&amp;I"/>
+    <m/>
+    <n v="25"/>
+    <n v="8558.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="COLE E A"/>
+    <m/>
+    <n v="25"/>
+    <n v="8583.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="CULLEN F SHAKESPEARE F"/>
+    <m/>
+    <n v="30"/>
+    <n v="8613.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="JENNYFAYART"/>
+    <m/>
+    <n v="30"/>
+    <n v="8643.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="WATERS S G"/>
+    <m/>
+    <n v="25"/>
+    <n v="8668.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="KIRBY TESSA KIRBY T"/>
+    <m/>
+    <n v="30"/>
+    <n v="8698.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="JAMES HAMILT"/>
+    <m/>
+    <n v="30"/>
+    <n v="8728.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="W S-SMITH SO8 1 W SKINNER-SMITH"/>
+    <m/>
+    <n v="35"/>
+    <n v="8763.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BUTLER A. BUTLER"/>
+    <m/>
+    <n v="30"/>
+    <n v="8793.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J STROTHER"/>
+    <m/>
+    <n v="30"/>
+    <n v="8823.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Hinchliffe Antony HINCHLIFFE"/>
+    <m/>
+    <n v="30"/>
+    <n v="8853.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="FLUDRA A &amp; L CP"/>
+    <m/>
+    <n v="30"/>
+    <n v="8883.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS FERN STRANGE"/>
+    <m/>
+    <n v="30"/>
+    <n v="8913.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SELHURST MM MANDY SELHURST"/>
+    <m/>
+    <n v="30"/>
+    <n v="8943.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SELHURST MM SELHURST"/>
+    <m/>
+    <n v="30"/>
+    <n v="8973.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="J COOPER FASTER PAYMENT"/>
+    <m/>
+    <n v="30"/>
+    <n v="9003.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Anna Lever N140590"/>
+    <m/>
+    <n v="30"/>
+    <n v="9033.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="SAMPSON JS &amp; JM PPJOHN SAMPSON"/>
+    <m/>
+    <n v="30"/>
+    <n v="9063.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MR PHILIP S VAINKEPHILIP VAINKER"/>
+    <m/>
+    <n v="30"/>
+    <n v="9093.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="MS AMY F GLEES OASGLEES"/>
+    <m/>
+    <n v="30"/>
+    <n v="9123.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="JOHN MCALOON MCALOON PA"/>
+    <m/>
+    <n v="30"/>
+    <n v="9153.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="ANGELA RADCLIFFE ms a radcliffe"/>
+    <m/>
+    <n v="30"/>
+    <n v="9183.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Robinson Mary MARY ROBINSON"/>
+    <m/>
+    <n v="30"/>
+    <n v="9213.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="L ROWE"/>
+    <m/>
+    <n v="30"/>
+    <n v="9243.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Thompson Marc MR M H THOMPSOM"/>
+    <m/>
+    <n v="30"/>
+    <n v="9273.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Side Richard SUE SIDE"/>
+    <m/>
+    <n v="30"/>
+    <n v="9303.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Anuk Naumann FASTER PAYMENT"/>
+    <m/>
+    <n v="30"/>
+    <n v="9333.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="A KESTNER ALAN KESTNER SUBS"/>
+    <m/>
+    <n v="30"/>
+    <n v="9363.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="BEVAN A. BEVAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="9393.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Pretorius DiederikDIRK PRETORIUS"/>
+    <m/>
+    <n v="30"/>
+    <n v="9423.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Bell Elizabeth"/>
+    <m/>
+    <n v="30"/>
+    <n v="9453.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Williams Elaine HSBC OAS"/>
+    <m/>
+    <n v="30"/>
+    <n v="9483.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="CLAIRE DRINKWATER DRINKWATER"/>
+    <m/>
+    <n v="30"/>
+    <n v="9513.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="E R WHEELER LIZZIEWHEELER"/>
+    <m/>
+    <n v="30"/>
+    <n v="9543.880000000001"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="143.94"/>
+    <n v="9687.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="H WARD HELEN WARD"/>
+    <m/>
+    <n v="30"/>
+    <n v="9717.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="ACTON P &amp; KT KATHRYN ACTON"/>
+    <m/>
+    <n v="30"/>
+    <n v="9747.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="ACTON P &amp; KT PAULACTON"/>
+    <m/>
+    <n v="30"/>
+    <n v="9777.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="OSTER B R BARBARA OSTER"/>
+    <m/>
+    <n v="30"/>
+    <n v="9807.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="SPACKMAN S D C SPACKMAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="9837.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="GRAY SR+C SUBSCRIPTION"/>
+    <m/>
+    <n v="30"/>
+    <n v="9867.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="MEMBERSHIP FEES BIGGS A D"/>
+    <m/>
+    <n v="30"/>
+    <n v="9897.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Hipkiss Katherine KATE HIPKISS"/>
+    <m/>
+    <n v="30"/>
+    <n v="9927.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="B GORAYSKA"/>
+    <m/>
+    <n v="30"/>
+    <n v="9957.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="June Dent June Dent Membersh"/>
+    <m/>
+    <n v="30"/>
+    <n v="9987.8200000000015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="HUGH TURNER OAS Membership"/>
+    <m/>
+    <n v="30"/>
+    <n v="10017.820000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="56.7"/>
+    <n v="10074.520000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="Jamieson Kay KAY JAMIESON"/>
+    <m/>
+    <n v="30"/>
+    <n v="10104.520000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Griffiths Eirian EIRIAN GRIFFITHS"/>
+    <m/>
+    <n v="30"/>
+    <n v="10134.520000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="86.56"/>
+    <n v="10221.080000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="Whitehouse Paul PAUL WHITEHOUSE"/>
+    <m/>
+    <n v="30"/>
+    <n v="10251.080000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="86.59"/>
+    <n v="10337.670000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="DOWSE &amp; BENTLEY CAMILLA DOWSE"/>
+    <m/>
+    <n v="30"/>
+    <n v="10367.670000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="PETTS VR VALERIE PETTS"/>
+    <m/>
+    <n v="30"/>
+    <n v="10397.670000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="R MARSDEN RONA"/>
+    <m/>
+    <n v="30"/>
+    <n v="10427.670000000002"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="115.78"/>
+    <n v="10543.450000000003"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <s v="BP"/>
+    <s v="SIMMONS J Julia Simmons"/>
+    <m/>
+    <n v="30"/>
+    <n v="10573.450000000003"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="BENSTEAD A C Amanda Benstead"/>
+    <m/>
+    <n v="30"/>
+    <n v="10603.450000000003"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <s v="CR"/>
+    <s v="C Groom Candida Groom"/>
+    <m/>
+    <n v="30"/>
+    <n v="10633.450000000003"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.35"/>
+    <n v="10662.800000000003"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.2"/>
+    <n v="10692.000000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Lin Kerr OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="10662.000000000004"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Spencer Holt INV-7689"/>
+    <n v="245.4"/>
+    <m/>
+    <n v="10416.600000000004"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="14.4"/>
+    <m/>
+    <n v="10402.200000000004"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <s v="CR"/>
+    <s v="J Morgan JEREMY MORGAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="10432.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS S J &amp; MR M R CM CLAY SUBS"/>
+    <m/>
+    <n v="30"/>
+    <n v="10462.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <s v="CR"/>
+    <s v="V Stanway VICTORIA STANWAY"/>
+    <m/>
+    <n v="30"/>
+    <n v="10492.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="Jackson Morgan MM PLUMM"/>
+    <m/>
+    <n v="30"/>
+    <n v="10522.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <s v="CR"/>
+    <s v="Claire Venables Claire Venables"/>
+    <m/>
+    <n v="30"/>
+    <n v="10552.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="Ruth Margaret SwaiRuth Swain"/>
+    <m/>
+    <n v="30"/>
+    <n v="10582.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHUCKBURGH P M B PIP SHUCKURGH"/>
+    <m/>
+    <n v="30"/>
+    <n v="10612.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="MARY CRAIG Roderick Craig"/>
+    <m/>
+    <n v="30"/>
+    <n v="10642.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="BP"/>
+    <s v="BERRETT MGS&amp;AR Alison Berrett"/>
+    <m/>
+    <n v="30"/>
+    <n v="10672.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="ENGELHARDT MM JULIA ENGELHARDT"/>
+    <m/>
+    <n v="30"/>
+    <n v="10702.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="EMMA DAVIS T/AS EMMA DAVIS 2025"/>
+    <m/>
+    <n v="30"/>
+    <n v="10732.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="ANNE GIRLING Anne Girling"/>
+    <m/>
+    <n v="30"/>
+    <n v="10762.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="BP"/>
+    <s v="WILLIAMS DH&amp;SJ David Williams"/>
+    <m/>
+    <n v="30"/>
+    <n v="10792.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="ZUR JN JUDITH ZUR"/>
+    <m/>
+    <n v="30"/>
+    <n v="10822.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="JONES M G CP MYRICA JONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="10852.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="PARKER WOOLWAY T TARA PW"/>
+    <m/>
+    <n v="30"/>
+    <n v="10882.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHEPHERD M C PP MARIE SHEPHERD"/>
+    <m/>
+    <n v="30"/>
+    <n v="10912.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="E Coleman-Jones EMMA COLEMAN-JONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="10942.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="JASON DANELY Robin Danely"/>
+    <m/>
+    <n v="30"/>
+    <n v="10972.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="Johannes Von StummJohannes von Stumm"/>
+    <m/>
+    <n v="30"/>
+    <n v="11002.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="C Landell-Mills CATHY LANDELL MILL"/>
+    <m/>
+    <n v="30"/>
+    <n v="11032.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="BP"/>
+    <s v="FRANKLIN A J Alan Franklin"/>
+    <m/>
+    <n v="30"/>
+    <n v="11062.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="J Huggett Jenny Huggett 2025"/>
+    <m/>
+    <n v="30"/>
+    <n v="11092.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="Bayton Mavis MAVIS BAYTON"/>
+    <m/>
+    <n v="30"/>
+    <n v="11122.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30DEC2024"/>
+    <n v="5"/>
+    <m/>
+    <n v="11117.200000000004"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS HOFFMAN BEATRICE HOFFMAN"/>
+    <m/>
+    <n v="30"/>
+    <n v="11147.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="Smart Adrian ADRIAN SMART"/>
+    <m/>
+    <n v="30"/>
+    <n v="11177.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="Anuk Naumann Anuk Naumann"/>
+    <m/>
+    <n v="30"/>
+    <n v="11207.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="J Colchester JILL COLCHESTER"/>
+    <m/>
+    <n v="30"/>
+    <n v="11237.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <s v="BP"/>
+    <s v="ABELL S C Suzanne Abell"/>
+    <m/>
+    <n v="30"/>
+    <n v="11267.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jill Colchester OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="11237.200000000004"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="ANGELA RADCLIFFE AngelaRadcliffe"/>
+    <m/>
+    <n v="30"/>
+    <n v="11267.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sally-Anne S Sally-Anne Stewart"/>
+    <m/>
+    <n v="30"/>
+    <n v="11297.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="Zelga Miller zelga miller"/>
+    <m/>
+    <n v="30"/>
+    <n v="11327.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <s v="BP"/>
+    <s v="Angela Radcliffe OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="11297.200000000004"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="INDIGO ARTS ANTONIAGLYNNEJONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="11327.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <s v="CR"/>
+    <s v="CROPPER J &amp; LR LOUISE CROPPER"/>
+    <m/>
+    <n v="30"/>
+    <n v="11357.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <s v="CR"/>
+    <s v="R Ducker Rachel Ducker"/>
+    <m/>
+    <n v="30"/>
+    <n v="11387.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="A Jones A MCNEILE JONES"/>
+    <m/>
+    <n v="30"/>
+    <n v="11417.200000000004"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <s v="BP"/>
+    <s v="Cathy Landell MillOAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="11387.200000000004"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="26.1"/>
+    <n v="11413.300000000005"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="EAGLE HC HARRIET EAGLE"/>
+    <m/>
+    <n v="30"/>
+    <n v="11443.300000000005"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <s v="BP"/>
+    <s v="Magdalen Road StudOAS donation"/>
+    <n v="200"/>
+    <m/>
+    <n v="11243.300000000005"/>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="60"/>
+    <m/>
+    <n v="11183.300000000005"/>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rachel Ducker OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="11153.300000000005"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="27.1"/>
+    <n v="11180.400000000005"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="STILES KJ 2 KIERAN STILES"/>
+    <m/>
+    <n v="30"/>
+    <n v="11210.400000000005"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="72"/>
+    <m/>
+    <n v="11138.400000000005"/>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <s v="CR"/>
+    <s v="ART PROFILE LIMITEPeter Keegan"/>
+    <m/>
+    <n v="30"/>
+    <n v="11168.400000000005"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <s v="BP"/>
+    <s v="Caroline Moore OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="11138.400000000005"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="21.54"/>
+    <n v="11159.940000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-01T00:00:00"/>
+    <s v="BP"/>
+    <s v="HEATON GA Gill Heaton sub"/>
+    <m/>
+    <n v="30"/>
+    <n v="11189.940000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-01T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jeremy Morgan OAS"/>
+    <n v="210"/>
+    <m/>
+    <n v="10979.940000000006"/>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="CROFT TWR TOM CROFT"/>
+    <m/>
+    <n v="30"/>
+    <n v="11009.940000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="KULABKO M M KULABKO"/>
+    <m/>
+    <n v="30"/>
+    <n v="11039.940000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-04T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="9.6999999999999993"/>
+    <m/>
+    <n v="11030.240000000005"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-04T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="30.49"/>
+    <m/>
+    <n v="10999.750000000005"/>
+    <x v="9"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-04T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Digby OAS"/>
+    <n v="625"/>
+    <m/>
+    <n v="10374.750000000005"/>
+    <x v="10"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="26.67"/>
+    <n v="10401.420000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="K Turner KATHY TURNER SUB"/>
+    <m/>
+    <n v="30"/>
+    <n v="10431.420000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="PERRY A ANTONY PERRY"/>
+    <m/>
+    <n v="30"/>
+    <n v="10461.420000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="C Binnie C BINNIE"/>
+    <m/>
+    <n v="30"/>
+    <n v="10491.420000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sarah Dearling OAS"/>
+    <n v="7.95"/>
+    <m/>
+    <n v="10483.470000000005"/>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="1.77"/>
+    <n v="10485.240000000005"/>
+    <x v="12"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="ROSEMARY PHIPPS annualfee"/>
+    <m/>
+    <n v="30"/>
+    <n v="10515.240000000005"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Split payment"/>
+    <m/>
+    <n v="29.35"/>
+    <n v="10544.590000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-13T00:00:00"/>
+    <s v="Split"/>
+    <s v="Stripe Split payment"/>
+    <m/>
+    <n v="43.11"/>
+    <n v="10587.700000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-17T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stacey Gledhill ArSTACEY GLEDHILL"/>
+    <m/>
+    <n v="30"/>
+    <n v="10617.700000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="116.08"/>
+    <n v="10733.780000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-19T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="14.57"/>
+    <n v="10748.350000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-19T00:00:00"/>
+    <s v="CR"/>
+    <s v="ARTS - INC. SUBSCRIPTION"/>
+    <m/>
+    <n v="30"/>
+    <n v="10778.350000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-19T00:00:00"/>
+    <s v="CR"/>
+    <s v="JANE KELLY JaneKelly"/>
+    <m/>
+    <n v="30"/>
+    <n v="10808.350000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="131.81"/>
+    <n v="10940.160000000005"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="14.57"/>
+    <n v="10954.730000000005"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 31JAN2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="10949.730000000005"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-24T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="43.8"/>
+    <n v="10993.530000000004"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="43.28"/>
+    <n v="11036.810000000005"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kall Kwik Oxford 006746"/>
+    <n v="231"/>
+    <m/>
+    <n v="10805.810000000005"/>
+    <x v="14"/>
+    <x v="1"/>
+    <s v="Flyers and  posters"/>
+  </r>
+  <r>
+    <d v="2025-02-26T00:00:00"/>
+    <s v="BP"/>
+    <s v="Oxford Visual ArtsAW25OAS"/>
+    <n v="175"/>
+    <m/>
+    <n v="10630.810000000005"/>
+    <x v="14"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="14.57"/>
+    <n v="10645.380000000005"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="132.11000000000001"/>
+    <n v="10777.490000000005"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-02-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="29.35"/>
+    <n v="10806.840000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="73"/>
+    <n v="10879.840000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="Ralfe Carolyn"/>
+    <m/>
+    <n v="30"/>
+    <n v="10909.840000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="JANE KELLY Jane Kelly oas"/>
+    <m/>
+    <n v="30"/>
+    <n v="10939.840000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-03T00:00:00"/>
+    <s v="BP"/>
+    <s v="FENNE SKELS Entry"/>
+    <m/>
+    <n v="15"/>
+    <n v="10954.840000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-03T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jane Kelly OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="10924.840000000006"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="43.92"/>
+    <n v="10968.760000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="586.42999999999995"/>
+    <n v="11555.190000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Fergus Laidlaw Fergus Laidlaw"/>
+    <m/>
+    <n v="30"/>
+    <n v="11585.190000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="LAIDLAW ACH A LAIDLAW MEMBER"/>
+    <m/>
+    <n v="30"/>
+    <n v="11615.190000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mark Clay OAS"/>
+    <n v="58.5"/>
+    <m/>
+    <n v="11556.690000000006"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="73.27"/>
+    <n v="11629.960000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="FULLJAMES PAC Submission Members"/>
+    <m/>
+    <n v="30"/>
+    <n v="11659.960000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="J Morgan Jeremy M - entry"/>
+    <m/>
+    <n v="15"/>
+    <n v="11674.960000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="DUFF BJ B.JANE DUFF mem"/>
+    <m/>
+    <n v="30"/>
+    <n v="11704.960000000006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="145.80000000000001"/>
+    <n v="11850.760000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="131.22999999999999"/>
+    <n v="11981.990000000005"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-12T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="146.54"/>
+    <n v="12128.530000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="MRS ELIZABETH F BEBETSY TYLER BELL"/>
+    <m/>
+    <n v="30"/>
+    <n v="12158.530000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-13T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="570.09"/>
+    <n v="12728.620000000006"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jennifer Newman OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="12698.620000000006"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-20T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Barron OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="12668.620000000006"/>
+    <x v="15"/>
+    <x v="1"/>
+    <s v="Float"/>
+  </r>
+  <r>
+    <d v="2025-03-20T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Barron OAS"/>
+    <n v="200"/>
+    <m/>
+    <n v="12468.620000000006"/>
+    <x v="16"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-20T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="25.4"/>
+    <m/>
+    <n v="12443.220000000007"/>
+    <x v="9"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 27FEB2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="12438.220000000007"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Marsh Commercial 1515451"/>
+    <n v="613.22"/>
+    <m/>
+    <n v="11825.000000000007"/>
+    <x v="17"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kall Kwik Oxford 009679"/>
+    <n v="63.6"/>
+    <m/>
+    <n v="11761.400000000007"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="Labels"/>
+  </r>
+  <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kall Kwik Oxford 009679"/>
+    <n v="137"/>
+    <m/>
+    <n v="11624.400000000007"/>
+    <x v="14"/>
+    <x v="1"/>
+    <s v="Price list"/>
+  </r>
+  <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="SumUp Payments AccMDD PID1043007"/>
+    <m/>
+    <n v="1690.92"/>
+    <n v="13315.320000000007"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Bar"/>
+    <m/>
+    <n v="159.37"/>
+    <n v="13474.690000000008"/>
+    <x v="15"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID1044627"/>
+    <m/>
+    <n v="589.86"/>
+    <n v="14064.550000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="WILLIAM HOGG williamHogg"/>
+    <m/>
+    <n v="719"/>
+    <n v="14783.550000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="CASH IN AT 403534"/>
+    <m/>
+    <n v="80.599999999999994"/>
+    <n v="14864.150000000009"/>
+    <x v="15"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="A Hermon Tara Palmer Woolwy"/>
+    <m/>
+    <n v="700"/>
+    <n v="15564.150000000009"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sarah Dearling OAS"/>
+    <n v="15.59"/>
+    <m/>
+    <n v="15548.560000000009"/>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sarah Dearling OAS"/>
+    <n v="15.59"/>
+    <m/>
+    <n v="15532.970000000008"/>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="SORENSEN BH HELEN PAKEMAN"/>
+    <m/>
+    <n v="125"/>
+    <n v="15657.970000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="LISTER J&amp;G Jenny Lister"/>
+    <m/>
+    <n v="30"/>
+    <n v="15687.970000000008"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-30T00:00:00"/>
+    <s v="CR"/>
+    <s v="INET STRYDOM 88 Pakeman"/>
+    <m/>
+    <n v="325"/>
+    <n v="16012.970000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-03-31T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID1055122"/>
+    <m/>
+    <n v="1400.91"/>
+    <n v="17413.880000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID1062445"/>
+    <m/>
+    <n v="712.75"/>
+    <n v="18126.630000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Gerry Coles PrintsOAS"/>
+    <n v="90"/>
+    <m/>
+    <n v="18036.630000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="BERRETT MGS&amp;AR Ali Berrett Sale"/>
+    <m/>
+    <n v="375"/>
+    <n v="18411.630000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <s v="Direct sale to artist, so this is our commission"/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="K Acton OAS"/>
+    <n v="187.5"/>
+    <m/>
+    <n v="18224.130000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Harriet Eagle OAS"/>
+    <n v="270"/>
+    <m/>
+    <n v="17954.130000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kay Gibbons OAS"/>
+    <n v="431.25"/>
+    <m/>
+    <n v="17522.880000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mrs Anne C Butler OAS"/>
+    <n v="180"/>
+    <m/>
+    <n v="17342.880000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Amanda Benstead OAS"/>
+    <n v="138.75"/>
+    <m/>
+    <n v="17204.130000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="T J Parker WoolwayOAS"/>
+    <n v="525"/>
+    <m/>
+    <n v="16679.130000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Dr Bing Shi OAS"/>
+    <n v="450"/>
+    <m/>
+    <n v="16229.130000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Candida J Groom OAS"/>
+    <n v="543.75"/>
+    <m/>
+    <n v="15685.380000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Hannah Vickery OAS"/>
+    <n v="146.25"/>
+    <m/>
+    <n v="15539.130000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Alexandra Olding OSS"/>
+    <n v="180"/>
+    <m/>
+    <n v="15359.130000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Helen Pakeman OAS"/>
+    <n v="337.5"/>
+    <m/>
+    <n v="15021.630000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Julia Simmons OAS"/>
+    <n v="131.25"/>
+    <m/>
+    <n v="14890.380000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-07T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID1067611"/>
+    <m/>
+    <n v="1086.32"/>
+    <n v="15976.700000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-08T00:00:00"/>
+    <s v="BP"/>
+    <s v="Charlie Davies OAS"/>
+    <n v="108.75"/>
+    <m/>
+    <n v="15867.950000000008"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="443.05"/>
+    <n v="16311.000000000007"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-08T00:00:00"/>
+    <s v="BP"/>
+    <s v="Katherine Hipkiss OAS"/>
+    <n v="937.5"/>
+    <m/>
+    <n v="15373.500000000007"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-08T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mrs C Sadler OAS"/>
+    <n v="281.25"/>
+    <m/>
+    <n v="15092.250000000007"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-13T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Bliss OAS"/>
+    <n v="337.5"/>
+    <m/>
+    <n v="14754.750000000007"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-14T00:00:00"/>
+    <s v="BP"/>
+    <s v="Philip Vainker OAS"/>
+    <n v="150"/>
+    <m/>
+    <n v="14604.750000000007"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-15T00:00:00"/>
+    <s v="BP"/>
+    <s v="Susan Wheeler OAS"/>
+    <n v="281.25"/>
+    <m/>
+    <n v="14323.500000000007"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="750"/>
+    <m/>
+    <n v="13573.500000000007"/>
+    <x v="20"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Vivian Shelton OAS"/>
+    <n v="43.17"/>
+    <m/>
+    <n v="13530.330000000007"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="124.65"/>
+    <m/>
+    <n v="13405.680000000008"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-18T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="750"/>
+    <m/>
+    <n v="12655.680000000008"/>
+    <x v="20"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-21T00:00:00"/>
+    <s v="BP"/>
+    <s v="Deborah Williams OAS"/>
+    <n v="66.790000000000006"/>
+    <m/>
+    <n v="12588.890000000007"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30MAR2025"/>
+    <n v="5.72"/>
+    <m/>
+    <n v="12583.170000000007"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jill Colchester OAS"/>
+    <n v="213"/>
+    <m/>
+    <n v="12370.170000000007"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Stripe OAS"/>
+    <n v="15"/>
+    <m/>
+    <n v="12355.170000000007"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="17.75"/>
+    <m/>
+    <n v="12337.420000000007"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Committee meeting refreshments"/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Roberta Catizone OAS"/>
+    <n v="1500"/>
+    <m/>
+    <n v="10837.420000000007"/>
+    <x v="21"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-24T00:00:00"/>
+    <s v="Split"/>
+    <s v="Roberta Catizone OAS"/>
+    <n v="264.14999999999998"/>
+    <m/>
+    <n v="10573.270000000008"/>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-04-25T00:00:00"/>
+    <s v="CR"/>
+    <s v="Olding Alexandra ALEXANDRA BUCKLE"/>
+    <m/>
+    <n v="47.5"/>
+    <n v="10620.770000000008"/>
+    <x v="18"/>
+    <x v="1"/>
+    <s v="Commision on direct sale"/>
+  </r>
+  <r>
+    <d v="2025-05-01T00:00:00"/>
+    <s v="SO"/>
+    <s v="Jeremy Morgan OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="10380.770000000008"/>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="41.42"/>
+    <m/>
+    <n v="10339.350000000008"/>
+    <x v="14"/>
+    <x v="2"/>
+    <s v="Leaflet printing"/>
+  </r>
+  <r>
+    <d v="2025-05-09T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="122.1"/>
+    <m/>
+    <n v="10217.250000000007"/>
+    <x v="20"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-12T00:00:00"/>
+    <s v="BP"/>
+    <s v="St Johns College 5002612"/>
+    <n v="1952.11"/>
+    <m/>
+    <n v="8265.1400000000067"/>
+    <x v="22"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="foranimall LTD Art Prize Fund"/>
+    <m/>
+    <n v="50"/>
+    <n v="8315.1400000000067"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="SHERLAW JOHN SA SALLY WAINWRIGHT"/>
+    <m/>
+    <n v="100"/>
+    <n v="8415.1400000000067"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="K.E.H. CONSULTING Lofgrens YA Exh"/>
+    <m/>
+    <n v="25"/>
+    <n v="8440.1400000000067"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29APR2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="8435.1400000000067"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-05-23T00:00:00"/>
+    <s v="CR"/>
+    <s v="THURSTON AR UG ELLES DELI"/>
+    <m/>
+    <n v="25"/>
+    <n v="8460.1400000000067"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-02T00:00:00"/>
+    <s v="BP"/>
+    <s v="Webscape Gardener WG546"/>
+    <n v="177"/>
+    <m/>
+    <n v="8283.1400000000067"/>
+    <x v="11"/>
+    <x v="0"/>
+    <s v="Forms license fee"/>
+  </r>
+  <r>
+    <d v="2025-06-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="BARRON D Young Artists"/>
+    <m/>
+    <n v="90"/>
+    <n v="8373.1400000000067"/>
+    <x v="13"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="SumUp Payments AccMDD PID1166729"/>
+    <m/>
+    <n v="157.41999999999999"/>
+    <n v="8530.5600000000068"/>
+    <x v="13"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-04T00:00:00"/>
+    <s v="BP"/>
+    <s v="Webscape Gardener WG549"/>
+    <n v="880"/>
+    <m/>
+    <n v="7650.5600000000068"/>
+    <x v="11"/>
+    <x v="0"/>
+    <s v="Maintenance plan, 1/6/25-31/5/26"/>
+  </r>
+  <r>
+    <d v="2025-06-05T00:00:00"/>
+    <s v="BP"/>
+    <s v="Amanda Bond OAS"/>
+    <n v="187.5"/>
+    <m/>
+    <n v="7463.0600000000068"/>
+    <x v="10"/>
+    <x v="0"/>
+    <s v="Feb-Apr"/>
+  </r>
+  <r>
+    <d v="2025-06-05T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="27.86"/>
+    <m/>
+    <n v="7435.2000000000071"/>
+    <x v="14"/>
+    <x v="2"/>
+    <s v="Poster printing"/>
+  </r>
+  <r>
+    <d v="2025-06-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="Y Cho YunseoCho"/>
+    <m/>
+    <n v="5"/>
+    <n v="7440.2000000000071"/>
+    <x v="13"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-06T00:00:00"/>
+    <s v="CR"/>
+    <s v="GOLLER P ASH -ART EXHIBITIO"/>
+    <m/>
+    <n v="5"/>
+    <n v="7445.2000000000071"/>
+    <x v="13"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Emma Davis OAS"/>
+    <n v="15.5"/>
+    <m/>
+    <n v="7429.7000000000071"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Ice for PV"/>
+  </r>
+  <r>
+    <d v="2025-06-07T00:00:00"/>
+    <s v="BP"/>
+    <s v="Emma Davis OAS"/>
+    <n v="50"/>
+    <m/>
+    <n v="7379.7000000000071"/>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="Gifts to organisers"/>
+  </r>
+  <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Phoebe Birch YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="7279.7000000000071"/>
+    <x v="16"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Ash Goller YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="7179.7000000000071"/>
+    <x v="16"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-10T00:00:00"/>
+    <s v="BP"/>
+    <s v="Amanda Jewell OAS"/>
+    <n v="220.68"/>
+    <m/>
+    <n v="6959.0200000000068"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Drinks"/>
+  </r>
+  <r>
+    <d v="2025-06-13T00:00:00"/>
+    <s v="BP"/>
+    <s v="Magdalen Road StudMAS hire"/>
+    <n v="225"/>
+    <m/>
+    <n v="6734.0200000000068"/>
+    <x v="23"/>
+    <x v="0"/>
+    <s v="Meeting room hire"/>
+  </r>
+  <r>
+    <d v="2025-06-13T00:00:00"/>
+    <s v="BP"/>
+    <s v="Magdalen Road StudMAS hire"/>
+    <n v="700"/>
+    <m/>
+    <n v="6034.0200000000068"/>
+    <x v="22"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="L Wootton-Davies OAS"/>
+    <n v="319.2"/>
+    <m/>
+    <n v="5714.820000000007"/>
+    <x v="20"/>
+    <x v="2"/>
+    <s v="Louis"/>
+  </r>
+  <r>
+    <d v="2025-06-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="197.1"/>
+    <m/>
+    <n v="5517.7200000000066"/>
+    <x v="20"/>
+    <x v="2"/>
+    <s v="Erin 2"/>
+  </r>
+  <r>
+    <d v="2025-06-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Molly Palmer YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="5417.7200000000066"/>
+    <x v="16"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Toby Michael YA Prize"/>
+    <n v="100"/>
+    <m/>
+    <n v="5317.7200000000066"/>
+    <x v="16"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-20T00:00:00"/>
+    <s v="BP"/>
+    <s v="Erin Thomas OAS"/>
+    <n v="488.4"/>
+    <m/>
+    <n v="4829.320000000007"/>
+    <x v="20"/>
+    <x v="2"/>
+    <s v="Erin 3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -13663,124 +13433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item x="23"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item m="1" x="26"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item m="1" x="25"/>
-        <item x="11"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item m="1" x="28"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item m="1" x="27"/>
-        <item x="21"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item m="1" x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -13891,6 +13544,123 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="7" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item x="23"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item m="1" x="26"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item m="1" x="25"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item m="1" x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item m="1" x="27"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item m="1" x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -14316,7 +14086,7 @@
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="31">
-        <f>SUMIF('Current account'!G2:G401, "Subs", 'Current account'!E2:E401)</f>
+        <f>SUMIF('Current account'!G2:G402, "Subs", 'Current account'!E2:E402)</f>
         <v>0</v>
       </c>
       <c r="L4" s="17"/>
@@ -14325,7 +14095,7 @@
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="31">
-        <f>SUMIF('Current account'!G2:G401,"Prof Fees",'Current account'!D2:D401)</f>
+        <f>SUMIF('Current account'!G2:G402,"Prof Fees",'Current account'!D2:D402)</f>
         <v>0</v>
       </c>
     </row>
@@ -14355,7 +14125,7 @@
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="31">
-        <f>SUMIF('Current account'!G2:G401, "Subs 2025", 'Current account'!E2:E401)</f>
+        <f>SUMIF('Current account'!G2:G402, "Subs 2025", 'Current account'!E2:E402)</f>
         <v>6618.8800000000019</v>
       </c>
       <c r="L5" s="17"/>
@@ -14364,7 +14134,7 @@
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="31">
-        <f>SUMIF('Current account'!G2:G401,"AGM",'Current account'!D2:D401)</f>
+        <f>SUMIF('Current account'!G2:G402,"AGM",'Current account'!D2:D402)</f>
         <v>132</v>
       </c>
     </row>
@@ -14392,7 +14162,7 @@
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="31">
-        <f>SUMIF('Current account'!G2:G401, "Other income", 'Current account'!D2:D401)</f>
+        <f>SUMIF('Current account'!G2:G402, "Other income", 'Current account'!D2:D402)</f>
         <v>0</v>
       </c>
       <c r="L6" s="17"/>
@@ -14401,7 +14171,7 @@
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="31">
-        <f>SUMIF('Current account'!G2:G401,"Gifts",'Current account'!D2:D401)</f>
+        <f>SUMIF('Current account'!G2:G402,"Gifts",'Current account'!D2:D402)</f>
         <v>105.89</v>
       </c>
     </row>
@@ -14436,8 +14206,8 @@
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="31">
-        <f>SUMIF('Current account'!G2:G401,"Admin",'Current account'!D2:D401)+SUMIF('Current account'!G2:G401, "Other expenses", 'Current account'!D2:D401)</f>
-        <v>351.07</v>
+        <f>SUMIF('Current account'!G2:G402,"Admin",'Current account'!D2:D402)+SUMIF('Current account'!G2:G402, "Other expenses", 'Current account'!D2:D402)</f>
+        <v>416.42</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -14461,7 +14231,7 @@
       </c>
       <c r="N8" s="17"/>
       <c r="O8" s="31">
-        <f ca="1">SUMIF('Current account'!G2:G401,"Website",'Current account'!D2:D41)</f>
+        <f ca="1">SUMIF('Current account'!G2:G402,"Website",'Current account'!D2:D41)</f>
         <v>1360.28</v>
       </c>
     </row>
@@ -14493,7 +14263,7 @@
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="31">
-        <f>SUMIF('Current account'!G2:G401, "Insurance", 'Current account'!D2:D401)</f>
+        <f>SUMIF('Current account'!G2:G402, "Insurance", 'Current account'!D2:D402)</f>
         <v>613.22</v>
       </c>
     </row>
@@ -14525,7 +14295,7 @@
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="31">
-        <f>SUMIF('Current account'!G2:G401, "Donations db", 'Current account'!D2:D401)</f>
+        <f>SUMIF('Current account'!G2:G402, "Donations db", 'Current account'!D2:D402)</f>
         <v>200</v>
       </c>
     </row>
@@ -14649,7 +14419,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="31">
         <f ca="1">SUM(O4:O13)</f>
-        <v>2762.46</v>
+        <v>2827.81</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -14842,7 +14612,7 @@
       </c>
       <c r="N23" s="17"/>
       <c r="O23" s="31">
-        <f>'Savings account'!F15+'Current account'!F401</f>
+        <f>'Savings account'!F15+'Current account'!F402</f>
         <v>0</v>
       </c>
     </row>
@@ -30686,10 +30456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G361" sqref="G361"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="I345" sqref="I345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -37406,7 +37176,7 @@
         <v>12337.420000000007</v>
       </c>
       <c r="G309" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="I309" t="s">
         <v>1663</v>
@@ -38059,7 +37829,7 @@
         <v>700</v>
       </c>
       <c r="F336" s="24">
-        <f t="shared" ref="F336:F339" si="6">F335+E336-D336</f>
+        <f t="shared" ref="F336:F344" si="6">F335+E336-D336</f>
         <v>6034.0200000000068</v>
       </c>
       <c r="G336" t="s">
@@ -38147,8 +37917,128 @@
         <v>1668</v>
       </c>
     </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" s="23">
+        <v>45827</v>
+      </c>
+      <c r="B340" t="s">
+        <v>264</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D340">
+        <v>100</v>
+      </c>
+      <c r="F340" s="24">
+        <f t="shared" si="6"/>
+        <v>5317.7200000000066</v>
+      </c>
+      <c r="G340" t="s">
+        <v>10</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341" s="23">
+        <v>45827</v>
+      </c>
+      <c r="B341" t="s">
+        <v>264</v>
+      </c>
+      <c r="C341" t="s">
+        <v>725</v>
+      </c>
+      <c r="D341">
+        <v>12.5</v>
+      </c>
+      <c r="F341" s="24">
+        <f t="shared" si="6"/>
+        <v>5305.2200000000066</v>
+      </c>
+      <c r="G341" t="s">
+        <v>6</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" s="23">
+        <v>45828</v>
+      </c>
+      <c r="B342" t="s">
+        <v>264</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D342">
+        <v>488.4</v>
+      </c>
+      <c r="F342" s="24">
+        <f t="shared" si="6"/>
+        <v>4816.820000000007</v>
+      </c>
+      <c r="G342" t="s">
+        <v>103</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343" s="23">
+        <v>45829</v>
+      </c>
+      <c r="B343" t="s">
+        <v>782</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D343">
+        <v>5</v>
+      </c>
+      <c r="F343" s="24">
+        <f t="shared" si="6"/>
+        <v>4811.820000000007</v>
+      </c>
+      <c r="G343" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A344" s="23">
+        <v>45833</v>
+      </c>
+      <c r="B344" t="s">
+        <v>264</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D344">
+        <v>47.85</v>
+      </c>
+      <c r="F344" s="24">
+        <f t="shared" si="6"/>
+        <v>4763.9700000000066</v>
+      </c>
+      <c r="G344" t="s">
+        <v>6</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1769</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I355" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
+  <autoFilter ref="A1:I356" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -41516,8 +41406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D64849-DAC0-4101-B9D5-A90CC0C93067}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView topLeftCell="A114" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -44908,7 +44798,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -44940,7 +44830,7 @@
         <v>103</v>
       </c>
       <c r="C24">
-        <v>2138.4</v>
+        <v>2626.8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -44975,7 +44865,7 @@
         <v>18006.880000000005</v>
       </c>
       <c r="C28">
-        <v>18413.039999999997</v>
+        <v>19001.439999999999</v>
       </c>
     </row>
   </sheetData>
@@ -44987,8 +44877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -45220,7 +45110,7 @@
         <v>103</v>
       </c>
       <c r="C24">
-        <v>638.4</v>
+        <v>1126.8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -45236,7 +45126,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -45279,14 +45169,14 @@
         <v>457.41999999999996</v>
       </c>
       <c r="C31">
-        <v>1993.8600000000001</v>
+        <v>2582.2599999999998</v>
       </c>
       <c r="E31" t="s">
         <v>1765</v>
       </c>
       <c r="F31">
         <f>GETPIVOTDATA("Sum of Expenditure",$A$22)-GETPIVOTDATA("Sum of Income",$A$22)</f>
-        <v>1536.44</v>
+        <v>2124.8399999999997</v>
       </c>
     </row>
   </sheetData>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3EC650-4A71-48EC-AA94-F6B852A649FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA8C12-998A-401D-99C9-40C5CB7F1681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" firstSheet="1" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current account'!$A$1:$I$356</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Members Exhibition'!$A$1:$H$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Membership List'!$A$2:$A$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Membership List'!$A$3:$A$217</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Stripe!$A$1:$W$478</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="1773">
   <si>
     <t>Subs</t>
   </si>
@@ -5369,6 +5369,15 @@
   </si>
   <si>
     <t>China meeting refreshments</t>
+  </si>
+  <si>
+    <t>A HARTLEY</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Hartley</t>
   </si>
 </sst>
 </file>
@@ -13433,6 +13442,123 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item x="23"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item m="1" x="26"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item m="1" x="25"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item m="1" x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item m="1" x="27"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item m="1" x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -13544,123 +13670,6 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="7" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item x="23"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item m="1" x="26"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item m="1" x="25"/>
-        <item x="11"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item m="1" x="28"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item m="1" x="27"/>
-        <item x="21"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item m="1" x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -30456,10 +30465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I344"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="I345" sqref="I345"/>
+      <selection activeCell="H346" sqref="H346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -37829,7 +37838,7 @@
         <v>700</v>
       </c>
       <c r="F336" s="24">
-        <f t="shared" ref="F336:F344" si="6">F335+E336-D336</f>
+        <f t="shared" ref="F336:F345" si="6">F335+E336-D336</f>
         <v>6034.0200000000068</v>
       </c>
       <c r="G336" t="s">
@@ -38035,6 +38044,30 @@
       </c>
       <c r="I344" t="s">
         <v>1769</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345" s="23">
+        <v>45835</v>
+      </c>
+      <c r="B345" t="s">
+        <v>264</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D345">
+        <v>122.1</v>
+      </c>
+      <c r="F345" s="24">
+        <f t="shared" si="6"/>
+        <v>4641.8700000000063</v>
+      </c>
+      <c r="G345" t="s">
+        <v>103</v>
+      </c>
+      <c r="H345" t="s">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -41404,10 +41437,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D64849-DAC0-4101-B9D5-A90CC0C93067}">
-  <dimension ref="A1:V242"/>
+  <dimension ref="A1:V243"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -41442,1320 +41475,1317 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>163</v>
+        <v>1770</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>731</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>181</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="22" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>743</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>198</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" t="s">
-        <v>787</v>
+        <v>210</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>732</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>215</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" t="s">
-        <v>791</v>
+        <v>223</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="B27" t="s">
+        <v>791</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>744</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>247</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>384</v>
+        <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>745</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>386</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>506</v>
+        <v>202</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>508</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>388</v>
+        <v>506</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>251</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>509</v>
+        <v>250</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>507</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>392</v>
+        <v>509</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>393</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>17</v>
+        <v>392</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>18</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>391</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>510</v>
+        <v>16</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>445</v>
+        <v>21</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>447</v>
+        <v>394</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>792</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>454</v>
+        <v>792</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>733</v>
+        <v>514</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>460</v>
+        <v>733</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>734</v>
+        <v>460</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>515</v>
+        <v>734</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>225</v>
+        <v>491</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>457</v>
+        <v>225</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>517</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>992</v>
+        <v>516</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="D66" s="35">
-        <v>25</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>21</v>
+        <v>992</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D67" s="35">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>518</v>
+        <v>21</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>746</v>
+        <v>520</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>460</v>
+        <v>746</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>94</v>
+        <v>511</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>747</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>24</v>
+        <v>747</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>521</v>
+        <v>19</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>408</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>308</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>309</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
         <v>310</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>311</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B84" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>312</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>313</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
         <v>314</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>315</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
         <v>316</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>317</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
         <v>318</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
         <v>319</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
         <v>320</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
         <v>321</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
         <v>322</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>324</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>326</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>735</v>
+        <v>448</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>197</v>
+        <v>735</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>480</v>
+        <v>197</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>460</v>
+        <v>541</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>544</v>
+        <v>460</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>736</v>
+        <v>544</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>95</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>246</v>
+        <v>736</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D108" s="35">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>542</v>
+        <v>246</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>475</v>
+        <v>464</v>
+      </c>
+      <c r="D109" s="35">
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>406</v>
+        <v>475</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>737</v>
+        <v>496</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>13</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>543</v>
+        <v>737</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>465</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>467</v>
+        <v>544</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>22</v>
+        <v>467</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>23</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>684</v>
+        <v>22</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>938</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>538</v>
+        <v>684</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>468</v>
+        <v>938</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D118" s="35">
-        <v>25</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>772</v>
+        <v>523</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="D119" s="35">
         <v>25</v>
@@ -42763,335 +42793,338 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>545</v>
+        <v>772</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
+      </c>
+      <c r="D120" s="35">
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="D122" s="35">
-        <v>25</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>547</v>
+        <v>469</v>
+      </c>
+      <c r="D123" s="35">
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>748</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>19</v>
+        <v>538</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>991</v>
+        <v>748</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>432</v>
+        <v>991</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1115</v>
+        <v>548</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>396</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>483</v>
+        <v>1115</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>486</v>
+        <v>16</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>749</v>
+        <v>488</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>738</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>471</v>
+        <v>749</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>437</v>
+        <v>738</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>162</v>
+        <v>471</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>549</v>
+        <v>162</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>739</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>439</v>
+        <v>739</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>550</v>
+        <v>472</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>20</v>
+        <v>490</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>440</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>788</v>
+        <v>492</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>789</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>493</v>
+        <v>788</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>430</v>
+        <v>789</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>228</v>
+        <v>493</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
+        <v>382</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
         <v>383</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B149" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C149" s="5" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
@@ -43099,10 +43132,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>735</v>
+        <v>202</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
@@ -43110,10 +43143,10 @@
         <v>148</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>496</v>
+        <v>735</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
@@ -43121,10 +43154,10 @@
         <v>148</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
@@ -43132,35 +43165,32 @@
         <v>148</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C154" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
         <v>502</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B155" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C155" s="5" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
@@ -43168,10 +43198,13 @@
         <v>148</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>505</v>
+        <v>1318</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
@@ -43179,10 +43212,10 @@
         <v>148</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>246</v>
+        <v>504</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>563</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
@@ -43190,10 +43223,10 @@
         <v>148</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>540</v>
+        <v>246</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
@@ -43201,29 +43234,29 @@
         <v>148</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>566</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>567</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>246</v>
+        <v>587</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>588</v>
@@ -43231,234 +43264,234 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>524</v>
+        <v>246</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>233</v>
+        <v>524</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>412</v>
+        <v>233</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>578</v>
+        <v>201</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>584</v>
+        <v>513</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>750</v>
+        <v>584</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D169"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>624</v>
+        <v>750</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>625</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="D170"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>531</v>
+        <v>627</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>202</v>
+        <v>522</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>646</v>
+        <v>202</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>246</v>
+        <v>646</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>208</v>
+        <v>647</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
+        <v>648</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
         <v>649</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B178" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C178" s="5" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" s="5" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B179" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C179" s="5" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>656</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>825</v>
+        <v>658</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
+        <v>654</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
         <v>655</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B182" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>662</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
@@ -43466,271 +43499,271 @@
         <v>148</v>
       </c>
       <c r="B183" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C184" s="5" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>667</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>685</v>
+        <v>727</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1005</v>
+        <v>728</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>1006</v>
+        <v>729</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>228</v>
+        <v>1005</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>742</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>756</v>
+        <v>228</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>15</v>
+        <v>757</v>
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>533</v>
+        <v>760</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>758</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>661</v>
+        <v>533</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>759</v>
+        <v>661</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="S196"/>
-      <c r="T196"/>
-      <c r="U196" s="3"/>
-      <c r="V196" s="2"/>
+        <v>762</v>
+      </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>496</v>
+        <v>772</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>430</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="S197"/>
+      <c r="T197"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="2"/>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="S198"/>
-      <c r="T198"/>
-      <c r="U198" s="3"/>
-      <c r="V198" s="2"/>
+        <v>430</v>
+      </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>644</v>
+        <v>514</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>406</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="S199"/>
+      <c r="T199"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="2"/>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>776</v>
+        <v>644</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>779</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>166</v>
+        <v>776</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>759</v>
+        <v>166</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>677</v>
+        <v>774</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>678</v>
+        <v>775</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
+        <v>763</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
         <v>784</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B206" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C206" s="5" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A206" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.4">
@@ -43738,10 +43771,10 @@
         <v>790</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.4">
@@ -43749,10 +43782,10 @@
         <v>790</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
@@ -43760,117 +43793,117 @@
         <v>790</v>
       </c>
       <c r="B209" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="C210" s="5" t="s">
         <v>670</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
-        <v>796</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>480</v>
+        <v>799</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>201</v>
+        <v>480</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>803</v>
+        <v>201</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>384</v>
+        <v>824</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>820</v>
+        <v>384</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
+        <v>814</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
         <v>816</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B219" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A219" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>674</v>
@@ -43881,142 +43914,142 @@
         <v>148</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>823</v>
+        <v>674</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="5" t="s">
-        <v>790</v>
+        <v>148</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>659</v>
+        <v>822</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>660</v>
+        <v>823</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B223" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C223" s="5" t="s">
         <v>933</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
-        <v>934</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>511</v>
+        <v>935</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
+        <v>939</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
         <v>942</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B226" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C226" s="5" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A226" s="5" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B227" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C227" s="5" t="s">
         <v>980</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
-        <v>984</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>988</v>
+        <v>671</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>586</v>
+        <v>987</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>482</v>
+        <v>996</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>997</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
+        <v>995</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
         <v>998</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B232" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C232" s="5" t="s">
         <v>999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A232" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
@@ -44024,84 +44057,84 @@
         <v>148</v>
       </c>
       <c r="B233" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C234" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
         <v>1007</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B235" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C235" s="5" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A235" s="5" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B236" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C236" s="5" t="s">
         <v>1076</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>481</v>
+        <v>1109</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>682</v>
+        <v>481</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>1311</v>
+        <v>1118</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1313</v>
+        <v>682</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>466</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>466</v>
@@ -44109,29 +44142,40 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>481</v>
+        <v>1314</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>1321</v>
+        <v>466</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
         <v>1576</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B243" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="C243" s="5" t="s">
         <v>1577</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AA194">
-    <sortCondition ref="O3:O194"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AA195">
+    <sortCondition ref="O4:O195"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA8C12-998A-401D-99C9-40C5CB7F1681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F61650D-7DD2-4541-B1F6-C2DF0AA1C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
@@ -36,8 +36,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="5" r:id="rId15"/>
+    <pivotCache cacheId="10" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5534" uniqueCount="2008">
   <si>
     <t>Subs</t>
   </si>
@@ -5378,6 +5378,711 @@
   </si>
   <si>
     <t>Hartley</t>
+  </si>
+  <si>
+    <t>MAGDALEN ROAD STUDOASYA DISCOUNT</t>
+  </si>
+  <si>
+    <t>Fizog Design OAS</t>
+  </si>
+  <si>
+    <t>Jeremy's fee</t>
+  </si>
+  <si>
+    <t>Website redesign</t>
+  </si>
+  <si>
+    <t>Social events</t>
+  </si>
+  <si>
+    <t>Summer drinks</t>
+  </si>
+  <si>
+    <t>TOTAL CHARGES TO 29JUN2025</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16JUL2025</t>
+  </si>
+  <si>
+    <t>CCSCollect 24798511</t>
+  </si>
+  <si>
+    <t>JEREMY MORGAN OAS</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16AUG2025</t>
+  </si>
+  <si>
+    <t>TOTAL CHARGES TO 30JUL2025</t>
+  </si>
+  <si>
+    <t>Webscape Gardener WG553</t>
+  </si>
+  <si>
+    <t>Jewell</t>
+  </si>
+  <si>
+    <t>ch_3RuIdcL2mw6tzYKU1pYiCI0n</t>
+  </si>
+  <si>
+    <t>Entry ID: 2302, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RuIdbL2mw6tzYKUYG2afroh</t>
+  </si>
+  <si>
+    <t>po_1RvobVL2mw6tzYKUFMufU8Wr</t>
+  </si>
+  <si>
+    <t>ch_3RusSNL2mw6tzYKU0pivncSO</t>
+  </si>
+  <si>
+    <t>Entry ID: 2303, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RusSML2mw6tzYKURTzYK3va</t>
+  </si>
+  <si>
+    <t>ch_3RuxB5L2mw6tzYKU1qmYLAZ2</t>
+  </si>
+  <si>
+    <t>Entry ID: 2304, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RuxHlL2mw6tzYKUkNHcxDVo</t>
+  </si>
+  <si>
+    <t>ch_3Ruy1VL2mw6tzYKU0MDsWsJ4</t>
+  </si>
+  <si>
+    <t>Entry ID: 2305, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Ruy1UL2mw6tzYKUeRVYWI8n</t>
+  </si>
+  <si>
+    <t>ch_3RuysyL2mw6tzYKU0dgDGPU3</t>
+  </si>
+  <si>
+    <t>Entry ID: 2306, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RuysxL2mw6tzYKUl9WFyywE</t>
+  </si>
+  <si>
+    <t>ch_3RuzFXL2mw6tzYKU0S2SLulR</t>
+  </si>
+  <si>
+    <t>Entry ID: 2307, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RuzFXL2mw6tzYKUZ4eGW5F2</t>
+  </si>
+  <si>
+    <t>ch_3Rv1MiL2mw6tzYKU1SnAcvCK</t>
+  </si>
+  <si>
+    <t>Entry ID: 2308, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Rv1MhL2mw6tzYKULwOnZkCt</t>
+  </si>
+  <si>
+    <t>ch_3RvCx1L2mw6tzYKU0JTUOJ48</t>
+  </si>
+  <si>
+    <t>Entry ID: 2309, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RvCx1L2mw6tzYKUWgQQBatf</t>
+  </si>
+  <si>
+    <t>po_1RwBFxL2mw6tzYKUZIvYPYoY</t>
+  </si>
+  <si>
+    <t>ch_3RvHPEL2mw6tzYKU05UE1yBl</t>
+  </si>
+  <si>
+    <t>Entry ID: 2310, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RvHPDL2mw6tzYKUSmOcxhSI</t>
+  </si>
+  <si>
+    <t>ch_3RvHvTL2mw6tzYKU0k2LUaym</t>
+  </si>
+  <si>
+    <t>Entry ID: 2311, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvHvSL2mw6tzYKUd9BYPRNb</t>
+  </si>
+  <si>
+    <t>ch_3RvID6L2mw6tzYKU1Fh8m90z</t>
+  </si>
+  <si>
+    <t>Entry ID: 2312, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvIERL2mw6tzYKUVIYeP0Xz</t>
+  </si>
+  <si>
+    <t>ch_3RvJ8XL2mw6tzYKU1VATrM0B</t>
+  </si>
+  <si>
+    <t>Entry ID: 2313, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvJ8WL2mw6tzYKUpcl1Y7gn</t>
+  </si>
+  <si>
+    <t>ch_3RvKRuL2mw6tzYKU00sahexQ</t>
+  </si>
+  <si>
+    <t>Entry ID: 2314, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvKRtL2mw6tzYKUM69Md5gn</t>
+  </si>
+  <si>
+    <t>ch_3RvKejL2mw6tzYKU1d7WQeY5</t>
+  </si>
+  <si>
+    <t>Entry ID: 2315, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RvKeiL2mw6tzYKUJBBqyzQA</t>
+  </si>
+  <si>
+    <t>ch_3RvL1yL2mw6tzYKU1FlQHyQE</t>
+  </si>
+  <si>
+    <t>Entry ID: 2316, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RvL1xL2mw6tzYKUzGmJEtj4</t>
+  </si>
+  <si>
+    <t>ch_3RvcZzL2mw6tzYKU0B9bqCnL</t>
+  </si>
+  <si>
+    <t>Entry ID: 2317, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvcZyL2mw6tzYKUYewxnQTN</t>
+  </si>
+  <si>
+    <t>po_1RxGugL2mw6tzYKU03NEIKOa</t>
+  </si>
+  <si>
+    <t>ch_3Rvd4PL2mw6tzYKU1jv1HWMl</t>
+  </si>
+  <si>
+    <t>Entry ID: 2318, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Rvd4OL2mw6tzYKUeOE2wDIA</t>
+  </si>
+  <si>
+    <t>ch_3RvdDPL2mw6tzYKU0xZ88NEs</t>
+  </si>
+  <si>
+    <t>Entry ID: 2319, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RvdFDL2mw6tzYKUum6Wf7RJ</t>
+  </si>
+  <si>
+    <t>ch_3Rvg9UL2mw6tzYKU0y8PxD2D</t>
+  </si>
+  <si>
+    <t>Entry ID: 2320, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Rvg9TL2mw6tzYKUqb2sPKTS</t>
+  </si>
+  <si>
+    <t>ch_3RvhEDL2mw6tzYKU0lUOdG84</t>
+  </si>
+  <si>
+    <t>Entry ID: 2321, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvhHlL2mw6tzYKUsi3NVlZz</t>
+  </si>
+  <si>
+    <t>ch_3RvhqXL2mw6tzYKU1YIJWqgV</t>
+  </si>
+  <si>
+    <t>Entry ID: 2322, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvhqWL2mw6tzYKUdvJfLXyb</t>
+  </si>
+  <si>
+    <t>ch_3Rvz9kL2mw6tzYKU0Bp56ogt</t>
+  </si>
+  <si>
+    <t>Entry ID: 2323, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvzBFL2mw6tzYKUw3i3TkVp</t>
+  </si>
+  <si>
+    <t>po_1Rxd5BL2mw6tzYKUXR3EqhZa</t>
+  </si>
+  <si>
+    <t>ch_3RvzJiL2mw6tzYKU0sYchltG</t>
+  </si>
+  <si>
+    <t>Entry ID: 2324, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RvzJhL2mw6tzYKUw5paIgtF</t>
+  </si>
+  <si>
+    <t>ch_3Rw3S7L2mw6tzYKU0oedct4g</t>
+  </si>
+  <si>
+    <t>Entry ID: 2325, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Rw3S6L2mw6tzYKUPoll9tpX</t>
+  </si>
+  <si>
+    <t>ch_3RwJmSL2mw6tzYKU0T9nd5NT</t>
+  </si>
+  <si>
+    <t>Entry ID: 2326, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RwJmRL2mw6tzYKUUWgcWfuR</t>
+  </si>
+  <si>
+    <t>po_1RxzWfL2mw6tzYKU4Cg27yMC</t>
+  </si>
+  <si>
+    <t>ch_3RwKjqL2mw6tzYKU14oVCuzr</t>
+  </si>
+  <si>
+    <t>Entry ID: 2327, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RwKjpL2mw6tzYKUcqHJAp1y</t>
+  </si>
+  <si>
+    <t>ch_3RwfVrL2mw6tzYKU13nZpL7k</t>
+  </si>
+  <si>
+    <t>Entry ID: 2328, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RwfVqL2mw6tzYKUWYCI7IaM</t>
+  </si>
+  <si>
+    <t>po_1RyMGCL2mw6tzYKUEfZzaqdu</t>
+  </si>
+  <si>
+    <t>ch_3RwhEHL2mw6tzYKU0kMclpSM</t>
+  </si>
+  <si>
+    <t>Entry ID: 2329, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RwhEGL2mw6tzYKU10B5HWAe</t>
+  </si>
+  <si>
+    <t>ch_3RwjfTL2mw6tzYKU01AqADnl</t>
+  </si>
+  <si>
+    <t>Entry ID: 2330, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RwjhuL2mw6tzYKU0pgnQCvG</t>
+  </si>
+  <si>
+    <t>ch_3Rwk49L2mw6tzYKU1pBVuvAU</t>
+  </si>
+  <si>
+    <t>Entry ID: 2331, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Rwk6IL2mw6tzYKUXxliGJTB</t>
+  </si>
+  <si>
+    <t>ch_3Rx1t1L2mw6tzYKU1EdaJUQq</t>
+  </si>
+  <si>
+    <t>Entry ID: 2332, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Rx1t0L2mw6tzYKUojWKjy33</t>
+  </si>
+  <si>
+    <t>ch_3Rx1tjL2mw6tzYKU1D1rEYz9</t>
+  </si>
+  <si>
+    <t>Entry ID: 2333, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Rx1u3L2mw6tzYKUBAtiKFJG</t>
+  </si>
+  <si>
+    <t>ch_3Rx521L2mw6tzYKU0uLKMeKr</t>
+  </si>
+  <si>
+    <t>Entry ID: 2334, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Rx520L2mw6tzYKU22B9vXuO</t>
+  </si>
+  <si>
+    <t>ch_3Rx64RL2mw6tzYKU1tcjkjZb</t>
+  </si>
+  <si>
+    <t>Entry ID: 2335, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Rx64QL2mw6tzYKUv6Y3Golq</t>
+  </si>
+  <si>
+    <t>ch_3RxR9IL2mw6tzYKU104IYoLd</t>
+  </si>
+  <si>
+    <t>Entry ID: 2336, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RxR9HL2mw6tzYKUeYCtPHHY</t>
+  </si>
+  <si>
+    <t>ch_3RxSXIL2mw6tzYKU16I6onzd</t>
+  </si>
+  <si>
+    <t>Entry ID: 2337, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RxSXHL2mw6tzYKUOAMuWup0</t>
+  </si>
+  <si>
+    <t>ch_3RxSheL2mw6tzYKU0yk1n9tG</t>
+  </si>
+  <si>
+    <t>Entry ID: 2338, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RxSjXL2mw6tzYKUpSWBKUWo</t>
+  </si>
+  <si>
+    <t>ch_3RxUG5L2mw6tzYKU0lll5v1E</t>
+  </si>
+  <si>
+    <t>Entry ID: 2339, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RxUG4L2mw6tzYKULBw18VOK</t>
+  </si>
+  <si>
+    <t>ch_3RxXdrL2mw6tzYKU0vVl8QNx</t>
+  </si>
+  <si>
+    <t>Entry ID: 2340, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RxXdqL2mw6tzYKUibCSMWVO</t>
+  </si>
+  <si>
+    <t>ch_3RxY0NL2mw6tzYKU1f0Xd2fz</t>
+  </si>
+  <si>
+    <t>Entry ID: 2341, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RxY2mL2mw6tzYKU9BohjjQR</t>
+  </si>
+  <si>
+    <t>ch_3RxYczL2mw6tzYKU10sphvVt</t>
+  </si>
+  <si>
+    <t>Entry ID: 2342, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RxYcyL2mw6tzYKUA0PaqViO</t>
+  </si>
+  <si>
+    <t>ch_3RxnDPL2mw6tzYKU19FzlhU6</t>
+  </si>
+  <si>
+    <t>Entry ID: 2343, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RxnF0L2mw6tzYKUdnQJg6Pt</t>
+  </si>
+  <si>
+    <t>po_1RyiPBL2mw6tzYKUr5t4uYuc</t>
+  </si>
+  <si>
+    <t>ch_3Rxs9DL2mw6tzYKU0l2XH9vM</t>
+  </si>
+  <si>
+    <t>Entry ID: 2344, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Rxs9DL2mw6tzYKUsIJZV81K</t>
+  </si>
+  <si>
+    <t>ch_3Ry6NDL2mw6tzYKU1Wp7uZtf</t>
+  </si>
+  <si>
+    <t>Entry ID: 2345, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Ry6NCL2mw6tzYKUBVDFlHnd</t>
+  </si>
+  <si>
+    <t>po_1S0AbOL2mw6tzYKUtHlWPyfu</t>
+  </si>
+  <si>
+    <t>ch_3RyCnwL2mw6tzYKU0t257QcD</t>
+  </si>
+  <si>
+    <t>Entry ID: 2346, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RyCrqL2mw6tzYKUONe25gzY</t>
+  </si>
+  <si>
+    <t>ch_3RyEqVL2mw6tzYKU1Nso2Lts</t>
+  </si>
+  <si>
+    <t>Entry ID: 2347, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RyEqUL2mw6tzYKUInn6CxUc</t>
+  </si>
+  <si>
+    <t>ch_3RyTTYL2mw6tzYKU1DNCQ7sc</t>
+  </si>
+  <si>
+    <t>Entry ID: 2348, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RyTTXL2mw6tzYKUAEaKoitq</t>
+  </si>
+  <si>
+    <t>ch_3RyXGCL2mw6tzYKU1aZ05pG5</t>
+  </si>
+  <si>
+    <t>Entry ID: 2349, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RyXGBL2mw6tzYKUk2bJWjDj</t>
+  </si>
+  <si>
+    <t>ch_3RyaTfL2mw6tzYKU1YwO7f31</t>
+  </si>
+  <si>
+    <t>Entry ID: 2350, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RyabYL2mw6tzYKUdr6Snsnw</t>
+  </si>
+  <si>
+    <t>ch_3RytTdL2mw6tzYKU05CEFqsk</t>
+  </si>
+  <si>
+    <t>Entry ID: 2351, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RytWjL2mw6tzYKUuPlDvW1C</t>
+  </si>
+  <si>
+    <t>ch_3RyukZL2mw6tzYKU1gfOJBKf</t>
+  </si>
+  <si>
+    <t>Entry ID: 2352, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RyulnL2mw6tzYKUoDTFMn96</t>
+  </si>
+  <si>
+    <t>ch_3RywBsL2mw6tzYKU0NWcMm3K</t>
+  </si>
+  <si>
+    <t>Entry ID: 2353, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RywFnL2mw6tzYKUXJXtf8D5</t>
+  </si>
+  <si>
+    <t>ch_3Rywz0L2mw6tzYKU0lGnJjZx</t>
+  </si>
+  <si>
+    <t>Entry ID: 2354, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RywyzL2mw6tzYKU235dCT1A</t>
+  </si>
+  <si>
+    <t>ch_3Ryxx7L2mw6tzYKU1GpCbnPH</t>
+  </si>
+  <si>
+    <t>Entry ID: 2355, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1Ryxx6L2mw6tzYKUJnFVWGBR</t>
+  </si>
+  <si>
+    <t>ch_3RyyfvL2mw6tzYKU02uiI67V</t>
+  </si>
+  <si>
+    <t>Entry ID: 2356, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RyyfuL2mw6tzYKUVtnn9MzN</t>
+  </si>
+  <si>
+    <t>ch_3Rz0yuL2mw6tzYKU0knEvXoo</t>
+  </si>
+  <si>
+    <t>Entry ID: 2357, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Rz0ytL2mw6tzYKUZ1uo2vwq</t>
+  </si>
+  <si>
+    <t>ch_3Rz2pWL2mw6tzYKU1TbMiTZq</t>
+  </si>
+  <si>
+    <t>Entry ID: 2358, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Rz2rdL2mw6tzYKU1JYNrkuA</t>
+  </si>
+  <si>
+    <t>ch_3RzEibL2mw6tzYKU0cg52h1N</t>
+  </si>
+  <si>
+    <t>Entry ID: 2359, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RzEibL2mw6tzYKUwdowwOsi</t>
+  </si>
+  <si>
+    <t>ch_3RzN8HL2mw6tzYKU1KDrugXE</t>
+  </si>
+  <si>
+    <t>Entry ID: 2360, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RzN8GL2mw6tzYKUQ9zkhUgY</t>
+  </si>
+  <si>
+    <t>ch_3RzN8cL2mw6tzYKU1aEFzRxO</t>
+  </si>
+  <si>
+    <t>Entry ID: 2361, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1RzN8bL2mw6tzYKUqMlUAfo9</t>
+  </si>
+  <si>
+    <t>ch_3Rzd7cL2mw6tzYKU1Gekce2L</t>
+  </si>
+  <si>
+    <t>Entry ID: 2362, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1Rzd7bL2mw6tzYKUpXth4smH</t>
+  </si>
+  <si>
+    <t>ch_3RzdncL2mw6tzYKU1iaThuP9</t>
+  </si>
+  <si>
+    <t>Entry ID: 2363, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1RzdnbL2mw6tzYKUjnn4zWMF</t>
+  </si>
+  <si>
+    <t>ch_3S03I8L2mw6tzYKU0WkmIz8o</t>
+  </si>
+  <si>
+    <t>Entry ID: 2364, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1S03PjL2mw6tzYKUHK72EEvm</t>
+  </si>
+  <si>
+    <t>ch_3S055OL2mw6tzYKU1Bjpg2GK</t>
+  </si>
+  <si>
+    <t>Entry ID: 2365, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1S056JL2mw6tzYKU4tHz4kgs</t>
+  </si>
+  <si>
+    <t>ch_3S0H1sL2mw6tzYKU1OPskawR</t>
+  </si>
+  <si>
+    <t>Entry ID: 2366, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1S0H2mL2mw6tzYKUDzHc2tC3</t>
+  </si>
+  <si>
+    <t>ch_3S0InnL2mw6tzYKU0QbnnOSc</t>
+  </si>
+  <si>
+    <t>Entry ID: 2367, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1S0InmL2mw6tzYKUDCABmXce</t>
+  </si>
+  <si>
+    <t>ch_3S0JryL2mw6tzYKU12joNcx4</t>
+  </si>
+  <si>
+    <t>Entry ID: 2368, Product: One</t>
+  </si>
+  <si>
+    <t>pm_1S0JrxL2mw6tzYKUkgbdgYoE</t>
+  </si>
+  <si>
+    <t>ch_3S0Kt9L2mw6tzYKU002btwjG</t>
+  </si>
+  <si>
+    <t>Entry ID: 2369, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1S0Kt8L2mw6tzYKU8ITaYfUG</t>
+  </si>
+  <si>
+    <t>ch_3S0LxtL2mw6tzYKU1Eijfdai</t>
+  </si>
+  <si>
+    <t>Entry ID: 2370, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1S0LxsL2mw6tzYKUlBP1mn5Y</t>
+  </si>
+  <si>
+    <t>ch_3S0MIwL2mw6tzYKU0xeXJE2X</t>
+  </si>
+  <si>
+    <t>Entry ID: 2371, Product: Two</t>
+  </si>
+  <si>
+    <t>pm_1S0MIvL2mw6tzYKUdgLDxeiF</t>
+  </si>
+  <si>
+    <t>Webscape Gardener WG555</t>
+  </si>
+  <si>
+    <t>PARKER WOOLWAY T TARA PW OPEN ENTRY</t>
+  </si>
+  <si>
+    <t>GROSS INTEREST TO 16SEP2025</t>
   </si>
 </sst>
 </file>
@@ -5548,7 +6253,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5596,6 +6301,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5635,13 +6341,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45828.412896412039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="341" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45918.58364733796" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="379" xr:uid="{B9AE540E-AB7F-4ADD-9804-695C06D03F39}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I401" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-21T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-09-17T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5650,16 +6356,16 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1952.11"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="2016"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="2170.2800000000002"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4829.320000000007" maxValue="18411.630000000008"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1647.4100000000062" maxValue="18411.630000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="25">
+      <sharedItems containsBlank="1" count="28">
         <m/>
         <s v="Subs 2025"/>
         <s v="Donations cr"/>
@@ -5681,9 +6387,12 @@
         <s v="Sales cr"/>
         <s v="Sales db"/>
         <s v="Exhibition organisers fees"/>
+        <s v="Admin"/>
         <s v="Website manager's fee"/>
         <s v="Venue hire"/>
-        <s v="Admin"/>
+        <s v="Website redesign"/>
+        <s v="Social events"/>
+        <s v="Tax"/>
         <s v="Exhibitions cr" u="1"/>
       </sharedItems>
     </cacheField>
@@ -5703,13 +6412,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45828.412969328703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="341" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45918.583698379633" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="379" xr:uid="{52AA0CD4-A3EB-4892-953B-4445B6BC29AB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I504" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-06-21T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-09-17T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5718,16 +6427,16 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="1952.11"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="2016"/>
     </cacheField>
     <cacheField name="Income" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="1690.92"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.77" maxValue="2170.2800000000002"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4829.320000000007" maxValue="18411.630000000008"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1647.4100000000062" maxValue="18411.630000000008"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="29">
+      <sharedItems containsBlank="1" count="32">
         <m/>
         <s v="Subs 2025"/>
         <s v="Donations cr"/>
@@ -5749,9 +6458,12 @@
         <s v="Sales cr"/>
         <s v="Sales db"/>
         <s v="Exhibition organisers fees"/>
+        <s v="Admin"/>
         <s v="Website manager's fee"/>
         <s v="Venue hire"/>
-        <s v="Admin"/>
+        <s v="Website redesign"/>
+        <s v="Social events"/>
+        <s v="Tax"/>
         <s v="Exhibitions cr" u="1"/>
         <s v="Subs" u="1"/>
         <s v="Prof Fees" u="1"/>
@@ -5764,7 +6476,7 @@
         <m/>
         <s v="Members"/>
         <s v="Young artists"/>
-        <s v="Open" u="1"/>
+        <s v="Open"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Comments" numFmtId="0">
@@ -5780,7 +6492,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="341">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="379">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -9165,7 +9877,7 @@
     <n v="17.75"/>
     <m/>
     <n v="12337.420000000007"/>
-    <x v="5"/>
+    <x v="21"/>
     <m/>
     <s v="Committee meeting refreshments"/>
   </r>
@@ -9176,7 +9888,7 @@
     <n v="1500"/>
     <m/>
     <n v="10837.420000000007"/>
-    <x v="21"/>
+    <x v="22"/>
     <s v="Members"/>
     <m/>
   </r>
@@ -9242,7 +9954,7 @@
     <n v="1952.11"/>
     <m/>
     <n v="8265.1400000000067"/>
-    <x v="22"/>
+    <x v="23"/>
     <s v="Members"/>
     <m/>
   </r>
@@ -9451,7 +10163,7 @@
     <n v="225"/>
     <m/>
     <n v="6734.0200000000068"/>
-    <x v="23"/>
+    <x v="21"/>
     <m/>
     <s v="Meeting room hire"/>
   </r>
@@ -9462,7 +10174,7 @@
     <n v="700"/>
     <m/>
     <n v="6034.0200000000068"/>
-    <x v="22"/>
+    <x v="23"/>
     <s v="Young artists"/>
     <m/>
   </r>
@@ -9511,15 +10223,433 @@
     <m/>
   </r>
   <r>
+    <d v="2025-06-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="12.5"/>
+    <m/>
+    <n v="5305.2200000000066"/>
+    <x v="21"/>
+    <m/>
+    <s v="Committee meeting refreshments"/>
+  </r>
+  <r>
     <d v="2025-06-20T00:00:00"/>
     <s v="BP"/>
     <s v="Erin Thomas OAS"/>
     <n v="488.4"/>
     <m/>
-    <n v="4829.320000000007"/>
+    <n v="4816.820000000007"/>
     <x v="20"/>
     <s v="Young artists"/>
     <s v="Erin 3"/>
+  </r>
+  <r>
+    <d v="2025-06-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30MAY2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="4811.820000000007"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="Emma Davis OAS"/>
+    <n v="47.85"/>
+    <m/>
+    <n v="4763.9700000000066"/>
+    <x v="21"/>
+    <m/>
+    <s v="China meeting refreshments"/>
+  </r>
+  <r>
+    <d v="2025-06-27T00:00:00"/>
+    <s v="BP"/>
+    <s v="L Wootton-Davies OAS"/>
+    <n v="122.1"/>
+    <m/>
+    <n v="4641.8700000000063"/>
+    <x v="20"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-07-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="MAGDALEN ROAD STUDOASYA DISCOUNT"/>
+    <m/>
+    <n v="200"/>
+    <n v="4841.8700000000063"/>
+    <x v="23"/>
+    <s v="Young artists"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-07-11T00:00:00"/>
+    <s v="BP"/>
+    <s v="Fizog Design OAS"/>
+    <n v="2016"/>
+    <m/>
+    <n v="2825.8700000000063"/>
+    <x v="24"/>
+    <m/>
+    <s v="Jeremy's fee"/>
+  </r>
+  <r>
+    <d v="2025-07-14T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mark Clay OAS"/>
+    <n v="192.5"/>
+    <m/>
+    <n v="2633.3700000000063"/>
+    <x v="25"/>
+    <m/>
+    <s v="Summer drinks"/>
+  </r>
+  <r>
+    <d v="2025-07-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29JUN2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="2628.3700000000063"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-07-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kall Kwik Oxford 009679"/>
+    <n v="314"/>
+    <m/>
+    <n v="2314.3700000000063"/>
+    <x v="14"/>
+    <s v="Open"/>
+    <s v="Poster printing"/>
+  </r>
+  <r>
+    <d v="2025-07-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jeremy Morgan OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="2074.3700000000063"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-07-31T00:00:00"/>
+    <s v="BP"/>
+    <s v="CCSCollect 24798511"/>
+    <n v="186.96"/>
+    <m/>
+    <n v="1887.4100000000062"/>
+    <x v="26"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-01T00:00:00"/>
+    <s v="SO"/>
+    <s v="JEREMY MORGAN OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="1647.4100000000062"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-14T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="153"/>
+    <n v="1800.4100000000062"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="191.21"/>
+    <n v="1991.6200000000063"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="170.05"/>
+    <n v="2161.6700000000064"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-19T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="88.05"/>
+    <n v="2249.7200000000066"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="70.52"/>
+    <n v="2320.2400000000066"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="369.16"/>
+    <n v="2689.4000000000065"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30JUL2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="2684.4000000000065"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-22T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="70.52"/>
+    <n v="2754.9200000000064"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-26T00:00:00"/>
+    <s v="BP"/>
+    <s v="Webscape Gardener WG553"/>
+    <n v="280"/>
+    <m/>
+    <n v="2474.9200000000064"/>
+    <x v="24"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="99.73"/>
+    <n v="2574.6500000000065"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="37.270000000000003"/>
+    <n v="2611.9200000000064"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="175.7"/>
+    <n v="2787.6200000000063"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-29T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="531.04"/>
+    <n v="3318.6600000000062"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="298.99"/>
+    <n v="3617.650000000006"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="187.71"/>
+    <n v="3805.360000000006"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="126.06"/>
+    <n v="3931.420000000006"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="782.89"/>
+    <n v="4714.3100000000059"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="425.46"/>
+    <n v="5139.7700000000059"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <s v="BP"/>
+    <s v="Webscape Gardener WG555"/>
+    <n v="40.75"/>
+    <m/>
+    <n v="5099.0200000000059"/>
+    <x v="11"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="460.12"/>
+    <n v="5559.1400000000058"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="PARKER WOOLWAY T TARA PW OPEN ENTRY"/>
+    <m/>
+    <n v="30"/>
+    <n v="5589.1400000000058"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="436.8"/>
+    <n v="6025.940000000006"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="554.41"/>
+    <n v="6580.3500000000058"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="2170.2800000000002"/>
+    <n v="8750.6300000000065"/>
+    <x v="13"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Barron OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="8720.6300000000065"/>
+    <x v="15"/>
+    <s v="Open"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Barron OAS"/>
+    <n v="200"/>
+    <m/>
+    <n v="8520.6300000000065"/>
+    <x v="16"/>
+    <s v="Open"/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -9536,7 +10666,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="341">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="379">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -12921,7 +14051,7 @@
     <n v="17.75"/>
     <m/>
     <n v="12337.420000000007"/>
-    <x v="5"/>
+    <x v="21"/>
     <x v="0"/>
     <s v="Committee meeting refreshments"/>
   </r>
@@ -12932,7 +14062,7 @@
     <n v="1500"/>
     <m/>
     <n v="10837.420000000007"/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="1"/>
     <m/>
   </r>
@@ -12998,7 +14128,7 @@
     <n v="1952.11"/>
     <m/>
     <n v="8265.1400000000067"/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="1"/>
     <m/>
   </r>
@@ -13207,7 +14337,7 @@
     <n v="225"/>
     <m/>
     <n v="6734.0200000000068"/>
-    <x v="23"/>
+    <x v="21"/>
     <x v="0"/>
     <s v="Meeting room hire"/>
   </r>
@@ -13218,7 +14348,7 @@
     <n v="700"/>
     <m/>
     <n v="6034.0200000000068"/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="2"/>
     <m/>
   </r>
@@ -13267,15 +14397,433 @@
     <m/>
   </r>
   <r>
+    <d v="2025-06-19T00:00:00"/>
+    <s v="BP"/>
+    <s v="Rebecca Payton OAS"/>
+    <n v="12.5"/>
+    <m/>
+    <n v="5305.2200000000066"/>
+    <x v="21"/>
+    <x v="0"/>
+    <s v="Committee meeting refreshments"/>
+  </r>
+  <r>
     <d v="2025-06-20T00:00:00"/>
     <s v="BP"/>
     <s v="Erin Thomas OAS"/>
     <n v="488.4"/>
     <m/>
-    <n v="4829.320000000007"/>
+    <n v="4816.820000000007"/>
     <x v="20"/>
     <x v="2"/>
     <s v="Erin 3"/>
+  </r>
+  <r>
+    <d v="2025-06-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30MAY2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="4811.820000000007"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-06-25T00:00:00"/>
+    <s v="BP"/>
+    <s v="Emma Davis OAS"/>
+    <n v="47.85"/>
+    <m/>
+    <n v="4763.9700000000066"/>
+    <x v="21"/>
+    <x v="0"/>
+    <s v="China meeting refreshments"/>
+  </r>
+  <r>
+    <d v="2025-06-27T00:00:00"/>
+    <s v="BP"/>
+    <s v="L Wootton-Davies OAS"/>
+    <n v="122.1"/>
+    <m/>
+    <n v="4641.8700000000063"/>
+    <x v="20"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-07-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="MAGDALEN ROAD STUDOASYA DISCOUNT"/>
+    <m/>
+    <n v="200"/>
+    <n v="4841.8700000000063"/>
+    <x v="23"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-07-11T00:00:00"/>
+    <s v="BP"/>
+    <s v="Fizog Design OAS"/>
+    <n v="2016"/>
+    <m/>
+    <n v="2825.8700000000063"/>
+    <x v="24"/>
+    <x v="0"/>
+    <s v="Jeremy's fee"/>
+  </r>
+  <r>
+    <d v="2025-07-14T00:00:00"/>
+    <s v="BP"/>
+    <s v="Mark Clay OAS"/>
+    <n v="192.5"/>
+    <m/>
+    <n v="2633.3700000000063"/>
+    <x v="25"/>
+    <x v="0"/>
+    <s v="Summer drinks"/>
+  </r>
+  <r>
+    <d v="2025-07-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 29JUN2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="2628.3700000000063"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-07-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Kall Kwik Oxford 009679"/>
+    <n v="314"/>
+    <m/>
+    <n v="2314.3700000000063"/>
+    <x v="14"/>
+    <x v="3"/>
+    <s v="Poster printing"/>
+  </r>
+  <r>
+    <d v="2025-07-29T00:00:00"/>
+    <s v="BP"/>
+    <s v="Jeremy Morgan OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="2074.3700000000063"/>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-07-31T00:00:00"/>
+    <s v="BP"/>
+    <s v="CCSCollect 24798511"/>
+    <n v="186.96"/>
+    <m/>
+    <n v="1887.4100000000062"/>
+    <x v="26"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-01T00:00:00"/>
+    <s v="SO"/>
+    <s v="JEREMY MORGAN OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="1647.4100000000062"/>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-14T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="153"/>
+    <n v="1800.4100000000062"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-15T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="191.21"/>
+    <n v="1991.6200000000063"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-18T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="170.05"/>
+    <n v="2161.6700000000064"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-19T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="88.05"/>
+    <n v="2249.7200000000066"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-20T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="70.52"/>
+    <n v="2320.2400000000066"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-21T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="369.16"/>
+    <n v="2689.4000000000065"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-21T00:00:00"/>
+    <s v="CHG"/>
+    <s v="TOTAL CHARGES TO 30JUL2025"/>
+    <n v="5"/>
+    <m/>
+    <n v="2684.4000000000065"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-22T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="70.52"/>
+    <n v="2754.9200000000064"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-26T00:00:00"/>
+    <s v="BP"/>
+    <s v="Webscape Gardener WG553"/>
+    <n v="280"/>
+    <m/>
+    <n v="2474.9200000000064"/>
+    <x v="24"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-26T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="99.73"/>
+    <n v="2574.6500000000065"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-27T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="37.270000000000003"/>
+    <n v="2611.9200000000064"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-28T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="175.7"/>
+    <n v="2787.6200000000063"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-29T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="531.04"/>
+    <n v="3318.6600000000062"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-01T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="298.99"/>
+    <n v="3617.650000000006"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-02T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="187.71"/>
+    <n v="3805.360000000006"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="126.06"/>
+    <n v="3931.420000000006"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="782.89"/>
+    <n v="4714.3100000000059"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="425.46"/>
+    <n v="5139.7700000000059"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <s v="BP"/>
+    <s v="Webscape Gardener WG555"/>
+    <n v="40.75"/>
+    <m/>
+    <n v="5099.0200000000059"/>
+    <x v="11"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="460.12"/>
+    <n v="5559.1400000000058"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <s v="CR"/>
+    <s v="PARKER WOOLWAY T TARA PW OPEN ENTRY"/>
+    <m/>
+    <n v="30"/>
+    <n v="5589.1400000000058"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="436.8"/>
+    <n v="6025.940000000006"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="554.41"/>
+    <n v="6580.3500000000058"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-11T00:00:00"/>
+    <s v="CR"/>
+    <s v="Stripe Payments UKSTRIPE"/>
+    <m/>
+    <n v="2170.2800000000002"/>
+    <n v="8750.6300000000065"/>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Barron OAS"/>
+    <n v="30"/>
+    <m/>
+    <n v="8720.6300000000065"/>
+    <x v="15"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-16T00:00:00"/>
+    <s v="BP"/>
+    <s v="David Barron OAS"/>
+    <n v="200"/>
+    <m/>
+    <n v="8520.6300000000065"/>
+    <x v="16"/>
+    <x v="3"/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -13292,8 +14840,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB64E1A4-8455-499E-80FF-BC0BFCCF7279}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -13302,7 +14850,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="26">
+      <items count="29">
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
@@ -13321,13 +14869,16 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
-        <item m="1" x="24"/>
+        <item m="1" x="27"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
-        <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13337,7 +14888,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="28">
     <i>
       <x/>
     </i>
@@ -13410,6 +14961,15 @@
     <i>
       <x v="24"/>
     </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -13442,8 +15002,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField showAll="0"/>
@@ -13452,8 +15012,8 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item x="23"/>
+      <items count="33">
+        <item x="21"/>
         <item x="7"/>
         <item x="2"/>
         <item x="6"/>
@@ -13461,34 +15021,37 @@
         <item x="9"/>
         <item x="17"/>
         <item x="16"/>
-        <item m="1" x="26"/>
+        <item m="1" x="29"/>
         <item x="14"/>
         <item x="3"/>
         <item x="18"/>
         <item x="19"/>
         <item x="13"/>
-        <item m="1" x="25"/>
+        <item m="1" x="28"/>
         <item x="11"/>
-        <item x="22"/>
+        <item x="23"/>
         <item x="0"/>
         <item x="12"/>
         <item x="4"/>
-        <item m="1" x="28"/>
+        <item m="1" x="31"/>
         <item x="5"/>
         <item x="15"/>
-        <item m="1" x="27"/>
-        <item x="21"/>
+        <item m="1" x="30"/>
+        <item x="22"/>
         <item x="1"/>
         <item x="8"/>
         <item x="10"/>
-        <item m="1" x="24"/>
+        <item m="1" x="27"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item x="1"/>
-        <item m="1" x="3"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="2"/>
         <item t="default"/>
@@ -13499,16 +15062,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="7"/>
     </i>
@@ -13519,10 +15073,10 @@
       <x v="13"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="22"/>
     </i>
     <i t="grand">
       <x/>
@@ -13540,7 +15094,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="7" item="3" hier="-1"/>
+    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -13559,7 +15113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -13569,8 +15123,8 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item x="23"/>
+      <items count="33">
+        <item x="21"/>
         <item x="7"/>
         <item x="2"/>
         <item x="6"/>
@@ -13578,34 +15132,37 @@
         <item x="9"/>
         <item x="17"/>
         <item x="16"/>
-        <item m="1" x="26"/>
+        <item m="1" x="29"/>
         <item x="14"/>
         <item x="3"/>
         <item x="18"/>
         <item x="19"/>
         <item x="13"/>
-        <item m="1" x="25"/>
+        <item m="1" x="28"/>
         <item x="11"/>
-        <item x="22"/>
+        <item x="23"/>
         <item x="0"/>
         <item x="12"/>
         <item x="4"/>
-        <item m="1" x="28"/>
+        <item m="1" x="31"/>
         <item x="5"/>
         <item x="15"/>
-        <item m="1" x="27"/>
-        <item x="21"/>
+        <item m="1" x="30"/>
+        <item x="22"/>
         <item x="1"/>
         <item x="8"/>
         <item x="10"/>
-        <item m="1" x="24"/>
+        <item m="1" x="27"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item x="1"/>
-        <item m="1" x="3"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="2"/>
         <item t="default"/>
@@ -14207,7 +15764,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="31">
         <f>SUMIF('Savings account'!G2:G15, "Interest", 'Savings account'!E2:E15)</f>
-        <v>199.21</v>
+        <v>290.14000000000004</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17" t="s">
@@ -14216,7 +15773,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="31">
         <f>SUMIF('Current account'!G2:G402,"Admin",'Current account'!D2:D402)+SUMIF('Current account'!G2:G402, "Other expenses", 'Current account'!D2:D402)</f>
-        <v>416.42</v>
+        <v>426.42</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -14241,7 +15798,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="31">
         <f ca="1">SUMIF('Current account'!G2:G402,"Website",'Current account'!D2:D41)</f>
-        <v>1360.28</v>
+        <v>1401.03</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -14428,7 +15985,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="31">
         <f ca="1">SUM(O4:O13)</f>
-        <v>2827.81</v>
+        <v>2878.5600000000004</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -14649,9 +16206,9 @@
         <v>145</v>
       </c>
       <c r="B25" s="16"/>
-      <c r="C25" s="27" t="e">
+      <c r="C25" s="27">
         <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$22,"Category","Bar sales")</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -14699,7 +16256,7 @@
       </c>
       <c r="C27" s="27">
         <f>GETPIVOTDATA("Sum of Income",Exhibitions!$A$22,"Category","Submissions")</f>
-        <v>257.41999999999996</v>
+        <v>7428.9700000000012</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -20050,11 +21607,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEFBAE9-58F4-4427-A222-4B6D8D551056}">
-  <dimension ref="A1:W189"/>
+  <dimension ref="A1:W283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G189" sqref="G189"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -28652,7 +30209,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1401</v>
       </c>
@@ -28702,7 +30259,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1404</v>
       </c>
@@ -28752,7 +30309,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B179" s="6">
         <v>45725.641504629632</v>
       </c>
@@ -28766,7 +30323,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1407</v>
       </c>
@@ -28816,7 +30373,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1410</v>
       </c>
@@ -28866,7 +30423,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1413</v>
       </c>
@@ -28916,7 +30473,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B183" s="6">
         <v>45725.751342592594</v>
       </c>
@@ -28930,7 +30487,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1416</v>
       </c>
@@ -28980,7 +30537,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1419</v>
       </c>
@@ -29030,7 +30587,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1422</v>
       </c>
@@ -29080,7 +30637,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1425</v>
       </c>
@@ -29130,7 +30687,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1428</v>
       </c>
@@ -29180,7 +30737,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1587</v>
       </c>
@@ -29228,6 +30785,3980 @@
       </c>
       <c r="R189" t="s">
         <v>1589</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B190" s="6">
+        <v>45878.820810185185</v>
+      </c>
+      <c r="C190">
+        <v>0.75</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>157</v>
+      </c>
+      <c r="F190" t="b">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>0.75</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" t="s">
+        <v>157</v>
+      </c>
+      <c r="K190" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L190">
+        <v>0.21</v>
+      </c>
+      <c r="N190" t="s">
+        <v>158</v>
+      </c>
+      <c r="O190" t="s">
+        <v>137</v>
+      </c>
+      <c r="P190" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190" t="s">
+        <v>1789</v>
+      </c>
+      <c r="W190" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B191" s="6">
+        <v>45880.413888888892</v>
+      </c>
+      <c r="C191">
+        <v>30</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>157</v>
+      </c>
+      <c r="F191" t="b">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>30</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>157</v>
+      </c>
+      <c r="K191" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L191">
+        <v>0.65</v>
+      </c>
+      <c r="N191" t="s">
+        <v>158</v>
+      </c>
+      <c r="O191" t="s">
+        <v>137</v>
+      </c>
+      <c r="P191" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191" t="s">
+        <v>1793</v>
+      </c>
+      <c r="W191" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B192" s="6">
+        <v>45880.628692129627</v>
+      </c>
+      <c r="C192">
+        <v>18</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>157</v>
+      </c>
+      <c r="F192" t="b">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>18</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192" t="s">
+        <v>157</v>
+      </c>
+      <c r="K192" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L192">
+        <v>0.47</v>
+      </c>
+      <c r="N192" t="s">
+        <v>158</v>
+      </c>
+      <c r="O192" t="s">
+        <v>137</v>
+      </c>
+      <c r="P192" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192" t="s">
+        <v>1796</v>
+      </c>
+      <c r="W192" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B193" s="6">
+        <v>45880.661550925928</v>
+      </c>
+      <c r="C193">
+        <v>18</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>157</v>
+      </c>
+      <c r="F193" t="b">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>18</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
+        <v>157</v>
+      </c>
+      <c r="K193" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L193">
+        <v>0.47</v>
+      </c>
+      <c r="N193" t="s">
+        <v>158</v>
+      </c>
+      <c r="O193" t="s">
+        <v>137</v>
+      </c>
+      <c r="P193" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193" t="s">
+        <v>1799</v>
+      </c>
+      <c r="W193" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B194" s="6">
+        <v>45880.699884259258</v>
+      </c>
+      <c r="C194">
+        <v>18</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>157</v>
+      </c>
+      <c r="F194" t="b">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>18</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194" t="s">
+        <v>157</v>
+      </c>
+      <c r="K194" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L194">
+        <v>0.47</v>
+      </c>
+      <c r="N194" t="s">
+        <v>158</v>
+      </c>
+      <c r="O194" t="s">
+        <v>137</v>
+      </c>
+      <c r="P194" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194" t="s">
+        <v>1802</v>
+      </c>
+      <c r="W194" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B195" s="6">
+        <v>45880.711747685185</v>
+      </c>
+      <c r="C195">
+        <v>36</v>
+      </c>
+      <c r="E195" t="s">
+        <v>157</v>
+      </c>
+      <c r="O195" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B196" s="6">
+        <v>45880.71607638889</v>
+      </c>
+      <c r="C196">
+        <v>36</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>157</v>
+      </c>
+      <c r="F196" t="b">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>36</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196" t="s">
+        <v>157</v>
+      </c>
+      <c r="K196" t="s">
+        <v>1804</v>
+      </c>
+      <c r="L196">
+        <v>0.74</v>
+      </c>
+      <c r="N196" t="s">
+        <v>158</v>
+      </c>
+      <c r="O196" t="s">
+        <v>137</v>
+      </c>
+      <c r="P196" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W196" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B197" s="6">
+        <v>45880.810277777775</v>
+      </c>
+      <c r="C197">
+        <v>36</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>157</v>
+      </c>
+      <c r="F197" t="b">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>36</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197" t="s">
+        <v>157</v>
+      </c>
+      <c r="K197" t="s">
+        <v>1807</v>
+      </c>
+      <c r="L197">
+        <v>0.74</v>
+      </c>
+      <c r="N197" t="s">
+        <v>158</v>
+      </c>
+      <c r="O197" t="s">
+        <v>137</v>
+      </c>
+      <c r="P197" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197" t="s">
+        <v>1808</v>
+      </c>
+      <c r="W197" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B198" s="6">
+        <v>45881.323055555556</v>
+      </c>
+      <c r="C198">
+        <v>15</v>
+      </c>
+      <c r="E198" t="s">
+        <v>157</v>
+      </c>
+      <c r="O198" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B199" s="6">
+        <v>45881.325671296298</v>
+      </c>
+      <c r="C199">
+        <v>15</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>157</v>
+      </c>
+      <c r="F199" t="b">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>15</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199" t="s">
+        <v>157</v>
+      </c>
+      <c r="K199" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L199">
+        <v>0.43</v>
+      </c>
+      <c r="N199" t="s">
+        <v>158</v>
+      </c>
+      <c r="O199" t="s">
+        <v>137</v>
+      </c>
+      <c r="P199" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199" t="s">
+        <v>1811</v>
+      </c>
+      <c r="W199" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B200" s="6">
+        <v>45881.523865740739</v>
+      </c>
+      <c r="C200">
+        <v>18</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>157</v>
+      </c>
+      <c r="F200" t="b">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>18</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
+        <v>157</v>
+      </c>
+      <c r="K200" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L200">
+        <v>0.47</v>
+      </c>
+      <c r="N200" t="s">
+        <v>158</v>
+      </c>
+      <c r="O200" t="s">
+        <v>137</v>
+      </c>
+      <c r="P200" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200" t="s">
+        <v>1815</v>
+      </c>
+      <c r="W200" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B201" s="6">
+        <v>45881.547025462962</v>
+      </c>
+      <c r="C201">
+        <v>36</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>157</v>
+      </c>
+      <c r="F201" t="b">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>36</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201" t="s">
+        <v>157</v>
+      </c>
+      <c r="K201" t="s">
+        <v>1817</v>
+      </c>
+      <c r="L201">
+        <v>0.74</v>
+      </c>
+      <c r="N201" t="s">
+        <v>158</v>
+      </c>
+      <c r="O201" t="s">
+        <v>137</v>
+      </c>
+      <c r="P201" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201" t="s">
+        <v>1818</v>
+      </c>
+      <c r="W201" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B202" s="6">
+        <v>45881.560613425929</v>
+      </c>
+      <c r="C202">
+        <v>36</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>157</v>
+      </c>
+      <c r="F202" t="b">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>36</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202" t="s">
+        <v>157</v>
+      </c>
+      <c r="K202" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L202">
+        <v>0.74</v>
+      </c>
+      <c r="N202" t="s">
+        <v>158</v>
+      </c>
+      <c r="O202" t="s">
+        <v>137</v>
+      </c>
+      <c r="P202" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202" t="s">
+        <v>1821</v>
+      </c>
+      <c r="W202" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B203" s="6">
+        <v>45881.598310185182</v>
+      </c>
+      <c r="C203">
+        <v>36</v>
+      </c>
+      <c r="E203" t="s">
+        <v>157</v>
+      </c>
+      <c r="O203" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B204" s="6">
+        <v>45881.600856481484</v>
+      </c>
+      <c r="C204">
+        <v>36</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>157</v>
+      </c>
+      <c r="F204" t="b">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>36</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204" t="s">
+        <v>157</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L204">
+        <v>0.74</v>
+      </c>
+      <c r="N204" t="s">
+        <v>158</v>
+      </c>
+      <c r="O204" t="s">
+        <v>137</v>
+      </c>
+      <c r="P204" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204" t="s">
+        <v>1824</v>
+      </c>
+      <c r="W204" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B205" s="6">
+        <v>45881.659282407411</v>
+      </c>
+      <c r="C205">
+        <v>36</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>157</v>
+      </c>
+      <c r="F205" t="b">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>36</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205" t="s">
+        <v>157</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1826</v>
+      </c>
+      <c r="L205">
+        <v>0.74</v>
+      </c>
+      <c r="N205" t="s">
+        <v>158</v>
+      </c>
+      <c r="O205" t="s">
+        <v>137</v>
+      </c>
+      <c r="P205" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205" t="s">
+        <v>1827</v>
+      </c>
+      <c r="W205" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B206" s="6">
+        <v>45881.665219907409</v>
+      </c>
+      <c r="C206">
+        <v>18</v>
+      </c>
+      <c r="E206" t="s">
+        <v>157</v>
+      </c>
+      <c r="O206" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B207" s="6">
+        <v>45881.66846064815</v>
+      </c>
+      <c r="C207">
+        <v>0.75</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>157</v>
+      </c>
+      <c r="F207" t="b">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0.75</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207" t="s">
+        <v>157</v>
+      </c>
+      <c r="K207" t="s">
+        <v>1829</v>
+      </c>
+      <c r="L207">
+        <v>0.21</v>
+      </c>
+      <c r="N207" t="s">
+        <v>158</v>
+      </c>
+      <c r="O207" t="s">
+        <v>137</v>
+      </c>
+      <c r="P207" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207" t="s">
+        <v>1830</v>
+      </c>
+      <c r="W207" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B208" s="6">
+        <v>45881.685150462959</v>
+      </c>
+      <c r="C208">
+        <v>18</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>157</v>
+      </c>
+      <c r="F208" t="b">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>18</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208" t="s">
+        <v>157</v>
+      </c>
+      <c r="K208" t="s">
+        <v>1832</v>
+      </c>
+      <c r="L208">
+        <v>0.47</v>
+      </c>
+      <c r="N208" t="s">
+        <v>158</v>
+      </c>
+      <c r="O208" t="s">
+        <v>137</v>
+      </c>
+      <c r="P208" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208" t="s">
+        <v>1833</v>
+      </c>
+      <c r="W208" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B209" s="6">
+        <v>45882.465949074074</v>
+      </c>
+      <c r="C209">
+        <v>30</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>157</v>
+      </c>
+      <c r="F209" t="b">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>30</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>157</v>
+      </c>
+      <c r="K209" t="s">
+        <v>1835</v>
+      </c>
+      <c r="L209">
+        <v>0.65</v>
+      </c>
+      <c r="N209" t="s">
+        <v>158</v>
+      </c>
+      <c r="O209" t="s">
+        <v>137</v>
+      </c>
+      <c r="P209" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209" t="s">
+        <v>1836</v>
+      </c>
+      <c r="W209" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B210" s="6">
+        <v>45882.487743055557</v>
+      </c>
+      <c r="C210">
+        <v>36</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>157</v>
+      </c>
+      <c r="F210" t="b">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>36</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" t="s">
+        <v>157</v>
+      </c>
+      <c r="K210" t="s">
+        <v>1839</v>
+      </c>
+      <c r="L210">
+        <v>0.88</v>
+      </c>
+      <c r="N210" t="s">
+        <v>158</v>
+      </c>
+      <c r="O210" t="s">
+        <v>137</v>
+      </c>
+      <c r="P210" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210" t="s">
+        <v>1840</v>
+      </c>
+      <c r="W210" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B211" s="6">
+        <v>45882.495486111111</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>157</v>
+      </c>
+      <c r="F211" t="b">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>18</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211" t="s">
+        <v>157</v>
+      </c>
+      <c r="K211" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L211">
+        <v>0.47</v>
+      </c>
+      <c r="N211" t="s">
+        <v>158</v>
+      </c>
+      <c r="O211" t="s">
+        <v>137</v>
+      </c>
+      <c r="P211" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211" t="s">
+        <v>1843</v>
+      </c>
+      <c r="W211" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B212" s="6">
+        <v>45882.624837962961</v>
+      </c>
+      <c r="C212">
+        <v>18</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>157</v>
+      </c>
+      <c r="F212" t="b">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>18</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212" t="s">
+        <v>157</v>
+      </c>
+      <c r="K212" t="s">
+        <v>1845</v>
+      </c>
+      <c r="L212">
+        <v>0.47</v>
+      </c>
+      <c r="N212" t="s">
+        <v>158</v>
+      </c>
+      <c r="O212" t="s">
+        <v>137</v>
+      </c>
+      <c r="P212" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212" t="s">
+        <v>1846</v>
+      </c>
+      <c r="W212" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B213" s="6">
+        <v>45882.675266203703</v>
+      </c>
+      <c r="C213">
+        <v>36</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>157</v>
+      </c>
+      <c r="F213" t="b">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>36</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213" t="s">
+        <v>157</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1848</v>
+      </c>
+      <c r="L213">
+        <v>0.74</v>
+      </c>
+      <c r="N213" t="s">
+        <v>158</v>
+      </c>
+      <c r="O213" t="s">
+        <v>137</v>
+      </c>
+      <c r="P213" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213" t="s">
+        <v>1849</v>
+      </c>
+      <c r="W213" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B214" s="6">
+        <v>45882.687291666669</v>
+      </c>
+      <c r="C214">
+        <v>36</v>
+      </c>
+      <c r="E214" t="s">
+        <v>157</v>
+      </c>
+      <c r="O214" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B215" s="6">
+        <v>45882.700219907405</v>
+      </c>
+      <c r="C215">
+        <v>36</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>157</v>
+      </c>
+      <c r="F215" t="b">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>36</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215" t="s">
+        <v>157</v>
+      </c>
+      <c r="K215" t="s">
+        <v>1851</v>
+      </c>
+      <c r="L215">
+        <v>0.74</v>
+      </c>
+      <c r="N215" t="s">
+        <v>158</v>
+      </c>
+      <c r="O215" t="s">
+        <v>137</v>
+      </c>
+      <c r="P215" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215" t="s">
+        <v>1852</v>
+      </c>
+      <c r="W215" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B216" s="6">
+        <v>45883.467997685184</v>
+      </c>
+      <c r="C216">
+        <v>36</v>
+      </c>
+      <c r="E216" t="s">
+        <v>157</v>
+      </c>
+      <c r="O216" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B217" s="6">
+        <v>45883.471435185187</v>
+      </c>
+      <c r="C217">
+        <v>36</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>157</v>
+      </c>
+      <c r="F217" t="b">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>36</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217" t="s">
+        <v>157</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1854</v>
+      </c>
+      <c r="L217">
+        <v>0.74</v>
+      </c>
+      <c r="N217" t="s">
+        <v>158</v>
+      </c>
+      <c r="O217" t="s">
+        <v>137</v>
+      </c>
+      <c r="P217" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217" t="s">
+        <v>1855</v>
+      </c>
+      <c r="W217" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B218" s="6">
+        <v>45883.47755787037</v>
+      </c>
+      <c r="C218">
+        <v>36</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>157</v>
+      </c>
+      <c r="F218" t="b">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>36</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218" t="s">
+        <v>157</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1858</v>
+      </c>
+      <c r="L218">
+        <v>0.74</v>
+      </c>
+      <c r="N218" t="s">
+        <v>158</v>
+      </c>
+      <c r="O218" t="s">
+        <v>137</v>
+      </c>
+      <c r="P218" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218" t="s">
+        <v>1859</v>
+      </c>
+      <c r="W218" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B219" s="6">
+        <v>45883.661504629628</v>
+      </c>
+      <c r="C219">
+        <v>18</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>157</v>
+      </c>
+      <c r="F219" t="b">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>18</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219" t="s">
+        <v>157</v>
+      </c>
+      <c r="K219" t="s">
+        <v>1861</v>
+      </c>
+      <c r="L219">
+        <v>0.47</v>
+      </c>
+      <c r="N219" t="s">
+        <v>158</v>
+      </c>
+      <c r="O219" t="s">
+        <v>137</v>
+      </c>
+      <c r="P219" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219" t="s">
+        <v>1862</v>
+      </c>
+      <c r="W219" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B220" s="6">
+        <v>45884.388275462959</v>
+      </c>
+      <c r="C220">
+        <v>36</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>157</v>
+      </c>
+      <c r="F220" t="b">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>36</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220" t="s">
+        <v>157</v>
+      </c>
+      <c r="K220" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L220">
+        <v>0.74</v>
+      </c>
+      <c r="N220" t="s">
+        <v>158</v>
+      </c>
+      <c r="O220" t="s">
+        <v>137</v>
+      </c>
+      <c r="P220" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220" t="s">
+        <v>1865</v>
+      </c>
+      <c r="W220" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B221" s="6">
+        <v>45884.430648148147</v>
+      </c>
+      <c r="C221">
+        <v>36</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>157</v>
+      </c>
+      <c r="F221" t="b">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>36</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221" t="s">
+        <v>157</v>
+      </c>
+      <c r="K221" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L221">
+        <v>0.74</v>
+      </c>
+      <c r="N221" t="s">
+        <v>158</v>
+      </c>
+      <c r="O221" t="s">
+        <v>137</v>
+      </c>
+      <c r="P221" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221" t="s">
+        <v>1869</v>
+      </c>
+      <c r="W221" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B222" s="6">
+        <v>45885.355405092596</v>
+      </c>
+      <c r="C222">
+        <v>36</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>157</v>
+      </c>
+      <c r="F222" t="b">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>36</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222" t="s">
+        <v>157</v>
+      </c>
+      <c r="K222" t="s">
+        <v>1871</v>
+      </c>
+      <c r="L222">
+        <v>0.74</v>
+      </c>
+      <c r="N222" t="s">
+        <v>158</v>
+      </c>
+      <c r="O222" t="s">
+        <v>137</v>
+      </c>
+      <c r="P222" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222" t="s">
+        <v>1872</v>
+      </c>
+      <c r="W222" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B223" s="6">
+        <v>45885.431192129632</v>
+      </c>
+      <c r="C223">
+        <v>15</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>157</v>
+      </c>
+      <c r="F223" t="b">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>15</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223" t="s">
+        <v>157</v>
+      </c>
+      <c r="K223" t="s">
+        <v>1875</v>
+      </c>
+      <c r="L223">
+        <v>0.43</v>
+      </c>
+      <c r="N223" t="s">
+        <v>158</v>
+      </c>
+      <c r="O223" t="s">
+        <v>137</v>
+      </c>
+      <c r="P223" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223" t="s">
+        <v>1876</v>
+      </c>
+      <c r="W223" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B224" s="6">
+        <v>45885.54146990741</v>
+      </c>
+      <c r="C224">
+        <v>30</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>157</v>
+      </c>
+      <c r="F224" t="b">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>30</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224" t="s">
+        <v>157</v>
+      </c>
+      <c r="K224" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L224">
+        <v>0.65</v>
+      </c>
+      <c r="N224" t="s">
+        <v>158</v>
+      </c>
+      <c r="O224" t="s">
+        <v>137</v>
+      </c>
+      <c r="P224" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224" t="s">
+        <v>1879</v>
+      </c>
+      <c r="W224" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B225" s="6">
+        <v>45885.558958333335</v>
+      </c>
+      <c r="C225">
+        <v>36</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>157</v>
+      </c>
+      <c r="F225" t="b">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>36</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225" t="s">
+        <v>157</v>
+      </c>
+      <c r="K225" t="s">
+        <v>1881</v>
+      </c>
+      <c r="L225">
+        <v>0.74</v>
+      </c>
+      <c r="N225" t="s">
+        <v>158</v>
+      </c>
+      <c r="O225" t="s">
+        <v>137</v>
+      </c>
+      <c r="P225" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225" t="s">
+        <v>1882</v>
+      </c>
+      <c r="W225" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B226" s="6">
+        <v>45886.350254629629</v>
+      </c>
+      <c r="C226">
+        <v>30</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>157</v>
+      </c>
+      <c r="F226" t="b">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>30</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226" t="s">
+        <v>157</v>
+      </c>
+      <c r="K226" t="s">
+        <v>1884</v>
+      </c>
+      <c r="L226">
+        <v>0.65</v>
+      </c>
+      <c r="N226" t="s">
+        <v>158</v>
+      </c>
+      <c r="O226" t="s">
+        <v>137</v>
+      </c>
+      <c r="P226" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226" t="s">
+        <v>1885</v>
+      </c>
+      <c r="W226" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B227" s="6">
+        <v>45886.350983796299</v>
+      </c>
+      <c r="C227">
+        <v>15</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>157</v>
+      </c>
+      <c r="F227" t="b">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>15</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227" t="s">
+        <v>157</v>
+      </c>
+      <c r="K227" t="s">
+        <v>1887</v>
+      </c>
+      <c r="L227">
+        <v>0.43</v>
+      </c>
+      <c r="N227" t="s">
+        <v>158</v>
+      </c>
+      <c r="O227" t="s">
+        <v>137</v>
+      </c>
+      <c r="P227" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227" t="s">
+        <v>1888</v>
+      </c>
+      <c r="W227" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B228" s="6">
+        <v>45886.49019675926</v>
+      </c>
+      <c r="C228">
+        <v>15</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>157</v>
+      </c>
+      <c r="F228" t="b">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>15</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228" t="s">
+        <v>157</v>
+      </c>
+      <c r="K228" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L228">
+        <v>0.43</v>
+      </c>
+      <c r="N228" t="s">
+        <v>158</v>
+      </c>
+      <c r="O228" t="s">
+        <v>137</v>
+      </c>
+      <c r="P228" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228" t="s">
+        <v>1891</v>
+      </c>
+      <c r="W228" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B229" s="6">
+        <v>45886.536435185182</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>157</v>
+      </c>
+      <c r="F229" t="b">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>36</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229" t="s">
+        <v>157</v>
+      </c>
+      <c r="K229" t="s">
+        <v>1893</v>
+      </c>
+      <c r="L229">
+        <v>0.74</v>
+      </c>
+      <c r="N229" t="s">
+        <v>158</v>
+      </c>
+      <c r="O229" t="s">
+        <v>137</v>
+      </c>
+      <c r="P229" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229" t="s">
+        <v>1894</v>
+      </c>
+      <c r="W229" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B230" s="6">
+        <v>45887.474212962959</v>
+      </c>
+      <c r="C230">
+        <v>18</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>157</v>
+      </c>
+      <c r="F230" t="b">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>18</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230" t="s">
+        <v>157</v>
+      </c>
+      <c r="K230" t="s">
+        <v>1896</v>
+      </c>
+      <c r="L230">
+        <v>0.47</v>
+      </c>
+      <c r="N230" t="s">
+        <v>158</v>
+      </c>
+      <c r="O230" t="s">
+        <v>137</v>
+      </c>
+      <c r="P230" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230" t="s">
+        <v>1897</v>
+      </c>
+      <c r="W230" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B231" s="6">
+        <v>45887.536076388889</v>
+      </c>
+      <c r="C231">
+        <v>30</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>157</v>
+      </c>
+      <c r="F231" t="b">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>30</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231" t="s">
+        <v>157</v>
+      </c>
+      <c r="K231" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L231">
+        <v>0.65</v>
+      </c>
+      <c r="N231" t="s">
+        <v>158</v>
+      </c>
+      <c r="O231" t="s">
+        <v>137</v>
+      </c>
+      <c r="P231" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231" t="s">
+        <v>1900</v>
+      </c>
+      <c r="W231" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B232" s="6">
+        <v>45887.544687499998</v>
+      </c>
+      <c r="C232">
+        <v>15</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>157</v>
+      </c>
+      <c r="F232" t="b">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>15</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232" t="s">
+        <v>157</v>
+      </c>
+      <c r="K232" t="s">
+        <v>1902</v>
+      </c>
+      <c r="L232">
+        <v>0.43</v>
+      </c>
+      <c r="N232" t="s">
+        <v>158</v>
+      </c>
+      <c r="O232" t="s">
+        <v>137</v>
+      </c>
+      <c r="P232" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232" t="s">
+        <v>1903</v>
+      </c>
+      <c r="W232" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B233" s="6">
+        <v>45887.612546296295</v>
+      </c>
+      <c r="C233">
+        <v>36</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>157</v>
+      </c>
+      <c r="F233" t="b">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>36</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233" t="s">
+        <v>157</v>
+      </c>
+      <c r="K233" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L233">
+        <v>0.88</v>
+      </c>
+      <c r="N233" t="s">
+        <v>158</v>
+      </c>
+      <c r="O233" t="s">
+        <v>137</v>
+      </c>
+      <c r="P233" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233" t="s">
+        <v>1906</v>
+      </c>
+      <c r="W233" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B234" s="6">
+        <v>45887.763124999998</v>
+      </c>
+      <c r="C234">
+        <v>36</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>157</v>
+      </c>
+      <c r="F234" t="b">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>36</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234" t="s">
+        <v>157</v>
+      </c>
+      <c r="K234" t="s">
+        <v>1908</v>
+      </c>
+      <c r="L234">
+        <v>0.74</v>
+      </c>
+      <c r="N234" t="s">
+        <v>158</v>
+      </c>
+      <c r="O234" t="s">
+        <v>137</v>
+      </c>
+      <c r="P234" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234" t="s">
+        <v>1909</v>
+      </c>
+      <c r="W234" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B235" s="6">
+        <v>45887.780949074076</v>
+      </c>
+      <c r="C235">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>157</v>
+      </c>
+      <c r="F235" t="b">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>15</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235" t="s">
+        <v>157</v>
+      </c>
+      <c r="K235" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L235">
+        <v>0.43</v>
+      </c>
+      <c r="N235" t="s">
+        <v>158</v>
+      </c>
+      <c r="O235" t="s">
+        <v>137</v>
+      </c>
+      <c r="P235" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235" t="s">
+        <v>1912</v>
+      </c>
+      <c r="W235" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B236" s="6">
+        <v>45887.806932870371</v>
+      </c>
+      <c r="C236">
+        <v>15</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>157</v>
+      </c>
+      <c r="F236" t="b">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>15</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236" t="s">
+        <v>157</v>
+      </c>
+      <c r="K236" t="s">
+        <v>1914</v>
+      </c>
+      <c r="L236">
+        <v>0.43</v>
+      </c>
+      <c r="N236" t="s">
+        <v>158</v>
+      </c>
+      <c r="O236" t="s">
+        <v>137</v>
+      </c>
+      <c r="P236" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236" t="s">
+        <v>1915</v>
+      </c>
+      <c r="W236" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B237" s="6">
+        <v>45888.457106481481</v>
+      </c>
+      <c r="C237">
+        <v>36</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>157</v>
+      </c>
+      <c r="F237" t="b">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>36</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237" t="s">
+        <v>157</v>
+      </c>
+      <c r="K237" t="s">
+        <v>1917</v>
+      </c>
+      <c r="L237">
+        <v>0.74</v>
+      </c>
+      <c r="N237" t="s">
+        <v>158</v>
+      </c>
+      <c r="O237" t="s">
+        <v>137</v>
+      </c>
+      <c r="P237" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237" t="s">
+        <v>1918</v>
+      </c>
+      <c r="W237" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B238" s="6">
+        <v>45888.675428240742</v>
+      </c>
+      <c r="C238">
+        <v>36</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>157</v>
+      </c>
+      <c r="F238" t="b">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>36</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238" t="s">
+        <v>157</v>
+      </c>
+      <c r="K238" t="s">
+        <v>1921</v>
+      </c>
+      <c r="L238">
+        <v>0.74</v>
+      </c>
+      <c r="N238" t="s">
+        <v>158</v>
+      </c>
+      <c r="O238" t="s">
+        <v>137</v>
+      </c>
+      <c r="P238" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238" t="s">
+        <v>1922</v>
+      </c>
+      <c r="W238" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B239" s="6">
+        <v>45889.308368055557</v>
+      </c>
+      <c r="C239">
+        <v>30</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>157</v>
+      </c>
+      <c r="F239" t="b">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>30</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239" t="s">
+        <v>157</v>
+      </c>
+      <c r="K239" t="s">
+        <v>1924</v>
+      </c>
+      <c r="L239">
+        <v>0.65</v>
+      </c>
+      <c r="N239" t="s">
+        <v>158</v>
+      </c>
+      <c r="O239" t="s">
+        <v>137</v>
+      </c>
+      <c r="P239" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239" t="s">
+        <v>1925</v>
+      </c>
+      <c r="W239" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B240" s="6">
+        <v>45889.557025462964</v>
+      </c>
+      <c r="C240">
+        <v>18</v>
+      </c>
+      <c r="E240" t="s">
+        <v>157</v>
+      </c>
+      <c r="O240" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B241" s="6">
+        <v>45889.565254629626</v>
+      </c>
+      <c r="C241">
+        <v>18</v>
+      </c>
+      <c r="E241" t="s">
+        <v>157</v>
+      </c>
+      <c r="O241" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B242" s="6">
+        <v>45889.597245370373</v>
+      </c>
+      <c r="C242">
+        <v>36</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>157</v>
+      </c>
+      <c r="F242" t="b">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>36</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242" t="s">
+        <v>157</v>
+      </c>
+      <c r="K242" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L242">
+        <v>0.74</v>
+      </c>
+      <c r="N242" t="s">
+        <v>158</v>
+      </c>
+      <c r="O242" t="s">
+        <v>137</v>
+      </c>
+      <c r="P242" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242" t="s">
+        <v>1929</v>
+      </c>
+      <c r="W242" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B243" s="6">
+        <v>45889.685266203705</v>
+      </c>
+      <c r="C243">
+        <v>36</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>157</v>
+      </c>
+      <c r="F243" t="b">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>36</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243" t="s">
+        <v>157</v>
+      </c>
+      <c r="K243" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L243">
+        <v>0.88</v>
+      </c>
+      <c r="N243" t="s">
+        <v>158</v>
+      </c>
+      <c r="O243" t="s">
+        <v>137</v>
+      </c>
+      <c r="P243" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243" t="s">
+        <v>1932</v>
+      </c>
+      <c r="W243" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B244" s="6">
+        <v>45889.720972222225</v>
+      </c>
+      <c r="C244">
+        <v>18</v>
+      </c>
+      <c r="E244" t="s">
+        <v>157</v>
+      </c>
+      <c r="O244" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B245" s="6">
+        <v>45890.336157407408</v>
+      </c>
+      <c r="C245">
+        <v>30</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>157</v>
+      </c>
+      <c r="F245" t="b">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>30</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245" t="s">
+        <v>157</v>
+      </c>
+      <c r="K245" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L245">
+        <v>0.65</v>
+      </c>
+      <c r="N245" t="s">
+        <v>158</v>
+      </c>
+      <c r="O245" t="s">
+        <v>137</v>
+      </c>
+      <c r="P245" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B246" s="6">
+        <v>45890.504525462966</v>
+      </c>
+      <c r="C246">
+        <v>15</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>157</v>
+      </c>
+      <c r="F246" t="b">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>15</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246" t="s">
+        <v>157</v>
+      </c>
+      <c r="K246" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L246">
+        <v>0.43</v>
+      </c>
+      <c r="N246" t="s">
+        <v>158</v>
+      </c>
+      <c r="O246" t="s">
+        <v>137</v>
+      </c>
+      <c r="P246" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B247" s="6">
+        <v>45890.653333333335</v>
+      </c>
+      <c r="C247">
+        <v>30</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>157</v>
+      </c>
+      <c r="F247" t="b">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>30</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247" t="s">
+        <v>157</v>
+      </c>
+      <c r="K247" t="s">
+        <v>1940</v>
+      </c>
+      <c r="L247">
+        <v>0.65</v>
+      </c>
+      <c r="N247" t="s">
+        <v>158</v>
+      </c>
+      <c r="O247" t="s">
+        <v>137</v>
+      </c>
+      <c r="P247" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B248" s="6">
+        <v>45890.700740740744</v>
+      </c>
+      <c r="C248">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>157</v>
+      </c>
+      <c r="O248" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B249" s="6">
+        <v>45891.495196759257</v>
+      </c>
+      <c r="C249">
+        <v>18</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>157</v>
+      </c>
+      <c r="F249" t="b">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>18</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249" t="s">
+        <v>157</v>
+      </c>
+      <c r="K249" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L249">
+        <v>0.47</v>
+      </c>
+      <c r="N249" t="s">
+        <v>158</v>
+      </c>
+      <c r="O249" t="s">
+        <v>137</v>
+      </c>
+      <c r="P249" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B250" s="6">
+        <v>45891.550486111111</v>
+      </c>
+      <c r="C250">
+        <v>30</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>157</v>
+      </c>
+      <c r="F250" t="b">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>30</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250" t="s">
+        <v>157</v>
+      </c>
+      <c r="K250" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L250">
+        <v>0.65</v>
+      </c>
+      <c r="N250" t="s">
+        <v>158</v>
+      </c>
+      <c r="O250" t="s">
+        <v>137</v>
+      </c>
+      <c r="P250" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B251" s="6">
+        <v>45891.61650462963</v>
+      </c>
+      <c r="C251">
+        <v>18</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>157</v>
+      </c>
+      <c r="F251" t="b">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>18</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251" t="s">
+        <v>157</v>
+      </c>
+      <c r="K251" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L251">
+        <v>0.47</v>
+      </c>
+      <c r="N251" t="s">
+        <v>158</v>
+      </c>
+      <c r="O251" t="s">
+        <v>137</v>
+      </c>
+      <c r="P251" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B252" s="6">
+        <v>45891.648993055554</v>
+      </c>
+      <c r="C252">
+        <v>18</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>157</v>
+      </c>
+      <c r="F252" t="b">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>18</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252" t="s">
+        <v>157</v>
+      </c>
+      <c r="K252" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L252">
+        <v>0.47</v>
+      </c>
+      <c r="N252" t="s">
+        <v>158</v>
+      </c>
+      <c r="O252" t="s">
+        <v>137</v>
+      </c>
+      <c r="P252" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B253" s="6">
+        <v>45891.692106481481</v>
+      </c>
+      <c r="C253">
+        <v>30</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>157</v>
+      </c>
+      <c r="F253" t="b">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>30</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253" t="s">
+        <v>157</v>
+      </c>
+      <c r="K253" t="s">
+        <v>1955</v>
+      </c>
+      <c r="L253">
+        <v>0.65</v>
+      </c>
+      <c r="N253" t="s">
+        <v>158</v>
+      </c>
+      <c r="O253" t="s">
+        <v>137</v>
+      </c>
+      <c r="P253" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B254" s="6">
+        <v>45891.716817129629</v>
+      </c>
+      <c r="C254">
+        <v>30</v>
+      </c>
+      <c r="E254" t="s">
+        <v>157</v>
+      </c>
+      <c r="O254" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B255" s="6">
+        <v>45891.722245370373</v>
+      </c>
+      <c r="C255">
+        <v>30</v>
+      </c>
+      <c r="E255" t="s">
+        <v>157</v>
+      </c>
+      <c r="O255" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B256" s="6">
+        <v>45891.724236111113</v>
+      </c>
+      <c r="C256">
+        <v>30</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>157</v>
+      </c>
+      <c r="F256" t="b">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>30</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256" t="s">
+        <v>157</v>
+      </c>
+      <c r="K256" t="s">
+        <v>1958</v>
+      </c>
+      <c r="L256">
+        <v>0.65</v>
+      </c>
+      <c r="N256" t="s">
+        <v>158</v>
+      </c>
+      <c r="O256" t="s">
+        <v>137</v>
+      </c>
+      <c r="P256" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B257" s="6">
+        <v>45891.827152777776</v>
+      </c>
+      <c r="C257">
+        <v>18</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>157</v>
+      </c>
+      <c r="F257" t="b">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>18</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257" t="s">
+        <v>157</v>
+      </c>
+      <c r="K257" t="s">
+        <v>1961</v>
+      </c>
+      <c r="L257">
+        <v>0.47</v>
+      </c>
+      <c r="N257" t="s">
+        <v>158</v>
+      </c>
+      <c r="O257" t="s">
+        <v>137</v>
+      </c>
+      <c r="P257" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B258" s="6">
+        <v>45891.910601851851</v>
+      </c>
+      <c r="C258">
+        <v>18</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>157</v>
+      </c>
+      <c r="F258" t="b">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>18</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258" t="s">
+        <v>157</v>
+      </c>
+      <c r="K258" t="s">
+        <v>1964</v>
+      </c>
+      <c r="L258">
+        <v>0.47</v>
+      </c>
+      <c r="N258" t="s">
+        <v>158</v>
+      </c>
+      <c r="O258" t="s">
+        <v>137</v>
+      </c>
+      <c r="P258" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B259" s="6">
+        <v>45892.436261574076</v>
+      </c>
+      <c r="C259">
+        <v>15</v>
+      </c>
+      <c r="E259" t="s">
+        <v>157</v>
+      </c>
+      <c r="O259" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B260" s="6">
+        <v>45892.437997685185</v>
+      </c>
+      <c r="C260">
+        <v>15</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>157</v>
+      </c>
+      <c r="F260" t="b">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>15</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260" t="s">
+        <v>157</v>
+      </c>
+      <c r="K260" t="s">
+        <v>1967</v>
+      </c>
+      <c r="L260">
+        <v>0.43</v>
+      </c>
+      <c r="N260" t="s">
+        <v>158</v>
+      </c>
+      <c r="O260" t="s">
+        <v>137</v>
+      </c>
+      <c r="P260" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B261" s="6">
+        <v>45892.463842592595</v>
+      </c>
+      <c r="C261">
+        <v>36</v>
+      </c>
+      <c r="E261" t="s">
+        <v>157</v>
+      </c>
+      <c r="O261" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B262" s="6">
+        <v>45892.511863425927</v>
+      </c>
+      <c r="C262">
+        <v>36</v>
+      </c>
+      <c r="E262" t="s">
+        <v>157</v>
+      </c>
+      <c r="O262" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B263" s="6">
+        <v>45892.631249999999</v>
+      </c>
+      <c r="C263">
+        <v>36</v>
+      </c>
+      <c r="E263" t="s">
+        <v>157</v>
+      </c>
+      <c r="O263" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B264" s="6">
+        <v>45892.812384259261</v>
+      </c>
+      <c r="C264">
+        <v>30</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>157</v>
+      </c>
+      <c r="F264" t="b">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>30</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264" t="s">
+        <v>157</v>
+      </c>
+      <c r="K264" t="s">
+        <v>1970</v>
+      </c>
+      <c r="L264">
+        <v>0.65</v>
+      </c>
+      <c r="N264" t="s">
+        <v>158</v>
+      </c>
+      <c r="O264" t="s">
+        <v>137</v>
+      </c>
+      <c r="P264" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B265" s="6">
+        <v>45892.812673611108</v>
+      </c>
+      <c r="C265">
+        <v>36</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>157</v>
+      </c>
+      <c r="F265" t="b">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>36</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265" t="s">
+        <v>157</v>
+      </c>
+      <c r="K265" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L265">
+        <v>0.74</v>
+      </c>
+      <c r="N265" t="s">
+        <v>158</v>
+      </c>
+      <c r="O265" t="s">
+        <v>137</v>
+      </c>
+      <c r="P265" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B266" s="6">
+        <v>45893.521249999998</v>
+      </c>
+      <c r="C266">
+        <v>18</v>
+      </c>
+      <c r="E266" t="s">
+        <v>157</v>
+      </c>
+      <c r="O266" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B267" s="6">
+        <v>45893.523726851854</v>
+      </c>
+      <c r="C267">
+        <v>18</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>157</v>
+      </c>
+      <c r="F267" t="b">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>18</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267" t="s">
+        <v>157</v>
+      </c>
+      <c r="K267" t="s">
+        <v>1976</v>
+      </c>
+      <c r="L267">
+        <v>0.47</v>
+      </c>
+      <c r="N267" t="s">
+        <v>158</v>
+      </c>
+      <c r="O267" t="s">
+        <v>137</v>
+      </c>
+      <c r="P267" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B268" s="6">
+        <v>45893.553877314815</v>
+      </c>
+      <c r="C268">
+        <v>15</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>157</v>
+      </c>
+      <c r="F268" t="b">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>15</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268" t="s">
+        <v>157</v>
+      </c>
+      <c r="K268" t="s">
+        <v>1979</v>
+      </c>
+      <c r="L268">
+        <v>0.43</v>
+      </c>
+      <c r="N268" t="s">
+        <v>158</v>
+      </c>
+      <c r="O268" t="s">
+        <v>137</v>
+      </c>
+      <c r="P268" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B269" s="6">
+        <v>45893.925381944442</v>
+      </c>
+      <c r="C269">
+        <v>36</v>
+      </c>
+      <c r="E269" t="s">
+        <v>157</v>
+      </c>
+      <c r="O269" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B270" s="6">
+        <v>45893.93513888889</v>
+      </c>
+      <c r="C270">
+        <v>36</v>
+      </c>
+      <c r="E270" t="s">
+        <v>157</v>
+      </c>
+      <c r="O270" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B271" s="6">
+        <v>45893.949733796297</v>
+      </c>
+      <c r="C271">
+        <v>36</v>
+      </c>
+      <c r="E271" t="s">
+        <v>157</v>
+      </c>
+      <c r="O271" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B272" s="6">
+        <v>45894.693506944444</v>
+      </c>
+      <c r="C272">
+        <v>36</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>157</v>
+      </c>
+      <c r="F272" t="b">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>36</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272" t="s">
+        <v>157</v>
+      </c>
+      <c r="K272" t="s">
+        <v>1982</v>
+      </c>
+      <c r="L272">
+        <v>0.74</v>
+      </c>
+      <c r="N272" t="s">
+        <v>158</v>
+      </c>
+      <c r="O272" t="s">
+        <v>137</v>
+      </c>
+      <c r="P272" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B273" s="6">
+        <v>45894.768541666665</v>
+      </c>
+      <c r="C273">
+        <v>36</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>157</v>
+      </c>
+      <c r="F273" t="b">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>36</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273" t="s">
+        <v>157</v>
+      </c>
+      <c r="K273" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L273">
+        <v>0.74</v>
+      </c>
+      <c r="N273" t="s">
+        <v>158</v>
+      </c>
+      <c r="O273" t="s">
+        <v>137</v>
+      </c>
+      <c r="P273" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B274" s="6">
+        <v>45895.299895833334</v>
+      </c>
+      <c r="C274">
+        <v>15</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>157</v>
+      </c>
+      <c r="F274" t="b">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>15</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274" t="s">
+        <v>157</v>
+      </c>
+      <c r="K274" t="s">
+        <v>1988</v>
+      </c>
+      <c r="L274">
+        <v>0.43</v>
+      </c>
+      <c r="N274" t="s">
+        <v>158</v>
+      </c>
+      <c r="O274" t="s">
+        <v>137</v>
+      </c>
+      <c r="P274" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B275" s="6">
+        <v>45895.378136574072</v>
+      </c>
+      <c r="C275">
+        <v>30</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>157</v>
+      </c>
+      <c r="F275" t="b">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>30</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275" t="s">
+        <v>157</v>
+      </c>
+      <c r="K275" t="s">
+        <v>1991</v>
+      </c>
+      <c r="L275">
+        <v>0.65</v>
+      </c>
+      <c r="N275" t="s">
+        <v>158</v>
+      </c>
+      <c r="O275" t="s">
+        <v>137</v>
+      </c>
+      <c r="P275" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B276" s="6">
+        <v>45895.42560185185</v>
+      </c>
+      <c r="C276">
+        <v>18</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>157</v>
+      </c>
+      <c r="F276" t="b">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>18</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276" t="s">
+        <v>157</v>
+      </c>
+      <c r="K276" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L276">
+        <v>0.47</v>
+      </c>
+      <c r="N276" t="s">
+        <v>158</v>
+      </c>
+      <c r="O276" t="s">
+        <v>137</v>
+      </c>
+      <c r="P276" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B277" s="6">
+        <v>45895.452037037037</v>
+      </c>
+      <c r="C277">
+        <v>18</v>
+      </c>
+      <c r="E277" t="s">
+        <v>157</v>
+      </c>
+      <c r="O277" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B278" s="6">
+        <v>45895.465833333335</v>
+      </c>
+      <c r="C278">
+        <v>30</v>
+      </c>
+      <c r="E278" t="s">
+        <v>157</v>
+      </c>
+      <c r="O278" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B279" s="6">
+        <v>45895.468344907407</v>
+      </c>
+      <c r="C279">
+        <v>30</v>
+      </c>
+      <c r="E279" t="s">
+        <v>157</v>
+      </c>
+      <c r="O279" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B280" s="6">
+        <v>45895.470937500002</v>
+      </c>
+      <c r="C280">
+        <v>30</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>157</v>
+      </c>
+      <c r="F280" t="b">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>30</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280" t="s">
+        <v>157</v>
+      </c>
+      <c r="K280" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L280">
+        <v>0.65</v>
+      </c>
+      <c r="N280" t="s">
+        <v>158</v>
+      </c>
+      <c r="O280" t="s">
+        <v>137</v>
+      </c>
+      <c r="P280" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B281" s="6">
+        <v>45895.483449074076</v>
+      </c>
+      <c r="C281">
+        <v>36</v>
+      </c>
+      <c r="E281" t="s">
+        <v>157</v>
+      </c>
+      <c r="O281" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B282" s="6">
+        <v>45895.518842592595</v>
+      </c>
+      <c r="C282">
+        <v>36</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>157</v>
+      </c>
+      <c r="F282" t="b">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>36</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282" t="s">
+        <v>157</v>
+      </c>
+      <c r="K282" t="s">
+        <v>2000</v>
+      </c>
+      <c r="L282">
+        <v>0.74</v>
+      </c>
+      <c r="N282" t="s">
+        <v>158</v>
+      </c>
+      <c r="O282" t="s">
+        <v>137</v>
+      </c>
+      <c r="P282" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B283" s="6">
+        <v>45895.53398148148</v>
+      </c>
+      <c r="C283">
+        <v>36</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>157</v>
+      </c>
+      <c r="F283" t="b">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>36</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283" t="s">
+        <v>157</v>
+      </c>
+      <c r="K283" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L283">
+        <v>0.74</v>
+      </c>
+      <c r="N283" t="s">
+        <v>158</v>
+      </c>
+      <c r="O283" t="s">
+        <v>137</v>
+      </c>
+      <c r="P283" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283" t="s">
+        <v>2004</v>
       </c>
     </row>
   </sheetData>
@@ -30279,10 +35810,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0167813-1C3C-42CC-A5D8-7CCC1B587009}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -30457,6 +35988,16 @@
         <v>990</v>
       </c>
     </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>1777</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -30465,10 +36006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="H346" sqref="H346"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="H380" sqref="H380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -37838,7 +43379,7 @@
         <v>700</v>
       </c>
       <c r="F336" s="24">
-        <f t="shared" ref="F336:F345" si="6">F335+E336-D336</f>
+        <f t="shared" ref="F336:F379" si="6">F335+E336-D336</f>
         <v>6034.0200000000068</v>
       </c>
       <c r="G336" t="s">
@@ -38068,6 +43609,807 @@
       </c>
       <c r="H345" t="s">
         <v>1668</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346" s="23">
+        <v>45842</v>
+      </c>
+      <c r="B346" t="s">
+        <v>259</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E346">
+        <v>200</v>
+      </c>
+      <c r="F346" s="24">
+        <f t="shared" si="6"/>
+        <v>4841.8700000000063</v>
+      </c>
+      <c r="G346" t="s">
+        <v>102</v>
+      </c>
+      <c r="H346" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347" s="23">
+        <v>45849</v>
+      </c>
+      <c r="B347" t="s">
+        <v>264</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D347">
+        <v>2016</v>
+      </c>
+      <c r="F347" s="24">
+        <f t="shared" si="6"/>
+        <v>2825.8700000000063</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I347" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348" s="23">
+        <v>45852</v>
+      </c>
+      <c r="B348" t="s">
+        <v>264</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D348">
+        <v>192.5</v>
+      </c>
+      <c r="F348" s="24">
+        <f t="shared" si="6"/>
+        <v>2633.3700000000063</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A349" s="23">
+        <v>45859</v>
+      </c>
+      <c r="B349" t="s">
+        <v>782</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D349">
+        <v>5</v>
+      </c>
+      <c r="F349" s="24">
+        <f t="shared" si="6"/>
+        <v>2628.3700000000063</v>
+      </c>
+      <c r="G349" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A350" s="23">
+        <v>45867</v>
+      </c>
+      <c r="B350" t="s">
+        <v>264</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D350">
+        <v>314</v>
+      </c>
+      <c r="F350" s="24">
+        <f t="shared" si="6"/>
+        <v>2314.3700000000063</v>
+      </c>
+      <c r="G350" t="s">
+        <v>49</v>
+      </c>
+      <c r="H350" t="s">
+        <v>105</v>
+      </c>
+      <c r="I350" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A351" s="23">
+        <v>45867</v>
+      </c>
+      <c r="B351" t="s">
+        <v>264</v>
+      </c>
+      <c r="C351" t="s">
+        <v>982</v>
+      </c>
+      <c r="D351">
+        <v>240</v>
+      </c>
+      <c r="F351" s="24">
+        <f t="shared" si="6"/>
+        <v>2074.3700000000063</v>
+      </c>
+      <c r="G351" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A352" s="23">
+        <v>45869</v>
+      </c>
+      <c r="B352" t="s">
+        <v>264</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D352">
+        <v>186.96</v>
+      </c>
+      <c r="F352" s="24">
+        <f t="shared" si="6"/>
+        <v>1887.4100000000062</v>
+      </c>
+      <c r="G352" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A353" s="23">
+        <v>45870</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D353">
+        <v>240</v>
+      </c>
+      <c r="F353" s="24">
+        <f t="shared" si="6"/>
+        <v>1647.4100000000062</v>
+      </c>
+      <c r="G353" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A354" s="23">
+        <v>45883</v>
+      </c>
+      <c r="B354" t="s">
+        <v>259</v>
+      </c>
+      <c r="C354" t="s">
+        <v>501</v>
+      </c>
+      <c r="E354">
+        <v>153</v>
+      </c>
+      <c r="F354" s="24">
+        <f t="shared" si="6"/>
+        <v>1800.4100000000062</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1</v>
+      </c>
+      <c r="H354" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A355" s="23">
+        <v>45884</v>
+      </c>
+      <c r="B355" t="s">
+        <v>259</v>
+      </c>
+      <c r="C355" t="s">
+        <v>501</v>
+      </c>
+      <c r="E355">
+        <v>191.21</v>
+      </c>
+      <c r="F355" s="24">
+        <f t="shared" si="6"/>
+        <v>1991.6200000000063</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1</v>
+      </c>
+      <c r="H355" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A356" s="23">
+        <v>45887</v>
+      </c>
+      <c r="B356" t="s">
+        <v>259</v>
+      </c>
+      <c r="C356" t="s">
+        <v>501</v>
+      </c>
+      <c r="E356">
+        <v>170.05</v>
+      </c>
+      <c r="F356" s="24">
+        <f t="shared" si="6"/>
+        <v>2161.6700000000064</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1</v>
+      </c>
+      <c r="H356" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A357" s="23">
+        <v>45888</v>
+      </c>
+      <c r="B357" t="s">
+        <v>259</v>
+      </c>
+      <c r="C357" t="s">
+        <v>501</v>
+      </c>
+      <c r="E357">
+        <v>88.05</v>
+      </c>
+      <c r="F357" s="24">
+        <f t="shared" si="6"/>
+        <v>2249.7200000000066</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1</v>
+      </c>
+      <c r="H357" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A358" s="23">
+        <v>45889</v>
+      </c>
+      <c r="B358" t="s">
+        <v>259</v>
+      </c>
+      <c r="C358" t="s">
+        <v>501</v>
+      </c>
+      <c r="E358">
+        <v>70.52</v>
+      </c>
+      <c r="F358" s="24">
+        <f t="shared" si="6"/>
+        <v>2320.2400000000066</v>
+      </c>
+      <c r="G358" t="s">
+        <v>1</v>
+      </c>
+      <c r="H358" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A359" s="23">
+        <v>45890</v>
+      </c>
+      <c r="B359" t="s">
+        <v>259</v>
+      </c>
+      <c r="C359" t="s">
+        <v>501</v>
+      </c>
+      <c r="E359">
+        <v>369.16</v>
+      </c>
+      <c r="F359" s="24">
+        <f t="shared" si="6"/>
+        <v>2689.4000000000065</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1</v>
+      </c>
+      <c r="H359" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A360" s="23">
+        <v>45890</v>
+      </c>
+      <c r="B360" t="s">
+        <v>782</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="F360" s="24">
+        <f t="shared" si="6"/>
+        <v>2684.4000000000065</v>
+      </c>
+      <c r="G360" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A361" s="23">
+        <v>45891</v>
+      </c>
+      <c r="B361" t="s">
+        <v>259</v>
+      </c>
+      <c r="C361" t="s">
+        <v>501</v>
+      </c>
+      <c r="E361">
+        <v>70.52</v>
+      </c>
+      <c r="F361" s="24">
+        <f t="shared" si="6"/>
+        <v>2754.9200000000064</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1</v>
+      </c>
+      <c r="H361" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A362" s="23">
+        <v>45895</v>
+      </c>
+      <c r="B362" t="s">
+        <v>264</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D362">
+        <v>280</v>
+      </c>
+      <c r="F362" s="24">
+        <f t="shared" si="6"/>
+        <v>2474.9200000000064</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A363" s="23">
+        <v>45895</v>
+      </c>
+      <c r="B363" t="s">
+        <v>259</v>
+      </c>
+      <c r="C363" t="s">
+        <v>501</v>
+      </c>
+      <c r="E363">
+        <v>99.73</v>
+      </c>
+      <c r="F363" s="24">
+        <f t="shared" si="6"/>
+        <v>2574.6500000000065</v>
+      </c>
+      <c r="G363" t="s">
+        <v>1</v>
+      </c>
+      <c r="H363" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A364" s="23">
+        <v>45896</v>
+      </c>
+      <c r="B364" t="s">
+        <v>259</v>
+      </c>
+      <c r="C364" t="s">
+        <v>501</v>
+      </c>
+      <c r="E364">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="F364" s="24">
+        <f t="shared" si="6"/>
+        <v>2611.9200000000064</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1</v>
+      </c>
+      <c r="H364" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A365" s="23">
+        <v>45897</v>
+      </c>
+      <c r="B365" t="s">
+        <v>259</v>
+      </c>
+      <c r="C365" t="s">
+        <v>501</v>
+      </c>
+      <c r="E365">
+        <v>175.7</v>
+      </c>
+      <c r="F365" s="24">
+        <f t="shared" si="6"/>
+        <v>2787.6200000000063</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1</v>
+      </c>
+      <c r="H365" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A366" s="23">
+        <v>45898</v>
+      </c>
+      <c r="B366" t="s">
+        <v>259</v>
+      </c>
+      <c r="C366" t="s">
+        <v>501</v>
+      </c>
+      <c r="E366">
+        <v>531.04</v>
+      </c>
+      <c r="F366" s="24">
+        <f t="shared" si="6"/>
+        <v>3318.6600000000062</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1</v>
+      </c>
+      <c r="H366" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A367" s="23">
+        <v>45901</v>
+      </c>
+      <c r="B367" t="s">
+        <v>259</v>
+      </c>
+      <c r="C367" t="s">
+        <v>501</v>
+      </c>
+      <c r="E367">
+        <v>298.99</v>
+      </c>
+      <c r="F367" s="24">
+        <f t="shared" si="6"/>
+        <v>3617.650000000006</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1</v>
+      </c>
+      <c r="H367" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A368" s="23">
+        <v>45902</v>
+      </c>
+      <c r="B368" t="s">
+        <v>259</v>
+      </c>
+      <c r="C368" t="s">
+        <v>501</v>
+      </c>
+      <c r="E368">
+        <v>187.71</v>
+      </c>
+      <c r="F368" s="24">
+        <f t="shared" si="6"/>
+        <v>3805.360000000006</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1</v>
+      </c>
+      <c r="H368" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A369" s="23">
+        <v>45903</v>
+      </c>
+      <c r="B369" t="s">
+        <v>259</v>
+      </c>
+      <c r="C369" t="s">
+        <v>501</v>
+      </c>
+      <c r="E369">
+        <v>126.06</v>
+      </c>
+      <c r="F369" s="24">
+        <f t="shared" si="6"/>
+        <v>3931.420000000006</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1</v>
+      </c>
+      <c r="H369" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A370" s="23">
+        <v>45904</v>
+      </c>
+      <c r="B370" t="s">
+        <v>259</v>
+      </c>
+      <c r="C370" t="s">
+        <v>501</v>
+      </c>
+      <c r="E370">
+        <v>782.89</v>
+      </c>
+      <c r="F370" s="24">
+        <f t="shared" si="6"/>
+        <v>4714.3100000000059</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1</v>
+      </c>
+      <c r="H370" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A371" s="23">
+        <v>45905</v>
+      </c>
+      <c r="B371" t="s">
+        <v>259</v>
+      </c>
+      <c r="C371" t="s">
+        <v>501</v>
+      </c>
+      <c r="E371">
+        <v>425.46</v>
+      </c>
+      <c r="F371" s="24">
+        <f t="shared" si="6"/>
+        <v>5139.7700000000059</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1</v>
+      </c>
+      <c r="H371" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A372" s="23">
+        <v>45908</v>
+      </c>
+      <c r="B372" t="s">
+        <v>264</v>
+      </c>
+      <c r="C372" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D372">
+        <v>40.75</v>
+      </c>
+      <c r="F372" s="24">
+        <f t="shared" si="6"/>
+        <v>5099.0200000000059</v>
+      </c>
+      <c r="G372" t="s">
+        <v>7</v>
+      </c>
+      <c r="H372" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A373" s="23">
+        <v>45908</v>
+      </c>
+      <c r="B373" t="s">
+        <v>259</v>
+      </c>
+      <c r="C373" t="s">
+        <v>501</v>
+      </c>
+      <c r="E373">
+        <v>460.12</v>
+      </c>
+      <c r="F373" s="24">
+        <f t="shared" si="6"/>
+        <v>5559.1400000000058</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1</v>
+      </c>
+      <c r="H373" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A374" s="23">
+        <v>45908</v>
+      </c>
+      <c r="B374" t="s">
+        <v>259</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E374">
+        <v>30</v>
+      </c>
+      <c r="F374" s="24">
+        <f t="shared" si="6"/>
+        <v>5589.1400000000058</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1</v>
+      </c>
+      <c r="H374" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A375" s="23">
+        <v>45909</v>
+      </c>
+      <c r="B375" t="s">
+        <v>259</v>
+      </c>
+      <c r="C375" t="s">
+        <v>501</v>
+      </c>
+      <c r="E375">
+        <v>436.8</v>
+      </c>
+      <c r="F375" s="24">
+        <f t="shared" si="6"/>
+        <v>6025.940000000006</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1</v>
+      </c>
+      <c r="H375" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A376" s="23">
+        <v>45910</v>
+      </c>
+      <c r="B376" t="s">
+        <v>259</v>
+      </c>
+      <c r="C376" t="s">
+        <v>501</v>
+      </c>
+      <c r="E376">
+        <v>554.41</v>
+      </c>
+      <c r="F376" s="24">
+        <f t="shared" si="6"/>
+        <v>6580.3500000000058</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1</v>
+      </c>
+      <c r="H376" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A377" s="23">
+        <v>45911</v>
+      </c>
+      <c r="B377" t="s">
+        <v>259</v>
+      </c>
+      <c r="C377" t="s">
+        <v>501</v>
+      </c>
+      <c r="E377">
+        <v>2170.2800000000002</v>
+      </c>
+      <c r="F377" s="24">
+        <f t="shared" si="6"/>
+        <v>8750.6300000000065</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1</v>
+      </c>
+      <c r="H377" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A378" s="23">
+        <v>45916</v>
+      </c>
+      <c r="B378" t="s">
+        <v>264</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D378">
+        <v>30</v>
+      </c>
+      <c r="F378" s="24">
+        <f t="shared" si="6"/>
+        <v>8720.6300000000065</v>
+      </c>
+      <c r="G378" t="s">
+        <v>145</v>
+      </c>
+      <c r="H378" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A379" s="23">
+        <v>45916</v>
+      </c>
+      <c r="B379" t="s">
+        <v>264</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D379">
+        <v>200</v>
+      </c>
+      <c r="F379" s="24">
+        <f t="shared" si="6"/>
+        <v>8520.6300000000065</v>
+      </c>
+      <c r="G379" t="s">
+        <v>10</v>
+      </c>
+      <c r="H379" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -44184,10 +50526,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FE514B-3795-4629-A000-D0748981309D}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -44271,6 +50613,14 @@
         <v>670</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44279,10 +50629,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8BED0-6F25-4951-9707-565F124E30A4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -44341,7 +50691,7 @@
         <v>36.21</v>
       </c>
       <c r="F3" s="27">
-        <f t="shared" ref="F3:F8" si="0">F2+E3-D3</f>
+        <f t="shared" ref="F3:F11" si="0">F2+E3-D3</f>
         <v>22713.059999999998</v>
       </c>
       <c r="G3" t="s">
@@ -44450,6 +50800,69 @@
         <v>22876.059999999998</v>
       </c>
       <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
+        <v>45855</v>
+      </c>
+      <c r="B9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E9">
+        <v>30.84</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="0"/>
+        <v>22906.899999999998</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="23">
+        <v>45886</v>
+      </c>
+      <c r="B10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E10">
+        <v>30.48</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="0"/>
+        <v>22937.379999999997</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="23">
+        <v>45917</v>
+      </c>
+      <c r="B11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E11">
+        <v>29.61</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="0"/>
+        <v>22966.989999999998</v>
+      </c>
+      <c r="G11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -44472,7 +50885,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEAEDB9-0FE6-48E6-8096-45942EADC73F}">
-  <dimension ref="A3:C28"/>
+  <dimension ref="A3:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -44713,20 +51126,24 @@
       <c r="A4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="43">
         <v>6618.8800000000019</v>
       </c>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>84</v>
       </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
         <v>255</v>
       </c>
     </row>
@@ -44734,7 +51151,8 @@
       <c r="A7" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43">
         <v>779.79</v>
       </c>
     </row>
@@ -44742,23 +51160,26 @@
       <c r="A8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C8">
-        <v>126.07</v>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43">
+        <v>123.32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="43">
         <v>230</v>
       </c>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43">
         <v>200</v>
       </c>
     </row>
@@ -44766,7 +51187,8 @@
       <c r="A11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
         <v>132</v>
       </c>
     </row>
@@ -44774,15 +51196,17 @@
       <c r="A12" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="C12">
-        <v>450</v>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43">
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
         <v>105.89</v>
       </c>
     </row>
@@ -44790,7 +51214,8 @@
       <c r="A14" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43">
         <v>812.5</v>
       </c>
     </row>
@@ -44798,58 +51223,64 @@
       <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
-        <v>1360.28</v>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43">
+        <v>1401.03</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="43">
         <v>1.77</v>
       </c>
+      <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
-        <v>2700.95</v>
-      </c>
+      <c r="B17" s="43">
+        <v>10129.92</v>
+      </c>
+      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C18">
-        <v>612.28</v>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43">
+        <v>926.28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="43">
         <v>239.97</v>
       </c>
-      <c r="C19">
-        <v>30</v>
+      <c r="C19" s="43">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
-        <v>600</v>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43">
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43">
         <v>613.22</v>
       </c>
     </row>
@@ -44857,15 +51288,17 @@
       <c r="A22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="43">
         <v>8215.3100000000013</v>
       </c>
+      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C23">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43">
         <v>5920.5</v>
       </c>
     </row>
@@ -44873,15 +51306,17 @@
       <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C24">
-        <v>2626.8</v>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43">
+        <v>2748.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43">
         <v>1500</v>
       </c>
     </row>
@@ -44889,7 +51324,10 @@
       <c r="A26" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C26">
+      <c r="B26" s="43">
+        <v>200</v>
+      </c>
+      <c r="C26" s="43">
         <v>2652.1099999999997</v>
       </c>
     </row>
@@ -44897,19 +51335,47 @@
       <c r="A27" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>225</v>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43">
+        <v>303.10000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43">
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43">
+        <v>186.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B28">
-        <v>18006.880000000005</v>
-      </c>
-      <c r="C28">
-        <v>19001.439999999999</v>
+      <c r="B31" s="43">
+        <v>25635.850000000006</v>
+      </c>
+      <c r="C31" s="43">
+        <v>22939.1</v>
       </c>
     </row>
   </sheetData>
@@ -44921,8 +51387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FA1291-B9CE-4F7D-8600-2336ADED0E75}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -44955,7 +51421,8 @@
       <c r="A4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43">
         <v>1500</v>
       </c>
       <c r="E4" t="s">
@@ -44966,7 +51433,8 @@
       <c r="A5" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43">
         <v>25.4</v>
       </c>
       <c r="E5" t="s">
@@ -44986,7 +51454,8 @@
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
         <v>200</v>
       </c>
       <c r="E6" t="s">
@@ -45006,7 +51475,8 @@
       <c r="A7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43">
         <v>368</v>
       </c>
       <c r="E7" t="s">
@@ -45023,7 +51493,8 @@
       <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43">
         <v>15</v>
       </c>
       <c r="E8" t="s">
@@ -45042,15 +51513,17 @@
       <c r="A9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="43">
         <v>8215.31</v>
       </c>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43">
         <v>5920.5</v>
       </c>
     </row>
@@ -45058,9 +51531,10 @@
       <c r="A11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="43">
         <v>2443.5300000000007</v>
       </c>
+      <c r="C11" s="43"/>
       <c r="E11" t="s">
         <v>1646</v>
       </c>
@@ -45076,7 +51550,8 @@
       <c r="A12" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43">
         <v>1952.11</v>
       </c>
       <c r="E12">
@@ -45088,7 +51563,8 @@
       <c r="A13" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
         <v>543.61</v>
       </c>
     </row>
@@ -45096,10 +51572,10 @@
       <c r="A14" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="43">
         <v>239.97</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="43">
         <v>30</v>
       </c>
     </row>
@@ -45107,7 +51583,8 @@
       <c r="A15" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43">
         <v>1500</v>
       </c>
     </row>
@@ -45115,10 +51592,10 @@
       <c r="A16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="43">
         <v>10898.81</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="43">
         <v>12054.62</v>
       </c>
     </row>
@@ -45127,7 +51604,7 @@
         <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>1668</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -45143,84 +51620,67 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43">
         <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24">
-        <v>1126.8</v>
+        <v>49</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43">
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B25" s="43">
+        <v>7428.9700000000012</v>
+      </c>
+      <c r="C25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>400</v>
+        <v>7</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43">
+        <v>40.75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27">
-        <v>69.28</v>
+        <v>145</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>257.41999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30">
-        <v>236.18</v>
+        <v>83</v>
+      </c>
+      <c r="B28" s="43">
+        <v>7428.9700000000012</v>
+      </c>
+      <c r="C28" s="43">
+        <v>584.75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31">
-        <v>457.41999999999996</v>
-      </c>
-      <c r="C31">
-        <v>2582.2599999999998</v>
-      </c>
       <c r="E31" t="s">
         <v>1765</v>
       </c>
       <c r="F31">
         <f>GETPIVOTDATA("Sum of Expenditure",$A$22)-GETPIVOTDATA("Sum of Income",$A$22)</f>
-        <v>2124.8399999999997</v>
+        <v>-6844.2200000000012</v>
       </c>
     </row>
   </sheetData>

--- a/OAS 2025.xlsx
+++ b/OAS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\OAS\OAS_Finances_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9A767C-DB06-41C1-A77A-B421C3223D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED0A85-3611-4F5E-920F-4E3948699060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9847" firstSheet="4" activeTab="6" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{E6A7689A-682B-425D-92A3-B87F804748A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -36,8 +36,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId15"/>
-    <pivotCache cacheId="3" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="9" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6600" uniqueCount="2321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6607" uniqueCount="2322">
   <si>
     <t>Subs</t>
   </si>
@@ -7022,6 +7022,9 @@
   </si>
   <si>
     <t>Invoice 1027617, poster encapsulation</t>
+  </si>
+  <si>
+    <t>Domain name</t>
   </si>
 </sst>
 </file>
@@ -7206,7 +7209,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -7261,6 +7264,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7421,13 +7425,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45962.842483333334" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="455" xr:uid="{8670B9A0-D18C-48F4-9D62-CC165A896835}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Barron" refreshedDate="45966.877235879627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="457" xr:uid="{8670B9A0-D18C-48F4-9D62-CC165A896835}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I750" sheet="Current account"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-11-02T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-01T00:00:00" maxDate="2025-11-05T00:00:00"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -12502,7 +12506,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="455">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="457">
   <r>
     <d v="2025-01-01T00:00:00"/>
     <m/>
@@ -17498,6 +17502,28 @@
     <s v="Invoice 1027617, poster encapsulation"/>
   </r>
   <r>
+    <d v="2025-11-03T00:00:00"/>
+    <s v="SO"/>
+    <s v="JEREMY MORGAN OAS"/>
+    <n v="240"/>
+    <m/>
+    <n v="9009.1100000000024"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-11-04T00:00:00"/>
+    <s v="BP"/>
+    <s v="Sarah Dearling OAS"/>
+    <n v="15.59"/>
+    <m/>
+    <n v="8993.5200000000023"/>
+    <x v="11"/>
+    <m/>
+    <s v="Domain name"/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -17512,7 +17538,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A161C15E-4B91-405B-9C74-C155CFC49E46}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A161C15E-4B91-405B-9C74-C155CFC49E46}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -17677,7 +17703,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="34">
+        <item x="21"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item m="1" x="30"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item m="1" x="29"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item m="1" x="32"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item m="1" x="31"/>
+        <item x="22"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item m="1" x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88CC6FF2-D2D5-4EC7-9086-AAE36B3B0E13}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="15" showAll="0"/>
@@ -17795,139 +17954,6 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="7" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Expenditure" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FE7C9AF-75EF-4873-8F1B-0F70A39EEC38}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="34">
-        <item x="21"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item m="1" x="30"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item m="1" x="29"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item m="1" x="32"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item m="1" x="31"/>
-        <item x="22"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item m="1" x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Income" fld="4" baseField="0" baseItem="0"/>
@@ -42700,10 +42726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956F534-76F9-4C2C-AE0C-5DBCF3D7B234}">
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:I457"/>
   <sheetViews>
-    <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="I456" sqref="I456"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="G457" sqref="G457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -51679,7 +51705,7 @@
         <v>20</v>
       </c>
       <c r="F402" s="24">
-        <f t="shared" ref="F402:F455" si="7">F401+E402-D402</f>
+        <f t="shared" ref="F402:F457" si="7">F401+E402-D402</f>
         <v>14557.980000000003</v>
       </c>
       <c r="G402" t="s">
@@ -52965,6 +52991,51 @@
       </c>
       <c r="I455" t="s">
         <v>2320</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A456" s="23">
+        <v>45964</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D456">
+        <v>240</v>
+      </c>
+      <c r="F456" s="24">
+        <f t="shared" si="7"/>
+        <v>9009.1100000000024</v>
+      </c>
+      <c r="G456" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A457" s="23">
+        <v>45965</v>
+      </c>
+      <c r="B457" t="s">
+        <v>262</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D457">
+        <v>15.59</v>
+      </c>
+      <c r="F457" s="24">
+        <f t="shared" si="7"/>
+        <v>8993.5200000000023</v>
+      </c>
+      <c r="G457" t="s">
+        <v>7</v>
+      </c>
+      <c r="I457" t="s">
+        <v>2321</v>
       </c>
     </row>
   </sheetData>
@@ -59184,7 +59255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8BED0-6F25-4951-9707-565F124E30A4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -59700,20 +59771,24 @@
       <c r="A4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="48">
         <v>6648.8800000000019</v>
       </c>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>84</v>
       </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48">
         <v>1105</v>
       </c>
     </row>
@@ -59721,7 +59796,8 @@
       <c r="A7" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48">
         <v>779.79</v>
       </c>
     </row>
@@ -59729,7 +59805,8 @@
       <c r="A8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48">
         <v>444.82000000000005</v>
       </c>
     </row>
@@ -59737,15 +59814,17 @@
       <c r="A9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="48">
         <v>230</v>
       </c>
+      <c r="C9" s="48"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48">
         <v>200</v>
       </c>
     </row>
@@ -59753,7 +59832,8 @@
       <c r="A11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48">
         <v>132</v>
       </c>
     </row>
@@ -59761,15 +59841,17 @@
       <c r="A12" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="C12">
-        <v>1170</v>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48">
+        <v>1410</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48">
         <v>127.53999999999999</v>
       </c>
     </row>
@@ -59777,7 +59859,8 @@
       <c r="A14" s="26" t="s">
         <v>988</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48">
         <v>812.5</v>
       </c>
     </row>
@@ -59785,31 +59868,35 @@
       <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
-        <v>1881.03</v>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48">
+        <v>1896.62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="48">
         <v>852.75</v>
       </c>
+      <c r="C16" s="48"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="48">
         <v>10129.92</v>
       </c>
+      <c r="C17" s="48"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C18">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48">
         <v>1161.68</v>
       </c>
     </row>
@@ -59817,10 +59904,10 @@
       <c r="A19" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="48">
         <v>590.42000000000007</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="48">
         <v>502.44</v>
       </c>
     </row>
@@ -59828,7 +59915,8 @@
       <c r="A20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48">
         <v>800</v>
       </c>
     </row>
@@ -59836,7 +59924,8 @@
       <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48">
         <v>613.22</v>
       </c>
     </row>
@@ -59844,10 +59933,10 @@
       <c r="A22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="48">
         <v>18820.420000000002</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="48">
         <v>20</v>
       </c>
     </row>
@@ -59855,7 +59944,8 @@
       <c r="A23" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C23">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48">
         <v>13911.75</v>
       </c>
     </row>
@@ -59863,7 +59953,8 @@
       <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C24">
+      <c r="B24" s="48"/>
+      <c r="C24" s="48">
         <v>3498.9</v>
       </c>
     </row>
@@ -59871,7 +59962,8 @@
       <c r="A25" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C25">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48">
         <v>1500</v>
       </c>
     </row>
@@ -59879,10 +59971,10 @@
       <c r="A26" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="48">
         <v>200</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="48">
         <v>2140</v>
       </c>
     </row>
@@ -59890,7 +59982,8 @@
       <c r="A27" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48">
         <v>303.10000000000002</v>
       </c>
     </row>
@@ -59898,7 +59991,8 @@
       <c r="A28" s="26" t="s">
         <v>1774</v>
       </c>
-      <c r="C28">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48">
         <v>2296</v>
       </c>
     </row>
@@ -59906,7 +60000,8 @@
       <c r="A29" s="26" t="s">
         <v>1775</v>
       </c>
-      <c r="C29">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48">
         <v>192.5</v>
       </c>
     </row>
@@ -59914,7 +60009,8 @@
       <c r="A30" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C30">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48">
         <v>219.54000000000002</v>
       </c>
     </row>
@@ -59922,7 +60018,8 @@
       <c r="A31" s="26" t="s">
         <v>2280</v>
       </c>
-      <c r="C31">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48">
         <v>235.35</v>
       </c>
     </row>
@@ -59930,11 +60027,11 @@
       <c r="A32" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="48">
         <v>37472.39</v>
       </c>
-      <c r="C32">
-        <v>34047.159999999996</v>
+      <c r="C32" s="48">
+        <v>34302.75</v>
       </c>
     </row>
   </sheetData>
